--- a/public/storage/seeds/datosPassword.xlsx
+++ b/public/storage/seeds/datosPassword.xlsx
@@ -44,7 +44,7 @@
     <t>angie.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZhYkYIFZ</t>
+    <t>K1/Pl4T&amp;</t>
   </si>
   <si>
     <t>ALCIVAR VERA KARLA MILENA</t>
@@ -53,7 +53,7 @@
     <t>karla.alcivar.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>bAcZ69fS</t>
+    <t>wQe7RI!r</t>
   </si>
   <si>
     <t>ALVIA ROCA HENRY ISAAC</t>
@@ -65,7 +65,7 @@
     <t>henry.alvia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>fHYLzZkb</t>
+    <t>8BWYfaK4</t>
   </si>
   <si>
     <t>ANANGONO GOMEZ ANA MARCELA</t>
@@ -74,7 +74,7 @@
     <t>ana.anangono.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>IPgur&amp;hL</t>
+    <t>XU0D0sFm</t>
   </si>
   <si>
     <t>BRAVO MARCILLO NATHALY SILVANA</t>
@@ -86,7 +86,7 @@
     <t>nathaly.bravo.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>/P1&amp;kFNi</t>
+    <t>EI1xPZZY</t>
   </si>
   <si>
     <t>BRIONES SUAREZ DANIA MELISSA</t>
@@ -95,7 +95,7 @@
     <t>dania.briones.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>u6ku6O8Y</t>
+    <t>BbPVyW!4</t>
   </si>
   <si>
     <t>CANCHINGRE LOZA MARIANA DE JESUS</t>
@@ -107,7 +107,7 @@
     <t>mariana.canchingre.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>j3JHFIol</t>
+    <t>!pS9qRfI</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA EMILY JAHAIRA</t>
@@ -116,7 +116,7 @@
     <t>emily.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>sxr3&amp;4Su</t>
+    <t>oXT4rSCZ</t>
   </si>
   <si>
     <t>CEDEÑO VELEZ STEVEN ANTONIO</t>
@@ -125,7 +125,7 @@
     <t>steven.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>rNkVqfQC</t>
+    <t>HE#BKeiK</t>
   </si>
   <si>
     <t>CHICA ORDOÑEZ YAIZA ANAHI</t>
@@ -134,7 +134,7 @@
     <t>yaiza.chica.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>efiDRWo7</t>
+    <t>OAGYoPJM</t>
   </si>
   <si>
     <t>CORONEL MERO DAMARY SABRINA</t>
@@ -143,7 +143,7 @@
     <t>damary.coronel.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>3ARYHii&amp;</t>
+    <t>JgxskBUw</t>
   </si>
   <si>
     <t>DELGADO BENAVIDES MELISSA ANDREINA</t>
@@ -152,7 +152,7 @@
     <t>melissa.delgado.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>qeZlGDU&amp;</t>
+    <t>lWkp25?K</t>
   </si>
   <si>
     <t>DELGADO SOLORZANO TONY DAMIAN</t>
@@ -161,7 +161,7 @@
     <t>tony.delgado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>K9foWJUX</t>
+    <t>/xM7mmwt</t>
   </si>
   <si>
     <t>ELENO GENDE JOSELYN KATHERINE</t>
@@ -173,7 +173,7 @@
     <t>joselyn.eleno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>za2JZo9c</t>
+    <t>HiUMReML</t>
   </si>
   <si>
     <t>GARCIA RIVERA ANGHELA LISBETH</t>
@@ -185,7 +185,7 @@
     <t>anghela.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>#PpWiw4q</t>
+    <t>45NTek1B</t>
   </si>
   <si>
     <t>GARCIA ROSS PRISCILA TAHILY</t>
@@ -194,7 +194,7 @@
     <t>priscila.garcia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>BUD2uFbz</t>
+    <t>6xNEhk6&amp;</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO MARILYN MICHEL</t>
@@ -203,7 +203,7 @@
     <t>marilyn.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>voGKglEq</t>
+    <t>FTj6mTjO</t>
   </si>
   <si>
     <t>LUCAS MENDOZA MOISES NOE</t>
@@ -212,7 +212,7 @@
     <t>moises.lucas.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2beEnGR&amp;</t>
+    <t>lfXcpJ8f</t>
   </si>
   <si>
     <t>MANTUANO LOOR JENIFER DANIELA</t>
@@ -221,7 +221,7 @@
     <t>jenifer.mantuano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>akOHcYhF</t>
+    <t>hy?T4ciZ</t>
   </si>
   <si>
     <t>MENENDEZ SANTANA JOSMELY ANAHI</t>
@@ -230,7 +230,7 @@
     <t>josmely.menendez.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ILfnXwVg</t>
+    <t>tBjaDrqn</t>
   </si>
   <si>
     <t>MEZA ESPINOZA MISHEL NICOL</t>
@@ -239,7 +239,7 @@
     <t>mishel.meza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>PLzaFSrm</t>
+    <t>!V?76YOl</t>
   </si>
   <si>
     <t>MORANTE TROYA JAIME ANDRES</t>
@@ -248,7 +248,7 @@
     <t>jaime.morante.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>E&amp;J5Q?ll</t>
+    <t>foSfGxo2</t>
   </si>
   <si>
     <t>PARRAGA MOREIRA CINDY ANDREA</t>
@@ -257,7 +257,7 @@
     <t>cindy.parraga.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pt5WQwFZ</t>
+    <t>&amp;QCABPAh</t>
   </si>
   <si>
     <t>PEÑAFIEL VALENCIA JULEISY LISBETH</t>
@@ -269,7 +269,7 @@
     <t>juleisy.penafiel.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>tJP9zTq3</t>
+    <t>bU02F3og</t>
   </si>
   <si>
     <t>PICO CRIOLLO MILETH KATHERINE</t>
@@ -278,7 +278,7 @@
     <t>mileth.pico.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>hJ0/gABV</t>
+    <t>9GgQDGmV</t>
   </si>
   <si>
     <t>RENDON GILER JUNIOR ARIEL</t>
@@ -287,7 +287,7 @@
     <t>junior.rendon@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;cYd8SiB</t>
+    <t>4J47Jla1</t>
   </si>
   <si>
     <t>SALVATIERRA SANTOS BRYAN ALEJANDRO</t>
@@ -296,7 +296,7 @@
     <t>bryan.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q4!Jl291</t>
+    <t>tFkwbeZD</t>
   </si>
   <si>
     <t>SOLORZANO LUCAS ALEXANDER JOEL</t>
@@ -308,7 +308,7 @@
     <t>alexander.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>QzL70eTL</t>
+    <t>2TA6g??T</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ DAYANA NICOLLE</t>
@@ -317,7 +317,7 @@
     <t>dayanna.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>swgErjHy</t>
+    <t>56TqNrgZ</t>
   </si>
   <si>
     <t>TENORIO QUINTERO ELY GILMAR</t>
@@ -329,7 +329,7 @@
     <t>ely.tenorio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>RKe3EVrb</t>
+    <t>xQTveMpW</t>
   </si>
   <si>
     <t>VELASQUEZ DOMINGUEZ JORDAN RICARDO</t>
@@ -338,7 +338,7 @@
     <t>jordan.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>keI5e7E4</t>
+    <t>SmAB01pz</t>
   </si>
   <si>
     <t>VILLAVICENCIO SALVADOR MELANIE HELLAIM</t>
@@ -350,7 +350,7 @@
     <t>melanie.villavicencio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>5iQuB?RX</t>
+    <t>o!IT!9QD</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO ANGELO ALEXANDER</t>
@@ -359,7 +359,7 @@
     <t>angelo.zambrano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>!Qzht?Zc</t>
+    <t>W9I2kUsv</t>
   </si>
   <si>
     <t>ZAMBRANO VALENCIA SHIRLEY EDITH</t>
@@ -368,7 +368,7 @@
     <t>shirley.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mwmsOq2i</t>
+    <t>FWUkhAzC</t>
   </si>
   <si>
     <t>ANGEL GOMEZ GILENY NAHOMY</t>
@@ -380,7 +380,7 @@
     <t>gileny.angel.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>8ZCL1#8r</t>
+    <t>4rm7n2bm</t>
   </si>
   <si>
     <t>BARRE QUIJANO DARWIN JOSE</t>
@@ -389,7 +389,7 @@
     <t>darwin.barre@espam.edu.ec</t>
   </si>
   <si>
-    <t>cKNyo&amp;pl</t>
+    <t>wNVGMdzN</t>
   </si>
   <si>
     <t>BRAVO ALVAREZ EMILY JESUS</t>
@@ -398,7 +398,7 @@
     <t>emily.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>u2Vhu6E9</t>
+    <t>?FrC2DBv</t>
   </si>
   <si>
     <t>CAGUA YOONG NAHOMY JAMILETH</t>
@@ -407,7 +407,7 @@
     <t>nahomy.cagua.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FjqJ#QAz</t>
+    <t>ur//BSwk</t>
   </si>
   <si>
     <t>CASTILLO CEDEÑO EMILIA MARICELA</t>
@@ -416,7 +416,7 @@
     <t>emilia.castillo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>UP&amp;!&amp;sZb</t>
+    <t>ffat?yFP</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO JOSE DANIEL</t>
@@ -425,7 +425,7 @@
     <t>jose.cedenoz.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>v06AEiP0</t>
+    <t>H7Cd7ydF</t>
   </si>
   <si>
     <t>CIFUENTES VELASQUEZ JOSE JAHIR</t>
@@ -434,7 +434,7 @@
     <t>jose.cifuentes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>lNZ##7DC</t>
+    <t>5Fw4K&amp;GP</t>
   </si>
   <si>
     <t>CONFORME CIFUENTES ROBERTH JESUS</t>
@@ -443,7 +443,7 @@
     <t>roberth.conforme.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>rt4x&amp;kAz</t>
+    <t>9rnz8LzZ</t>
   </si>
   <si>
     <t>CORDERO GILER SALMA PAOLA</t>
@@ -452,7 +452,7 @@
     <t>salma.cordero.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ym0d1enW</t>
+    <t>fkC8r/zc</t>
   </si>
   <si>
     <t>FARIAS VELIZ RENE OCTAVIO</t>
@@ -461,7 +461,7 @@
     <t>rene.farias.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>UltQYZZP</t>
+    <t>QJI/Q0K!</t>
   </si>
   <si>
     <t>GARCIA DUEÑAS JEAN FERNANDO</t>
@@ -470,7 +470,7 @@
     <t>jean.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>zRHvfUKE</t>
+    <t>NYfXH0Md</t>
   </si>
   <si>
     <t>HERRERA BASURTO IVIS ANTONELLA</t>
@@ -479,7 +479,7 @@
     <t>ivis.herrera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>TE/k/U2j</t>
+    <t>QS8QmKNq</t>
   </si>
   <si>
     <t>HIDALGO LOOR MARLYN NALLELY</t>
@@ -488,7 +488,7 @@
     <t>marlyn.hidalgo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Sjhpo1s#</t>
+    <t>m7DXaMCv</t>
   </si>
   <si>
     <t>IBARRA CHAVARRIA JUAN DIEGO</t>
@@ -497,7 +497,7 @@
     <t>juan.ibarra.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>l2EpvMD5</t>
+    <t>G&amp;rYuBOx</t>
   </si>
   <si>
     <t>JAYA ZAPATA VICTOR EDUARDO</t>
@@ -506,7 +506,7 @@
     <t>victor.jaya.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZDuRegei</t>
+    <t>HtRfXgIQ</t>
   </si>
   <si>
     <t>LOOR DELGADO JERRY JOEL</t>
@@ -515,7 +515,7 @@
     <t>jerry.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>YsztbMqt</t>
+    <t>BOX&amp;yyft</t>
   </si>
   <si>
     <t>MANTUANO PONCE MELANY MONCERRATE</t>
@@ -524,7 +524,7 @@
     <t>melany.mantuano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>kB7P/krM</t>
+    <t>wxVhdSuT</t>
   </si>
   <si>
     <t>MENDOZA VASQUEZ ARIEL ALEXIS</t>
@@ -536,7 +536,7 @@
     <t>ariel.mendoza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ksf0?FNT</t>
+    <t>4NMr1pQy</t>
   </si>
   <si>
     <t>MOREIRA GARCIA MACARIO EMANUEL</t>
@@ -545,7 +545,7 @@
     <t>macario.moreira.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;bH1z/PF</t>
+    <t>qNVnIGZ/</t>
   </si>
   <si>
     <t>MOREIRA GILCES GABRIELA NIKOL</t>
@@ -554,7 +554,7 @@
     <t>gabriela.moreira.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>tMzQ/fRa</t>
+    <t>F3F/fCPy</t>
   </si>
   <si>
     <t>NOBOA MONTESDEOCA INGRITH MADELEYN</t>
@@ -563,7 +563,7 @@
     <t>ingrith.noboa.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>lK/1?eqF</t>
+    <t>E?#Q!Ma0</t>
   </si>
   <si>
     <t>ORDOÑEZ ALCIVAR ALEX PAUL</t>
@@ -572,7 +572,7 @@
     <t>alex.ordonez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>bDNhVGiE</t>
+    <t>Kvn8/Ab0</t>
   </si>
   <si>
     <t>PALMA GARCIA MELYN JARITZA</t>
@@ -581,7 +581,7 @@
     <t>melyn.palma.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>17yH9FnI</t>
+    <t>5qdDX!/&amp;</t>
   </si>
   <si>
     <t>PAREDES MERO GHISLAINE ANAHI</t>
@@ -590,7 +590,7 @@
     <t>ghislaine.paredes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>x4y#sWab</t>
+    <t>61YOYMf&amp;</t>
   </si>
   <si>
     <t>QUIJIJE PIANDA XIOMARA MISHELLE</t>
@@ -602,7 +602,7 @@
     <t>xiomara.quijije.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>QUhV?H7&amp;</t>
+    <t>p9&amp;DIm2E</t>
   </si>
   <si>
     <t>SALAVARRIA AVEIGA YULIANA GUADALUPE</t>
@@ -611,7 +611,7 @@
     <t>yuliana.salavarria.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>x8T7m4k7</t>
+    <t>Tg7NiVGv</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR JAIR SEBASTIAN</t>
@@ -620,7 +620,7 @@
     <t>jair.santos.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>GWd&amp;ImPv</t>
+    <t>&amp;89meZy5</t>
   </si>
   <si>
     <t>SOLORZANO CANDELA JARITZA NOHEMY</t>
@@ -629,7 +629,7 @@
     <t>jaritza.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>l6jSMRgc</t>
+    <t>kKFMVxmT</t>
   </si>
   <si>
     <t>VERA CEBALLOS MARIA CONCEPCION</t>
@@ -638,7 +638,7 @@
     <t>maria.vera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>l4olVY53</t>
+    <t>#&amp;MALt5H</t>
   </si>
   <si>
     <t>ALAVA MUÑOZ BILL JARVI</t>
@@ -647,7 +647,7 @@
     <t>bill.alava.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>aQOzw4j3</t>
+    <t>9X0zr/g/</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO ESTHER JOMARA</t>
@@ -656,7 +656,7 @@
     <t>esther.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9LTh8omi</t>
+    <t>rhQicpmK</t>
   </si>
   <si>
     <t>ALMEIDA LOOR MARIA VICTORIA</t>
@@ -665,7 +665,7 @@
     <t>maria.almeida.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4nLDEi5O</t>
+    <t>7SASvlI4</t>
   </si>
   <si>
     <t>ANDRADE VILLAVICENCIO PABLO HUGO</t>
@@ -674,7 +674,7 @@
     <t>pablo.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>YxnA9gW0</t>
+    <t>chTbQ6TS</t>
   </si>
   <si>
     <t>AVENDAÑO YZQUIERDO ADRIANA ISABEL</t>
@@ -686,7 +686,7 @@
     <t>adriana.avendano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4zd7D2dF</t>
+    <t>VPCbvwQB</t>
   </si>
   <si>
     <t>BALUARTE PARRAGA MAYERLY NARCISA</t>
@@ -698,7 +698,7 @@
     <t>mayerly.baluarte.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>3ykPjILS</t>
+    <t>1H1b5Csa</t>
   </si>
   <si>
     <t>BARRE CASTAÑEDA MAYERLI SOLANGE</t>
@@ -710,7 +710,7 @@
     <t>mayerli.barre.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>sLgmXdrX</t>
+    <t>CfoJJdWf</t>
   </si>
   <si>
     <t>BERMEO MENDOZA LESLY JULIETT</t>
@@ -719,7 +719,7 @@
     <t>lesly.bermeo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>SrCnPpgp</t>
+    <t>Xmp/dHHS</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO DANA KATIUSKA</t>
@@ -728,7 +728,7 @@
     <t>dana.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>!biT#NlX</t>
+    <t>UCx9HGL0</t>
   </si>
   <si>
     <t>CEDEÑO ALVARADO JORGE LUIS</t>
@@ -737,7 +737,7 @@
     <t>jorge.cedeno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>LqWzRvrn</t>
+    <t>lgbSioy5</t>
   </si>
   <si>
     <t>DOMINGUEZ ANGEL ANAIS ZULEYMA</t>
@@ -749,7 +749,7 @@
     <t>anais.dominguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>VSSh0YFK</t>
+    <t>BcIAOAX&amp;</t>
   </si>
   <si>
     <t>ESPARZA TELLO ERICKA MARIA</t>
@@ -761,7 +761,7 @@
     <t>ericka.esparza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>o6p02yF/</t>
+    <t>c0yUS75A</t>
   </si>
   <si>
     <t>GRAIN MARCILLO MICHAEL JOSUE</t>
@@ -770,7 +770,7 @@
     <t>michael.grain.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>k66zU0J0</t>
+    <t>ukrUsUAE</t>
   </si>
   <si>
     <t>JAMA ZAMBRANO ROBERTH XAVIER</t>
@@ -779,7 +779,7 @@
     <t>roberth.jama@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;u5qvVRF</t>
+    <t>/v!g!q95</t>
   </si>
   <si>
     <t>LARA BONE ANGIE NICOLE</t>
@@ -791,7 +791,7 @@
     <t>angie.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>66RbJL&amp;s</t>
+    <t>Xv88WtZF</t>
   </si>
   <si>
     <t>LOPEZ DELGADO DAYANA NICOLLE</t>
@@ -800,7 +800,7 @@
     <t>dayana.lopez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>HZX9St#7</t>
+    <t>FXhOHIGy</t>
   </si>
   <si>
     <t>MELO CENTENO HELEN SOFIA</t>
@@ -809,7 +809,7 @@
     <t>helen.melo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>KiGYrGPf</t>
+    <t>OtZARuyY</t>
   </si>
   <si>
     <t>MENDOZA ORTEGA ANGELO DANIEL</t>
@@ -818,7 +818,7 @@
     <t>angelo.mendoza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>sBjrgI8W</t>
+    <t>0rEsHi7f</t>
   </si>
   <si>
     <t>MERO CARRILLO EMELY MILENA</t>
@@ -827,7 +827,7 @@
     <t>emely.mero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zrxlAwtj</t>
+    <t>6UpI4W0f</t>
   </si>
   <si>
     <t>MITE MENENDEZ GEORGE ISAAC</t>
@@ -836,7 +836,7 @@
     <t>george.mite.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZYGeVZVW</t>
+    <t>vFL&amp;sxW/</t>
   </si>
   <si>
     <t>MONCAYO CAGUA LADY NOHELIA</t>
@@ -845,7 +845,7 @@
     <t>lady.moncayo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>InnAI0vM</t>
+    <t>Wn8pjWX5</t>
   </si>
   <si>
     <t>ORMAZA ALCIVAR NOHELIA MILENA</t>
@@ -854,7 +854,7 @@
     <t>nohelia.ormaza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>bXwor3y3</t>
+    <t>98K8F0F2</t>
   </si>
   <si>
     <t>PANTA CANDELA YONNY ALEXANDER</t>
@@ -863,7 +863,7 @@
     <t>jonny.panta.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Eq#FJ6lZ</t>
+    <t>J1x8G7js</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA YAJAIRA NICOLE</t>
@@ -872,7 +872,7 @@
     <t>yajaira.quinatoa.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>dQ9srYqB</t>
+    <t>i2RIO&amp;ES</t>
   </si>
   <si>
     <t>REYNA RAMIREZ SINDY MAHOLY</t>
@@ -881,7 +881,7 @@
     <t>sindy.reyna.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>JLPQUunb</t>
+    <t>Osn&amp;iK4X</t>
   </si>
   <si>
     <t>RODRIGUEZ ANCHUNDIA LUIS FERNANDO</t>
@@ -890,7 +890,7 @@
     <t>luis.rodriguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>5t2Po&amp;87</t>
+    <t>RI2WOcl9</t>
   </si>
   <si>
     <t>SABANDO TUAREZ MILENA BLANCA</t>
@@ -899,7 +899,7 @@
     <t>milena.sabando.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>70uNHkUd</t>
+    <t>uO6bO!RB</t>
   </si>
   <si>
     <t>SALAZAR RAMIREZ YARITZA GABRIELA</t>
@@ -908,7 +908,7 @@
     <t>yaritza.salazar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>YETKbpy3</t>
+    <t>UcwtG5fM</t>
   </si>
   <si>
     <t>SHIGUANGO AGUINDA KATTY MIRELLA</t>
@@ -917,7 +917,7 @@
     <t>katty.shiguango.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>O?AsYIKQ</t>
+    <t>nb8gHh8t</t>
   </si>
   <si>
     <t>VACA MORALES JOSE EDUARDO</t>
@@ -926,7 +926,7 @@
     <t>jose.vaca.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4b7RVtUB</t>
+    <t>daBUqRy!</t>
   </si>
   <si>
     <t>VELASQUEZ MEJIA ARIANNA ELIZABETH</t>
@@ -935,7 +935,7 @@
     <t>arianna.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>v4RrmfGd</t>
+    <t>&amp;dx&amp;DC7u</t>
   </si>
   <si>
     <t>VELEZ CEDEÑO YANDRY ALAIN</t>
@@ -944,7 +944,7 @@
     <t>yandry.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>E6/cwSOx</t>
+    <t>LNOInmkP</t>
   </si>
   <si>
     <t>VERA ZAMORA DIXON YAIR</t>
@@ -953,7 +953,7 @@
     <t>dixon.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>?egN!N2x</t>
+    <t>nIRxMpFK</t>
   </si>
   <si>
     <t>ZAMBRANO FORTIS RICARDO MIGUEL</t>
@@ -962,7 +962,7 @@
     <t>ricardo.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>QYTnaZeE</t>
+    <t>Yq6GiLn#</t>
   </si>
   <si>
     <t>ALVARADO DUEÑAS KARELYS VANESSA</t>
@@ -971,7 +971,7 @@
     <t>karelys.alvarado.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>qSgv7rh!</t>
+    <t>2kZVyOfB</t>
   </si>
   <si>
     <t>ANDRADE ILES ALVIERY JAHIR</t>
@@ -983,7 +983,7 @@
     <t>alviery.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>O8Oh6kNE</t>
+    <t>85DdSQjH</t>
   </si>
   <si>
     <t>ARTEAGA RAMOS DIEGO ALEJANDRO</t>
@@ -992,7 +992,7 @@
     <t>diego.arteaga.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>q6hf?heg</t>
+    <t>R?rojOsb</t>
   </si>
   <si>
     <t>BARREIRO INTRIAGO STEFANY PIERINA</t>
@@ -1001,7 +1001,7 @@
     <t>stefany.barreiro.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>qM0uz&amp;vK</t>
+    <t>MLShJ9Jp</t>
   </si>
   <si>
     <t>BRAVO QUINTERO SARA NICOLE</t>
@@ -1013,7 +1013,7 @@
     <t>sara.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>x#VZcMl/</t>
+    <t>3MSwvINh</t>
   </si>
   <si>
     <t>CABALLERO MUÑOZ STEVEN FABRICIO</t>
@@ -1022,7 +1022,7 @@
     <t>steven.caballero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>OoArBze#</t>
+    <t>92w7mWqH</t>
   </si>
   <si>
     <t>CARRASCO VERA LUCAS JOSUE</t>
@@ -1031,7 +1031,7 @@
     <t>lucas.carrasco.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ztmGieuH</t>
+    <t>wYn7yc4K</t>
   </si>
   <si>
     <t>CEDEÑO MURILLO KENNER STEVEN</t>
@@ -1040,7 +1040,7 @@
     <t>kenner.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>/69LEsz4</t>
+    <t>L&amp;lVy86s</t>
   </si>
   <si>
     <t>CUERO PAZMIÑO EMMANUEL JOSUE</t>
@@ -1049,7 +1049,7 @@
     <t>emmanuel.cuero.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>DZCBX6WV</t>
+    <t>e389vcjd</t>
   </si>
   <si>
     <t>LADINES CASTRO MIRKA DARLISHA</t>
@@ -1061,7 +1061,7 @@
     <t>mirka.ladines.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9AnLSil2</t>
+    <t>ybUzuEZv</t>
   </si>
   <si>
     <t>LARA FRANCO MICHAEL ARGEL</t>
@@ -1073,7 +1073,7 @@
     <t>michael.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ynqS&amp;WZH</t>
+    <t>?WcXPpCn</t>
   </si>
   <si>
     <t>LEYTHON QUIÑONEZ JEIMY SILVANA</t>
@@ -1085,7 +1085,7 @@
     <t>jeimy.leython.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Djgpuahn</t>
+    <t>S8xcqAX4</t>
   </si>
   <si>
     <t>LOOR LOOR GENESIS DANIELA</t>
@@ -1094,7 +1094,7 @@
     <t>genesis.loor.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>CtvNawty</t>
+    <t>6d8hK#xv</t>
   </si>
   <si>
     <t>MATAMBA GUANGA THALIA VALERIA</t>
@@ -1106,7 +1106,7 @@
     <t>thalia.matamba.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>vGoh#kOj</t>
+    <t>Z#YI8qXE</t>
   </si>
   <si>
     <t>MENDOZA DE LA CRUZ MARTHA DANIELA</t>
@@ -1115,7 +1115,7 @@
     <t>martha.mendoza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>6Rj2?az/</t>
+    <t>6?gwtvH2</t>
   </si>
   <si>
     <t>MINOTA BORJA ALEXANDER JAHIR</t>
@@ -1127,7 +1127,7 @@
     <t>alexander.minota.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>wf/EzlYb</t>
+    <t>dTj5ebNo</t>
   </si>
   <si>
     <t>NAVIA LOOR JOSE EFRAIN</t>
@@ -1136,7 +1136,7 @@
     <t>jose.navia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4onbWB73</t>
+    <t>Zr&amp;uVz1l</t>
   </si>
   <si>
     <t>PILATAXI UTRERAS KATHERIN JULIETH</t>
@@ -1145,7 +1145,7 @@
     <t>katherin.pilataxi.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>!k/oJSoe</t>
+    <t>?#sFvJ?Z</t>
   </si>
   <si>
     <t>PINARGOTE CARREÑO FELIX JOEL</t>
@@ -1154,7 +1154,7 @@
     <t>felix.pinargote.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>H#F/Uz!V</t>
+    <t>qLAzSOIt</t>
   </si>
   <si>
     <t>PONCE ZAMBRANO ARIANA JESSENIA</t>
@@ -1163,7 +1163,7 @@
     <t>ariana.ponce.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>d4hWHLwX</t>
+    <t>7T49y1UD</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA KELLY MARIUXI</t>
@@ -1172,7 +1172,7 @@
     <t>kelly.quinatoa.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>i3#kh9H2</t>
+    <t>QH#Rn82?</t>
   </si>
   <si>
     <t>ROSADO ROSADO JOEL JESUS</t>
@@ -1181,7 +1181,7 @@
     <t>joel.rosado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>CrIZpEWN</t>
+    <t>T3tt8vvg</t>
   </si>
   <si>
     <t>SANMARTIN TAPIA CARMEN EDITH</t>
@@ -1190,7 +1190,7 @@
     <t>carmen.sanmartin.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>YtkudgLU</t>
+    <t>Qxg8&amp;iTK</t>
   </si>
   <si>
     <t>SAYAY DAGUA JOSELYN NICOL</t>
@@ -1202,7 +1202,7 @@
     <t>joselyn.sayay.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>G25fdh08</t>
+    <t>dbWojRUP</t>
   </si>
   <si>
     <t>SOLORZANO PAZMIÑO DECCY DANIELA</t>
@@ -1211,7 +1211,7 @@
     <t>deccy.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>3gc/3A3s</t>
+    <t>NIF8Ma/k</t>
   </si>
   <si>
     <t>VERGARA ZAMBRANO MATIAS ALEXANDER</t>
@@ -1220,7 +1220,7 @@
     <t>matias.vergara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>pBBlrktC</t>
+    <t>?exOA8#M</t>
   </si>
   <si>
     <t>ZAMBRANO INTRIAGO FRAYDA JESSENIA</t>
@@ -1229,7 +1229,7 @@
     <t>frayda.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>w/z1jHln</t>
+    <t>lkHka7gV</t>
   </si>
   <si>
     <t>ZAMBRANO VALAREZO ANDREA LISBETH</t>
@@ -1238,7 +1238,7 @@
     <t>andrea.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>kCApBu4h</t>
+    <t>HeAb5nS9</t>
   </si>
   <si>
     <t>AGUAS MARTINEZ KEVIN SNAIDER</t>
@@ -1247,7 +1247,7 @@
     <t>kevin.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>SUlRAfrU</t>
+    <t>bQJI&amp;9Ky</t>
   </si>
   <si>
     <t>ANDRADE GARCIA LUZ CRUCELINA</t>
@@ -1256,7 +1256,7 @@
     <t>luz.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>si2Zar02</t>
+    <t>oJq8BbEo</t>
   </si>
   <si>
     <t>BARBERAN MERO HELEN ADRIANA</t>
@@ -1265,7 +1265,7 @@
     <t>helen.barberan.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>FqCg2#dR</t>
+    <t>ZzKc5r#W</t>
   </si>
   <si>
     <t>BARROS ZAMBRANO DANIEL ANGEL</t>
@@ -1274,7 +1274,7 @@
     <t>daniel.barros.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>huJs#8#5</t>
+    <t>E3hZ!UqT</t>
   </si>
   <si>
     <t>BASURTO ZAMBRANO CARLOS RAUL</t>
@@ -1283,7 +1283,7 @@
     <t>carlos.basurto.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>S#1GXPvS</t>
+    <t>yukMFXAp</t>
   </si>
   <si>
     <t>BRAVO BRAVO ANTHONY ADEMIR</t>
@@ -1292,7 +1292,7 @@
     <t>anthony.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>1A7J/iIB</t>
+    <t>8ZbxhZ#i</t>
   </si>
   <si>
     <t>CANTOS VERA ANGELA AUXILIADORA</t>
@@ -1301,7 +1301,7 @@
     <t>angela.cantos.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>?aRm54Jb</t>
+    <t>u?8bU1px</t>
   </si>
   <si>
     <t>CASTRO BOLAÑO FANNY TATIANA</t>
@@ -1310,7 +1310,7 @@
     <t>fanny.castro.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>qT!htCg3</t>
+    <t>E6fVccje</t>
   </si>
   <si>
     <t>CASTRO SALTOS MATTEWS FARID</t>
@@ -1319,7 +1319,7 @@
     <t>mattews.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>OkqoU3&amp;k</t>
+    <t>dTwGHU1R</t>
   </si>
   <si>
     <t>CHANCAY RADE ANTONY GABRIEL</t>
@@ -1328,7 +1328,7 @@
     <t>antony.chancay@espam.edu.ec</t>
   </si>
   <si>
-    <t>hwH10UAm</t>
+    <t>6V4W4YVJ</t>
   </si>
   <si>
     <t>COBEÑA GARCIA YOMAYRA ALEXANDRA</t>
@@ -1337,7 +1337,7 @@
     <t>yomayra.cobena.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>H4w?K8kd</t>
+    <t>tVyoD3P3</t>
   </si>
   <si>
     <t>CRUZ ERAZO JOSE MIGUEL</t>
@@ -1346,7 +1346,7 @@
     <t>jose.cruz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>bjKL&amp;T4J</t>
+    <t>6uLglcTk</t>
   </si>
   <si>
     <t>GARCIA ANDRADE MARIA ROSA</t>
@@ -1355,7 +1355,7 @@
     <t>maria.garcia.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>o3x1nxrT</t>
+    <t>!hk#r5/Q</t>
   </si>
   <si>
     <t>HERNANDEZ LOPEZ LUIS DAVID</t>
@@ -1364,7 +1364,7 @@
     <t>luis.hernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>oEfYAl&amp;t</t>
+    <t>2gfJn2xb</t>
   </si>
   <si>
     <t>LEON FUENTES JONATHAN ALBINO</t>
@@ -1376,7 +1376,7 @@
     <t>jonathan.leon.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>X4Kv6btE</t>
+    <t>/H8?&amp;rs4</t>
   </si>
   <si>
     <t>MACIAS ANCHUNDIA ROBERTO CARLOS</t>
@@ -1385,7 +1385,7 @@
     <t>roberto.macias.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>yqn?ZhVe</t>
+    <t>YC&amp;4ko!a</t>
   </si>
   <si>
     <t>MAZA AGREDA KAREN IBETH</t>
@@ -1394,7 +1394,7 @@
     <t>karen.maza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>AKWZa!6!</t>
+    <t>R/OztPt8</t>
   </si>
   <si>
     <t>MUÑOZ MERA LITZY ALEJANDRA</t>
@@ -1403,7 +1403,7 @@
     <t>litzy.munoz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>G4Yo1ow1</t>
+    <t>foOtdGy0</t>
   </si>
   <si>
     <t>MUÑOZ MOLINA ANDRY FABIAN</t>
@@ -1412,7 +1412,7 @@
     <t>andry.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sMvElRW1</t>
+    <t>OIJZyNXX</t>
   </si>
   <si>
     <t>ORMAZA VALENCIA KEVIN JAVIER</t>
@@ -1424,7 +1424,7 @@
     <t>kevin.ormaza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ahi3yiv!</t>
+    <t>G3H5/AK4</t>
   </si>
   <si>
     <t>PAZMIÑO PINCAY NAYELLY AGUSTINA</t>
@@ -1433,7 +1433,7 @@
     <t>nayelly.pazmino.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>v9W2X7A#</t>
+    <t>PySeRQsA</t>
   </si>
   <si>
     <t>POZO PONCE DANNY IVAN</t>
@@ -1442,7 +1442,7 @@
     <t>danny.pozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>giWktq?E</t>
+    <t>6Yuj4L8A</t>
   </si>
   <si>
     <t>QUIJANO MEZA MARIANA LISETH</t>
@@ -1451,7 +1451,7 @@
     <t>mariana.quijano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Y0Nr9t9</t>
+    <t>71q3XZ!Y</t>
   </si>
   <si>
     <t>QUIÑONEZ AÑAPA RODRIGO MANUEL</t>
@@ -1463,7 +1463,7 @@
     <t>rodrigo.quinonez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>pdQTR?!!</t>
+    <t>pwggZad2</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR KELVIN YOEL</t>
@@ -1472,7 +1472,7 @@
     <t>kelvin.santos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0WMF/Op6</t>
+    <t>zCm?bt3L</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ SANDY</t>
@@ -1481,7 +1481,7 @@
     <t>sandy.solorzano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>KVJVqpkP</t>
+    <t>Bzrdll7k</t>
   </si>
   <si>
     <t>TOALA PIN ARIEL ALEJANDRO</t>
@@ -1493,7 +1493,7 @@
     <t>ariel.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;H48SEhH</t>
+    <t>pD?&amp;luqO</t>
   </si>
   <si>
     <t>VEGA INTRIAGO MIGUEL ANGEL</t>
@@ -1502,7 +1502,7 @@
     <t>miguel.vega.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9QXoh6SJ</t>
+    <t>i7cojcSD</t>
   </si>
   <si>
     <t>VELASQUEZ RODRIGUEZ GEMA BELEN</t>
@@ -1511,7 +1511,7 @@
     <t>gema.velasquez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YPKI7vir</t>
+    <t>XlXMPrms</t>
   </si>
   <si>
     <t>VERA MENDOZA MARIA VICTORIA</t>
@@ -1520,7 +1520,7 @@
     <t>maria.veram.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>kYhgMaaQ</t>
+    <t>ngzHgyI#</t>
   </si>
   <si>
     <t>VERA PALACIOS JORDANO SAUL</t>
@@ -1529,7 +1529,7 @@
     <t>jordano.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>HDO4lzMt</t>
+    <t>iMM/zjRw</t>
   </si>
   <si>
     <t>ZAMBRANO MERA VALENTINA MONSERRATE</t>
@@ -1538,7 +1538,7 @@
     <t>valentina.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>YOG86eb#</t>
+    <t>YHVkvAmC</t>
   </si>
   <si>
     <t>ZAMBRANO QUIMI JUAN GEORGE</t>
@@ -1550,7 +1550,7 @@
     <t>juan.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;ct!iwDL</t>
+    <t>HrRHuNAR</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO GEOMAYRA KATHERINE</t>
@@ -1562,7 +1562,7 @@
     <t>geomayra.alcivar.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>3LsBrggh</t>
+    <t>wmb4p/zd</t>
   </si>
   <si>
     <t>ANDRADE CASTILLO CLAUDIA VICTORIA</t>
@@ -1571,7 +1571,7 @@
     <t>claudia.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>i00b4YsO</t>
+    <t>iWmqzdU6</t>
   </si>
   <si>
     <t>ANGUISACA CUENCA ALEXANDRA CECIBEL</t>
@@ -1580,7 +1580,7 @@
     <t>alexandra.anguisaca.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>vI3?&amp;Knx</t>
+    <t>wb&amp;i2#G3</t>
   </si>
   <si>
     <t>BARIAS GUARACA LESLY NAYHELY</t>
@@ -1589,7 +1589,7 @@
     <t>lesly.barias.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>To/0XFIA</t>
+    <t>8elRWxjs</t>
   </si>
   <si>
     <t>BARROS VERA ANGEL DAVID</t>
@@ -1598,7 +1598,7 @@
     <t>angel.barros.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BCUHUyGg</t>
+    <t>glBdfBMu</t>
   </si>
   <si>
     <t>BAZURTO SANTOS KENNIA KATHERINE</t>
@@ -1607,7 +1607,7 @@
     <t>kennia.bazurto.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>2cjIIMn4</t>
+    <t>7qTlePSf</t>
   </si>
   <si>
     <t>BRAVO BAZURTO GISSELA MARIA</t>
@@ -1616,7 +1616,7 @@
     <t>gissela.bravo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>QFfq?xrN</t>
+    <t>vNtiYOXJ</t>
   </si>
   <si>
     <t>BUSTAMANTE YANEZ ANTHONY MICHEL</t>
@@ -1625,7 +1625,7 @@
     <t>anthony.bustamante.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>uaLCQ/OE</t>
+    <t>I?//LxW#</t>
   </si>
   <si>
     <t>CASTRO SOLORZANO NIURKA JULIANA</t>
@@ -1634,7 +1634,7 @@
     <t>niurka.castro.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>kK27Vgeg</t>
+    <t>rR4dw/ev</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO YOHANA VANESA</t>
@@ -1643,7 +1643,7 @@
     <t>yohana.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>M0/nyK8!</t>
+    <t>jIb3LDdU</t>
   </si>
   <si>
     <t>CEDEÑO INTRIAGO JEAN PIERRE</t>
@@ -1652,7 +1652,7 @@
     <t>jean.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>GCjQA6gy</t>
+    <t>FngHGtio</t>
   </si>
   <si>
     <t>DELGADO CEVALLOS MARIA JOSE</t>
@@ -1661,7 +1661,7 @@
     <t>maria.delgado.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>vzRPFKIm</t>
+    <t>qUv2s2fl</t>
   </si>
   <si>
     <t>ERAZO MORALES GABRIELA ALEJANDRA</t>
@@ -1670,7 +1670,7 @@
     <t>gabriela.erazo.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>8YKIx2Zo</t>
+    <t>OS0A&amp;Ucp</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO LUIS JOSE</t>
@@ -1679,7 +1679,7 @@
     <t>luis.intriagoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BnVzC95W</t>
+    <t>F7Xpk2NZ</t>
   </si>
   <si>
     <t>LOOR ORTIZ YORDY DAVID</t>
@@ -1688,7 +1688,7 @@
     <t>yordy.loor.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>TI1ohG&amp;c</t>
+    <t>!dCQwa&amp;4</t>
   </si>
   <si>
     <t>LOZANO GAMEZ THALIA VANESSA</t>
@@ -1700,7 +1700,7 @@
     <t>thalia.lozano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>GuseefYW</t>
+    <t>YbJ47yPx</t>
   </si>
   <si>
     <t>MONTES RODRIGUEZ ROLANDO ANTONIO</t>
@@ -1709,7 +1709,7 @@
     <t>rolando.montes.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>CPm2G5ew</t>
+    <t>1I0fNkcK</t>
   </si>
   <si>
     <t>PALMA RENDON ARGENIS ARTURO</t>
@@ -1718,7 +1718,7 @@
     <t>argenis.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>XXxHoRkG</t>
+    <t>Lws4wymU</t>
   </si>
   <si>
     <t>PAREDES YUMBILLO KATTY MARGOTH</t>
@@ -1730,7 +1730,7 @@
     <t>katty.paredes.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>9uM/ttqY</t>
+    <t>Q8ukFXZ6</t>
   </si>
   <si>
     <t>PARRALES DELGADO ALAN SEBASTIAN</t>
@@ -1739,7 +1739,7 @@
     <t>alan.parrales.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>gdyKZdw!</t>
+    <t>U9gbg&amp;nr</t>
   </si>
   <si>
     <t>PATA CEDEÑO ROSA JUANA</t>
@@ -1751,7 +1751,7 @@
     <t>rosa.pata.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zlbbhXmT</t>
+    <t>&amp;BrbqOjf</t>
   </si>
   <si>
     <t>RETETE BASARAN KEVIN ALEXANDER</t>
@@ -1760,7 +1760,7 @@
     <t>kevin.retete.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>z?/LZ/tP</t>
+    <t>T&amp;ZyFXyv</t>
   </si>
   <si>
     <t>ROMAN MACIAS ESTEFANIA ISABEL</t>
@@ -1769,7 +1769,7 @@
     <t>estefania.roman.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jigGG5fo</t>
+    <t>Z69jdBO/</t>
   </si>
   <si>
     <t>SANDOVAL UREÑA FERNANDA DAYANARA</t>
@@ -1781,7 +1781,7 @@
     <t>fernanda.sandoval.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>7hXS7&amp;/o</t>
+    <t>06UUz0SL</t>
   </si>
   <si>
     <t>SUBIAGA RAMOS LUIS ALEJANDRO</t>
@@ -1790,7 +1790,7 @@
     <t>luis.subiaga.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>wl1iImpp</t>
+    <t>UWa&amp;UfbM</t>
   </si>
   <si>
     <t>VELASQUEZ AVEIGA MARIA JESUS</t>
@@ -1799,7 +1799,7 @@
     <t>maria.velasquez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>gyawBlXb</t>
+    <t>uPPDAm6z</t>
   </si>
   <si>
     <t>VELEZ CHEME JORDAN ESTEBAN</t>
@@ -1811,7 +1811,7 @@
     <t>jordan.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>D&amp;xaalmp</t>
+    <t>p7oy2olk</t>
   </si>
   <si>
     <t>VELEZ MENDOZA DARWIN ALEXIS</t>
@@ -1820,7 +1820,7 @@
     <t>darwin.velez.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>vWbmwa&amp;Z</t>
+    <t>8RuZZZSC</t>
   </si>
   <si>
     <t>VERA BARRE RONNY ARISTIDES</t>
@@ -1829,7 +1829,7 @@
     <t>ronny.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>cVmEvNn#</t>
+    <t>/CILGm5L</t>
   </si>
   <si>
     <t>ZAMBRANO MACIAS DIEGO ANDRES</t>
@@ -1838,7 +1838,7 @@
     <t>diego.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>fRjtwimi</t>
+    <t>ZsGBzM7w</t>
   </si>
   <si>
     <t>ZAMBRANO REYNA YERSY ENRIQUE</t>
@@ -1847,7 +1847,7 @@
     <t>yersy.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>01enbuJG</t>
+    <t>FHFMhuYs</t>
   </si>
   <si>
     <t>CARDENAS MIELES CRISTHYAN ALBERTO</t>
@@ -1856,7 +1856,7 @@
     <t>cristhyan.cardenas.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>NXOuvKxL</t>
+    <t>QbZQ/r&amp;?</t>
   </si>
   <si>
     <t>CASTRO CARRERA JUAN CARLOS</t>
@@ -1865,7 +1865,7 @@
     <t>juan.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>jIMUZpD0</t>
+    <t>37zDzLxZ</t>
   </si>
   <si>
     <t>CHAVEZ MIRANDA ANTHONY MIGUEL</t>
@@ -1874,7 +1874,7 @@
     <t>anthony.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>7KW&amp;4bER</t>
+    <t>BKldHyEC</t>
   </si>
   <si>
     <t>CUSME ZAMBRANO MICHAEL RICHARD</t>
@@ -1883,7 +1883,7 @@
     <t>michael.cusme.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>/?doa7we</t>
+    <t>Sh8BzO/J</t>
   </si>
   <si>
     <t>GILER SALAZAR CARLOS IGNACIO</t>
@@ -1892,7 +1892,7 @@
     <t>carlos.giler@espam.edu.ec</t>
   </si>
   <si>
-    <t>H2xAzCOm</t>
+    <t>b6DFnCpy</t>
   </si>
   <si>
     <t>HERNANDEZ DIAZ MARIA JOSE</t>
@@ -1904,7 +1904,7 @@
     <t>maria.hernandez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>FdWRWe#k</t>
+    <t>SBWnjS3g</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA ESTELA NATHALY</t>
@@ -1913,7 +1913,7 @@
     <t>estela.hidalgo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#nXC7pxP</t>
+    <t>ASZI47qd</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA PIERINA NATHALY</t>
@@ -1922,7 +1922,7 @@
     <t>pierina.hidalgo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Cvj57tWp</t>
+    <t>yl3V?xmY</t>
   </si>
   <si>
     <t>LARA QUIJIJE PAMELA JULISSA</t>
@@ -1931,7 +1931,7 @@
     <t>pamela.lara.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7IX98zqr</t>
+    <t>D/#FFkpu</t>
   </si>
   <si>
     <t>LOOR PITIZACA FRANK ALLAN</t>
@@ -1940,7 +1940,7 @@
     <t>frank.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>MiB!vAah</t>
+    <t>N&amp;Ymi7x9</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO GEMA STEFANIA</t>
@@ -1949,7 +1949,7 @@
     <t>gema.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>bnLbVsL9</t>
+    <t>7!?P2BAc</t>
   </si>
   <si>
     <t>PALACIOS TAPIA CESAR XAVIER</t>
@@ -1958,7 +1958,7 @@
     <t>cesar.palacios.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>/sK9Qr?&amp;</t>
+    <t>1BMpqu35</t>
   </si>
   <si>
     <t>PEÑARRETA LANCHE PILAR MICAELA</t>
@@ -1967,7 +1967,7 @@
     <t>pilar.penarreta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>0l52q0Gc</t>
+    <t>ohHeeOmg</t>
   </si>
   <si>
     <t>PILLASAGUA PINARGOTE INGRID MAYERLI</t>
@@ -1979,7 +1979,7 @@
     <t>ingrid.pillasagua.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>R9WoNxy0</t>
+    <t>yPz27lb&amp;</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO GEMA LISBETH</t>
@@ -1988,7 +1988,7 @@
     <t>gema.quijije.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zhWYX6bo</t>
+    <t>IG7CyAfl</t>
   </si>
   <si>
     <t>RUIZ ZAMBRANO VICTOR ANDRES</t>
@@ -1997,7 +1997,7 @@
     <t>victor.ruiz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>8m2&amp;rw#h</t>
+    <t>YDrXw2yc</t>
   </si>
   <si>
     <t>SALTOS SALAZAR MAYERLY VERONICA</t>
@@ -2009,7 +2009,7 @@
     <t>mayerly.saltos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>52/XgH95</t>
+    <t>dqT#0KOW</t>
   </si>
   <si>
     <t>SANTANA PALOMINO FRANKLIN JOHAO</t>
@@ -2018,7 +2018,7 @@
     <t>franklin.santana.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>PZ3fa2sz</t>
+    <t>9SB3kCMH</t>
   </si>
   <si>
     <t>TAFFUR TOASA OLGA MARIA</t>
@@ -2027,7 +2027,7 @@
     <t>olga.taffur@espam.edu.ec</t>
   </si>
   <si>
-    <t>8KXHhq2d</t>
+    <t>!g6pZYow</t>
   </si>
   <si>
     <t>TOALA MACAY JOSSELYN VALERIA</t>
@@ -2036,7 +2036,7 @@
     <t>josselyn.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6zKNeKxv</t>
+    <t>dXhHYlQi</t>
   </si>
   <si>
     <t>VALLADARES ALCIVAR LUIS EDUARDO</t>
@@ -2045,7 +2045,7 @@
     <t>luis.valladares@espam.edu.ec</t>
   </si>
   <si>
-    <t>LYvMEcjV</t>
+    <t>42qVjBo#</t>
   </si>
   <si>
     <t>VERA ZAMBRANO HILTER JOSSBEL</t>
@@ -2054,7 +2054,7 @@
     <t>hilter.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>uu8HrhS7</t>
+    <t>JQh31qr8</t>
   </si>
   <si>
     <t>VERGARA TABOADA ROMEL ALEXANDER</t>
@@ -2063,7 +2063,7 @@
     <t>romel.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>db3eAvan</t>
+    <t>mL4sOsov</t>
   </si>
   <si>
     <t>ZAMBRANO RIVAS NALLELY LISBETH</t>
@@ -2072,7 +2072,7 @@
     <t>nallely.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>vpiR6Dow</t>
+    <t>?#ptVFwj</t>
   </si>
   <si>
     <t>ABAD MIRANDA KENYA ESTEFANIA</t>
@@ -2084,7 +2084,7 @@
     <t>kenya.abad.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>OqXzk71h</t>
+    <t>dCJnEXAC</t>
   </si>
   <si>
     <t>ALAVA MORENO MILTON ANTERO</t>
@@ -2093,7 +2093,7 @@
     <t>milton.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>0oTxh90Y</t>
+    <t>qhmqZ&amp;Pw</t>
   </si>
   <si>
     <t>ALMEIDA CEDEÑO CINDY BELEN</t>
@@ -2102,7 +2102,7 @@
     <t>cindy.almeida.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>L9RBG63h</t>
+    <t>5YV!q7tE</t>
   </si>
   <si>
     <t>ANCHUNDIA VERA JUSTIN JOSE</t>
@@ -2111,7 +2111,7 @@
     <t>justin.anchundia.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>8#3YQuw3</t>
+    <t>6ou?aS?d</t>
   </si>
   <si>
     <t>AYONG PALADINES MARIA FERNANDA</t>
@@ -2120,7 +2120,7 @@
     <t>maria.ayong.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>p?gN?hp9</t>
+    <t>KNBPN4V3</t>
   </si>
   <si>
     <t>BRAVO CEVALLOS MELANY PIERINA</t>
@@ -2129,7 +2129,7 @@
     <t>melany.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>N3OfIKYP</t>
+    <t>lpR4Am0b</t>
   </si>
   <si>
     <t>CASANOVA SALAZAR ROSEMBERG STEVEN</t>
@@ -2138,7 +2138,7 @@
     <t>rosemberg.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>PNlX?wdR</t>
+    <t>07dp!e/A</t>
   </si>
   <si>
     <t>FERNANDEZ TORRES JALENI SCARLETH</t>
@@ -2150,7 +2150,7 @@
     <t>jaleni.fernandez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>K4rAzbrf</t>
+    <t>J?2cDnU!</t>
   </si>
   <si>
     <t>HERRERA SABANDO WILLIAMS ANDRES</t>
@@ -2159,7 +2159,7 @@
     <t>williams.herrera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>1mjfP/ln</t>
+    <t>Ml&amp;QfRti</t>
   </si>
   <si>
     <t>LOPEZ PALADINES EDGAR JOSE</t>
@@ -2168,7 +2168,7 @@
     <t>edgar.lopez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>0w8Z#dPi</t>
+    <t>!g!MQuN!</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES LINCI YERLEY</t>
@@ -2177,7 +2177,7 @@
     <t>linci.medranda.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>x2lliGY!</t>
+    <t>jMGG8iXK</t>
   </si>
   <si>
     <t>MENDIETA GILER JORDY EDUARDO</t>
@@ -2186,7 +2186,7 @@
     <t>jordy.mendieta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>uM3hvSix</t>
+    <t>i1!/06wf</t>
   </si>
   <si>
     <t>MORENO VELIZ ALDRIN DAIRY</t>
@@ -2195,7 +2195,7 @@
     <t>aldrin.moreno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;pgp02WI</t>
+    <t>4W2jah?4</t>
   </si>
   <si>
     <t>MUÑOZ VERA GENESIS LOURDES</t>
@@ -2204,7 +2204,7 @@
     <t>genesis.munoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>o3ZdvIBL</t>
+    <t>ZjTz&amp;wbn</t>
   </si>
   <si>
     <t>PLAZA CHOEZ RODOLFO JEAMPIERRE</t>
@@ -2213,7 +2213,7 @@
     <t>rodolfo.plaza.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>A9z0NxIz</t>
+    <t>8GidTJZg</t>
   </si>
   <si>
     <t>PRECIADO MOREIRA PABLO ANTHONY</t>
@@ -2225,7 +2225,7 @@
     <t>pablo.preciado@espam.edu.ec</t>
   </si>
   <si>
-    <t>?4h1tavG</t>
+    <t>9SegUDAX</t>
   </si>
   <si>
     <t>SABANDO SALCEDO GENESIS BETZABETH</t>
@@ -2237,7 +2237,7 @@
     <t>genesis.sabando.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>PJ0zdCJY</t>
+    <t>MFNloE3F</t>
   </si>
   <si>
     <t>SOLEDISPA ZAMBRANO CRISTHINA ISABELA</t>
@@ -2246,7 +2246,7 @@
     <t>cristhina.soledispa.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7o9tR/TP</t>
+    <t>MTFF6Oiy</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ EVELYN AGUSTINA</t>
@@ -2255,7 +2255,7 @@
     <t>evelyn.solorzanor@espam.edu.ec</t>
   </si>
   <si>
-    <t>1JO1yJB7</t>
+    <t>XGUoBdsz</t>
   </si>
   <si>
     <t>VERA AGUAS KELVIN JEAN PIERRE</t>
@@ -2264,7 +2264,7 @@
     <t>kelvin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>KeEogyLR</t>
+    <t>qjRBZ?yX</t>
   </si>
   <si>
     <t>VERA LOOR DENYS ESTEFANIA</t>
@@ -2273,7 +2273,7 @@
     <t>denys.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6SKa&amp;XAT</t>
+    <t>AkoM09Zm</t>
   </si>
   <si>
     <t>VINCES PIN MARIA FERNANDA</t>
@@ -2282,7 +2282,7 @@
     <t>maria.vinces.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;0YZcMXO</t>
+    <t>5/x?0NyB</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO MARIA BELEN</t>
@@ -2291,7 +2291,7 @@
     <t>mariab.zambranoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>b#Y?gc8q</t>
+    <t>VjzJzMQ2</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO DIANA ESTHER</t>
@@ -2300,7 +2300,7 @@
     <t>diana.alcivar.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>0m991evW</t>
+    <t>eNwM?mNQ</t>
   </si>
   <si>
     <t>ALVAREZ BORJA ANGHELO JOSUE</t>
@@ -2309,7 +2309,7 @@
     <t>anghelo.alvarez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>nMKuSupp</t>
+    <t>E42gHCtP</t>
   </si>
   <si>
     <t>BRAVO MENDOZA ALBERDY JAVIER</t>
@@ -2318,7 +2318,7 @@
     <t>alberdy.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>cnJLjrhm</t>
+    <t>OBwjR!TV</t>
   </si>
   <si>
     <t>GARCIA PARRAGA FATIMA MARIA</t>
@@ -2327,7 +2327,7 @@
     <t>fatima.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>RNfK!ocR</t>
+    <t>Ln&amp;xGs6T</t>
   </si>
   <si>
     <t>GRACIA PRATT WILINTON JOSUE</t>
@@ -2339,7 +2339,7 @@
     <t>wilinton.gracia.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>0/R0DV&amp;N</t>
+    <t>!?C?JrGM</t>
   </si>
   <si>
     <t>MARRETT BEDOYA MISHELLE MARCELA</t>
@@ -2351,7 +2351,7 @@
     <t>mishelle.marrett.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>2Z4U8sxM</t>
+    <t>kF2sO0Re</t>
   </si>
   <si>
     <t>MERA CASTILLO NATHALY VIRGINIA</t>
@@ -2360,7 +2360,7 @@
     <t>nathaly.mera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>BEaWbJFq</t>
+    <t>kQ0D21s#</t>
   </si>
   <si>
     <t>ROSERO VERA LUIS ANDRES</t>
@@ -2369,7 +2369,7 @@
     <t>luis.rosero@espam.edu.ec</t>
   </si>
   <si>
-    <t>Tdi?Zumj</t>
+    <t>zOpFlsb9</t>
   </si>
   <si>
     <t>SANTISTEBAN BENAVIDES JOSUE ROMARIO</t>
@@ -2378,7 +2378,7 @@
     <t>josue.santisteban.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>M0xinJWP</t>
+    <t>Vg1po2Es</t>
   </si>
   <si>
     <t>SOLORZANO CUSME GEMA JULIANA</t>
@@ -2387,7 +2387,7 @@
     <t>gemaju.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>!SICDB#c</t>
+    <t>kpzMyVV0</t>
   </si>
   <si>
     <t>TORRES PINARGOTE MAHOLY</t>
@@ -2396,7 +2396,7 @@
     <t>maholy.torres.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>OzgiHl3S</t>
+    <t>ALx/Tn63</t>
   </si>
   <si>
     <t>ZAMBRANO BRAVO LEANDRO ISMAEL</t>
@@ -2405,7 +2405,7 @@
     <t>leandro.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wTxN4NdO</t>
+    <t>gtwt?g2k</t>
   </si>
   <si>
     <t>ZAMBRANO GARCIA HENRY ARTURO</t>
@@ -2414,7 +2414,7 @@
     <t>henry.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/9hDW#FP</t>
+    <t>aeMVlAF2</t>
   </si>
   <si>
     <t>BARRE PARRAGA BETSY BEATRIZ</t>
@@ -2423,7 +2423,7 @@
     <t>betsy.barre.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>imFJ0oPS</t>
+    <t>ip/ozQ/g</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO CAMILA PATRICIA</t>
@@ -2435,7 +2435,7 @@
     <t>camila.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZMKEBtrl</t>
+    <t>rxvZ6Fjg</t>
   </si>
   <si>
     <t>CEDEÑO SOLORZANO ANTHONY STEVEN</t>
@@ -2444,7 +2444,7 @@
     <t>anthony.cedenos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>esQA#w22</t>
+    <t>v05j32We</t>
   </si>
   <si>
     <t>CEDEÑO TUAREZ ANGIE LISSETTE</t>
@@ -2453,7 +2453,7 @@
     <t>angie.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pxw4rXeU</t>
+    <t>1gO/8Rdu</t>
   </si>
   <si>
     <t>CHAVEZ LANDAZURI JACKSON JAIR</t>
@@ -2465,7 +2465,7 @@
     <t>jackson.chavez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>tqalfwvZ</t>
+    <t>ybjY5HT/</t>
   </si>
   <si>
     <t>CHICA MOREIRA MARIA FERNANDA</t>
@@ -2474,7 +2474,7 @@
     <t>maria.chica.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jYs6bKBc</t>
+    <t>yFeX3VEH</t>
   </si>
   <si>
     <t>GARCIA ZAMBRANO WENDY YAMILETH</t>
@@ -2483,7 +2483,7 @@
     <t>wendy.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ybrek1lk</t>
+    <t>oDwKR8EE</t>
   </si>
   <si>
     <t>GARZON CEDEÑO FRANCESCO RUBEN</t>
@@ -2492,7 +2492,7 @@
     <t>francesco.garzon.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>b/b?7YbG</t>
+    <t>ivFs40ob</t>
   </si>
   <si>
     <t>GUERRERO CEDEÑO MICHAEL JORDY</t>
@@ -2501,7 +2501,7 @@
     <t>michael.guerrero.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>tcBxg6uU</t>
+    <t>7ywCpNjA</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES CRISTHIAN JOSE</t>
@@ -2510,7 +2510,7 @@
     <t>cristhian.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>yRkUBGvu</t>
+    <t>5elbrW6u</t>
   </si>
   <si>
     <t>ORELLANA ANCHUNDIA JESUS MIGUEL</t>
@@ -2519,7 +2519,7 @@
     <t>jesus.orellana@espam.edu.ec</t>
   </si>
   <si>
-    <t>D4CTBsd&amp;</t>
+    <t>!r6f#o9Q</t>
   </si>
   <si>
     <t>ORTIZ GOMEZ EDUARDO ANDRES</t>
@@ -2528,7 +2528,7 @@
     <t>eduardo.ortiz@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yv/cMCr7</t>
+    <t>VENT6oDs</t>
   </si>
   <si>
     <t>PAZMIÑO MERA SHANDE ALEXANDER</t>
@@ -2537,7 +2537,7 @@
     <t>shande.pazmino.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>74xLaaJP</t>
+    <t>VGr!&amp;gu6</t>
   </si>
   <si>
     <t>PEÑARRIETA BAZURTO ERICK ANDRES</t>
@@ -2546,7 +2546,7 @@
     <t>erick.penarrieta@espam.edu.ec</t>
   </si>
   <si>
-    <t>xhi60Hdt</t>
+    <t>vdSrRRZm</t>
   </si>
   <si>
     <t>RIERA GAVILANES IZHURY MILLENYTH</t>
@@ -2558,7 +2558,7 @@
     <t>izhury.riera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>wDqy?15i</t>
+    <t>xu64tgxF</t>
   </si>
   <si>
     <t>RIVERA CEDEÑO RIVALDO JOSE</t>
@@ -2570,7 +2570,7 @@
     <t>rivaldo.rivera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>TNjIk81t</t>
+    <t>2MdM5O81</t>
   </si>
   <si>
     <t>SALDARRIAGA ARTEAGA OMAIRA MARIBI</t>
@@ -2579,7 +2579,7 @@
     <t>omaira.saldarriaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>5bpmjQ&amp;G</t>
+    <t>IVMjwqUl</t>
   </si>
   <si>
     <t>SANDOVAL MERA NALLELY STEFANIA</t>
@@ -2588,7 +2588,7 @@
     <t>nallely.sandoval.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9C6nQkq5</t>
+    <t>3dgDhuOt</t>
   </si>
   <si>
     <t>SUQUI CANGO BRYAN EDUARDO</t>
@@ -2600,7 +2600,7 @@
     <t>bryan.suqui.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>zBmdybqs</t>
+    <t>vNxt2bQi</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO CARLOS ANDRES</t>
@@ -2609,7 +2609,7 @@
     <t>carlos.verduga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>4X34?9g1</t>
+    <t>IfVqvNZ5</t>
   </si>
   <si>
     <t>ZAMBRANO LARA MARVIN RENE</t>
@@ -2618,7 +2618,7 @@
     <t>marvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>iM7#GKKy</t>
+    <t>drjo7!DQ</t>
   </si>
   <si>
     <t>ZAMBRANO OBANDO KELVIN JOSUE</t>
@@ -2630,7 +2630,7 @@
     <t>kelvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>7z9RW96J</t>
+    <t>bf!m8Fk7</t>
   </si>
   <si>
     <t>ZAPATA QUINCHE ANDREA CAROLINA</t>
@@ -2639,7 +2639,7 @@
     <t>andrea.zapata.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>cj?X9ug6</t>
+    <t>YbQJhjia</t>
   </si>
   <si>
     <t>ALMEIDA PEREZ ANGEL FERNANDO</t>
@@ -2648,7 +2648,7 @@
     <t>angel.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>eNqDDwVx</t>
+    <t>kEBE#zvu</t>
   </si>
   <si>
     <t>CEDEÑO PARRAGA MELANY NALLELY</t>
@@ -2657,7 +2657,7 @@
     <t>melany.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>FQThX!jd</t>
+    <t>IV8?Ipbl</t>
   </si>
   <si>
     <t>CEDEÑO SALVATIERRA JENIFFER ALEJANDRA</t>
@@ -2666,7 +2666,7 @@
     <t>jeniffer.cedenosal@espam.edu.ec</t>
   </si>
   <si>
-    <t>s7UDPIbh</t>
+    <t>Pdbg0lDm</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA SCHEZNARDA EDITH</t>
@@ -2675,7 +2675,7 @@
     <t>scheznarda.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>U9Aa6q?x</t>
+    <t>W04R3!Nm</t>
   </si>
   <si>
     <t>GANCHOZO VELEZ EMILY JULEXY</t>
@@ -2684,7 +2684,7 @@
     <t>emily.ganchozo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Bw0TjEL</t>
+    <t>/hv99pzc</t>
   </si>
   <si>
     <t>LEON VIZÑAY ROQUE JAVIER</t>
@@ -2696,7 +2696,7 @@
     <t>roque.leon@espam.edu.ec</t>
   </si>
   <si>
-    <t>nTW3PBPE</t>
+    <t>6bTB0k7f</t>
   </si>
   <si>
     <t>LOOR LOOR EVELYN YAMILETH</t>
@@ -2705,7 +2705,7 @@
     <t>evelynya.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>tXqr!dH#</t>
+    <t>lYlZY1J3</t>
   </si>
   <si>
     <t>LOOR MOREIRA MELANIE NOEMI</t>
@@ -2714,7 +2714,7 @@
     <t>melanie.loorm.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>KWHTuZtY</t>
+    <t>sl/6kDG/</t>
   </si>
   <si>
     <t>LOPEZ ESTACIO ROSA ANGELICA</t>
@@ -2723,7 +2723,7 @@
     <t>rosa.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>XhtMrlve</t>
+    <t>ypErebW#</t>
   </si>
   <si>
     <t>MENDOZA MUÑOZ FLOR ANTONELA</t>
@@ -2732,7 +2732,7 @@
     <t>flor.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>I&amp;sOdW/E</t>
+    <t>#FgebR3/</t>
   </si>
   <si>
     <t>MERELO SOLORZANO NAIDELYN MISHELLE</t>
@@ -2741,7 +2741,7 @@
     <t>naidelyn.merelo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z!IFkypV</t>
+    <t>aDqF8DkB</t>
   </si>
   <si>
     <t>MOREIRA LOOR FABIAN ALEXANDER</t>
@@ -2750,7 +2750,7 @@
     <t>fabian.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>al1D0ama</t>
+    <t>!gpZ/JB5</t>
   </si>
   <si>
     <t>PAZMIÑO FALCONES JOSE MIGUEL</t>
@@ -2759,7 +2759,7 @@
     <t>jose.pazmino@espam.edu.ec</t>
   </si>
   <si>
-    <t>/&amp;i9AFxv</t>
+    <t>/thohO#r</t>
   </si>
   <si>
     <t>PEÑAFIEL PITA BRITHANNY MICAELA</t>
@@ -2771,7 +2771,7 @@
     <t>brithanny.penafiel.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ax/2O3Xa</t>
+    <t>lMmE!zof</t>
   </si>
   <si>
     <t>PINTO PALACIOS JOSE ANTONIO</t>
@@ -2780,7 +2780,7 @@
     <t>jose.pinto@espam.edu.ec</t>
   </si>
   <si>
-    <t>x8DmkXab</t>
+    <t>rnOfrHor</t>
   </si>
   <si>
     <t>RENTERIA VALENCIA NEURYS GYSSELA</t>
@@ -2792,7 +2792,7 @@
     <t>neurys.renteria@espam.edu.ec</t>
   </si>
   <si>
-    <t>jsMs7SaW</t>
+    <t>4UQ#mm3Z</t>
   </si>
   <si>
     <t>RIVAS ZAMBRANO ALISSON KATIUSKA</t>
@@ -2801,7 +2801,7 @@
     <t>alisson.rivas.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>G6iGzuKv</t>
+    <t>aDrEZkHh</t>
   </si>
   <si>
     <t>TORRES VARGAS KARELIS ANDREINA</t>
@@ -2813,7 +2813,7 @@
     <t>karelis.torres@espam.edu.ec</t>
   </si>
   <si>
-    <t>j5wTfXs/</t>
+    <t>B!5G2GZp</t>
   </si>
   <si>
     <t>VALDIVIESO CHUNG DANIEL JAFET</t>
@@ -2822,7 +2822,7 @@
     <t>daniel.valdivieso.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>c1f6rsr/</t>
+    <t>YBnVVdpX</t>
   </si>
   <si>
     <t>VASCONEZ GONZALEZ FRANCISCO ALESSIO</t>
@@ -2831,7 +2831,7 @@
     <t>francisco.vasconez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1Vr?PLrM</t>
+    <t>tbRtFM88</t>
   </si>
   <si>
     <t>VELEZ ORTEGA BORIS ANDRES</t>
@@ -2840,7 +2840,7 @@
     <t>boris.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>T8?UlRry</t>
+    <t>B7y#ckKw</t>
   </si>
   <si>
     <t>VERA ESTUPIÑAN BRYAN FRANCISCO</t>
@@ -2849,7 +2849,7 @@
     <t>bryan.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>N6S97DIp</t>
+    <t>5!!9edm0</t>
   </si>
   <si>
     <t>VERA LOOR ARIANA PAOLA</t>
@@ -2858,7 +2858,7 @@
     <t>ariana.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>i/o3e9/x</t>
+    <t>/2HTJ#pN</t>
   </si>
   <si>
     <t>ZAMBRANO VEGA AURA ARACELY</t>
@@ -2867,7 +2867,7 @@
     <t>aura.zambranov@espam.edu.ec</t>
   </si>
   <si>
-    <t>x/c5fLh!</t>
+    <t>P5ENaIxx</t>
   </si>
   <si>
     <t>ALMEIDA ZAMBRANO HALINTONG VICENTE</t>
@@ -2876,7 +2876,7 @@
     <t>halintong.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>BfY4a#T4</t>
+    <t>wJI7buMX</t>
   </si>
   <si>
     <t>AYALA VILLAFUERTE NAHOMY NAYELY</t>
@@ -2885,7 +2885,7 @@
     <t>nahomy.ayala@espam.edu.ec</t>
   </si>
   <si>
-    <t>oAtKpWyf</t>
+    <t>K6Kv4DX7</t>
   </si>
   <si>
     <t>BASURTO CEDEÑO ITALO JORDANO</t>
@@ -2894,7 +2894,7 @@
     <t>italo.basurto.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>yi0yjRo1</t>
+    <t>MJFOf&amp;NU</t>
   </si>
   <si>
     <t>CASTRO TAIPE YERIK LEXANDER</t>
@@ -2903,7 +2903,7 @@
     <t>yerik.castro.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1JsGdVRE</t>
+    <t>hOKU2UFn</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA CARLOS PAUL</t>
@@ -2912,7 +2912,7 @@
     <t>carlos.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>83WJQvsO</t>
+    <t>uJ#T#p#a</t>
   </si>
   <si>
     <t>COBEÑA ZAMBRANO EDIS ARIEL</t>
@@ -2921,7 +2921,7 @@
     <t>edis.cobena@espam.edu.ec</t>
   </si>
   <si>
-    <t>LkcgUZUV</t>
+    <t>Nmxu6?Bl</t>
   </si>
   <si>
     <t>CORDOVA MUGUERZA ADRIANA NICOLLE</t>
@@ -2930,7 +2930,7 @@
     <t>adriana.muguersa.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>tkk9VqBP</t>
+    <t>baTinZse</t>
   </si>
   <si>
     <t>COTERA PIN MAYERLY DAYANARA</t>
@@ -2939,7 +2939,7 @@
     <t>mayerly.cotera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>gUd3nBu5</t>
+    <t>1y4!iiF9</t>
   </si>
   <si>
     <t>CUENCA CUSME CECILIA ALEXANDRA</t>
@@ -2948,7 +2948,7 @@
     <t>cecilia.cuenca@espam.edu.ec</t>
   </si>
   <si>
-    <t>cbVRkvu#</t>
+    <t>YB23RopG</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA ANGIE MISHELLE</t>
@@ -2957,7 +2957,7 @@
     <t>angie.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>20&amp;mMpQs</t>
+    <t>#PqgPu&amp;H</t>
   </si>
   <si>
     <t>LATA QUINCHI SANDRA LOURDES</t>
@@ -2966,7 +2966,7 @@
     <t>sandra.lata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ebs&amp;TWsC</t>
+    <t>lXVXinbt</t>
   </si>
   <si>
     <t>MEJICANGO CALLE JAZMIN LISBETH</t>
@@ -2978,7 +2978,7 @@
     <t>jazmin.mejicango.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>d/Gbwent</t>
+    <t>mIQPDV0v</t>
   </si>
   <si>
     <t>MENDOZA GANCHOZO DOMENICA NICOLE</t>
@@ -2987,7 +2987,7 @@
     <t>domenica.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>l?r&amp;3nqJ</t>
+    <t>BEkR!UH6</t>
   </si>
   <si>
     <t>MOREIRA CEVALLOS NAYELY VANESSA</t>
@@ -2996,7 +2996,7 @@
     <t>nayely.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>ttaA0cIV</t>
+    <t>ayNE#kDW</t>
   </si>
   <si>
     <t>MUÑOZ VERA MICHELLE VALENTINA</t>
@@ -3005,7 +3005,7 @@
     <t>michelle.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>o22!OLda</t>
+    <t>dTYtgksB</t>
   </si>
   <si>
     <t>OLMOS RIVERA CLEOPATRA STEFANIA</t>
@@ -3014,7 +3014,7 @@
     <t>cleopatra.olmos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>pZls6w3d</t>
+    <t>Yb63N7eR</t>
   </si>
   <si>
     <t>PAREDES RODRIGUEZ GIBELY JARLETH</t>
@@ -3026,7 +3026,7 @@
     <t>gibely.paredes.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>7KQqq5KS</t>
+    <t>k&amp;#&amp;xzvk</t>
   </si>
   <si>
     <t>PERUGACHI MECIAS GEOVANNY ALEJANDRO</t>
@@ -3035,7 +3035,7 @@
     <t>geovanny.perugachi.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XFxKdebt</t>
+    <t>oh8S?Gns</t>
   </si>
   <si>
     <t>PITA MACIAS RUBEN DARIO</t>
@@ -3044,7 +3044,7 @@
     <t>ruben.pita@espam.edu.ec</t>
   </si>
   <si>
-    <t>kCgr?Fuw</t>
+    <t>Z7MZzwj&amp;</t>
   </si>
   <si>
     <t>ROSADO QUIROZ JANDRY FABRICIO</t>
@@ -3053,7 +3053,7 @@
     <t>jandry.rosado.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>P7Yt!p0y</t>
+    <t>wQ0sXCQ1</t>
   </si>
   <si>
     <t>SANCHEZ CHOEZ BERTHA DOLORES</t>
@@ -3062,7 +3062,7 @@
     <t>bertha.choez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sojsRX5y</t>
+    <t>XXMZ5OKM</t>
   </si>
   <si>
     <t>VALENCIA MARCILLO JENIFFER KAROLINA</t>
@@ -3071,7 +3071,7 @@
     <t>jenifferk.valenciam@espam.edu.ec</t>
   </si>
   <si>
-    <t>2Hq&amp;7Z9u</t>
+    <t>rZedyqHk</t>
   </si>
   <si>
     <t>VELASQUEZ GUADAMUD MARIO DAMIAN</t>
@@ -3080,7 +3080,7 @@
     <t>mario.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>v6?eSsnm</t>
+    <t>RT41m#8i</t>
   </si>
   <si>
     <t>VELEZ RIVAS JOFFRE GEOVANNY</t>
@@ -3089,7 +3089,7 @@
     <t>joffre.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>r6F!F!#i</t>
+    <t>aclFII/Y</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO GEMA BRIGITH</t>
@@ -3098,7 +3098,7 @@
     <t>gema.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>vv!rV!j5</t>
+    <t>0vCFO4KL</t>
   </si>
   <si>
     <t>VERA CEVALLOS CARMEN GISSELLA</t>
@@ -3107,7 +3107,7 @@
     <t>carmen.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>i7dT#aUu</t>
+    <t>HbsBTaIa</t>
   </si>
   <si>
     <t>VERA SOLORZANO CARLOS NEPTALI</t>
@@ -3116,7 +3116,7 @@
     <t>carlos.veras@espam.edu.ec</t>
   </si>
   <si>
-    <t>G3ilKp0a</t>
+    <t>QDv?dERt</t>
   </si>
   <si>
     <t>VERA VERA YUSTHYN YARLETH</t>
@@ -3125,7 +3125,7 @@
     <t>yusthyn.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>QAm2xzNS</t>
+    <t>nOr93nME</t>
   </si>
   <si>
     <t>VIDAL SABANDO MARIA KATHERINE</t>
@@ -3134,7 +3134,7 @@
     <t>maria.vidal.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZraSvD&amp;R</t>
+    <t>Yh9kjfhJ</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR EMILIO JOSE</t>
@@ -3143,7 +3143,7 @@
     <t>emilio.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>bbA7YO9e</t>
+    <t>4IW/lwsw</t>
   </si>
   <si>
     <t>ZAMBRANO AVEIGA MAYRA ALEXANDRA</t>
@@ -3152,7 +3152,7 @@
     <t>mayra.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zt6Zzuap</t>
+    <t>sqOTLqYj</t>
   </si>
   <si>
     <t>ZAMBRANO VERA MARIA BEATRIZ</t>
@@ -3161,7 +3161,7 @@
     <t>maria.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nw?hCvhs</t>
+    <t>vRafX3KO</t>
   </si>
   <si>
     <t>ALCIVAR RODRIGUEZ STEFANY LISETH</t>
@@ -3170,7 +3170,7 @@
     <t>stefany.alcivar.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Poet5ziT</t>
+    <t>N3XLdbAr</t>
   </si>
   <si>
     <t>ANGULO GLENN YURANI MAGERLI</t>
@@ -3182,7 +3182,7 @@
     <t>yurani.angulo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HC1YW8I/</t>
+    <t>SR4EglKK</t>
   </si>
   <si>
     <t>ARTEAGA TRIVIÑO CAMILA</t>
@@ -3191,7 +3191,7 @@
     <t>camila.arteaga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>G7OXFyGw</t>
+    <t>T7xSYQg&amp;</t>
   </si>
   <si>
     <t>BALDERRAMO CABRERA JOSE GERMAN</t>
@@ -3200,7 +3200,7 @@
     <t>jose.balderramo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1pzwzIEp</t>
+    <t>Wmsw5Ixx</t>
   </si>
   <si>
     <t>BRAVO MUÑOZ JEAN MYCKEL</t>
@@ -3209,7 +3209,7 @@
     <t>jean.bravomu@espam.edu.ec</t>
   </si>
   <si>
-    <t>5IE947o4</t>
+    <t>MRp8YkSI</t>
   </si>
   <si>
     <t>BRAVO SANTANA JUNIOR XAVIER</t>
@@ -3218,7 +3218,7 @@
     <t>juniorx.bravos@espam.edu.ec</t>
   </si>
   <si>
-    <t>xMOTxU5j</t>
+    <t>eJ1&amp;XXGK</t>
   </si>
   <si>
     <t>CAGUA RODRIGUEZ NAYELY ANAHI</t>
@@ -3227,7 +3227,7 @@
     <t>nayely.cagua.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YeuPFdyU</t>
+    <t>UP&amp;6TuUp</t>
   </si>
   <si>
     <t>CALDERON RODRIGUEZ FATIMA DANIELA</t>
@@ -3236,7 +3236,7 @@
     <t>fatima.calderon.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>7NEfilG1</t>
+    <t>X8BtLGFR</t>
   </si>
   <si>
     <t>CASTILLO MEJIA MARIA CARLOTA</t>
@@ -3245,7 +3245,7 @@
     <t>maria.castillo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>7ksSS!eI</t>
+    <t>magbjM3&amp;</t>
   </si>
   <si>
     <t>CEDEÑO CUSME DAYANARA NARCISA</t>
@@ -3254,7 +3254,7 @@
     <t>dayanara.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HLORSTzU</t>
+    <t>A!/ZzxEo</t>
   </si>
   <si>
     <t>CELORIO VERA PETER PABLO</t>
@@ -3263,7 +3263,7 @@
     <t>peter.celorio.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>OOZspHWD</t>
+    <t>8?RjMMn1</t>
   </si>
   <si>
     <t>COOL MORENO DIANA ESTHEFANIA</t>
@@ -3272,7 +3272,7 @@
     <t>diana.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>6j5hokyn</t>
+    <t>y/Q&amp;pkSo</t>
   </si>
   <si>
     <t>DELGADO GARZON PAOLA FERNANDA</t>
@@ -3281,7 +3281,7 @@
     <t>paola.delgadog.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jNk65Wat</t>
+    <t>?lYz6voj</t>
   </si>
   <si>
     <t>DOMINGUEZ DOMINGUEZ ROMINA MELISSA</t>
@@ -3290,7 +3290,7 @@
     <t>romina.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>u8cfF9jr</t>
+    <t>DecU?Z0i</t>
   </si>
   <si>
     <t>GARCIA MUÑOZ EDDY SANTIAGO</t>
@@ -3299,7 +3299,7 @@
     <t>eddy.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>IHelU8mp</t>
+    <t>/F6dALEk</t>
   </si>
   <si>
     <t>GARCIA PONCE LEONELA ANTONELLA</t>
@@ -3308,7 +3308,7 @@
     <t>leonela.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>IfnetdMN</t>
+    <t>SQ6oHv3?</t>
   </si>
   <si>
     <t>LOPEZ SOLORZANO YIMMY</t>
@@ -3317,7 +3317,7 @@
     <t>yimmy.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>1y7!u&amp;AI</t>
+    <t>afK6ceNc</t>
   </si>
   <si>
     <t>LOPEZ ZAMBRANO JORGE ISAAC</t>
@@ -3326,7 +3326,7 @@
     <t>jorge.lopez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>NrfuFaR6</t>
+    <t>qKZxw&amp;59</t>
   </si>
   <si>
     <t>MACIAS GUAGUA MAGERLY THAIS</t>
@@ -3338,7 +3338,7 @@
     <t>magerly.macias.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>OywY4IBf</t>
+    <t>XCR4krpu</t>
   </si>
   <si>
     <t>MARTINEZ SABANDO MARCELO EFRAIN</t>
@@ -3347,7 +3347,7 @@
     <t>marcelo.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>O5QXeqGR</t>
+    <t>ZUAkyUQe</t>
   </si>
   <si>
     <t>MEDRANDA CEDEÑO IVAN ARTURO</t>
@@ -3356,7 +3356,7 @@
     <t>ivan.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>65HN13j7</t>
+    <t>K#yIvd!d</t>
   </si>
   <si>
     <t>MENDOZA INTRIAGO KEYLA YAMIRA</t>
@@ -3365,7 +3365,7 @@
     <t>keyla.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>gEWpfio?</t>
+    <t>kPR0E1dx</t>
   </si>
   <si>
     <t>MENDOZA LOOR MARIAGRACIA</t>
@@ -3374,7 +3374,7 @@
     <t>mariagracia.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>6axDQS!e</t>
+    <t>?jK!ewb0</t>
   </si>
   <si>
     <t>MOREIRA VELEZ ANGELICA LISBETH</t>
@@ -3383,7 +3383,7 @@
     <t>angelica.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;WE3c#1s</t>
+    <t>qd?oyH7U</t>
   </si>
   <si>
     <t>PATA HERRERA ESTRELLA TATIANA</t>
@@ -3392,7 +3392,7 @@
     <t>estrella.pata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>VmvsGqKn</t>
+    <t>A7sgzOj/</t>
   </si>
   <si>
     <t>PONCE MIRANDA YOEL ISAIAS</t>
@@ -3401,7 +3401,7 @@
     <t>yoel.ponce@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xn/Bzdkw</t>
+    <t>81FARR38</t>
   </si>
   <si>
     <t>RIVAS ALARCON ALISSON MAYERLI</t>
@@ -3413,7 +3413,7 @@
     <t>alisson.rivas@espam.edu.ec</t>
   </si>
   <si>
-    <t>un9s0NDq</t>
+    <t>VsAXfqT7</t>
   </si>
   <si>
     <t>SABANDO VERA EMELY NOEMI</t>
@@ -3425,7 +3425,7 @@
     <t>emely.sabando.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ur&amp;34NY&amp;</t>
+    <t>wo6Ks0hn</t>
   </si>
   <si>
     <t>VELASQUEZ ZAMBRANO JUAN DIEGO</t>
@@ -3434,7 +3434,7 @@
     <t>juan.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>yR#6Iklv</t>
+    <t>IiPU!Kh&amp;</t>
   </si>
   <si>
     <t>ZAMBRANO MENDOZA JOSE LUIS</t>
@@ -3443,7 +3443,7 @@
     <t>jose.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ftEX5yrm</t>
+    <t>2TLqlUfx</t>
   </si>
   <si>
     <t>ZAMBRANO PEREZ CARLOS JULIO</t>
@@ -3452,7 +3452,7 @@
     <t>carlos.zambranop@espam.edu.ec</t>
   </si>
   <si>
-    <t>/5oGELth</t>
+    <t>1?YNMEHI</t>
   </si>
   <si>
     <t>ACHIG GUALACATA EVELIN LISETTE</t>
@@ -3461,7 +3461,7 @@
     <t>evelin.achig@espam.edu.ec</t>
   </si>
   <si>
-    <t>zMrQnXMC</t>
+    <t>GxLCS&amp;Vm</t>
   </si>
   <si>
     <t>AGUAS VERA JEICOL MIKE</t>
@@ -3470,7 +3470,7 @@
     <t>jeicol.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>Rip42L4D</t>
+    <t>5rY5ZNSt</t>
   </si>
   <si>
     <t>BRAVO BASURTO JUAN CARLOS</t>
@@ -3479,7 +3479,7 @@
     <t>juan.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>eyHTijHn</t>
+    <t>iAsKt0e#</t>
   </si>
   <si>
     <t>CANTOS ZAMBRANO MARIA FERNANDA</t>
@@ -3488,7 +3488,7 @@
     <t>mariaf.cantos@espam.edu.ec</t>
   </si>
   <si>
-    <t>HVs/2qjo</t>
+    <t>ezm4BfqM</t>
   </si>
   <si>
     <t>CASTILLO DELGADO LERENY JAMILEX</t>
@@ -3497,7 +3497,7 @@
     <t>lereny.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Kx!j77QO</t>
+    <t>6W29sfRG</t>
   </si>
   <si>
     <t>CASTILLO JACOME JHON JAIRO</t>
@@ -3506,7 +3506,7 @@
     <t>jhon.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>m5aDmZAo</t>
+    <t>6Pwhx0n9</t>
   </si>
   <si>
     <t>CELORIO MENDOZA MIRIAN ALEJANDRA</t>
@@ -3515,7 +3515,7 @@
     <t>mirian.celorio@espam.edu.ec</t>
   </si>
   <si>
-    <t>8mDNFl4Y</t>
+    <t>YMLoEv94</t>
   </si>
   <si>
     <t>CHUMO CHAVEZ JANINA BELEN</t>
@@ -3524,7 +3524,7 @@
     <t>janina.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mwm3z#h7</t>
+    <t>Y7QTuezl</t>
   </si>
   <si>
     <t>DELGADO LOPEZ MERCEDES ELIZABETH</t>
@@ -3533,7 +3533,7 @@
     <t>mercedes.delgado@espam.edu.ec</t>
   </si>
   <si>
-    <t>7A8q6rFx</t>
+    <t>#9wj!yrQ</t>
   </si>
   <si>
     <t>ESTEVES OLVERA DIANA MILENA</t>
@@ -3542,7 +3542,7 @@
     <t>diana.esteves@espam.edu.ec</t>
   </si>
   <si>
-    <t>DlQI?WiM</t>
+    <t>DyPYf&amp;hF</t>
   </si>
   <si>
     <t>FALLAIN ZAMBRANO MARIA ANGELICA</t>
@@ -3551,7 +3551,7 @@
     <t>maria.fallain@espam.edu.ec</t>
   </si>
   <si>
-    <t>iJ1i#ugC</t>
+    <t>#&amp;xteZaq</t>
   </si>
   <si>
     <t>FERNANDEZ CEVALLOS FRANCISCO ESTUARDO</t>
@@ -3560,7 +3560,7 @@
     <t>francisco.fernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>M1mnbJS/</t>
+    <t>07!RN7j0</t>
   </si>
   <si>
     <t>HERNANDEZ HERNANDEZ MARIA ZULEMA</t>
@@ -3572,7 +3572,7 @@
     <t>maria.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>cM/lNg34</t>
+    <t>&amp;yQX8b7Y</t>
   </si>
   <si>
     <t>INTRIAGO SOLORZANO LEYDI GABRIELA</t>
@@ -3581,7 +3581,7 @@
     <t>leydi.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>#JH71zwo</t>
+    <t>AqL?9yRO</t>
   </si>
   <si>
     <t>MACIAS LOOR ELIAN RENE</t>
@@ -3590,7 +3590,7 @@
     <t>elian.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>!RrUJ7C6</t>
+    <t>gip3USau</t>
   </si>
   <si>
     <t>MACIAS PISCO NACHY MONSERRAT</t>
@@ -3599,7 +3599,7 @@
     <t>nachy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>aqzSlx4U</t>
+    <t>LsSBwF88</t>
   </si>
   <si>
     <t>MERA LOOR JONAYKER REYNALDO</t>
@@ -3608,7 +3608,7 @@
     <t>jonayker.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>e02B8Ssg</t>
+    <t>&amp;gVIlGM3</t>
   </si>
   <si>
     <t>MOREIRA BASURTO YORDY JOEL</t>
@@ -3617,7 +3617,7 @@
     <t>yordy.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>FD1sqPp#</t>
+    <t>BVyP4AIK</t>
   </si>
   <si>
     <t>MOREIRA MENDOZA MAGDALENA JAMILETH</t>
@@ -3626,7 +3626,7 @@
     <t>magdalena.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>/l4sa9DP</t>
+    <t>#iEMcUzx</t>
   </si>
   <si>
     <t>PANTUSIN MUGUERZA ANDREA LISSETH</t>
@@ -3635,7 +3635,7 @@
     <t>andrea.pantusin@espam.edu.ec</t>
   </si>
   <si>
-    <t>SPMHCDqR</t>
+    <t>u6WfG/#v</t>
   </si>
   <si>
     <t>PATIÑO MEJIA MILENA ANAHI</t>
@@ -3644,7 +3644,7 @@
     <t>milena.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;Oxf4Dc#</t>
+    <t>ae9anHmU</t>
   </si>
   <si>
     <t>PICO GARCIA ALLISON JANELY</t>
@@ -3653,7 +3653,7 @@
     <t>allison.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>lqIC#HFv</t>
+    <t>a9BJDzX5</t>
   </si>
   <si>
     <t>POVEDA SANTANA ENZO JAVIER</t>
@@ -3665,7 +3665,7 @@
     <t>enzo.poveda@espam.edu.ec</t>
   </si>
   <si>
-    <t>T&amp;JygFCN</t>
+    <t>zjnqpPTt</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO NATALY SILVANA</t>
@@ -3674,7 +3674,7 @@
     <t>nataly.quijije@espam.edu.ec</t>
   </si>
   <si>
-    <t>nP3nbhMD</t>
+    <t>Rd&amp;//gKS</t>
   </si>
   <si>
     <t>ROBALINO DELGADO JORGE DAVID</t>
@@ -3683,7 +3683,7 @@
     <t>jorge.robalino@espam.edu.ec</t>
   </si>
   <si>
-    <t>3/Guj98q</t>
+    <t>scljdYwo</t>
   </si>
   <si>
     <t>SANCHEZ CASTILLO ADRIANA MICAELA</t>
@@ -3692,7 +3692,7 @@
     <t>adriana.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>zAiHdZoP</t>
+    <t>r#5fZ9ND</t>
   </si>
   <si>
     <t>SOLORZANO ALAVA TAIRUN FRANCISCO</t>
@@ -3701,7 +3701,7 @@
     <t>tairun.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZmB#VmTC</t>
+    <t>lsugohXI</t>
   </si>
   <si>
     <t>SOLORZANO BAILON MARIA GABRIELA</t>
@@ -3710,7 +3710,7 @@
     <t>mariaga.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>suPR2A3f</t>
+    <t>gSHZSr5s</t>
   </si>
   <si>
     <t>TRUJILLO AGUAS MAYERLI DAYANA</t>
@@ -3719,7 +3719,7 @@
     <t>mayerli.trujillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>H51#9zpS</t>
+    <t>TXlpzwnC</t>
   </si>
   <si>
     <t>VERA VERA CINTHIA MARIA</t>
@@ -3728,7 +3728,7 @@
     <t>cinthia.verav@espam.edu.ec</t>
   </si>
   <si>
-    <t>GFbxQg?&amp;</t>
+    <t>T&amp;SqMZzk</t>
   </si>
   <si>
     <t>VIDAL INTRIAGO ANDY YOEL</t>
@@ -3737,7 +3737,7 @@
     <t>andy.vidal@espam.edu.ec</t>
   </si>
   <si>
-    <t>h5j8hEr1</t>
+    <t>F02ow96g</t>
   </si>
   <si>
     <t>VINTIMILLA PROAÑO MARIA DE LOURDES</t>
@@ -3746,7 +3746,7 @@
     <t>maria.vintimilla@espam.edu.ec</t>
   </si>
   <si>
-    <t>IJigCIfg</t>
+    <t>y71ei05I</t>
   </si>
   <si>
     <t>VITERI SANTOS VINICIO ORLEY</t>
@@ -3755,7 +3755,7 @@
     <t>vinicio.viteri@espam.edu.ec</t>
   </si>
   <si>
-    <t>!aXrWgn0</t>
+    <t>9/?NCpvm</t>
   </si>
   <si>
     <t>ZAMBRANO CANO FRANCISCO JAVIER</t>
@@ -3764,7 +3764,7 @@
     <t>francisco.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>RFZp2CCy</t>
+    <t>wdOJ3Jr!</t>
   </si>
   <si>
     <t>ZAMBRANO NAVARRETE ELBA MARIA</t>
@@ -3773,7 +3773,7 @@
     <t>elba.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>fEnu4P7k</t>
+    <t>KK5yytW#</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO WENDY GISSELLA</t>
@@ -3782,7 +3782,7 @@
     <t>wendy.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>gvt3/Vhz</t>
+    <t>wv&amp;6mase</t>
   </si>
   <si>
     <t>ARANA RUEDA ANGY LISSETH</t>
@@ -3794,7 +3794,7 @@
     <t>angy.arana@espam.edu.ec</t>
   </si>
   <si>
-    <t>DCnLST2B</t>
+    <t>TiP7DwlT</t>
   </si>
   <si>
     <t>ARTEAGA VARGAS ANDREA VALERIA</t>
@@ -3803,7 +3803,7 @@
     <t>andrea.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>2?MGUbAg</t>
+    <t>4Myd2Tnv</t>
   </si>
   <si>
     <t>BARBERAN SANCHEZ KARLA MICHELLE</t>
@@ -3812,7 +3812,7 @@
     <t>karla.barberan@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;GI#rNIW</t>
+    <t>2fn4kmj?</t>
   </si>
   <si>
     <t>BAZURTO MANZABA SORAYA STEFANIA</t>
@@ -3821,7 +3821,7 @@
     <t>soraya.bazurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>I/7jEah5</t>
+    <t>EvOnXTW0</t>
   </si>
   <si>
     <t>CAGUA GARCIA ANDRES VIRGILIO</t>
@@ -3830,7 +3830,7 @@
     <t>andres.cagua@espam.edu.ec</t>
   </si>
   <si>
-    <t>AtXbcSma</t>
+    <t>CWQUBPeJ</t>
   </si>
   <si>
     <t>DOMINGUEZ CALDERON JEAN PIERRE</t>
@@ -3839,7 +3839,7 @@
     <t>jean.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>I7/xTo&amp;U</t>
+    <t>dL2PCQ44</t>
   </si>
   <si>
     <t>ESPINOZA ALCIVAR EVELYN ALEXANDRA</t>
@@ -3848,7 +3848,7 @@
     <t>evelyn.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>NhyV6ufj</t>
+    <t>ad6kNdxg</t>
   </si>
   <si>
     <t>LOOR MORENO DANIEL AGUSTIN</t>
@@ -3857,7 +3857,7 @@
     <t>daniel.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>AvXzIW3P</t>
+    <t>RVu#P?Nq</t>
   </si>
   <si>
     <t>MACIAS PARRALES MEREDITH MARIBEL</t>
@@ -3866,7 +3866,7 @@
     <t>meredith.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>G3L4DzHY</t>
+    <t>dulEjwvU</t>
   </si>
   <si>
     <t>MENDOZA CANCHINGRE BRIGITH MIKAELA</t>
@@ -3875,7 +3875,7 @@
     <t>brigith.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>B0dRNJYy</t>
+    <t>og!XIib7</t>
   </si>
   <si>
     <t>MENDOZA VELEZ JOSE MIGUEL</t>
@@ -3884,7 +3884,7 @@
     <t>josemi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>/Nt5B5HN</t>
+    <t>9K2Y!D1L</t>
   </si>
   <si>
     <t>MEZA BRIONES ANTHONY NARCILO</t>
@@ -3893,7 +3893,7 @@
     <t>anthony.meza@espam.edu.ec</t>
   </si>
   <si>
-    <t>bKQGBgRx</t>
+    <t>js&amp;jPgw6</t>
   </si>
   <si>
     <t>MORA ZAMBRANO MARIA LAURA</t>
@@ -3902,7 +3902,7 @@
     <t>maria.mora@espam.edu.ec</t>
   </si>
   <si>
-    <t>m?yhuwic</t>
+    <t>9Iu5FxWe</t>
   </si>
   <si>
     <t>NAVARRETE ZAMBRANO ROBIN LUGERIO</t>
@@ -3911,7 +3911,7 @@
     <t>robin.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>at8h#n&amp;W</t>
+    <t>SceRjmFT</t>
   </si>
   <si>
     <t>OSTAIZA LOPEZ JOSEPH MANUEL</t>
@@ -3920,7 +3920,7 @@
     <t>josepth.ostaiza@espam.edu.ec</t>
   </si>
   <si>
-    <t>JnRpdcGb</t>
+    <t>RB1oNw#f</t>
   </si>
   <si>
     <t>PARRAGA PARRAGA CARLA ESTEFANIA</t>
@@ -3929,7 +3929,7 @@
     <t>carla.parraga@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZTz3ocC2</t>
+    <t>UbjPI0Jt</t>
   </si>
   <si>
     <t>PLAZA CABRERA MAYERLY MARIA</t>
@@ -3941,7 +3941,7 @@
     <t>mayerly.plaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>0yK3IUyt</t>
+    <t>ce9cfsxk</t>
   </si>
   <si>
     <t>RODRIGUEZ VELIZ LEANDRO MOISES</t>
@@ -3950,7 +3950,7 @@
     <t>leandro.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>S3n9MZ/o</t>
+    <t>lg7r9?a9</t>
   </si>
   <si>
     <t>SANTANA GUERRERO MARIA RAQUEL</t>
@@ -3959,7 +3959,7 @@
     <t>mariar.santanag@espam.edu.ec</t>
   </si>
   <si>
-    <t>OZwAPBZI</t>
+    <t>isvSQUL?</t>
   </si>
   <si>
     <t>SANTOS SALAZAR JANDRY DAVID</t>
@@ -3968,7 +3968,7 @@
     <t>jandry.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>ni?fm6B?</t>
+    <t>68l&amp;X&amp;hk</t>
   </si>
   <si>
     <t>SOLORZANO LOOR KEYLA GEOVANNA</t>
@@ -3977,7 +3977,7 @@
     <t>keyla.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>dtO18wMv</t>
+    <t>um39IdDd</t>
   </si>
   <si>
     <t>VALENCIA ZAMBRANO VALERIA MERCEDES</t>
@@ -3986,7 +3986,7 @@
     <t>valeria.valencia@espam.edu.ec</t>
   </si>
   <si>
-    <t>n&amp;qHGv8t</t>
+    <t>rPuc8TmP</t>
   </si>
   <si>
     <t>VARGAS CHOEZ ALEXIS ELIAN</t>
@@ -3995,7 +3995,7 @@
     <t>alexis.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>MziBPjTo</t>
+    <t>1PKh9XV7</t>
   </si>
   <si>
     <t>VELEZ ALMEIDA CARMEN REBECA</t>
@@ -4004,7 +4004,7 @@
     <t>carmen.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>JIJBF!vB</t>
+    <t>SUsVeRKP</t>
   </si>
   <si>
     <t>VELEZ LEGTON GENESIS YAMILET</t>
@@ -4013,7 +4013,7 @@
     <t>genesisya.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>OcJ825Pd</t>
+    <t>0FnNydb#</t>
   </si>
   <si>
     <t>VERA BALAREZO MARYAM JANELLA</t>
@@ -4022,7 +4022,7 @@
     <t>maryam.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>e6NAH1J9</t>
+    <t>FTKDt6T9</t>
   </si>
   <si>
     <t>VERA SERRANO CARLOS STEFANO</t>
@@ -4031,7 +4031,7 @@
     <t>carlos.verase@espam.edu.ec</t>
   </si>
   <si>
-    <t>TejD!jR1</t>
+    <t>Vy?0RvYb</t>
   </si>
   <si>
     <t>VIERA BAZURTO JOSE ALEXANDER</t>
@@ -4040,7 +4040,7 @@
     <t>jose.viera@espam.edu.ec</t>
   </si>
   <si>
-    <t>55ghVPMW</t>
+    <t>VyS5DPf/</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR DIEGO JAHIR</t>
@@ -4049,7 +4049,7 @@
     <t>diego.zambranoa@espam.edu.ec</t>
   </si>
   <si>
-    <t>sp/#TvTH</t>
+    <t>CvpPV4s!</t>
   </si>
   <si>
     <t>ZAMBRANO MANZABA MARIA FERNANDA</t>
@@ -4058,7 +4058,7 @@
     <t>mariafer.zambranom@espam.edu.ec</t>
   </si>
   <si>
-    <t>tWK6cDW7</t>
+    <t>uy4HhpOs</t>
   </si>
   <si>
     <t>ALCIVAR GILER MELANY JULISA</t>
@@ -4067,7 +4067,7 @@
     <t>melany.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>9z#qh3#f</t>
+    <t>92MKmx&amp;I</t>
   </si>
   <si>
     <t>ANDRADE ZAMBRANO NATHALY NICOLLE</t>
@@ -4076,7 +4076,7 @@
     <t>nathaly.andrade@espam.edu.ec</t>
   </si>
   <si>
-    <t>3c1thd1g</t>
+    <t>QH4/SudV</t>
   </si>
   <si>
     <t>BASURTO MORAN LUIS ALEXANDER</t>
@@ -4085,7 +4085,7 @@
     <t>luis.basurtom@espam.edu.ec</t>
   </si>
   <si>
-    <t>aTfwTUPz</t>
+    <t>5KGwOqfT</t>
   </si>
   <si>
     <t>BERMELLO VELEZ ANGELA DANIELA</t>
@@ -4094,7 +4094,7 @@
     <t>angela.bermello@espam.edu.ec</t>
   </si>
   <si>
-    <t>C&amp;X39a8I</t>
+    <t>zvA0#zAM</t>
   </si>
   <si>
     <t>BRAVO VERA GEMA VIVIANA</t>
@@ -4103,7 +4103,7 @@
     <t>gema.bravov@espam.edu.ec</t>
   </si>
   <si>
-    <t>RC972klR</t>
+    <t>IX87I1Tm</t>
   </si>
   <si>
     <t>BRIONES INTRIAGO LORENA LUCIA</t>
@@ -4112,7 +4112,7 @@
     <t>lorena.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>QhAUsKjD</t>
+    <t>&amp;JGUdkPd</t>
   </si>
   <si>
     <t>BURGOS BRAVO KATHERIN DANIELA</t>
@@ -4121,7 +4121,7 @@
     <t>katherin.burgos@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zp9x2LXB</t>
+    <t>GdctE7Go</t>
   </si>
   <si>
     <t>LOOR PARRAGA ROY RUBEN</t>
@@ -4130,7 +4130,7 @@
     <t>roy.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>XaxNL7Go</t>
+    <t>?tSmX5q/</t>
   </si>
   <si>
     <t>LOPEZ GANCHOZO LEANDRO ANTONIO</t>
@@ -4139,7 +4139,7 @@
     <t>leandro.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Oc3Rzti</t>
+    <t>FXe7e1mG</t>
   </si>
   <si>
     <t>MACIAS MACIAS JOY ROBERTO</t>
@@ -4148,7 +4148,7 @@
     <t>joy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZI?vgEOs</t>
+    <t>S9blrJAP</t>
   </si>
   <si>
     <t>MACIAS SILVA CINTHYA MARIANA</t>
@@ -4157,7 +4157,7 @@
     <t>cinthya.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>MNMoio&amp;S</t>
+    <t>T7DIeAYB</t>
   </si>
   <si>
     <t>MENDOZA PONCE MARIA ANGELICA</t>
@@ -4166,7 +4166,7 @@
     <t>maria.mendozap@espam.edu.ec</t>
   </si>
   <si>
-    <t>W/KGWeNy</t>
+    <t>24pCKuP4</t>
   </si>
   <si>
     <t>MONCAYO LAINEZ KERLY ARIANNA</t>
@@ -4175,7 +4175,7 @@
     <t>kerly.moncayo@espam.edu.ec</t>
   </si>
   <si>
-    <t>q4rjVGVB</t>
+    <t>gcnr7&amp;B9</t>
   </si>
   <si>
     <t>MONTES POZO JEAN POLL</t>
@@ -4184,7 +4184,7 @@
     <t>jean.montes@espam.edu.ec</t>
   </si>
   <si>
-    <t>KJ!Homvc</t>
+    <t>f2zaLKe0</t>
   </si>
   <si>
     <t>MORENO OBANDO ANA BELLA</t>
@@ -4193,7 +4193,7 @@
     <t>ana.moreno@espam.edu.ec</t>
   </si>
   <si>
-    <t>4o!Ay0bw</t>
+    <t>gvqfge#W</t>
   </si>
   <si>
     <t>NAVARRETE PARODI ERIKA KARINA</t>
@@ -4202,7 +4202,7 @@
     <t>erika.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>2Y7suLw0</t>
+    <t>qeIQ7eE8</t>
   </si>
   <si>
     <t>ORMAZA ESPINOZA JESUS EMILIO</t>
@@ -4211,7 +4211,7 @@
     <t>jesus.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>01D1Wgd!</t>
+    <t>!cd6!HfR</t>
   </si>
   <si>
     <t>ORMAZA FALCONES MARIA ALEJANDRA</t>
@@ -4220,7 +4220,7 @@
     <t>maria.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>mF/K5rHH</t>
+    <t>STKZynaB</t>
   </si>
   <si>
     <t>PARRAGA QUIJIJE GEMA KAROLINA</t>
@@ -4229,7 +4229,7 @@
     <t>gemak.parragaq@espam.edu.ec</t>
   </si>
   <si>
-    <t>yXOFEkP1</t>
+    <t>f6sJq2vP</t>
   </si>
   <si>
     <t>PICO TOLA MARCO ANDRES</t>
@@ -4238,7 +4238,7 @@
     <t>marco.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>QNasdx0d</t>
+    <t>Ix&amp;KV?R3</t>
   </si>
   <si>
     <t>PIN NAPA IVANA MAYERLI</t>
@@ -4247,7 +4247,7 @@
     <t>ivana.pin@espam.edu.ec</t>
   </si>
   <si>
-    <t>t9P1LlF9</t>
+    <t>iP9?wY3l</t>
   </si>
   <si>
     <t>ROMERO BRAVO JOSE AGUSTIN</t>
@@ -4256,7 +4256,7 @@
     <t>jose.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>HoDnGwoC</t>
+    <t>jF3IWDMI</t>
   </si>
   <si>
     <t>SALTOS INTRIAGO NATHALIA MELISSA</t>
@@ -4265,7 +4265,7 @@
     <t>nathalia.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>7tT&amp;iVQw</t>
+    <t>8#T3cze!</t>
   </si>
   <si>
     <t>SALTOS SALTOS MADELYNE PIERINA</t>
@@ -4274,7 +4274,7 @@
     <t>madelyne.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>H9kg&amp;1iK</t>
+    <t>tu&amp;3JmI7</t>
   </si>
   <si>
     <t>SOLIS ORTIZ SANTIAGO</t>
@@ -4283,7 +4283,7 @@
     <t>santiago.solis@espam.edu.ec</t>
   </si>
   <si>
-    <t>CtPAG19x</t>
+    <t>v!mR?h3s</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO GEMA NARCISA</t>
@@ -4292,7 +4292,7 @@
     <t>gema.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ep8e6nxA</t>
+    <t>a/DSPCZF</t>
   </si>
   <si>
     <t>VARGAS SOLORZANO ANDREA DIVINA</t>
@@ -4301,7 +4301,7 @@
     <t>andrea.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>BEmOoBwV</t>
+    <t>Z2x1sw/B</t>
   </si>
   <si>
     <t>VELEZ VERA MANUEL ALEXANDER</t>
@@ -4310,7 +4310,7 @@
     <t>manuel.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>YW8OoU6n</t>
+    <t>GyN1ZIbO</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO ADRIAN DAVID</t>
@@ -4319,7 +4319,7 @@
     <t>adrian.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>b0dW?/rg</t>
+    <t>XPXTAjZV</t>
   </si>
   <si>
     <t>YLLESCA CEDEÑO JESUS JONATHAN</t>
@@ -4328,7 +4328,7 @@
     <t>jesus.yllesca@espam.edu.ec</t>
   </si>
   <si>
-    <t>!5lVstBb</t>
+    <t>iYQx?B6?</t>
   </si>
   <si>
     <t>ZAMBRANO CATOTA DERLYN MILENA</t>
@@ -4337,7 +4337,7 @@
     <t>derlyn.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>nor/pABu</t>
+    <t>CUU3EnMH</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO CHRISTIAN EDUARDO</t>
@@ -4346,7 +4346,7 @@
     <t>christian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Oy6ONe0N</t>
+    <t>tsEdq5lJ</t>
   </si>
   <si>
     <t>ZAMBRANO ROBLES GLENDY MERCEDES</t>
@@ -4355,7 +4355,7 @@
     <t>glendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>xQLRytV0</t>
+    <t>x/R9IZ7n</t>
   </si>
   <si>
     <t>ZAMBRANO ROSADO JORGE ALESSANDRO</t>
@@ -4364,7 +4364,7 @@
     <t>jorge.zambranor@espam.edu.ec</t>
   </si>
   <si>
-    <t>yF1duVNU</t>
+    <t>DKdtsor6</t>
   </si>
   <si>
     <t>ZAMBRANO VERA WENDY ANAHI</t>
@@ -4373,7 +4373,7 @@
     <t>wendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>vHH8BUUG</t>
+    <t>Sw5KiUWN</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO JONATHAN JAVIER</t>
@@ -4382,7 +4382,7 @@
     <t>jonathan.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z5r!9zJ!</t>
+    <t>N?V3TBcj</t>
   </si>
   <si>
     <t>ZAMORA SOLORZANO MAGALY DOLORES</t>
@@ -4391,7 +4391,7 @@
     <t>magaly.zamora@espam.edu.ec</t>
   </si>
   <si>
-    <t>sZGA?QsF</t>
+    <t>Q8xHAeFl</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO MARIA EMILIA</t>
@@ -4400,7 +4400,7 @@
     <t>maria.bravoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>YsufIdJL</t>
+    <t>xzrl6d?R</t>
   </si>
   <si>
     <t>CEVALLOS ALVAREZ ARMANDO ENRIQUE</t>
@@ -4409,7 +4409,7 @@
     <t>armando.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>!2PeUMlL</t>
+    <t>Cpx&amp;7HHK</t>
   </si>
   <si>
     <t>CEVALLOS VERA ARELIS STEFANIA</t>
@@ -4418,7 +4418,7 @@
     <t>arelis.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>1kN&amp;1IHp</t>
+    <t>aiEGSnvI</t>
   </si>
   <si>
     <t>COOL MERO PATRICIO JAVIER</t>
@@ -4427,7 +4427,7 @@
     <t>patricio.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>bZSMQaZt</t>
+    <t>fM58K3Jp</t>
   </si>
   <si>
     <t>FRANCO ORELLANA GUADALUPE MONSERRATE</t>
@@ -4436,7 +4436,7 @@
     <t>guadalupe.franco@espam.edu.ec</t>
   </si>
   <si>
-    <t>pAfPra/#</t>
+    <t>qK2HYJ1k</t>
   </si>
   <si>
     <t>HUERTA BALDIVIEZO JEAN CRISTHIAN</t>
@@ -4445,7 +4445,7 @@
     <t>jean.huerta@espam.edu.ec</t>
   </si>
   <si>
-    <t>cwGJUZFM</t>
+    <t>xYx5YMiS</t>
   </si>
   <si>
     <t>INTRIAGO CANTOS MARIA JOSE</t>
@@ -4454,7 +4454,7 @@
     <t>maria.intriagoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>b&amp;SMrCrx</t>
+    <t>iNgX?uzK</t>
   </si>
   <si>
     <t>LOOR CANTOS DIANA ISABEL</t>
@@ -4463,7 +4463,7 @@
     <t>diana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>vlWCtiY2</t>
+    <t>mCaE1feh</t>
   </si>
   <si>
     <t>LOOR SEGOVIA EVELYN ADRIANA</t>
@@ -4472,7 +4472,7 @@
     <t>evelyn.loors@espam.edu.ec</t>
   </si>
   <si>
-    <t>#Pg1/DbV</t>
+    <t>S/FD1uWO</t>
   </si>
   <si>
     <t>MEDINA CEDEÑO JULIO CESAR</t>
@@ -4481,7 +4481,7 @@
     <t>julio.medina@espam.edu.ec</t>
   </si>
   <si>
-    <t>mNteSNDn</t>
+    <t>V#Vc1ipQ</t>
   </si>
   <si>
     <t>MERA VELEZ ALONDRA GARDENIA</t>
@@ -4490,7 +4490,7 @@
     <t>alondra.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>UrSYEtsH</t>
+    <t>b1jk6krM</t>
   </si>
   <si>
     <t>MUÑOZ ZAMBRANO CARLOS JOSUE</t>
@@ -4499,7 +4499,7 @@
     <t>carlos.munozz@espam.edu.ec</t>
   </si>
   <si>
-    <t>VzUuUbjy</t>
+    <t>O9AE1#E5</t>
   </si>
   <si>
     <t>NAPA RODRIGUEZ JOSE AGUSTIN</t>
@@ -4508,7 +4508,7 @@
     <t>jose.napa@espam.edu.ec</t>
   </si>
   <si>
-    <t>!gTaY8WQ</t>
+    <t>s/Wm2PK1</t>
   </si>
   <si>
     <t>PALMA CEVALLOS MARIA JOSE</t>
@@ -4517,7 +4517,7 @@
     <t>maria.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;0eTybpS</t>
+    <t>DF8sIPlO</t>
   </si>
   <si>
     <t>PATIÑO MESIAS MARIA GABRIELA</t>
@@ -4526,7 +4526,7 @@
     <t>maria.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>3eQmn/oA</t>
+    <t>MQozOJyG</t>
   </si>
   <si>
     <t>QUINTANA CAGUA YENIFER YULI</t>
@@ -4535,7 +4535,7 @@
     <t>yenifer.quintana@espam.edu.ec</t>
   </si>
   <si>
-    <t>5YbYyRmd</t>
+    <t>o0e6Bbrk</t>
   </si>
   <si>
     <t>RIVERA CANTOS MARIA DANIELA</t>
@@ -4544,7 +4544,7 @@
     <t>maria.riverac@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pir7SbBv</t>
+    <t>i4W3vk7M</t>
   </si>
   <si>
     <t>RODRIGUEZ PINCAY CARLOS BRYAN</t>
@@ -4553,7 +4553,7 @@
     <t>carlos.rodriguezp@espam.edu.ec</t>
   </si>
   <si>
-    <t>UNJ1cTWr</t>
+    <t>/aND1Q7/</t>
   </si>
   <si>
     <t>SABANDO VELEZ CRISTHIAN ANTHONY</t>
@@ -4562,7 +4562,7 @@
     <t>cristhian.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>6tiG7A7o</t>
+    <t>?q0u/W#H</t>
   </si>
   <si>
     <t>SANTANA VERA ANTHONY JAHIR</t>
@@ -4571,7 +4571,7 @@
     <t>anthony.santana@espam.edu.ec</t>
   </si>
   <si>
-    <t>ay7W3p3o</t>
+    <t>iAJR&amp;Eqp</t>
   </si>
   <si>
     <t>VELEZ ESPINOZA JUNIOR JESUS</t>
@@ -4580,7 +4580,7 @@
     <t>junior.veleze@espam.edu.ec</t>
   </si>
   <si>
-    <t>8H/K!l0O</t>
+    <t>YB#6Qgpx</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO DIEGO ALEJANDRO</t>
@@ -4589,7 +4589,7 @@
     <t>diego.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>fqkUJhOp</t>
+    <t>jawXlP3I</t>
   </si>
   <si>
     <t>ZAMBRANO VELEZ NAYELHY LILIBETH</t>
@@ -4598,7 +4598,7 @@
     <t>nayelhy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>LQnvnuW4</t>
+    <t>EyjrZ0Ok</t>
   </si>
   <si>
     <t>ZAMBRANO WITONG KENIA THAIS</t>
@@ -4607,7 +4607,7 @@
     <t>keniath.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>L2hU2Rxv</t>
+    <t>#2TzUCx!</t>
   </si>
   <si>
     <t>ANCHUNDIA ANCHUNDIA GEMA LILIBETH</t>
@@ -4616,7 +4616,7 @@
     <t>gema.anchundia@espam.edu.ec</t>
   </si>
   <si>
-    <t>4c2!wgDg</t>
+    <t>O#pU9kQr</t>
   </si>
   <si>
     <t>ARTEAGA DELGADO JEAN CARLOS</t>
@@ -4625,7 +4625,7 @@
     <t>jean.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;YQ7oA1U</t>
+    <t>Yy7gsWt4</t>
   </si>
   <si>
     <t>BARREIRO ZAMBRANO JOSE VICENTE</t>
@@ -4634,7 +4634,7 @@
     <t>jose.barreiro@espam.edu.ec</t>
   </si>
   <si>
-    <t>APcJ7NIV</t>
+    <t>r0f77OCY</t>
   </si>
   <si>
     <t>BASURTO ALCIVAR DARWIN JESUS</t>
@@ -4643,7 +4643,7 @@
     <t>darwin.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>rdJ1o&amp;rU</t>
+    <t>Xi71x0yI</t>
   </si>
   <si>
     <t>BRAVO CEDEÑO JOSE RODOLFO</t>
@@ -4652,7 +4652,7 @@
     <t>jose.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>?n#rThPt</t>
+    <t>Wwiqx7Qo</t>
   </si>
   <si>
     <t>BRIONES BERMEO ANTONY JAVIER</t>
@@ -4661,7 +4661,7 @@
     <t>antony.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>eSMj2e?K</t>
+    <t>YiTEAYJ3</t>
   </si>
   <si>
     <t>CEDEÑO ANCHUNDIA YANDRY ANTONIO</t>
@@ -4673,7 +4673,7 @@
     <t>yandry.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>hwqWc9q#</t>
+    <t>gFnaj448</t>
   </si>
   <si>
     <t>CEDEÑO PEÑARRIETA DAYANA SOPHIA</t>
@@ -4682,7 +4682,7 @@
     <t>dayanaso.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>nomxopUd</t>
+    <t>raSTzKfg</t>
   </si>
   <si>
     <t>CHAVARRIA PEÑARRIETA MARCOS ALEJANDRO</t>
@@ -4691,7 +4691,7 @@
     <t>marcos.chavarria@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q4asNnjS</t>
+    <t>317ucfRN</t>
   </si>
   <si>
     <t>DEL VALLE BASURTO CARMEN MELINA</t>
@@ -4700,7 +4700,7 @@
     <t>carmen.del@espam.edu.ec</t>
   </si>
   <si>
-    <t>7iOJM#Zz</t>
+    <t>Iw/VQiCg</t>
   </si>
   <si>
     <t>GUERRERO BRAVO ANA BELEN</t>
@@ -4709,7 +4709,7 @@
     <t>ana.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>WIzkd7SA</t>
+    <t>m#5qclz4</t>
   </si>
   <si>
     <t>GUERRERO GUERRERO JOSSELYN MELISSA</t>
@@ -4718,7 +4718,7 @@
     <t>josselyn.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>1W0IQWN0</t>
+    <t>!1vTSCQL</t>
   </si>
   <si>
     <t>INTRIAGO BARBERAN LAURO ANTONIO</t>
@@ -4727,7 +4727,7 @@
     <t>lauro.intriago1@espam.edu.ec</t>
   </si>
   <si>
-    <t>szLmhyJ&amp;</t>
+    <t>C38ta0Zl</t>
   </si>
   <si>
     <t>INTRIAGO MORA LENIN ARCENIO</t>
@@ -4736,7 +4736,7 @@
     <t>lenin.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>RJbe1UWw</t>
+    <t>alX9keNU</t>
   </si>
   <si>
     <t>MACIAS CALDERON JOSE ARIEL</t>
@@ -4745,7 +4745,7 @@
     <t>jose.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>BWJH8699</t>
+    <t>Y6JzrUxr</t>
   </si>
   <si>
     <t>MARCILLO VELEZ ANA PATRICIA</t>
@@ -4754,7 +4754,7 @@
     <t>ana.marcillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>5Gh3Dc&amp;k</t>
+    <t>Lmls#KXe</t>
   </si>
   <si>
     <t>MERA FIGUEROA RAYMOND ALEJANDRO</t>
@@ -4763,7 +4763,7 @@
     <t>raymond.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>ouMqoFt4</t>
+    <t>uVfhJ/F0</t>
   </si>
   <si>
     <t>MOREIRA ZAMBRANO JOSSENKA MERCEDES</t>
@@ -4772,7 +4772,7 @@
     <t>jossenka.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>g6ltNWt2</t>
+    <t>Nnlbcrcu</t>
   </si>
   <si>
     <t>MUÑOZ ALCIVAR CRISTHIAN MARTIN</t>
@@ -4781,7 +4781,7 @@
     <t>cristhian.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>Uy?0trer</t>
+    <t>I49s6n&amp;i</t>
   </si>
   <si>
     <t>MUÑOZ MACIAS MARIA MAGDALENA</t>
@@ -4790,7 +4790,7 @@
     <t>mariama.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>j8Wg?xCi</t>
+    <t>q9Mtkd!U</t>
   </si>
   <si>
     <t>POLO GANCHOZO ARON ESNEYDER</t>
@@ -4799,7 +4799,7 @@
     <t>aron.polo@espam.edu.ec</t>
   </si>
   <si>
-    <t>shiNpcio</t>
+    <t>we6R/GLn</t>
   </si>
   <si>
     <t>RIOS BERMELLO JENIFFER LIZETH</t>
@@ -4808,7 +4808,7 @@
     <t>jeniffer.rios@espam.edu.ec</t>
   </si>
   <si>
-    <t>RVyR1H8T</t>
+    <t>!QrtMLpY</t>
   </si>
   <si>
     <t>SALVATIERRA VALDEZ VICKY NICOLLE</t>
@@ -4817,7 +4817,7 @@
     <t>vicky.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>VMAspbP7</t>
+    <t>OxcWAwPf</t>
   </si>
   <si>
     <t>SANTOS VELEZ MONICA GERMANIA</t>
@@ -4826,7 +4826,7 @@
     <t>monica.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>VgKCexZ1</t>
+    <t>egZ2/gkZ</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO MILENA DENISSE</t>
@@ -4835,7 +4835,7 @@
     <t>milena.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>zOptn2VH</t>
+    <t>8r3r8tr2</t>
   </si>
   <si>
     <t>TUQUERES TACURI JESSICA MARIBELL</t>
@@ -4844,7 +4844,7 @@
     <t>jessica.tuqueres@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yn9qfuw6</t>
+    <t>MMskswKE</t>
   </si>
   <si>
     <t>VERDUGA ERAZO JOSUE SALVADOR</t>
@@ -4853,7 +4853,7 @@
     <t>josue.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ha8nxD3B</t>
+    <t>qbXJ8Epj</t>
   </si>
   <si>
     <t>YEPEZ VELIZ GENESIS THALIA</t>
@@ -4862,7 +4862,7 @@
     <t>genesis.yepez@espam.edu.ec</t>
   </si>
   <si>
-    <t>jJt3aYx1</t>
+    <t>LWJIS#hJ</t>
   </si>
   <si>
     <t>ZAMBRANO BASURTO ERICK RAFAEL</t>
@@ -4871,7 +4871,7 @@
     <t>erick.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>2gVkyQEZ</t>
+    <t>tzP?pMwa</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ JANDRY DEIVY</t>
@@ -4880,7 +4880,7 @@
     <t>jandry.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q5e6XqZB</t>
+    <t>Z??H7r/X</t>
   </si>
   <si>
     <t>AYONG VERA JUAN DAVID</t>
@@ -4889,7 +4889,7 @@
     <t>juan.ayong@espam.edu.ec</t>
   </si>
   <si>
-    <t>tEGcOcdz</t>
+    <t>MTrZjD?2</t>
   </si>
   <si>
     <t>BASURTO SALAZAR ANGELA MARGARITA</t>
@@ -4898,7 +4898,7 @@
     <t>angela.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>#xi0GWTd</t>
+    <t>OdGy27vG</t>
   </si>
   <si>
     <t>CASANOVA INTRIAGO ANDREA BELEN</t>
@@ -4910,7 +4910,7 @@
     <t>andrea.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>fbYZ7Lky</t>
+    <t>OnoREkV0</t>
   </si>
   <si>
     <t>CHUMO ZAMBRANO ANTONIO BENITO</t>
@@ -4919,7 +4919,7 @@
     <t>antonio.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>pS5ZpN&amp;f</t>
+    <t>PIs#&amp;mF/</t>
   </si>
   <si>
     <t>GARCIA CORTEZ ERIKA STEFANIA</t>
@@ -4928,7 +4928,7 @@
     <t>erika.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>rQ9#5Oxi</t>
+    <t>RjwJ!u9B</t>
   </si>
   <si>
     <t>GOMEZ BARRERA JUNIOR LENIN</t>
@@ -4937,7 +4937,7 @@
     <t>junior.gomez@espam.edu.ec</t>
   </si>
   <si>
-    <t>mYAe6l1F</t>
+    <t>nkF732Ki</t>
   </si>
   <si>
     <t>LOOR CEDEÑO RICARDO EMANUEL</t>
@@ -4946,7 +4946,7 @@
     <t>ricardo.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>hZL#mv92</t>
+    <t>7hW8E?Ua</t>
   </si>
   <si>
     <t>LOOR LUCAS EVELYN GUADALUPE</t>
@@ -4958,7 +4958,7 @@
     <t>evelyn.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>L7mrfPaF</t>
+    <t>sh?RVQ/1</t>
   </si>
   <si>
     <t>LOOR VELASCO FABIANA BELEN</t>
@@ -4970,7 +4970,7 @@
     <t>fabiana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>hXjhn&amp;Ac</t>
+    <t>9M#24&amp;vl</t>
   </si>
   <si>
     <t>MARTINEZ CEDEÑO JENIFFER ESTEFANIA</t>
@@ -4979,7 +4979,7 @@
     <t>jeniffer.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>E0eXmYsM</t>
+    <t>2I1/xGbw</t>
   </si>
   <si>
     <t>MENDOZA BARRE EDDY ENMANUEL</t>
@@ -4988,7 +4988,7 @@
     <t>eddy.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>ttv4Eo&amp;v</t>
+    <t>wUD&amp;VefD</t>
   </si>
   <si>
     <t>MURILLO PALACIOS ULICES JAIR</t>
@@ -4997,7 +4997,7 @@
     <t>ulices.murillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>xnTZE!FP</t>
+    <t>Y78Xqj6r</t>
   </si>
   <si>
     <t>QUIJANO ZAMBRANO JONATHAN ERNESTO</t>
@@ -5006,7 +5006,7 @@
     <t>jonathan.quijano@espam.edu.ec</t>
   </si>
   <si>
-    <t>yL58H9t?</t>
+    <t>LsqL/vpY</t>
   </si>
   <si>
     <t>ROBLES YORI EFRAIN DAVID</t>
@@ -5015,7 +5015,7 @@
     <t>efrain.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xf0gmoMi</t>
+    <t>SLMuv1oq</t>
   </si>
   <si>
     <t>SABANDO ZAMBRANO FREDDY ANTONIO</t>
@@ -5024,7 +5024,7 @@
     <t>freddy.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>h30cLCiW</t>
+    <t>xTfS4Osq</t>
   </si>
   <si>
     <t>SOLORZANO GUERRERO RONALDO WANDERLEY</t>
@@ -5033,7 +5033,7 @@
     <t>ronaldo.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>panx5sEe</t>
+    <t>!1oum!Xt</t>
   </si>
   <si>
     <t>VELEZ CALDERON GENESIS MARIANA</t>
@@ -5045,7 +5045,7 @@
     <t>genesis.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>cGVdmijv</t>
+    <t>C93BTNKS</t>
   </si>
   <si>
     <t>ZAMBRANO BALDA JOSE RAMIRO</t>
@@ -5054,7 +5054,7 @@
     <t>josera.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>hR0xAo?m</t>
+    <t>?7o7MpCw</t>
   </si>
   <si>
     <t>ZAMBRANO CANTOS YENNY ANNABEL</t>
@@ -5063,7 +5063,7 @@
     <t>yenny.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>lknzAIdz</t>
+    <t>gKN8y&amp;oF</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR CRISTHIAN LEONARDO</t>
@@ -5072,7 +5072,7 @@
     <t>cristhian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mce&amp;B/Au</t>
+    <t>yBH829GR</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR DIANA STEFANIA</t>
@@ -5081,7 +5081,7 @@
     <t>dianas.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>MxY5?t5C</t>
+    <t>rZ1ymLqy</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR MARIA EMILIA</t>
@@ -5090,7 +5090,7 @@
     <t>maria.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>D&amp;rwA5Li</t>
+    <t>pTx3Txld</t>
   </si>
   <si>
     <t>ZAMBRANO MOREIRA LEONELA ALEJANDRA</t>
@@ -5099,7 +5099,7 @@
     <t>leonela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>698AmgMC</t>
+    <t>LJ2qawh4</t>
   </si>
   <si>
     <t>ALAVA ORTIZ EDWIN ALEXANDER</t>
@@ -5108,7 +5108,7 @@
     <t>edwin.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>G8lM2cxp</t>
+    <t>vEHaKCD4</t>
   </si>
   <si>
     <t>ALCIVAR LOOR GEMA LISBETH</t>
@@ -5117,7 +5117,7 @@
     <t>gemal.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>9B&amp;rEXq9</t>
+    <t>mawp4fw9</t>
   </si>
   <si>
     <t>AVELLAN SANTANA GENESIS NICOLLE</t>
@@ -5126,7 +5126,7 @@
     <t>genesis.avellan@espam.edu.ec</t>
   </si>
   <si>
-    <t>YETnJys1</t>
+    <t>ePGRaoV5</t>
   </si>
   <si>
     <t>CALDERON SANCHEZ SANDY KATHERINE</t>
@@ -5138,7 +5138,7 @@
     <t>sandy.calderon@espam.edu.ec</t>
   </si>
   <si>
-    <t>KseeP4dy</t>
+    <t>iuxQVf#6</t>
   </si>
   <si>
     <t>CARDENAS ASTUDILLO ANGELA JULIANA</t>
@@ -5150,7 +5150,7 @@
     <t>angela.cardenas@espam.edu.ec</t>
   </si>
   <si>
-    <t>gI6QMv?i</t>
+    <t>TL/4?hqp</t>
   </si>
   <si>
     <t>CARRILLO PACHAY MARCO STEVE</t>
@@ -5159,7 +5159,7 @@
     <t>marco.carrillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>sO5Qizx4</t>
+    <t>Uzy&amp;WQNR</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO BRYAN ISIDRO</t>
@@ -5168,7 +5168,7 @@
     <t>bryan.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>M1b6DIYF</t>
+    <t>ObqJ637/</t>
   </si>
   <si>
     <t>CEVALLOS SALTOS ANTHONY FERNANDO</t>
@@ -5177,7 +5177,7 @@
     <t>anthonyf.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>sUhFVgJ5</t>
+    <t>Wmcp!lys</t>
   </si>
   <si>
     <t>CHANG ZAMBRANO MARTHA YAMILETH</t>
@@ -5186,7 +5186,7 @@
     <t>martha.chang@espam.edu.ec</t>
   </si>
   <si>
-    <t>stDZqsAK</t>
+    <t>Srpv4hr0</t>
   </si>
   <si>
     <t>CHIRIBOGA FARIAS LUIS FERNANDO</t>
@@ -5195,7 +5195,7 @@
     <t>luis.chiriboga@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wl26Q!h4</t>
+    <t>QTZYnykA</t>
   </si>
   <si>
     <t>ESPINOZA PILAY JERSON JOSE</t>
@@ -5204,7 +5204,7 @@
     <t>jerson.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>5vuTm3&amp;o</t>
+    <t>Pr?7Tss9</t>
   </si>
   <si>
     <t>FARIAS MERA MAURICIO ANDRES</t>
@@ -5213,7 +5213,7 @@
     <t>mauricio.farias@espam.edu.ec</t>
   </si>
   <si>
-    <t>6tnHOXBQ</t>
+    <t>P2fr/WXo</t>
   </si>
   <si>
     <t>HERNANDEZ GONZALEZ JAMILEX KAREY</t>
@@ -5225,7 +5225,7 @@
     <t>jamilex.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>9A&amp;uGekk</t>
+    <t>Gf6bGOnb</t>
   </si>
   <si>
     <t>LEONES FALCONES ABAD JHOAN</t>
@@ -5234,7 +5234,7 @@
     <t>abad.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>cGHQAm81</t>
+    <t>LTM5zJqB</t>
   </si>
   <si>
     <t>LOOR CEVALLOS ANA MARIA</t>
@@ -5243,7 +5243,7 @@
     <t>anama.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>IvMzgyz#</t>
+    <t>/O7fVqKX</t>
   </si>
   <si>
     <t>LOOR LOOR RONALD POLIVIO</t>
@@ -5252,7 +5252,7 @@
     <t>ronald.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>P!rM?BFP</t>
+    <t>lzm14K8h</t>
   </si>
   <si>
     <t>LOOR REYES GENESIS JAMILETH</t>
@@ -5261,7 +5261,7 @@
     <t>genesis.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>WqvUB8o7</t>
+    <t>3l9MVaxE</t>
   </si>
   <si>
     <t>MACIAS BRAVO RICARDO FRANCISCO</t>
@@ -5270,7 +5270,7 @@
     <t>ricardo.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>HY9NuyfO</t>
+    <t>?0xR5Wis</t>
   </si>
   <si>
     <t>MACIAS MACIAS LISSETH LILIBETH</t>
@@ -5279,7 +5279,7 @@
     <t>lisseth.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>KPklCF9i</t>
+    <t>DA#eIgCX</t>
   </si>
   <si>
     <t>MANZABA CEDEÑO KEVIN ALBERTO</t>
@@ -5288,7 +5288,7 @@
     <t>kevin.manzaba@espam.edu.ec</t>
   </si>
   <si>
-    <t>cWqF!Y8K</t>
+    <t>IfUIlc7r</t>
   </si>
   <si>
     <t>MARQUEZ LEMA NAYELI SABRINA</t>
@@ -5297,7 +5297,7 @@
     <t>nayeli.marquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>RY9?nL6M</t>
+    <t>3n5k7!v6</t>
   </si>
   <si>
     <t>MENDOZA BRIONES MARIUXI KATHERINE</t>
@@ -5309,7 +5309,7 @@
     <t>mariuxi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>!3xE/I?Z</t>
+    <t>L8YNP9l8</t>
   </si>
   <si>
     <t>MOLINA CEDEÑO JUAN DE DIOS</t>
@@ -5318,7 +5318,7 @@
     <t>juan.molina@espam.edu.ec</t>
   </si>
   <si>
-    <t>2ku8YZqC</t>
+    <t>&amp;ysN3W2#</t>
   </si>
   <si>
     <t>MONTESDEOCA GARCIA YUDID ALEXANDRA</t>
@@ -5327,7 +5327,7 @@
     <t>yudid.montesdeoca@espam.edu.ec</t>
   </si>
   <si>
-    <t>x6GNEyQ#</t>
+    <t>M5ppYvft</t>
   </si>
   <si>
     <t>MUÑOZ MERA JUAN PABLO</t>
@@ -5336,7 +5336,7 @@
     <t>juan.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>lemRmWZy</t>
+    <t>z?IWQZWO</t>
   </si>
   <si>
     <t>NAVARRETE ORMAZA ERICK ALEXANDER</t>
@@ -5345,7 +5345,7 @@
     <t>erick.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>25YPzFr?</t>
+    <t>tBzPWSfj</t>
   </si>
   <si>
     <t>OCAMPO BARRE ANTHONY VICENTE</t>
@@ -5354,7 +5354,7 @@
     <t>anthony.ocampo@espam.edu.ec</t>
   </si>
   <si>
-    <t>SybHcXYK</t>
+    <t>5/6&amp;YrxU</t>
   </si>
   <si>
     <t>PARRALES FALCONES ANTHONY LEONARDO</t>
@@ -5363,7 +5363,7 @@
     <t>anthony.parrales@espam.edu.ec</t>
   </si>
   <si>
-    <t>TlmLf#ak</t>
+    <t>&amp;7TFxnt7</t>
   </si>
   <si>
     <t>RAMOS SALTOS NICOLE PAOLA</t>
@@ -5372,7 +5372,7 @@
     <t>nicole.ramos@espam.edu.ec</t>
   </si>
   <si>
-    <t>OTKZCfdH</t>
+    <t>3phOQ9lg</t>
   </si>
   <si>
     <t>ROBLES MOLINA JENIFFER STEFANIA</t>
@@ -5381,7 +5381,7 @@
     <t>jeniffer.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>u!lhE?Pf</t>
+    <t>sgS2Dr1V</t>
   </si>
   <si>
     <t>RODRIGUEZ CAMPOS JEAN KATHERINE</t>
@@ -5390,7 +5390,7 @@
     <t>jean.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>tZX5Ac5A</t>
+    <t>dj&amp;nIQJa</t>
   </si>
   <si>
     <t>SANCHEZ MEDINA GISSEL STEPHANIE</t>
@@ -5399,7 +5399,7 @@
     <t>gissel.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>qevBIAwY</t>
+    <t>9jsfbgLH</t>
   </si>
   <si>
     <t>VASQUEZ VERA ARGENIS JAVIER</t>
@@ -5408,7 +5408,7 @@
     <t>argenis.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>nBPcaTSz</t>
+    <t>/Zv/qvIZ</t>
   </si>
   <si>
     <t>VASQUEZ VERA MARIA MERCEDES</t>
@@ -5417,7 +5417,7 @@
     <t>maria.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>zv9RGM8S</t>
+    <t>Eh9p!qxH</t>
   </si>
   <si>
     <t>VELEZ MERA JOSSELYN JOSSENKA</t>
@@ -5426,7 +5426,7 @@
     <t>josselynjo.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Et3qSB7V</t>
+    <t>AbVEjIPL</t>
   </si>
   <si>
     <t>VELEZ PALACIOS STEVEN RAMON</t>
@@ -5435,7 +5435,7 @@
     <t>steven.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ONFX7zif</t>
+    <t>bMIRKQrk</t>
   </si>
   <si>
     <t>VERA BRAVO MARY LAURA</t>
@@ -5444,7 +5444,7 @@
     <t>mary.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>SrCnekTS</t>
+    <t>#wNdHAFD</t>
   </si>
   <si>
     <t>VILLAMIL VALENCIA ISABEL ANDREA</t>
@@ -5453,7 +5453,7 @@
     <t>isabel.villamil@espam.edu.ec</t>
   </si>
   <si>
-    <t>i9vQNsMw</t>
+    <t>S&amp;2j8c7j</t>
   </si>
   <si>
     <t>ZAMBRANO COBEÑA PABLO ALBERTO</t>
@@ -5462,7 +5462,7 @@
     <t>pablo.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>G&amp;?m8mge</t>
+    <t>g5C6QDbA</t>
   </si>
   <si>
     <t>ALVAREZ INTRIAGO MAILIN KATHERINE</t>
@@ -5471,7 +5471,7 @@
     <t>mailin.alvarez@espam.edu.ec</t>
   </si>
   <si>
-    <t>rqkHpQOj</t>
+    <t>r9yK!78D</t>
   </si>
   <si>
     <t>BRAVO ARTEAGA RICARDO JAVIER</t>
@@ -5480,7 +5480,7 @@
     <t>ricardo.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>3MGOrXD/</t>
+    <t>0zSb?2b8</t>
   </si>
   <si>
     <t>BRAVO VERGARA GEMA CAROLINA</t>
@@ -5489,7 +5489,7 @@
     <t>gemac.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>rWzVNE21</t>
+    <t>yFndoWtp</t>
   </si>
   <si>
     <t>CEDEÑO VELASQUEZ GEMA GUADALUPE</t>
@@ -5498,7 +5498,7 @@
     <t>gemag.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>7h4KWo7I</t>
+    <t>9RtD/PF!</t>
   </si>
   <si>
     <t>CHAVEZ VELIZ DENIS ALEXANDER</t>
@@ -5507,7 +5507,7 @@
     <t>denis.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>U/VP0S3q</t>
+    <t>LGfq?Z2b</t>
   </si>
   <si>
     <t>DEMERA ZAMBRANO JACKSON ANDRES</t>
@@ -5516,7 +5516,7 @@
     <t>jackson.demera@espam.edu.ec</t>
   </si>
   <si>
-    <t>ab#S3oxT</t>
+    <t>bg04fSY9</t>
   </si>
   <si>
     <t>GANCHOZO LECTONG GRESSILLE GUISSELLA</t>
@@ -5525,7 +5525,7 @@
     <t>gressille.ganchozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ay/fNWul</t>
+    <t>swDJn1FU</t>
   </si>
   <si>
     <t>INDIO ZAMBRANO ODALIS MICHELLE</t>
@@ -5537,7 +5537,7 @@
     <t>odalis.indio@espam.edu.ec</t>
   </si>
   <si>
-    <t>gONJCFGX</t>
+    <t>UBnjZcz2</t>
   </si>
   <si>
     <t>INTRIAGO TERAN BRYAN ASDRUBAL</t>
@@ -5546,7 +5546,7 @@
     <t>bryan.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>vWRdCIMT</t>
+    <t>?F8cMC1h</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO GISSELA KAROLINA</t>
@@ -5555,7 +5555,7 @@
     <t>gissela.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>BoUE4hcG</t>
+    <t>c5knZq8Y</t>
   </si>
   <si>
     <t>LEONES SOLORZANO YARITZA DANIELA</t>
@@ -5564,7 +5564,7 @@
     <t>yaritza.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>mndavUTA</t>
+    <t>k0yKtTv2</t>
   </si>
   <si>
     <t>LOPEZ MORA JOSSELYN AMARILYS</t>
@@ -5573,7 +5573,7 @@
     <t>josselyn.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;wYoH6Im</t>
+    <t>nou?Njwh</t>
   </si>
   <si>
     <t>MERA LOOR ANTONY ELIAN</t>
@@ -5582,7 +5582,7 @@
     <t>antony.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>GqmUGDih</t>
+    <t>yVt5gabL</t>
   </si>
   <si>
     <t>MERA SABANDO GEMA YAMILETH</t>
@@ -5591,7 +5591,7 @@
     <t>gema.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>DzWd/bbN</t>
+    <t>grAhYT98</t>
   </si>
   <si>
     <t>MIRANDA IBARRA ALFONSO SEBASTIAN</t>
@@ -5600,7 +5600,7 @@
     <t>alfonso.miranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>NkAXrnhz</t>
+    <t>rzmde8Wm</t>
   </si>
   <si>
     <t>MONGE ERAZO JECSY PIERINA</t>
@@ -5609,7 +5609,7 @@
     <t>jecsy.monge@espam.edu.ec</t>
   </si>
   <si>
-    <t>NPiW&amp;hVg</t>
+    <t>Gn5Utv86</t>
   </si>
   <si>
     <t>ROMERO ORTEGA ANGEL ANDRES</t>
@@ -5618,7 +5618,7 @@
     <t>angel.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>jWz7Iair</t>
+    <t>uAlELojy</t>
   </si>
   <si>
     <t>SOLORZANO INTRIAGO OSCAR FABIAN</t>
@@ -5630,7 +5630,7 @@
     <t>oscar.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>NShv2Bp5</t>
+    <t>c&amp;Lk4Xe7</t>
   </si>
   <si>
     <t>VALVERDE ZAPATA KATHIUSCA CARLOTA</t>
@@ -5642,7 +5642,7 @@
     <t>kathiusca.valverde@espam.edu.ec</t>
   </si>
   <si>
-    <t>AlI!?KC3</t>
+    <t>E!#UoxJI</t>
   </si>
   <si>
     <t>VERA AYALA GENESIS LISBETH</t>
@@ -5651,7 +5651,7 @@
     <t>genesis.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>O45Za9hB</t>
+    <t>l0w&amp;JuoH</t>
   </si>
   <si>
     <t>VERA PULIDO MARIA IVANNA</t>
@@ -5660,7 +5660,7 @@
     <t>mariai.verap@espam.edu.ec</t>
   </si>
   <si>
-    <t>tZ2S0yID</t>
+    <t>iycuvNgb</t>
   </si>
   <si>
     <t>VERA ZAMBRANO JAZMIN CAROLINA</t>
@@ -5669,7 +5669,7 @@
     <t>jazmin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>PIeDs01j</t>
+    <t>2jjn9Xg/</t>
   </si>
   <si>
     <t>VERGARA ARBOLEDA WENDY DEL ROCIO</t>
@@ -5681,7 +5681,7 @@
     <t>wendy.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q5/DSDd#</t>
+    <t>BxIxkhWZ</t>
   </si>
   <si>
     <t>VILLAMAR GONZALEZ ELENA SAMANTA</t>
@@ -5690,7 +5690,7 @@
     <t>elena.villamar@espam.edu.ec</t>
   </si>
   <si>
-    <t>DTV37L2Q</t>
+    <t>7CkigrNq</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR GENESIS VALENTINA</t>
@@ -5699,7 +5699,7 @@
     <t>genesis.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>#gejx7H0</t>
+    <t>C/CftOwS</t>
   </si>
   <si>
     <t>ZAMBRANO CHAVEZ ANDREA MONSERRATE</t>
@@ -5708,7 +5708,7 @@
     <t>andream.zambranoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Fdx2#UZ</t>
+    <t>s3IV&amp;Ks0</t>
   </si>
   <si>
     <t>ZAMBRANO GRACIA DANIELA ANGELINA</t>
@@ -5717,7 +5717,7 @@
     <t>daniela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>XE!#J8PF</t>
+    <t>foA#OP?1</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ WILLY JHONAY</t>
@@ -5726,7 +5726,7 @@
     <t>willy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>f8dIsx6w</t>
+    <t>?DAXfaKA</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO TATIANA ELIZABETH</t>
@@ -5735,7 +5735,7 @@
     <t>tatianael.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>jbYfoUhd</t>
+    <t>L50oJ!!Q</t>
   </si>
 </sst>
 </file>

--- a/public/storage/seeds/datosPassword.xlsx
+++ b/public/storage/seeds/datosPassword.xlsx
@@ -44,7 +44,7 @@
     <t>angie.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>K1/Pl4T&amp;</t>
+    <t>MN5drS/h</t>
   </si>
   <si>
     <t>ALCIVAR VERA KARLA MILENA</t>
@@ -53,7 +53,7 @@
     <t>karla.alcivar.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>wQe7RI!r</t>
+    <t>fXuuOAaH</t>
   </si>
   <si>
     <t>ALVIA ROCA HENRY ISAAC</t>
@@ -65,7 +65,7 @@
     <t>henry.alvia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>8BWYfaK4</t>
+    <t>EaVQKyeC</t>
   </si>
   <si>
     <t>ANANGONO GOMEZ ANA MARCELA</t>
@@ -74,7 +74,7 @@
     <t>ana.anangono.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>XU0D0sFm</t>
+    <t>YrhEw7q0</t>
   </si>
   <si>
     <t>BRAVO MARCILLO NATHALY SILVANA</t>
@@ -86,7 +86,7 @@
     <t>nathaly.bravo.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>EI1xPZZY</t>
+    <t>Gs&amp;Jkq2s</t>
   </si>
   <si>
     <t>BRIONES SUAREZ DANIA MELISSA</t>
@@ -95,7 +95,7 @@
     <t>dania.briones.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>BbPVyW!4</t>
+    <t>JP5ZOfnY</t>
   </si>
   <si>
     <t>CANCHINGRE LOZA MARIANA DE JESUS</t>
@@ -107,7 +107,7 @@
     <t>mariana.canchingre.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>!pS9qRfI</t>
+    <t>krtlO5eg</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA EMILY JAHAIRA</t>
@@ -116,7 +116,7 @@
     <t>emily.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>oXT4rSCZ</t>
+    <t>uJJ!oZr/</t>
   </si>
   <si>
     <t>CEDEÑO VELEZ STEVEN ANTONIO</t>
@@ -125,7 +125,7 @@
     <t>steven.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>HE#BKeiK</t>
+    <t>HfuKAeNC</t>
   </si>
   <si>
     <t>CHICA ORDOÑEZ YAIZA ANAHI</t>
@@ -134,7 +134,7 @@
     <t>yaiza.chica.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>OAGYoPJM</t>
+    <t>5JousHfi</t>
   </si>
   <si>
     <t>CORONEL MERO DAMARY SABRINA</t>
@@ -143,7 +143,7 @@
     <t>damary.coronel.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>JgxskBUw</t>
+    <t>LaxJWgkg</t>
   </si>
   <si>
     <t>DELGADO BENAVIDES MELISSA ANDREINA</t>
@@ -152,7 +152,7 @@
     <t>melissa.delgado.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>lWkp25?K</t>
+    <t>IKOgfA##</t>
   </si>
   <si>
     <t>DELGADO SOLORZANO TONY DAMIAN</t>
@@ -161,7 +161,7 @@
     <t>tony.delgado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>/xM7mmwt</t>
+    <t>9yVbQ15S</t>
   </si>
   <si>
     <t>ELENO GENDE JOSELYN KATHERINE</t>
@@ -173,7 +173,7 @@
     <t>joselyn.eleno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>HiUMReML</t>
+    <t>Ya4M?cKI</t>
   </si>
   <si>
     <t>GARCIA RIVERA ANGHELA LISBETH</t>
@@ -185,7 +185,7 @@
     <t>anghela.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>45NTek1B</t>
+    <t>zsvxvp0d</t>
   </si>
   <si>
     <t>GARCIA ROSS PRISCILA TAHILY</t>
@@ -194,7 +194,7 @@
     <t>priscila.garcia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>6xNEhk6&amp;</t>
+    <t>6Rb1kHuZ</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO MARILYN MICHEL</t>
@@ -203,7 +203,7 @@
     <t>marilyn.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FTj6mTjO</t>
+    <t>u1m40L5?</t>
   </si>
   <si>
     <t>LUCAS MENDOZA MOISES NOE</t>
@@ -212,7 +212,7 @@
     <t>moises.lucas.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>lfXcpJ8f</t>
+    <t>zby!h80J</t>
   </si>
   <si>
     <t>MANTUANO LOOR JENIFER DANIELA</t>
@@ -221,7 +221,7 @@
     <t>jenifer.mantuano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>hy?T4ciZ</t>
+    <t>N1HrG8eU</t>
   </si>
   <si>
     <t>MENENDEZ SANTANA JOSMELY ANAHI</t>
@@ -230,7 +230,7 @@
     <t>josmely.menendez.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>tBjaDrqn</t>
+    <t>!UQ9TbTc</t>
   </si>
   <si>
     <t>MEZA ESPINOZA MISHEL NICOL</t>
@@ -239,7 +239,7 @@
     <t>mishel.meza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>!V?76YOl</t>
+    <t>tgDSFoNv</t>
   </si>
   <si>
     <t>MORANTE TROYA JAIME ANDRES</t>
@@ -248,7 +248,7 @@
     <t>jaime.morante.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>foSfGxo2</t>
+    <t>0mj5iFnt</t>
   </si>
   <si>
     <t>PARRAGA MOREIRA CINDY ANDREA</t>
@@ -257,7 +257,7 @@
     <t>cindy.parraga.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;QCABPAh</t>
+    <t>9xY69bZk</t>
   </si>
   <si>
     <t>PEÑAFIEL VALENCIA JULEISY LISBETH</t>
@@ -269,7 +269,7 @@
     <t>juleisy.penafiel.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>bU02F3og</t>
+    <t>zOo38omL</t>
   </si>
   <si>
     <t>PICO CRIOLLO MILETH KATHERINE</t>
@@ -278,7 +278,7 @@
     <t>mileth.pico.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>9GgQDGmV</t>
+    <t>B8mq0LnK</t>
   </si>
   <si>
     <t>RENDON GILER JUNIOR ARIEL</t>
@@ -287,7 +287,7 @@
     <t>junior.rendon@espam.edu.ec</t>
   </si>
   <si>
-    <t>4J47Jla1</t>
+    <t>&amp;pvfJnEA</t>
   </si>
   <si>
     <t>SALVATIERRA SANTOS BRYAN ALEJANDRO</t>
@@ -296,7 +296,7 @@
     <t>bryan.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>tFkwbeZD</t>
+    <t>4IlwrYBc</t>
   </si>
   <si>
     <t>SOLORZANO LUCAS ALEXANDER JOEL</t>
@@ -308,7 +308,7 @@
     <t>alexander.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>2TA6g??T</t>
+    <t>rgG2P66R</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ DAYANA NICOLLE</t>
@@ -317,7 +317,7 @@
     <t>dayanna.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>56TqNrgZ</t>
+    <t>OfiMUnE7</t>
   </si>
   <si>
     <t>TENORIO QUINTERO ELY GILMAR</t>
@@ -329,7 +329,7 @@
     <t>ely.tenorio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>xQTveMpW</t>
+    <t>AwXnB/Dv</t>
   </si>
   <si>
     <t>VELASQUEZ DOMINGUEZ JORDAN RICARDO</t>
@@ -338,7 +338,7 @@
     <t>jordan.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>SmAB01pz</t>
+    <t>PF2Ru4qw</t>
   </si>
   <si>
     <t>VILLAVICENCIO SALVADOR MELANIE HELLAIM</t>
@@ -350,7 +350,7 @@
     <t>melanie.villavicencio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>o!IT!9QD</t>
+    <t>sEee/PgV</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO ANGELO ALEXANDER</t>
@@ -359,7 +359,7 @@
     <t>angelo.zambrano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>W9I2kUsv</t>
+    <t>ec9/h#F?</t>
   </si>
   <si>
     <t>ZAMBRANO VALENCIA SHIRLEY EDITH</t>
@@ -368,7 +368,7 @@
     <t>shirley.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FWUkhAzC</t>
+    <t>2whPuyWR</t>
   </si>
   <si>
     <t>ANGEL GOMEZ GILENY NAHOMY</t>
@@ -380,7 +380,7 @@
     <t>gileny.angel.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4rm7n2bm</t>
+    <t>mBKUkaK7</t>
   </si>
   <si>
     <t>BARRE QUIJANO DARWIN JOSE</t>
@@ -389,7 +389,7 @@
     <t>darwin.barre@espam.edu.ec</t>
   </si>
   <si>
-    <t>wNVGMdzN</t>
+    <t>m5UF&amp;oYm</t>
   </si>
   <si>
     <t>BRAVO ALVAREZ EMILY JESUS</t>
@@ -398,7 +398,7 @@
     <t>emily.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?FrC2DBv</t>
+    <t>0H!knIVJ</t>
   </si>
   <si>
     <t>CAGUA YOONG NAHOMY JAMILETH</t>
@@ -407,7 +407,7 @@
     <t>nahomy.cagua.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ur//BSwk</t>
+    <t>vWuO0p2y</t>
   </si>
   <si>
     <t>CASTILLO CEDEÑO EMILIA MARICELA</t>
@@ -416,7 +416,7 @@
     <t>emilia.castillo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ffat?yFP</t>
+    <t>EuN&amp;dLjZ</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO JOSE DANIEL</t>
@@ -425,7 +425,7 @@
     <t>jose.cedenoz.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>H7Cd7ydF</t>
+    <t>ZfaDeIUg</t>
   </si>
   <si>
     <t>CIFUENTES VELASQUEZ JOSE JAHIR</t>
@@ -434,7 +434,7 @@
     <t>jose.cifuentes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>5Fw4K&amp;GP</t>
+    <t>k1EKJ0m2</t>
   </si>
   <si>
     <t>CONFORME CIFUENTES ROBERTH JESUS</t>
@@ -443,7 +443,7 @@
     <t>roberth.conforme.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9rnz8LzZ</t>
+    <t>E6RWGFMW</t>
   </si>
   <si>
     <t>CORDERO GILER SALMA PAOLA</t>
@@ -452,7 +452,7 @@
     <t>salma.cordero.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>fkC8r/zc</t>
+    <t>nzQGYz7S</t>
   </si>
   <si>
     <t>FARIAS VELIZ RENE OCTAVIO</t>
@@ -461,7 +461,7 @@
     <t>rene.farias.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>QJI/Q0K!</t>
+    <t>pieZpuI2</t>
   </si>
   <si>
     <t>GARCIA DUEÑAS JEAN FERNANDO</t>
@@ -470,7 +470,7 @@
     <t>jean.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>NYfXH0Md</t>
+    <t>d6MG61X3</t>
   </si>
   <si>
     <t>HERRERA BASURTO IVIS ANTONELLA</t>
@@ -479,7 +479,7 @@
     <t>ivis.herrera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>QS8QmKNq</t>
+    <t>YcosHdRw</t>
   </si>
   <si>
     <t>HIDALGO LOOR MARLYN NALLELY</t>
@@ -488,7 +488,7 @@
     <t>marlyn.hidalgo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>m7DXaMCv</t>
+    <t>cyCuv8fl</t>
   </si>
   <si>
     <t>IBARRA CHAVARRIA JUAN DIEGO</t>
@@ -497,7 +497,7 @@
     <t>juan.ibarra.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>G&amp;rYuBOx</t>
+    <t>TUKxn!sz</t>
   </si>
   <si>
     <t>JAYA ZAPATA VICTOR EDUARDO</t>
@@ -506,7 +506,7 @@
     <t>victor.jaya.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>HtRfXgIQ</t>
+    <t>6tNmYTNx</t>
   </si>
   <si>
     <t>LOOR DELGADO JERRY JOEL</t>
@@ -515,7 +515,7 @@
     <t>jerry.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>BOX&amp;yyft</t>
+    <t>PpGxdypj</t>
   </si>
   <si>
     <t>MANTUANO PONCE MELANY MONCERRATE</t>
@@ -524,7 +524,7 @@
     <t>melany.mantuano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>wxVhdSuT</t>
+    <t>t3I9bxvZ</t>
   </si>
   <si>
     <t>MENDOZA VASQUEZ ARIEL ALEXIS</t>
@@ -536,7 +536,7 @@
     <t>ariel.mendoza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>4NMr1pQy</t>
+    <t>xmpycDqg</t>
   </si>
   <si>
     <t>MOREIRA GARCIA MACARIO EMANUEL</t>
@@ -545,7 +545,7 @@
     <t>macario.moreira.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>qNVnIGZ/</t>
+    <t>RoZHqW/k</t>
   </si>
   <si>
     <t>MOREIRA GILCES GABRIELA NIKOL</t>
@@ -554,7 +554,7 @@
     <t>gabriela.moreira.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>F3F/fCPy</t>
+    <t>Ur35Fd7R</t>
   </si>
   <si>
     <t>NOBOA MONTESDEOCA INGRITH MADELEYN</t>
@@ -563,7 +563,7 @@
     <t>ingrith.noboa.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>E?#Q!Ma0</t>
+    <t>ah4r89HM</t>
   </si>
   <si>
     <t>ORDOÑEZ ALCIVAR ALEX PAUL</t>
@@ -572,7 +572,7 @@
     <t>alex.ordonez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Kvn8/Ab0</t>
+    <t>d03DSNTe</t>
   </si>
   <si>
     <t>PALMA GARCIA MELYN JARITZA</t>
@@ -581,7 +581,7 @@
     <t>melyn.palma.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>5qdDX!/&amp;</t>
+    <t>CldT9h3s</t>
   </si>
   <si>
     <t>PAREDES MERO GHISLAINE ANAHI</t>
@@ -590,7 +590,7 @@
     <t>ghislaine.paredes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>61YOYMf&amp;</t>
+    <t>tozm!6mI</t>
   </si>
   <si>
     <t>QUIJIJE PIANDA XIOMARA MISHELLE</t>
@@ -602,7 +602,7 @@
     <t>xiomara.quijije.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>p9&amp;DIm2E</t>
+    <t>PcfoH2X#</t>
   </si>
   <si>
     <t>SALAVARRIA AVEIGA YULIANA GUADALUPE</t>
@@ -611,7 +611,7 @@
     <t>yuliana.salavarria.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Tg7NiVGv</t>
+    <t>pa2JjZzh</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR JAIR SEBASTIAN</t>
@@ -620,7 +620,7 @@
     <t>jair.santos.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;89meZy5</t>
+    <t>5EgAzqKS</t>
   </si>
   <si>
     <t>SOLORZANO CANDELA JARITZA NOHEMY</t>
@@ -629,7 +629,7 @@
     <t>jaritza.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>kKFMVxmT</t>
+    <t>X#lNYWg7</t>
   </si>
   <si>
     <t>VERA CEBALLOS MARIA CONCEPCION</t>
@@ -638,7 +638,7 @@
     <t>maria.vera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>#&amp;MALt5H</t>
+    <t>YOYeSUd/</t>
   </si>
   <si>
     <t>ALAVA MUÑOZ BILL JARVI</t>
@@ -647,7 +647,7 @@
     <t>bill.alava.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9X0zr/g/</t>
+    <t>la&amp;5ArdX</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO ESTHER JOMARA</t>
@@ -656,7 +656,7 @@
     <t>esther.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>rhQicpmK</t>
+    <t>85u5GL98</t>
   </si>
   <si>
     <t>ALMEIDA LOOR MARIA VICTORIA</t>
@@ -665,7 +665,7 @@
     <t>maria.almeida.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>7SASvlI4</t>
+    <t>8ZhvDf32</t>
   </si>
   <si>
     <t>ANDRADE VILLAVICENCIO PABLO HUGO</t>
@@ -674,7 +674,7 @@
     <t>pablo.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>chTbQ6TS</t>
+    <t>yoR?4BVO</t>
   </si>
   <si>
     <t>AVENDAÑO YZQUIERDO ADRIANA ISABEL</t>
@@ -686,7 +686,7 @@
     <t>adriana.avendano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>VPCbvwQB</t>
+    <t>rvZ#Z2F2</t>
   </si>
   <si>
     <t>BALUARTE PARRAGA MAYERLY NARCISA</t>
@@ -698,7 +698,7 @@
     <t>mayerly.baluarte.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>1H1b5Csa</t>
+    <t>GtCaxBGk</t>
   </si>
   <si>
     <t>BARRE CASTAÑEDA MAYERLI SOLANGE</t>
@@ -710,7 +710,7 @@
     <t>mayerli.barre.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>CfoJJdWf</t>
+    <t>0g9K5mlB</t>
   </si>
   <si>
     <t>BERMEO MENDOZA LESLY JULIETT</t>
@@ -719,7 +719,7 @@
     <t>lesly.bermeo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xmp/dHHS</t>
+    <t>rvqNRTLu</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO DANA KATIUSKA</t>
@@ -728,7 +728,7 @@
     <t>dana.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>UCx9HGL0</t>
+    <t>#0bpTQpq</t>
   </si>
   <si>
     <t>CEDEÑO ALVARADO JORGE LUIS</t>
@@ -737,7 +737,7 @@
     <t>jorge.cedeno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>lgbSioy5</t>
+    <t>ve4#hLbZ</t>
   </si>
   <si>
     <t>DOMINGUEZ ANGEL ANAIS ZULEYMA</t>
@@ -749,7 +749,7 @@
     <t>anais.dominguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>BcIAOAX&amp;</t>
+    <t>yX8YX5At</t>
   </si>
   <si>
     <t>ESPARZA TELLO ERICKA MARIA</t>
@@ -761,7 +761,7 @@
     <t>ericka.esparza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>c0yUS75A</t>
+    <t>aJp7daXz</t>
   </si>
   <si>
     <t>GRAIN MARCILLO MICHAEL JOSUE</t>
@@ -770,7 +770,7 @@
     <t>michael.grain.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ukrUsUAE</t>
+    <t>TdZEfl7V</t>
   </si>
   <si>
     <t>JAMA ZAMBRANO ROBERTH XAVIER</t>
@@ -779,7 +779,7 @@
     <t>roberth.jama@espam.edu.ec</t>
   </si>
   <si>
-    <t>/v!g!q95</t>
+    <t>#6uaB6rh</t>
   </si>
   <si>
     <t>LARA BONE ANGIE NICOLE</t>
@@ -791,7 +791,7 @@
     <t>angie.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xv88WtZF</t>
+    <t>R2mzbB7e</t>
   </si>
   <si>
     <t>LOPEZ DELGADO DAYANA NICOLLE</t>
@@ -800,7 +800,7 @@
     <t>dayana.lopez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FXhOHIGy</t>
+    <t>wSeFvv!I</t>
   </si>
   <si>
     <t>MELO CENTENO HELEN SOFIA</t>
@@ -809,7 +809,7 @@
     <t>helen.melo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>OtZARuyY</t>
+    <t>yXFhGH1!</t>
   </si>
   <si>
     <t>MENDOZA ORTEGA ANGELO DANIEL</t>
@@ -818,7 +818,7 @@
     <t>angelo.mendoza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>0rEsHi7f</t>
+    <t>/iZqMr7M</t>
   </si>
   <si>
     <t>MERO CARRILLO EMELY MILENA</t>
@@ -827,7 +827,7 @@
     <t>emely.mero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6UpI4W0f</t>
+    <t>183XGgVn</t>
   </si>
   <si>
     <t>MITE MENENDEZ GEORGE ISAAC</t>
@@ -836,7 +836,7 @@
     <t>george.mite.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>vFL&amp;sxW/</t>
+    <t>/xJyc&amp;Yv</t>
   </si>
   <si>
     <t>MONCAYO CAGUA LADY NOHELIA</t>
@@ -845,7 +845,7 @@
     <t>lady.moncayo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wn8pjWX5</t>
+    <t>mtSQUCax</t>
   </si>
   <si>
     <t>ORMAZA ALCIVAR NOHELIA MILENA</t>
@@ -854,7 +854,7 @@
     <t>nohelia.ormaza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>98K8F0F2</t>
+    <t>2WgFEue!</t>
   </si>
   <si>
     <t>PANTA CANDELA YONNY ALEXANDER</t>
@@ -863,7 +863,7 @@
     <t>jonny.panta.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>J1x8G7js</t>
+    <t>QXZmRG28</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA YAJAIRA NICOLE</t>
@@ -872,7 +872,7 @@
     <t>yajaira.quinatoa.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>i2RIO&amp;ES</t>
+    <t>x!1yaIJd</t>
   </si>
   <si>
     <t>REYNA RAMIREZ SINDY MAHOLY</t>
@@ -881,7 +881,7 @@
     <t>sindy.reyna.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Osn&amp;iK4X</t>
+    <t>QYYGShIo</t>
   </si>
   <si>
     <t>RODRIGUEZ ANCHUNDIA LUIS FERNANDO</t>
@@ -890,7 +890,7 @@
     <t>luis.rodriguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>RI2WOcl9</t>
+    <t>cRHg1K!w</t>
   </si>
   <si>
     <t>SABANDO TUAREZ MILENA BLANCA</t>
@@ -899,7 +899,7 @@
     <t>milena.sabando.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>uO6bO!RB</t>
+    <t>xS5&amp;KGfo</t>
   </si>
   <si>
     <t>SALAZAR RAMIREZ YARITZA GABRIELA</t>
@@ -908,7 +908,7 @@
     <t>yaritza.salazar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>UcwtG5fM</t>
+    <t>R0sHszx&amp;</t>
   </si>
   <si>
     <t>SHIGUANGO AGUINDA KATTY MIRELLA</t>
@@ -917,7 +917,7 @@
     <t>katty.shiguango.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>nb8gHh8t</t>
+    <t>FxyQsFcn</t>
   </si>
   <si>
     <t>VACA MORALES JOSE EDUARDO</t>
@@ -926,7 +926,7 @@
     <t>jose.vaca.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>daBUqRy!</t>
+    <t>OvXj4KOi</t>
   </si>
   <si>
     <t>VELASQUEZ MEJIA ARIANNA ELIZABETH</t>
@@ -935,7 +935,7 @@
     <t>arianna.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;dx&amp;DC7u</t>
+    <t>s2ESPRhl</t>
   </si>
   <si>
     <t>VELEZ CEDEÑO YANDRY ALAIN</t>
@@ -944,7 +944,7 @@
     <t>yandry.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>LNOInmkP</t>
+    <t>hHXnlAhS</t>
   </si>
   <si>
     <t>VERA ZAMORA DIXON YAIR</t>
@@ -953,7 +953,7 @@
     <t>dixon.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>nIRxMpFK</t>
+    <t>dczfkJFa</t>
   </si>
   <si>
     <t>ZAMBRANO FORTIS RICARDO MIGUEL</t>
@@ -962,7 +962,7 @@
     <t>ricardo.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yq6GiLn#</t>
+    <t>oMrBPxF2</t>
   </si>
   <si>
     <t>ALVARADO DUEÑAS KARELYS VANESSA</t>
@@ -971,7 +971,7 @@
     <t>karelys.alvarado.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2kZVyOfB</t>
+    <t>Ips5Tg0k</t>
   </si>
   <si>
     <t>ANDRADE ILES ALVIERY JAHIR</t>
@@ -983,7 +983,7 @@
     <t>alviery.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>85DdSQjH</t>
+    <t>XGaB&amp;gTz</t>
   </si>
   <si>
     <t>ARTEAGA RAMOS DIEGO ALEJANDRO</t>
@@ -992,7 +992,7 @@
     <t>diego.arteaga.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>R?rojOsb</t>
+    <t>vDqEZSJD</t>
   </si>
   <si>
     <t>BARREIRO INTRIAGO STEFANY PIERINA</t>
@@ -1001,7 +1001,7 @@
     <t>stefany.barreiro.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>MLShJ9Jp</t>
+    <t>qsYvM980</t>
   </si>
   <si>
     <t>BRAVO QUINTERO SARA NICOLE</t>
@@ -1013,7 +1013,7 @@
     <t>sara.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>3MSwvINh</t>
+    <t>mtFp8lTP</t>
   </si>
   <si>
     <t>CABALLERO MUÑOZ STEVEN FABRICIO</t>
@@ -1022,7 +1022,7 @@
     <t>steven.caballero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>92w7mWqH</t>
+    <t>XSV!w0i/</t>
   </si>
   <si>
     <t>CARRASCO VERA LUCAS JOSUE</t>
@@ -1031,7 +1031,7 @@
     <t>lucas.carrasco.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wYn7yc4K</t>
+    <t>2SLiaB8Y</t>
   </si>
   <si>
     <t>CEDEÑO MURILLO KENNER STEVEN</t>
@@ -1040,7 +1040,7 @@
     <t>kenner.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>L&amp;lVy86s</t>
+    <t>mUqYSQWm</t>
   </si>
   <si>
     <t>CUERO PAZMIÑO EMMANUEL JOSUE</t>
@@ -1049,7 +1049,7 @@
     <t>emmanuel.cuero.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>e389vcjd</t>
+    <t>X&amp;e4e5!W</t>
   </si>
   <si>
     <t>LADINES CASTRO MIRKA DARLISHA</t>
@@ -1061,7 +1061,7 @@
     <t>mirka.ladines.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ybUzuEZv</t>
+    <t>usEdXAyH</t>
   </si>
   <si>
     <t>LARA FRANCO MICHAEL ARGEL</t>
@@ -1073,7 +1073,7 @@
     <t>michael.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?WcXPpCn</t>
+    <t>?FG&amp;B3vV</t>
   </si>
   <si>
     <t>LEYTHON QUIÑONEZ JEIMY SILVANA</t>
@@ -1085,7 +1085,7 @@
     <t>jeimy.leython.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>S8xcqAX4</t>
+    <t>EhUfluOp</t>
   </si>
   <si>
     <t>LOOR LOOR GENESIS DANIELA</t>
@@ -1094,7 +1094,7 @@
     <t>genesis.loor.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>6d8hK#xv</t>
+    <t>KoISo7xF</t>
   </si>
   <si>
     <t>MATAMBA GUANGA THALIA VALERIA</t>
@@ -1106,7 +1106,7 @@
     <t>thalia.matamba.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z#YI8qXE</t>
+    <t>F&amp;rJjDA?</t>
   </si>
   <si>
     <t>MENDOZA DE LA CRUZ MARTHA DANIELA</t>
@@ -1115,7 +1115,7 @@
     <t>martha.mendoza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>6?gwtvH2</t>
+    <t>vV83#8FU</t>
   </si>
   <si>
     <t>MINOTA BORJA ALEXANDER JAHIR</t>
@@ -1127,7 +1127,7 @@
     <t>alexander.minota.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>dTj5ebNo</t>
+    <t>OnPRZ?XC</t>
   </si>
   <si>
     <t>NAVIA LOOR JOSE EFRAIN</t>
@@ -1136,7 +1136,7 @@
     <t>jose.navia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zr&amp;uVz1l</t>
+    <t>kqYNq6?P</t>
   </si>
   <si>
     <t>PILATAXI UTRERAS KATHERIN JULIETH</t>
@@ -1145,7 +1145,7 @@
     <t>katherin.pilataxi.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?#sFvJ?Z</t>
+    <t>/E&amp;e/VzL</t>
   </si>
   <si>
     <t>PINARGOTE CARREÑO FELIX JOEL</t>
@@ -1154,7 +1154,7 @@
     <t>felix.pinargote.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>qLAzSOIt</t>
+    <t>9TlICi!v</t>
   </si>
   <si>
     <t>PONCE ZAMBRANO ARIANA JESSENIA</t>
@@ -1163,7 +1163,7 @@
     <t>ariana.ponce.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7T49y1UD</t>
+    <t>irpccmrr</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA KELLY MARIUXI</t>
@@ -1172,7 +1172,7 @@
     <t>kelly.quinatoa.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>QH#Rn82?</t>
+    <t>aC2EBL?U</t>
   </si>
   <si>
     <t>ROSADO ROSADO JOEL JESUS</t>
@@ -1181,7 +1181,7 @@
     <t>joel.rosado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>T3tt8vvg</t>
+    <t>6yYCR0cv</t>
   </si>
   <si>
     <t>SANMARTIN TAPIA CARMEN EDITH</t>
@@ -1190,7 +1190,7 @@
     <t>carmen.sanmartin.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qxg8&amp;iTK</t>
+    <t>mSkDVoKS</t>
   </si>
   <si>
     <t>SAYAY DAGUA JOSELYN NICOL</t>
@@ -1202,7 +1202,7 @@
     <t>joselyn.sayay.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>dbWojRUP</t>
+    <t>kMT6t9QD</t>
   </si>
   <si>
     <t>SOLORZANO PAZMIÑO DECCY DANIELA</t>
@@ -1211,7 +1211,7 @@
     <t>deccy.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>NIF8Ma/k</t>
+    <t>ZDB5kThn</t>
   </si>
   <si>
     <t>VERGARA ZAMBRANO MATIAS ALEXANDER</t>
@@ -1220,7 +1220,7 @@
     <t>matias.vergara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?exOA8#M</t>
+    <t>oeqHpRMk</t>
   </si>
   <si>
     <t>ZAMBRANO INTRIAGO FRAYDA JESSENIA</t>
@@ -1229,7 +1229,7 @@
     <t>frayda.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>lkHka7gV</t>
+    <t>Lj2WqnG7</t>
   </si>
   <si>
     <t>ZAMBRANO VALAREZO ANDREA LISBETH</t>
@@ -1238,7 +1238,7 @@
     <t>andrea.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>HeAb5nS9</t>
+    <t>FEQcw/ve</t>
   </si>
   <si>
     <t>AGUAS MARTINEZ KEVIN SNAIDER</t>
@@ -1247,7 +1247,7 @@
     <t>kevin.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>bQJI&amp;9Ky</t>
+    <t>/MdE5mj6</t>
   </si>
   <si>
     <t>ANDRADE GARCIA LUZ CRUCELINA</t>
@@ -1256,7 +1256,7 @@
     <t>luz.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>oJq8BbEo</t>
+    <t>#XM&amp;yY?G</t>
   </si>
   <si>
     <t>BARBERAN MERO HELEN ADRIANA</t>
@@ -1265,7 +1265,7 @@
     <t>helen.barberan.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZzKc5r#W</t>
+    <t>zV8ls3vc</t>
   </si>
   <si>
     <t>BARROS ZAMBRANO DANIEL ANGEL</t>
@@ -1274,7 +1274,7 @@
     <t>daniel.barros.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>E3hZ!UqT</t>
+    <t>y3RNDlQ0</t>
   </si>
   <si>
     <t>BASURTO ZAMBRANO CARLOS RAUL</t>
@@ -1283,7 +1283,7 @@
     <t>carlos.basurto.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>yukMFXAp</t>
+    <t>SCWsQsct</t>
   </si>
   <si>
     <t>BRAVO BRAVO ANTHONY ADEMIR</t>
@@ -1292,7 +1292,7 @@
     <t>anthony.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>8ZbxhZ#i</t>
+    <t>/L1ck72r</t>
   </si>
   <si>
     <t>CANTOS VERA ANGELA AUXILIADORA</t>
@@ -1301,7 +1301,7 @@
     <t>angela.cantos.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>u?8bU1px</t>
+    <t>0Gf0Z!Nk</t>
   </si>
   <si>
     <t>CASTRO BOLAÑO FANNY TATIANA</t>
@@ -1310,7 +1310,7 @@
     <t>fanny.castro.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>E6fVccje</t>
+    <t>11Lk&amp;9fg</t>
   </si>
   <si>
     <t>CASTRO SALTOS MATTEWS FARID</t>
@@ -1319,7 +1319,7 @@
     <t>mattews.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>dTwGHU1R</t>
+    <t>NC4O3HE5</t>
   </si>
   <si>
     <t>CHANCAY RADE ANTONY GABRIEL</t>
@@ -1328,7 +1328,7 @@
     <t>antony.chancay@espam.edu.ec</t>
   </si>
   <si>
-    <t>6V4W4YVJ</t>
+    <t>bL&amp;74!km</t>
   </si>
   <si>
     <t>COBEÑA GARCIA YOMAYRA ALEXANDRA</t>
@@ -1337,7 +1337,7 @@
     <t>yomayra.cobena.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>tVyoD3P3</t>
+    <t>yiewUAa#</t>
   </si>
   <si>
     <t>CRUZ ERAZO JOSE MIGUEL</t>
@@ -1346,7 +1346,7 @@
     <t>jose.cruz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>6uLglcTk</t>
+    <t>WAzsdy&amp;4</t>
   </si>
   <si>
     <t>GARCIA ANDRADE MARIA ROSA</t>
@@ -1355,7 +1355,7 @@
     <t>maria.garcia.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>!hk#r5/Q</t>
+    <t>ldUrjSsl</t>
   </si>
   <si>
     <t>HERNANDEZ LOPEZ LUIS DAVID</t>
@@ -1364,7 +1364,7 @@
     <t>luis.hernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>2gfJn2xb</t>
+    <t>?91sszGQ</t>
   </si>
   <si>
     <t>LEON FUENTES JONATHAN ALBINO</t>
@@ -1376,7 +1376,7 @@
     <t>jonathan.leon.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>/H8?&amp;rs4</t>
+    <t>jf2!MVvX</t>
   </si>
   <si>
     <t>MACIAS ANCHUNDIA ROBERTO CARLOS</t>
@@ -1385,7 +1385,7 @@
     <t>roberto.macias.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YC&amp;4ko!a</t>
+    <t>8f7lWH3Q</t>
   </si>
   <si>
     <t>MAZA AGREDA KAREN IBETH</t>
@@ -1394,7 +1394,7 @@
     <t>karen.maza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>R/OztPt8</t>
+    <t>aD80jCug</t>
   </si>
   <si>
     <t>MUÑOZ MERA LITZY ALEJANDRA</t>
@@ -1403,7 +1403,7 @@
     <t>litzy.munoz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>foOtdGy0</t>
+    <t>uB5QUOCe</t>
   </si>
   <si>
     <t>MUÑOZ MOLINA ANDRY FABIAN</t>
@@ -1412,7 +1412,7 @@
     <t>andry.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>OIJZyNXX</t>
+    <t>ilM38WpW</t>
   </si>
   <si>
     <t>ORMAZA VALENCIA KEVIN JAVIER</t>
@@ -1424,7 +1424,7 @@
     <t>kevin.ormaza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>G3H5/AK4</t>
+    <t>DMcujt28</t>
   </si>
   <si>
     <t>PAZMIÑO PINCAY NAYELLY AGUSTINA</t>
@@ -1433,7 +1433,7 @@
     <t>nayelly.pazmino.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>PySeRQsA</t>
+    <t>LxgAaiZa</t>
   </si>
   <si>
     <t>POZO PONCE DANNY IVAN</t>
@@ -1442,7 +1442,7 @@
     <t>danny.pozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>6Yuj4L8A</t>
+    <t>#rWEzBWo</t>
   </si>
   <si>
     <t>QUIJANO MEZA MARIANA LISETH</t>
@@ -1451,7 +1451,7 @@
     <t>mariana.quijano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>71q3XZ!Y</t>
+    <t>G3EABe6a</t>
   </si>
   <si>
     <t>QUIÑONEZ AÑAPA RODRIGO MANUEL</t>
@@ -1463,7 +1463,7 @@
     <t>rodrigo.quinonez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>pwggZad2</t>
+    <t>jfhYGl3g</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR KELVIN YOEL</t>
@@ -1472,7 +1472,7 @@
     <t>kelvin.santos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zCm?bt3L</t>
+    <t>Y2QGIx9M</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ SANDY</t>
@@ -1481,7 +1481,7 @@
     <t>sandy.solorzano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Bzrdll7k</t>
+    <t>OAnZsVpO</t>
   </si>
   <si>
     <t>TOALA PIN ARIEL ALEJANDRO</t>
@@ -1493,7 +1493,7 @@
     <t>ariel.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>pD?&amp;luqO</t>
+    <t>57hDb!Yu</t>
   </si>
   <si>
     <t>VEGA INTRIAGO MIGUEL ANGEL</t>
@@ -1502,7 +1502,7 @@
     <t>miguel.vega.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>i7cojcSD</t>
+    <t>MqMyvRb3</t>
   </si>
   <si>
     <t>VELASQUEZ RODRIGUEZ GEMA BELEN</t>
@@ -1511,7 +1511,7 @@
     <t>gema.velasquez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XlXMPrms</t>
+    <t>YhSs3yDE</t>
   </si>
   <si>
     <t>VERA MENDOZA MARIA VICTORIA</t>
@@ -1520,7 +1520,7 @@
     <t>maria.veram.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ngzHgyI#</t>
+    <t>CPPf2dcW</t>
   </si>
   <si>
     <t>VERA PALACIOS JORDANO SAUL</t>
@@ -1529,7 +1529,7 @@
     <t>jordano.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>iMM/zjRw</t>
+    <t>hjM3cx!c</t>
   </si>
   <si>
     <t>ZAMBRANO MERA VALENTINA MONSERRATE</t>
@@ -1538,7 +1538,7 @@
     <t>valentina.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>YHVkvAmC</t>
+    <t>pSzOC#j0</t>
   </si>
   <si>
     <t>ZAMBRANO QUIMI JUAN GEORGE</t>
@@ -1550,7 +1550,7 @@
     <t>juan.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>HrRHuNAR</t>
+    <t>clBcY3Jf</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO GEOMAYRA KATHERINE</t>
@@ -1562,7 +1562,7 @@
     <t>geomayra.alcivar.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>wmb4p/zd</t>
+    <t>ko1SG3CV</t>
   </si>
   <si>
     <t>ANDRADE CASTILLO CLAUDIA VICTORIA</t>
@@ -1571,7 +1571,7 @@
     <t>claudia.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>iWmqzdU6</t>
+    <t>Sh42!Xjo</t>
   </si>
   <si>
     <t>ANGUISACA CUENCA ALEXANDRA CECIBEL</t>
@@ -1580,7 +1580,7 @@
     <t>alexandra.anguisaca.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>wb&amp;i2#G3</t>
+    <t>hs8G5B!I</t>
   </si>
   <si>
     <t>BARIAS GUARACA LESLY NAYHELY</t>
@@ -1589,7 +1589,7 @@
     <t>lesly.barias.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>8elRWxjs</t>
+    <t>2TtZKK7h</t>
   </si>
   <si>
     <t>BARROS VERA ANGEL DAVID</t>
@@ -1598,7 +1598,7 @@
     <t>angel.barros.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>glBdfBMu</t>
+    <t>W!3LwO4P</t>
   </si>
   <si>
     <t>BAZURTO SANTOS KENNIA KATHERINE</t>
@@ -1607,7 +1607,7 @@
     <t>kennia.bazurto.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7qTlePSf</t>
+    <t>yo3vSS#l</t>
   </si>
   <si>
     <t>BRAVO BAZURTO GISSELA MARIA</t>
@@ -1616,7 +1616,7 @@
     <t>gissela.bravo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>vNtiYOXJ</t>
+    <t>tY9ySpvJ</t>
   </si>
   <si>
     <t>BUSTAMANTE YANEZ ANTHONY MICHEL</t>
@@ -1625,7 +1625,7 @@
     <t>anthony.bustamante.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>I?//LxW#</t>
+    <t>ouEyftCi</t>
   </si>
   <si>
     <t>CASTRO SOLORZANO NIURKA JULIANA</t>
@@ -1634,7 +1634,7 @@
     <t>niurka.castro.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>rR4dw/ev</t>
+    <t>n6xiPtdq</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO YOHANA VANESA</t>
@@ -1643,7 +1643,7 @@
     <t>yohana.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>jIb3LDdU</t>
+    <t>CflpKbj4</t>
   </si>
   <si>
     <t>CEDEÑO INTRIAGO JEAN PIERRE</t>
@@ -1652,7 +1652,7 @@
     <t>jean.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>FngHGtio</t>
+    <t>R4BuNbb?</t>
   </si>
   <si>
     <t>DELGADO CEVALLOS MARIA JOSE</t>
@@ -1661,7 +1661,7 @@
     <t>maria.delgado.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>qUv2s2fl</t>
+    <t>ClPQdArW</t>
   </si>
   <si>
     <t>ERAZO MORALES GABRIELA ALEJANDRA</t>
@@ -1670,7 +1670,7 @@
     <t>gabriela.erazo.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>OS0A&amp;Ucp</t>
+    <t>L/fO!lB/</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO LUIS JOSE</t>
@@ -1679,7 +1679,7 @@
     <t>luis.intriagoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>F7Xpk2NZ</t>
+    <t>1!yy9&amp;Z8</t>
   </si>
   <si>
     <t>LOOR ORTIZ YORDY DAVID</t>
@@ -1688,7 +1688,7 @@
     <t>yordy.loor.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!dCQwa&amp;4</t>
+    <t>WrzNXxO0</t>
   </si>
   <si>
     <t>LOZANO GAMEZ THALIA VANESSA</t>
@@ -1700,7 +1700,7 @@
     <t>thalia.lozano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YbJ47yPx</t>
+    <t>&amp;zhgsUan</t>
   </si>
   <si>
     <t>MONTES RODRIGUEZ ROLANDO ANTONIO</t>
@@ -1709,7 +1709,7 @@
     <t>rolando.montes.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>1I0fNkcK</t>
+    <t>JO#P&amp;yqJ</t>
   </si>
   <si>
     <t>PALMA RENDON ARGENIS ARTURO</t>
@@ -1718,7 +1718,7 @@
     <t>argenis.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lws4wymU</t>
+    <t>Nw2tY#3b</t>
   </si>
   <si>
     <t>PAREDES YUMBILLO KATTY MARGOTH</t>
@@ -1730,7 +1730,7 @@
     <t>katty.paredes.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q8ukFXZ6</t>
+    <t>t3fujZMg</t>
   </si>
   <si>
     <t>PARRALES DELGADO ALAN SEBASTIAN</t>
@@ -1739,7 +1739,7 @@
     <t>alan.parrales.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>U9gbg&amp;nr</t>
+    <t>RcG8vzis</t>
   </si>
   <si>
     <t>PATA CEDEÑO ROSA JUANA</t>
@@ -1751,7 +1751,7 @@
     <t>rosa.pata.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;BrbqOjf</t>
+    <t>uFPZ2YxB</t>
   </si>
   <si>
     <t>RETETE BASARAN KEVIN ALEXANDER</t>
@@ -1760,7 +1760,7 @@
     <t>kevin.retete.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>T&amp;ZyFXyv</t>
+    <t>BzJ&amp;ALdc</t>
   </si>
   <si>
     <t>ROMAN MACIAS ESTEFANIA ISABEL</t>
@@ -1769,7 +1769,7 @@
     <t>estefania.roman.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z69jdBO/</t>
+    <t>p0?V47CA</t>
   </si>
   <si>
     <t>SANDOVAL UREÑA FERNANDA DAYANARA</t>
@@ -1781,7 +1781,7 @@
     <t>fernanda.sandoval.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>06UUz0SL</t>
+    <t>8kF&amp;cMLY</t>
   </si>
   <si>
     <t>SUBIAGA RAMOS LUIS ALEJANDRO</t>
@@ -1790,7 +1790,7 @@
     <t>luis.subiaga.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>UWa&amp;UfbM</t>
+    <t>L#6bLNUH</t>
   </si>
   <si>
     <t>VELASQUEZ AVEIGA MARIA JESUS</t>
@@ -1799,7 +1799,7 @@
     <t>maria.velasquez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>uPPDAm6z</t>
+    <t>W&amp;dCc37w</t>
   </si>
   <si>
     <t>VELEZ CHEME JORDAN ESTEBAN</t>
@@ -1811,7 +1811,7 @@
     <t>jordan.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>p7oy2olk</t>
+    <t>acW0iy1G</t>
   </si>
   <si>
     <t>VELEZ MENDOZA DARWIN ALEXIS</t>
@@ -1820,7 +1820,7 @@
     <t>darwin.velez.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>8RuZZZSC</t>
+    <t>P5XewS4t</t>
   </si>
   <si>
     <t>VERA BARRE RONNY ARISTIDES</t>
@@ -1829,7 +1829,7 @@
     <t>ronny.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>/CILGm5L</t>
+    <t>9NB!Q3p1</t>
   </si>
   <si>
     <t>ZAMBRANO MACIAS DIEGO ANDRES</t>
@@ -1838,7 +1838,7 @@
     <t>diego.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZsGBzM7w</t>
+    <t>DBa3C9qI</t>
   </si>
   <si>
     <t>ZAMBRANO REYNA YERSY ENRIQUE</t>
@@ -1847,7 +1847,7 @@
     <t>yersy.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>FHFMhuYs</t>
+    <t>PM2nTOef</t>
   </si>
   <si>
     <t>CARDENAS MIELES CRISTHYAN ALBERTO</t>
@@ -1856,7 +1856,7 @@
     <t>cristhyan.cardenas.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>QbZQ/r&amp;?</t>
+    <t>xbSWb#Tz</t>
   </si>
   <si>
     <t>CASTRO CARRERA JUAN CARLOS</t>
@@ -1865,7 +1865,7 @@
     <t>juan.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>37zDzLxZ</t>
+    <t>BJ3Rz!Kj</t>
   </si>
   <si>
     <t>CHAVEZ MIRANDA ANTHONY MIGUEL</t>
@@ -1874,7 +1874,7 @@
     <t>anthony.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>BKldHyEC</t>
+    <t>#pw5t0QO</t>
   </si>
   <si>
     <t>CUSME ZAMBRANO MICHAEL RICHARD</t>
@@ -1883,7 +1883,7 @@
     <t>michael.cusme.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Sh8BzO/J</t>
+    <t>7rtWDV9A</t>
   </si>
   <si>
     <t>GILER SALAZAR CARLOS IGNACIO</t>
@@ -1892,7 +1892,7 @@
     <t>carlos.giler@espam.edu.ec</t>
   </si>
   <si>
-    <t>b6DFnCpy</t>
+    <t>F9uQ0Qnp</t>
   </si>
   <si>
     <t>HERNANDEZ DIAZ MARIA JOSE</t>
@@ -1904,7 +1904,7 @@
     <t>maria.hernandez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>SBWnjS3g</t>
+    <t>q#6AlI4W</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA ESTELA NATHALY</t>
@@ -1913,7 +1913,7 @@
     <t>estela.hidalgo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ASZI47qd</t>
+    <t>J&amp;wONwpu</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA PIERINA NATHALY</t>
@@ -1922,7 +1922,7 @@
     <t>pierina.hidalgo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>yl3V?xmY</t>
+    <t>Ac#NGYzw</t>
   </si>
   <si>
     <t>LARA QUIJIJE PAMELA JULISSA</t>
@@ -1931,7 +1931,7 @@
     <t>pamela.lara.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>D/#FFkpu</t>
+    <t>uyhdbBlD</t>
   </si>
   <si>
     <t>LOOR PITIZACA FRANK ALLAN</t>
@@ -1940,7 +1940,7 @@
     <t>frank.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>N&amp;Ymi7x9</t>
+    <t>1En/#EUG</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO GEMA STEFANIA</t>
@@ -1949,7 +1949,7 @@
     <t>gema.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7!?P2BAc</t>
+    <t>jZtJ&amp;?YF</t>
   </si>
   <si>
     <t>PALACIOS TAPIA CESAR XAVIER</t>
@@ -1958,7 +1958,7 @@
     <t>cesar.palacios.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>1BMpqu35</t>
+    <t>EGjfM4Jy</t>
   </si>
   <si>
     <t>PEÑARRETA LANCHE PILAR MICAELA</t>
@@ -1967,7 +1967,7 @@
     <t>pilar.penarreta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ohHeeOmg</t>
+    <t>f7C9!kWj</t>
   </si>
   <si>
     <t>PILLASAGUA PINARGOTE INGRID MAYERLI</t>
@@ -1979,7 +1979,7 @@
     <t>ingrid.pillasagua.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>yPz27lb&amp;</t>
+    <t>uMaSwK0z</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO GEMA LISBETH</t>
@@ -1988,7 +1988,7 @@
     <t>gema.quijije.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>IG7CyAfl</t>
+    <t>XKy1DUQI</t>
   </si>
   <si>
     <t>RUIZ ZAMBRANO VICTOR ANDRES</t>
@@ -1997,7 +1997,7 @@
     <t>victor.ruiz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YDrXw2yc</t>
+    <t>higB#Pgm</t>
   </si>
   <si>
     <t>SALTOS SALAZAR MAYERLY VERONICA</t>
@@ -2009,7 +2009,7 @@
     <t>mayerly.saltos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>dqT#0KOW</t>
+    <t>giH#2bfn</t>
   </si>
   <si>
     <t>SANTANA PALOMINO FRANKLIN JOHAO</t>
@@ -2018,7 +2018,7 @@
     <t>franklin.santana.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>9SB3kCMH</t>
+    <t>jQvWT7XV</t>
   </si>
   <si>
     <t>TAFFUR TOASA OLGA MARIA</t>
@@ -2027,7 +2027,7 @@
     <t>olga.taffur@espam.edu.ec</t>
   </si>
   <si>
-    <t>!g6pZYow</t>
+    <t>SCCv5&amp;lj</t>
   </si>
   <si>
     <t>TOALA MACAY JOSSELYN VALERIA</t>
@@ -2036,7 +2036,7 @@
     <t>josselyn.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>dXhHYlQi</t>
+    <t>dprkLD?U</t>
   </si>
   <si>
     <t>VALLADARES ALCIVAR LUIS EDUARDO</t>
@@ -2045,7 +2045,7 @@
     <t>luis.valladares@espam.edu.ec</t>
   </si>
   <si>
-    <t>42qVjBo#</t>
+    <t>xWiWtSk!</t>
   </si>
   <si>
     <t>VERA ZAMBRANO HILTER JOSSBEL</t>
@@ -2054,7 +2054,7 @@
     <t>hilter.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>JQh31qr8</t>
+    <t>HGAsjvas</t>
   </si>
   <si>
     <t>VERGARA TABOADA ROMEL ALEXANDER</t>
@@ -2063,7 +2063,7 @@
     <t>romel.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>mL4sOsov</t>
+    <t>Vn81rCVJ</t>
   </si>
   <si>
     <t>ZAMBRANO RIVAS NALLELY LISBETH</t>
@@ -2072,7 +2072,7 @@
     <t>nallely.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>?#ptVFwj</t>
+    <t>0/cw!3d2</t>
   </si>
   <si>
     <t>ABAD MIRANDA KENYA ESTEFANIA</t>
@@ -2084,7 +2084,7 @@
     <t>kenya.abad.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>dCJnEXAC</t>
+    <t>rkn7knAE</t>
   </si>
   <si>
     <t>ALAVA MORENO MILTON ANTERO</t>
@@ -2093,7 +2093,7 @@
     <t>milton.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>qhmqZ&amp;Pw</t>
+    <t>wt4M66pt</t>
   </si>
   <si>
     <t>ALMEIDA CEDEÑO CINDY BELEN</t>
@@ -2102,7 +2102,7 @@
     <t>cindy.almeida.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>5YV!q7tE</t>
+    <t>lg?VnWLE</t>
   </si>
   <si>
     <t>ANCHUNDIA VERA JUSTIN JOSE</t>
@@ -2111,7 +2111,7 @@
     <t>justin.anchundia.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6ou?aS?d</t>
+    <t>BUKCtkF0</t>
   </si>
   <si>
     <t>AYONG PALADINES MARIA FERNANDA</t>
@@ -2120,7 +2120,7 @@
     <t>maria.ayong.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>KNBPN4V3</t>
+    <t>AEg8Vm?e</t>
   </si>
   <si>
     <t>BRAVO CEVALLOS MELANY PIERINA</t>
@@ -2129,7 +2129,7 @@
     <t>melany.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>lpR4Am0b</t>
+    <t>sJz84m6?</t>
   </si>
   <si>
     <t>CASANOVA SALAZAR ROSEMBERG STEVEN</t>
@@ -2138,7 +2138,7 @@
     <t>rosemberg.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>07dp!e/A</t>
+    <t>ClD8?emU</t>
   </si>
   <si>
     <t>FERNANDEZ TORRES JALENI SCARLETH</t>
@@ -2150,7 +2150,7 @@
     <t>jaleni.fernandez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>J?2cDnU!</t>
+    <t>DUG4Ymha</t>
   </si>
   <si>
     <t>HERRERA SABANDO WILLIAMS ANDRES</t>
@@ -2159,7 +2159,7 @@
     <t>williams.herrera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ml&amp;QfRti</t>
+    <t>6DlmDwxr</t>
   </si>
   <si>
     <t>LOPEZ PALADINES EDGAR JOSE</t>
@@ -2168,7 +2168,7 @@
     <t>edgar.lopez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>!g!MQuN!</t>
+    <t>iOoKi!zm</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES LINCI YERLEY</t>
@@ -2177,7 +2177,7 @@
     <t>linci.medranda.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>jMGG8iXK</t>
+    <t>cPY9npb?</t>
   </si>
   <si>
     <t>MENDIETA GILER JORDY EDUARDO</t>
@@ -2186,7 +2186,7 @@
     <t>jordy.mendieta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>i1!/06wf</t>
+    <t>LXgnL&amp;Zt</t>
   </si>
   <si>
     <t>MORENO VELIZ ALDRIN DAIRY</t>
@@ -2195,7 +2195,7 @@
     <t>aldrin.moreno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>4W2jah?4</t>
+    <t>hf9q/dCZ</t>
   </si>
   <si>
     <t>MUÑOZ VERA GENESIS LOURDES</t>
@@ -2204,7 +2204,7 @@
     <t>genesis.munoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZjTz&amp;wbn</t>
+    <t>Z8fhsKU&amp;</t>
   </si>
   <si>
     <t>PLAZA CHOEZ RODOLFO JEAMPIERRE</t>
@@ -2213,7 +2213,7 @@
     <t>rodolfo.plaza.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>8GidTJZg</t>
+    <t>lGgglqRE</t>
   </si>
   <si>
     <t>PRECIADO MOREIRA PABLO ANTHONY</t>
@@ -2225,7 +2225,7 @@
     <t>pablo.preciado@espam.edu.ec</t>
   </si>
   <si>
-    <t>9SegUDAX</t>
+    <t>nouYRDRz</t>
   </si>
   <si>
     <t>SABANDO SALCEDO GENESIS BETZABETH</t>
@@ -2237,7 +2237,7 @@
     <t>genesis.sabando.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>MFNloE3F</t>
+    <t>istQ7B25</t>
   </si>
   <si>
     <t>SOLEDISPA ZAMBRANO CRISTHINA ISABELA</t>
@@ -2246,7 +2246,7 @@
     <t>cristhina.soledispa.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>MTFF6Oiy</t>
+    <t>SG&amp;9CYdh</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ EVELYN AGUSTINA</t>
@@ -2255,7 +2255,7 @@
     <t>evelyn.solorzanor@espam.edu.ec</t>
   </si>
   <si>
-    <t>XGUoBdsz</t>
+    <t>bQmMsR6o</t>
   </si>
   <si>
     <t>VERA AGUAS KELVIN JEAN PIERRE</t>
@@ -2264,7 +2264,7 @@
     <t>kelvin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>qjRBZ?yX</t>
+    <t>#w1DGXgh</t>
   </si>
   <si>
     <t>VERA LOOR DENYS ESTEFANIA</t>
@@ -2273,7 +2273,7 @@
     <t>denys.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>AkoM09Zm</t>
+    <t>0P9csF0/</t>
   </si>
   <si>
     <t>VINCES PIN MARIA FERNANDA</t>
@@ -2282,7 +2282,7 @@
     <t>maria.vinces.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>5/x?0NyB</t>
+    <t>YPbwn4kN</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO MARIA BELEN</t>
@@ -2291,7 +2291,7 @@
     <t>mariab.zambranoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>VjzJzMQ2</t>
+    <t>9R/G/8u9</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO DIANA ESTHER</t>
@@ -2300,7 +2300,7 @@
     <t>diana.alcivar.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>eNwM?mNQ</t>
+    <t>oi0dBs0q</t>
   </si>
   <si>
     <t>ALVAREZ BORJA ANGHELO JOSUE</t>
@@ -2309,7 +2309,7 @@
     <t>anghelo.alvarez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>E42gHCtP</t>
+    <t>vBhto8W8</t>
   </si>
   <si>
     <t>BRAVO MENDOZA ALBERDY JAVIER</t>
@@ -2318,7 +2318,7 @@
     <t>alberdy.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>OBwjR!TV</t>
+    <t>OTo1KuOg</t>
   </si>
   <si>
     <t>GARCIA PARRAGA FATIMA MARIA</t>
@@ -2327,7 +2327,7 @@
     <t>fatima.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ln&amp;xGs6T</t>
+    <t>wff90n4y</t>
   </si>
   <si>
     <t>GRACIA PRATT WILINTON JOSUE</t>
@@ -2339,7 +2339,7 @@
     <t>wilinton.gracia.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>!?C?JrGM</t>
+    <t>nuhAvATS</t>
   </si>
   <si>
     <t>MARRETT BEDOYA MISHELLE MARCELA</t>
@@ -2351,7 +2351,7 @@
     <t>mishelle.marrett.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>kF2sO0Re</t>
+    <t>a0H?pi!c</t>
   </si>
   <si>
     <t>MERA CASTILLO NATHALY VIRGINIA</t>
@@ -2360,7 +2360,7 @@
     <t>nathaly.mera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>kQ0D21s#</t>
+    <t>8u8PNngV</t>
   </si>
   <si>
     <t>ROSERO VERA LUIS ANDRES</t>
@@ -2369,7 +2369,7 @@
     <t>luis.rosero@espam.edu.ec</t>
   </si>
   <si>
-    <t>zOpFlsb9</t>
+    <t>S2PJ0znZ</t>
   </si>
   <si>
     <t>SANTISTEBAN BENAVIDES JOSUE ROMARIO</t>
@@ -2378,7 +2378,7 @@
     <t>josue.santisteban.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vg1po2Es</t>
+    <t>?HRt!GQr</t>
   </si>
   <si>
     <t>SOLORZANO CUSME GEMA JULIANA</t>
@@ -2387,7 +2387,7 @@
     <t>gemaju.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>kpzMyVV0</t>
+    <t>PKfd9Wso</t>
   </si>
   <si>
     <t>TORRES PINARGOTE MAHOLY</t>
@@ -2396,7 +2396,7 @@
     <t>maholy.torres.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ALx/Tn63</t>
+    <t>!7!fGlDp</t>
   </si>
   <si>
     <t>ZAMBRANO BRAVO LEANDRO ISMAEL</t>
@@ -2405,7 +2405,7 @@
     <t>leandro.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>gtwt?g2k</t>
+    <t>zvKxoTub</t>
   </si>
   <si>
     <t>ZAMBRANO GARCIA HENRY ARTURO</t>
@@ -2414,7 +2414,7 @@
     <t>henry.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>aeMVlAF2</t>
+    <t>?ISNVDgh</t>
   </si>
   <si>
     <t>BARRE PARRAGA BETSY BEATRIZ</t>
@@ -2423,7 +2423,7 @@
     <t>betsy.barre.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ip/ozQ/g</t>
+    <t>SEjsWAKl</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO CAMILA PATRICIA</t>
@@ -2435,7 +2435,7 @@
     <t>camila.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>rxvZ6Fjg</t>
+    <t>X1QYMS08</t>
   </si>
   <si>
     <t>CEDEÑO SOLORZANO ANTHONY STEVEN</t>
@@ -2444,7 +2444,7 @@
     <t>anthony.cedenos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>v05j32We</t>
+    <t>IZo2RRVl</t>
   </si>
   <si>
     <t>CEDEÑO TUAREZ ANGIE LISSETTE</t>
@@ -2453,7 +2453,7 @@
     <t>angie.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>1gO/8Rdu</t>
+    <t>7?xSZkpm</t>
   </si>
   <si>
     <t>CHAVEZ LANDAZURI JACKSON JAIR</t>
@@ -2465,7 +2465,7 @@
     <t>jackson.chavez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ybjY5HT/</t>
+    <t>i!0xDnIs</t>
   </si>
   <si>
     <t>CHICA MOREIRA MARIA FERNANDA</t>
@@ -2474,7 +2474,7 @@
     <t>maria.chica.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>yFeX3VEH</t>
+    <t>o#SxXiSF</t>
   </si>
   <si>
     <t>GARCIA ZAMBRANO WENDY YAMILETH</t>
@@ -2483,7 +2483,7 @@
     <t>wendy.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>oDwKR8EE</t>
+    <t>z1O9IHGr</t>
   </si>
   <si>
     <t>GARZON CEDEÑO FRANCESCO RUBEN</t>
@@ -2492,7 +2492,7 @@
     <t>francesco.garzon.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ivFs40ob</t>
+    <t>UgX2PUCm</t>
   </si>
   <si>
     <t>GUERRERO CEDEÑO MICHAEL JORDY</t>
@@ -2501,7 +2501,7 @@
     <t>michael.guerrero.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>7ywCpNjA</t>
+    <t>P1V5whqs</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES CRISTHIAN JOSE</t>
@@ -2510,7 +2510,7 @@
     <t>cristhian.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>5elbrW6u</t>
+    <t>dIq#DDMA</t>
   </si>
   <si>
     <t>ORELLANA ANCHUNDIA JESUS MIGUEL</t>
@@ -2519,7 +2519,7 @@
     <t>jesus.orellana@espam.edu.ec</t>
   </si>
   <si>
-    <t>!r6f#o9Q</t>
+    <t>HiICp5TX</t>
   </si>
   <si>
     <t>ORTIZ GOMEZ EDUARDO ANDRES</t>
@@ -2528,7 +2528,7 @@
     <t>eduardo.ortiz@espam.edu.ec</t>
   </si>
   <si>
-    <t>VENT6oDs</t>
+    <t>9BQ#vvIC</t>
   </si>
   <si>
     <t>PAZMIÑO MERA SHANDE ALEXANDER</t>
@@ -2537,7 +2537,7 @@
     <t>shande.pazmino.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>VGr!&amp;gu6</t>
+    <t>OerFINBK</t>
   </si>
   <si>
     <t>PEÑARRIETA BAZURTO ERICK ANDRES</t>
@@ -2546,7 +2546,7 @@
     <t>erick.penarrieta@espam.edu.ec</t>
   </si>
   <si>
-    <t>vdSrRRZm</t>
+    <t>9?0VGtei</t>
   </si>
   <si>
     <t>RIERA GAVILANES IZHURY MILLENYTH</t>
@@ -2558,7 +2558,7 @@
     <t>izhury.riera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>xu64tgxF</t>
+    <t>q#LVJd53</t>
   </si>
   <si>
     <t>RIVERA CEDEÑO RIVALDO JOSE</t>
@@ -2570,7 +2570,7 @@
     <t>rivaldo.rivera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>2MdM5O81</t>
+    <t>e6l51B1/</t>
   </si>
   <si>
     <t>SALDARRIAGA ARTEAGA OMAIRA MARIBI</t>
@@ -2579,7 +2579,7 @@
     <t>omaira.saldarriaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>IVMjwqUl</t>
+    <t>fkt3Xt1#</t>
   </si>
   <si>
     <t>SANDOVAL MERA NALLELY STEFANIA</t>
@@ -2588,7 +2588,7 @@
     <t>nallely.sandoval.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>3dgDhuOt</t>
+    <t>x?eQaRuz</t>
   </si>
   <si>
     <t>SUQUI CANGO BRYAN EDUARDO</t>
@@ -2600,7 +2600,7 @@
     <t>bryan.suqui.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>vNxt2bQi</t>
+    <t>ed3Uo1r7</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO CARLOS ANDRES</t>
@@ -2609,7 +2609,7 @@
     <t>carlos.verduga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>IfVqvNZ5</t>
+    <t>WpplEZzA</t>
   </si>
   <si>
     <t>ZAMBRANO LARA MARVIN RENE</t>
@@ -2618,7 +2618,7 @@
     <t>marvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>drjo7!DQ</t>
+    <t>zCulmDMx</t>
   </si>
   <si>
     <t>ZAMBRANO OBANDO KELVIN JOSUE</t>
@@ -2630,7 +2630,7 @@
     <t>kelvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>bf!m8Fk7</t>
+    <t>?vm6JGMj</t>
   </si>
   <si>
     <t>ZAPATA QUINCHE ANDREA CAROLINA</t>
@@ -2639,7 +2639,7 @@
     <t>andrea.zapata.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>YbQJhjia</t>
+    <t>UAW1aiyk</t>
   </si>
   <si>
     <t>ALMEIDA PEREZ ANGEL FERNANDO</t>
@@ -2648,7 +2648,7 @@
     <t>angel.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>kEBE#zvu</t>
+    <t>9OG&amp;lPOJ</t>
   </si>
   <si>
     <t>CEDEÑO PARRAGA MELANY NALLELY</t>
@@ -2657,7 +2657,7 @@
     <t>melany.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>IV8?Ipbl</t>
+    <t>H4RIpW/z</t>
   </si>
   <si>
     <t>CEDEÑO SALVATIERRA JENIFFER ALEJANDRA</t>
@@ -2666,7 +2666,7 @@
     <t>jeniffer.cedenosal@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pdbg0lDm</t>
+    <t>z3b20/kv</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA SCHEZNARDA EDITH</t>
@@ -2675,7 +2675,7 @@
     <t>scheznarda.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>W04R3!Nm</t>
+    <t>zq!8?n4K</t>
   </si>
   <si>
     <t>GANCHOZO VELEZ EMILY JULEXY</t>
@@ -2684,7 +2684,7 @@
     <t>emily.ganchozo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/hv99pzc</t>
+    <t>C1kwMv3N</t>
   </si>
   <si>
     <t>LEON VIZÑAY ROQUE JAVIER</t>
@@ -2696,7 +2696,7 @@
     <t>roque.leon@espam.edu.ec</t>
   </si>
   <si>
-    <t>6bTB0k7f</t>
+    <t>c9ANbBRR</t>
   </si>
   <si>
     <t>LOOR LOOR EVELYN YAMILETH</t>
@@ -2705,7 +2705,7 @@
     <t>evelynya.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>lYlZY1J3</t>
+    <t>sXtb4mlt</t>
   </si>
   <si>
     <t>LOOR MOREIRA MELANIE NOEMI</t>
@@ -2714,7 +2714,7 @@
     <t>melanie.loorm.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sl/6kDG/</t>
+    <t>Qqcie?Jb</t>
   </si>
   <si>
     <t>LOPEZ ESTACIO ROSA ANGELICA</t>
@@ -2723,7 +2723,7 @@
     <t>rosa.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ypErebW#</t>
+    <t>xmiZkKCl</t>
   </si>
   <si>
     <t>MENDOZA MUÑOZ FLOR ANTONELA</t>
@@ -2732,7 +2732,7 @@
     <t>flor.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#FgebR3/</t>
+    <t>HOWaeadf</t>
   </si>
   <si>
     <t>MERELO SOLORZANO NAIDELYN MISHELLE</t>
@@ -2741,7 +2741,7 @@
     <t>naidelyn.merelo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>aDqF8DkB</t>
+    <t>m30Fra#f</t>
   </si>
   <si>
     <t>MOREIRA LOOR FABIAN ALEXANDER</t>
@@ -2750,7 +2750,7 @@
     <t>fabian.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>!gpZ/JB5</t>
+    <t>Zc17jMpI</t>
   </si>
   <si>
     <t>PAZMIÑO FALCONES JOSE MIGUEL</t>
@@ -2759,7 +2759,7 @@
     <t>jose.pazmino@espam.edu.ec</t>
   </si>
   <si>
-    <t>/thohO#r</t>
+    <t>5m/R0vAm</t>
   </si>
   <si>
     <t>PEÑAFIEL PITA BRITHANNY MICAELA</t>
@@ -2771,7 +2771,7 @@
     <t>brithanny.penafiel.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>lMmE!zof</t>
+    <t>0B1WfHcZ</t>
   </si>
   <si>
     <t>PINTO PALACIOS JOSE ANTONIO</t>
@@ -2780,7 +2780,7 @@
     <t>jose.pinto@espam.edu.ec</t>
   </si>
   <si>
-    <t>rnOfrHor</t>
+    <t>oSxQANcC</t>
   </si>
   <si>
     <t>RENTERIA VALENCIA NEURYS GYSSELA</t>
@@ -2792,7 +2792,7 @@
     <t>neurys.renteria@espam.edu.ec</t>
   </si>
   <si>
-    <t>4UQ#mm3Z</t>
+    <t>toA45NC&amp;</t>
   </si>
   <si>
     <t>RIVAS ZAMBRANO ALISSON KATIUSKA</t>
@@ -2801,7 +2801,7 @@
     <t>alisson.rivas.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>aDrEZkHh</t>
+    <t>Iv4IwwFP</t>
   </si>
   <si>
     <t>TORRES VARGAS KARELIS ANDREINA</t>
@@ -2813,7 +2813,7 @@
     <t>karelis.torres@espam.edu.ec</t>
   </si>
   <si>
-    <t>B!5G2GZp</t>
+    <t>QZSUV5JT</t>
   </si>
   <si>
     <t>VALDIVIESO CHUNG DANIEL JAFET</t>
@@ -2822,7 +2822,7 @@
     <t>daniel.valdivieso.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YBnVVdpX</t>
+    <t>h7Rzh7KP</t>
   </si>
   <si>
     <t>VASCONEZ GONZALEZ FRANCISCO ALESSIO</t>
@@ -2831,7 +2831,7 @@
     <t>francisco.vasconez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>tbRtFM88</t>
+    <t>CJkbG0s3</t>
   </si>
   <si>
     <t>VELEZ ORTEGA BORIS ANDRES</t>
@@ -2840,7 +2840,7 @@
     <t>boris.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>B7y#ckKw</t>
+    <t>?dhD78kx</t>
   </si>
   <si>
     <t>VERA ESTUPIÑAN BRYAN FRANCISCO</t>
@@ -2849,7 +2849,7 @@
     <t>bryan.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>5!!9edm0</t>
+    <t>UNuWzV62</t>
   </si>
   <si>
     <t>VERA LOOR ARIANA PAOLA</t>
@@ -2858,7 +2858,7 @@
     <t>ariana.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/2HTJ#pN</t>
+    <t>xxBVo4IW</t>
   </si>
   <si>
     <t>ZAMBRANO VEGA AURA ARACELY</t>
@@ -2867,7 +2867,7 @@
     <t>aura.zambranov@espam.edu.ec</t>
   </si>
   <si>
-    <t>P5ENaIxx</t>
+    <t>RM8ILDzX</t>
   </si>
   <si>
     <t>ALMEIDA ZAMBRANO HALINTONG VICENTE</t>
@@ -2876,7 +2876,7 @@
     <t>halintong.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>wJI7buMX</t>
+    <t>A#pJ11qR</t>
   </si>
   <si>
     <t>AYALA VILLAFUERTE NAHOMY NAYELY</t>
@@ -2885,7 +2885,7 @@
     <t>nahomy.ayala@espam.edu.ec</t>
   </si>
   <si>
-    <t>K6Kv4DX7</t>
+    <t>8cjhQN1t</t>
   </si>
   <si>
     <t>BASURTO CEDEÑO ITALO JORDANO</t>
@@ -2894,7 +2894,7 @@
     <t>italo.basurto.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>MJFOf&amp;NU</t>
+    <t>d/G93j4w</t>
   </si>
   <si>
     <t>CASTRO TAIPE YERIK LEXANDER</t>
@@ -2903,7 +2903,7 @@
     <t>yerik.castro.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>hOKU2UFn</t>
+    <t>PRmuKL3R</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA CARLOS PAUL</t>
@@ -2912,7 +2912,7 @@
     <t>carlos.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>uJ#T#p#a</t>
+    <t>ui!iixu?</t>
   </si>
   <si>
     <t>COBEÑA ZAMBRANO EDIS ARIEL</t>
@@ -2921,7 +2921,7 @@
     <t>edis.cobena@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nmxu6?Bl</t>
+    <t>N2Pp2CVR</t>
   </si>
   <si>
     <t>CORDOVA MUGUERZA ADRIANA NICOLLE</t>
@@ -2930,7 +2930,7 @@
     <t>adriana.muguersa.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>baTinZse</t>
+    <t>BVRtnf!3</t>
   </si>
   <si>
     <t>COTERA PIN MAYERLY DAYANARA</t>
@@ -2939,7 +2939,7 @@
     <t>mayerly.cotera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1y4!iiF9</t>
+    <t>gPn92ZR5</t>
   </si>
   <si>
     <t>CUENCA CUSME CECILIA ALEXANDRA</t>
@@ -2948,7 +2948,7 @@
     <t>cecilia.cuenca@espam.edu.ec</t>
   </si>
   <si>
-    <t>YB23RopG</t>
+    <t>cL!V?Upb</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA ANGIE MISHELLE</t>
@@ -2957,7 +2957,7 @@
     <t>angie.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#PqgPu&amp;H</t>
+    <t>HJTJfdXo</t>
   </si>
   <si>
     <t>LATA QUINCHI SANDRA LOURDES</t>
@@ -2966,7 +2966,7 @@
     <t>sandra.lata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>lXVXinbt</t>
+    <t>UDgbY0KB</t>
   </si>
   <si>
     <t>MEJICANGO CALLE JAZMIN LISBETH</t>
@@ -2978,7 +2978,7 @@
     <t>jazmin.mejicango.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>mIQPDV0v</t>
+    <t>LkMXDoWn</t>
   </si>
   <si>
     <t>MENDOZA GANCHOZO DOMENICA NICOLE</t>
@@ -2987,7 +2987,7 @@
     <t>domenica.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BEkR!UH6</t>
+    <t>4uqVy4Cr</t>
   </si>
   <si>
     <t>MOREIRA CEVALLOS NAYELY VANESSA</t>
@@ -2996,7 +2996,7 @@
     <t>nayely.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>ayNE#kDW</t>
+    <t>25NLCG2K</t>
   </si>
   <si>
     <t>MUÑOZ VERA MICHELLE VALENTINA</t>
@@ -3005,7 +3005,7 @@
     <t>michelle.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>dTYtgksB</t>
+    <t>D1jegsa1</t>
   </si>
   <si>
     <t>OLMOS RIVERA CLEOPATRA STEFANIA</t>
@@ -3014,7 +3014,7 @@
     <t>cleopatra.olmos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yb63N7eR</t>
+    <t>x3OB5tMa</t>
   </si>
   <si>
     <t>PAREDES RODRIGUEZ GIBELY JARLETH</t>
@@ -3026,7 +3026,7 @@
     <t>gibely.paredes.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>k&amp;#&amp;xzvk</t>
+    <t>K8z?/!v5</t>
   </si>
   <si>
     <t>PERUGACHI MECIAS GEOVANNY ALEJANDRO</t>
@@ -3035,7 +3035,7 @@
     <t>geovanny.perugachi.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>oh8S?Gns</t>
+    <t>!h&amp;lpbtQ</t>
   </si>
   <si>
     <t>PITA MACIAS RUBEN DARIO</t>
@@ -3044,7 +3044,7 @@
     <t>ruben.pita@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z7MZzwj&amp;</t>
+    <t>IZQGijk&amp;</t>
   </si>
   <si>
     <t>ROSADO QUIROZ JANDRY FABRICIO</t>
@@ -3053,7 +3053,7 @@
     <t>jandry.rosado.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wQ0sXCQ1</t>
+    <t>wi0QQ9wZ</t>
   </si>
   <si>
     <t>SANCHEZ CHOEZ BERTHA DOLORES</t>
@@ -3062,7 +3062,7 @@
     <t>bertha.choez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XXMZ5OKM</t>
+    <t>EmYYJ6y5</t>
   </si>
   <si>
     <t>VALENCIA MARCILLO JENIFFER KAROLINA</t>
@@ -3071,7 +3071,7 @@
     <t>jenifferk.valenciam@espam.edu.ec</t>
   </si>
   <si>
-    <t>rZedyqHk</t>
+    <t>DlSNut55</t>
   </si>
   <si>
     <t>VELASQUEZ GUADAMUD MARIO DAMIAN</t>
@@ -3080,7 +3080,7 @@
     <t>mario.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>RT41m#8i</t>
+    <t>RWciE26i</t>
   </si>
   <si>
     <t>VELEZ RIVAS JOFFRE GEOVANNY</t>
@@ -3089,7 +3089,7 @@
     <t>joffre.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>aclFII/Y</t>
+    <t>&amp;4IXGnW/</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO GEMA BRIGITH</t>
@@ -3098,7 +3098,7 @@
     <t>gema.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0vCFO4KL</t>
+    <t>Tu/GtP1e</t>
   </si>
   <si>
     <t>VERA CEVALLOS CARMEN GISSELLA</t>
@@ -3107,7 +3107,7 @@
     <t>carmen.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>HbsBTaIa</t>
+    <t>MZlUuZ61</t>
   </si>
   <si>
     <t>VERA SOLORZANO CARLOS NEPTALI</t>
@@ -3116,7 +3116,7 @@
     <t>carlos.veras@espam.edu.ec</t>
   </si>
   <si>
-    <t>QDv?dERt</t>
+    <t>W!xjTA&amp;r</t>
   </si>
   <si>
     <t>VERA VERA YUSTHYN YARLETH</t>
@@ -3125,7 +3125,7 @@
     <t>yusthyn.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nOr93nME</t>
+    <t>E0sbD8Q5</t>
   </si>
   <si>
     <t>VIDAL SABANDO MARIA KATHERINE</t>
@@ -3134,7 +3134,7 @@
     <t>maria.vidal.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yh9kjfhJ</t>
+    <t>kBKLlo&amp;I</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR EMILIO JOSE</t>
@@ -3143,7 +3143,7 @@
     <t>emilio.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>4IW/lwsw</t>
+    <t>/kH8CpHC</t>
   </si>
   <si>
     <t>ZAMBRANO AVEIGA MAYRA ALEXANDRA</t>
@@ -3152,7 +3152,7 @@
     <t>mayra.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sqOTLqYj</t>
+    <t>b52n&amp;#qq</t>
   </si>
   <si>
     <t>ZAMBRANO VERA MARIA BEATRIZ</t>
@@ -3161,7 +3161,7 @@
     <t>maria.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>vRafX3KO</t>
+    <t>NJi3HTJW</t>
   </si>
   <si>
     <t>ALCIVAR RODRIGUEZ STEFANY LISETH</t>
@@ -3170,7 +3170,7 @@
     <t>stefany.alcivar.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>N3XLdbAr</t>
+    <t>iWVpSiIN</t>
   </si>
   <si>
     <t>ANGULO GLENN YURANI MAGERLI</t>
@@ -3182,7 +3182,7 @@
     <t>yurani.angulo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>SR4EglKK</t>
+    <t>?M&amp;X0MZI</t>
   </si>
   <si>
     <t>ARTEAGA TRIVIÑO CAMILA</t>
@@ -3191,7 +3191,7 @@
     <t>camila.arteaga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>T7xSYQg&amp;</t>
+    <t>8IpHQ28R</t>
   </si>
   <si>
     <t>BALDERRAMO CABRERA JOSE GERMAN</t>
@@ -3200,7 +3200,7 @@
     <t>jose.balderramo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wmsw5Ixx</t>
+    <t>hWrfj/RR</t>
   </si>
   <si>
     <t>BRAVO MUÑOZ JEAN MYCKEL</t>
@@ -3209,7 +3209,7 @@
     <t>jean.bravomu@espam.edu.ec</t>
   </si>
   <si>
-    <t>MRp8YkSI</t>
+    <t>cQIS82dV</t>
   </si>
   <si>
     <t>BRAVO SANTANA JUNIOR XAVIER</t>
@@ -3218,7 +3218,7 @@
     <t>juniorx.bravos@espam.edu.ec</t>
   </si>
   <si>
-    <t>eJ1&amp;XXGK</t>
+    <t>5ws5bRZy</t>
   </si>
   <si>
     <t>CAGUA RODRIGUEZ NAYELY ANAHI</t>
@@ -3227,7 +3227,7 @@
     <t>nayely.cagua.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>UP&amp;6TuUp</t>
+    <t>mtQCIa0d</t>
   </si>
   <si>
     <t>CALDERON RODRIGUEZ FATIMA DANIELA</t>
@@ -3236,7 +3236,7 @@
     <t>fatima.calderon.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>X8BtLGFR</t>
+    <t>sX5zTylZ</t>
   </si>
   <si>
     <t>CASTILLO MEJIA MARIA CARLOTA</t>
@@ -3245,7 +3245,7 @@
     <t>maria.castillo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>magbjM3&amp;</t>
+    <t>h#SPutT8</t>
   </si>
   <si>
     <t>CEDEÑO CUSME DAYANARA NARCISA</t>
@@ -3254,7 +3254,7 @@
     <t>dayanara.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>A!/ZzxEo</t>
+    <t>6LFYG!3t</t>
   </si>
   <si>
     <t>CELORIO VERA PETER PABLO</t>
@@ -3263,7 +3263,7 @@
     <t>peter.celorio.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>8?RjMMn1</t>
+    <t>lFoh?PV6</t>
   </si>
   <si>
     <t>COOL MORENO DIANA ESTHEFANIA</t>
@@ -3272,7 +3272,7 @@
     <t>diana.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>y/Q&amp;pkSo</t>
+    <t>Lajp/xPA</t>
   </si>
   <si>
     <t>DELGADO GARZON PAOLA FERNANDA</t>
@@ -3281,7 +3281,7 @@
     <t>paola.delgadog.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?lYz6voj</t>
+    <t>tE81A9sN</t>
   </si>
   <si>
     <t>DOMINGUEZ DOMINGUEZ ROMINA MELISSA</t>
@@ -3290,7 +3290,7 @@
     <t>romina.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>DecU?Z0i</t>
+    <t>xZAGUKfQ</t>
   </si>
   <si>
     <t>GARCIA MUÑOZ EDDY SANTIAGO</t>
@@ -3299,7 +3299,7 @@
     <t>eddy.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>/F6dALEk</t>
+    <t>tTjtWmws</t>
   </si>
   <si>
     <t>GARCIA PONCE LEONELA ANTONELLA</t>
@@ -3308,7 +3308,7 @@
     <t>leonela.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>SQ6oHv3?</t>
+    <t>R5/CSOqD</t>
   </si>
   <si>
     <t>LOPEZ SOLORZANO YIMMY</t>
@@ -3317,7 +3317,7 @@
     <t>yimmy.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>afK6ceNc</t>
+    <t>ef/EYbz?</t>
   </si>
   <si>
     <t>LOPEZ ZAMBRANO JORGE ISAAC</t>
@@ -3326,7 +3326,7 @@
     <t>jorge.lopez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>qKZxw&amp;59</t>
+    <t>YAlBnvAH</t>
   </si>
   <si>
     <t>MACIAS GUAGUA MAGERLY THAIS</t>
@@ -3338,7 +3338,7 @@
     <t>magerly.macias.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XCR4krpu</t>
+    <t>s#DRt&amp;iG</t>
   </si>
   <si>
     <t>MARTINEZ SABANDO MARCELO EFRAIN</t>
@@ -3347,7 +3347,7 @@
     <t>marcelo.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZUAkyUQe</t>
+    <t>dmx4DqC2</t>
   </si>
   <si>
     <t>MEDRANDA CEDEÑO IVAN ARTURO</t>
@@ -3356,7 +3356,7 @@
     <t>ivan.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>K#yIvd!d</t>
+    <t>OmL7504R</t>
   </si>
   <si>
     <t>MENDOZA INTRIAGO KEYLA YAMIRA</t>
@@ -3365,7 +3365,7 @@
     <t>keyla.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>kPR0E1dx</t>
+    <t>a4GYVj55</t>
   </si>
   <si>
     <t>MENDOZA LOOR MARIAGRACIA</t>
@@ -3374,7 +3374,7 @@
     <t>mariagracia.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>?jK!ewb0</t>
+    <t>6PLW52hr</t>
   </si>
   <si>
     <t>MOREIRA VELEZ ANGELICA LISBETH</t>
@@ -3383,7 +3383,7 @@
     <t>angelica.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>qd?oyH7U</t>
+    <t>j4JdQ7S6</t>
   </si>
   <si>
     <t>PATA HERRERA ESTRELLA TATIANA</t>
@@ -3392,7 +3392,7 @@
     <t>estrella.pata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>A7sgzOj/</t>
+    <t>ijgeOWuh</t>
   </si>
   <si>
     <t>PONCE MIRANDA YOEL ISAIAS</t>
@@ -3401,7 +3401,7 @@
     <t>yoel.ponce@espam.edu.ec</t>
   </si>
   <si>
-    <t>81FARR38</t>
+    <t>I8R5Jf&amp;5</t>
   </si>
   <si>
     <t>RIVAS ALARCON ALISSON MAYERLI</t>
@@ -3413,7 +3413,7 @@
     <t>alisson.rivas@espam.edu.ec</t>
   </si>
   <si>
-    <t>VsAXfqT7</t>
+    <t>PhDt61Yg</t>
   </si>
   <si>
     <t>SABANDO VERA EMELY NOEMI</t>
@@ -3425,7 +3425,7 @@
     <t>emely.sabando.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wo6Ks0hn</t>
+    <t>sg4#P9wR</t>
   </si>
   <si>
     <t>VELASQUEZ ZAMBRANO JUAN DIEGO</t>
@@ -3434,7 +3434,7 @@
     <t>juan.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>IiPU!Kh&amp;</t>
+    <t>kgbU4Whb</t>
   </si>
   <si>
     <t>ZAMBRANO MENDOZA JOSE LUIS</t>
@@ -3443,7 +3443,7 @@
     <t>jose.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>2TLqlUfx</t>
+    <t>f5PzoEjL</t>
   </si>
   <si>
     <t>ZAMBRANO PEREZ CARLOS JULIO</t>
@@ -3452,7 +3452,7 @@
     <t>carlos.zambranop@espam.edu.ec</t>
   </si>
   <si>
-    <t>1?YNMEHI</t>
+    <t>tIL&amp;nqp9</t>
   </si>
   <si>
     <t>ACHIG GUALACATA EVELIN LISETTE</t>
@@ -3461,7 +3461,7 @@
     <t>evelin.achig@espam.edu.ec</t>
   </si>
   <si>
-    <t>GxLCS&amp;Vm</t>
+    <t>P&amp;H0NeZk</t>
   </si>
   <si>
     <t>AGUAS VERA JEICOL MIKE</t>
@@ -3470,7 +3470,7 @@
     <t>jeicol.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>5rY5ZNSt</t>
+    <t>jDSOQoUX</t>
   </si>
   <si>
     <t>BRAVO BASURTO JUAN CARLOS</t>
@@ -3479,7 +3479,7 @@
     <t>juan.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>iAsKt0e#</t>
+    <t>ulQ39jJ4</t>
   </si>
   <si>
     <t>CANTOS ZAMBRANO MARIA FERNANDA</t>
@@ -3488,7 +3488,7 @@
     <t>mariaf.cantos@espam.edu.ec</t>
   </si>
   <si>
-    <t>ezm4BfqM</t>
+    <t>cM&amp;B7P?N</t>
   </si>
   <si>
     <t>CASTILLO DELGADO LERENY JAMILEX</t>
@@ -3497,7 +3497,7 @@
     <t>lereny.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>6W29sfRG</t>
+    <t>q?DCCzpO</t>
   </si>
   <si>
     <t>CASTILLO JACOME JHON JAIRO</t>
@@ -3506,7 +3506,7 @@
     <t>jhon.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>6Pwhx0n9</t>
+    <t>ExAxB8xF</t>
   </si>
   <si>
     <t>CELORIO MENDOZA MIRIAN ALEJANDRA</t>
@@ -3515,7 +3515,7 @@
     <t>mirian.celorio@espam.edu.ec</t>
   </si>
   <si>
-    <t>YMLoEv94</t>
+    <t>RWLQIvj1</t>
   </si>
   <si>
     <t>CHUMO CHAVEZ JANINA BELEN</t>
@@ -3524,7 +3524,7 @@
     <t>janina.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y7QTuezl</t>
+    <t>7IDLf!f5</t>
   </si>
   <si>
     <t>DELGADO LOPEZ MERCEDES ELIZABETH</t>
@@ -3533,7 +3533,7 @@
     <t>mercedes.delgado@espam.edu.ec</t>
   </si>
   <si>
-    <t>#9wj!yrQ</t>
+    <t>zd#Q3MF0</t>
   </si>
   <si>
     <t>ESTEVES OLVERA DIANA MILENA</t>
@@ -3542,7 +3542,7 @@
     <t>diana.esteves@espam.edu.ec</t>
   </si>
   <si>
-    <t>DyPYf&amp;hF</t>
+    <t>Toyfg&amp;!L</t>
   </si>
   <si>
     <t>FALLAIN ZAMBRANO MARIA ANGELICA</t>
@@ -3551,7 +3551,7 @@
     <t>maria.fallain@espam.edu.ec</t>
   </si>
   <si>
-    <t>#&amp;xteZaq</t>
+    <t>O?WHR0J6</t>
   </si>
   <si>
     <t>FERNANDEZ CEVALLOS FRANCISCO ESTUARDO</t>
@@ -3560,7 +3560,7 @@
     <t>francisco.fernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>07!RN7j0</t>
+    <t>wq8I1NR8</t>
   </si>
   <si>
     <t>HERNANDEZ HERNANDEZ MARIA ZULEMA</t>
@@ -3572,7 +3572,7 @@
     <t>maria.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;yQX8b7Y</t>
+    <t>Wh8OwL4D</t>
   </si>
   <si>
     <t>INTRIAGO SOLORZANO LEYDI GABRIELA</t>
@@ -3581,7 +3581,7 @@
     <t>leydi.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>AqL?9yRO</t>
+    <t>WjjFlk/D</t>
   </si>
   <si>
     <t>MACIAS LOOR ELIAN RENE</t>
@@ -3590,7 +3590,7 @@
     <t>elian.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>gip3USau</t>
+    <t>7riv0rNs</t>
   </si>
   <si>
     <t>MACIAS PISCO NACHY MONSERRAT</t>
@@ -3599,7 +3599,7 @@
     <t>nachy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>LsSBwF88</t>
+    <t>ejPoEhGa</t>
   </si>
   <si>
     <t>MERA LOOR JONAYKER REYNALDO</t>
@@ -3608,7 +3608,7 @@
     <t>jonayker.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;gVIlGM3</t>
+    <t>xEjCIShb</t>
   </si>
   <si>
     <t>MOREIRA BASURTO YORDY JOEL</t>
@@ -3617,7 +3617,7 @@
     <t>yordy.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>BVyP4AIK</t>
+    <t>PaZ9owRr</t>
   </si>
   <si>
     <t>MOREIRA MENDOZA MAGDALENA JAMILETH</t>
@@ -3626,7 +3626,7 @@
     <t>magdalena.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>#iEMcUzx</t>
+    <t>Atcu?WAf</t>
   </si>
   <si>
     <t>PANTUSIN MUGUERZA ANDREA LISSETH</t>
@@ -3635,7 +3635,7 @@
     <t>andrea.pantusin@espam.edu.ec</t>
   </si>
   <si>
-    <t>u6WfG/#v</t>
+    <t>97?&amp;aMvp</t>
   </si>
   <si>
     <t>PATIÑO MEJIA MILENA ANAHI</t>
@@ -3644,7 +3644,7 @@
     <t>milena.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>ae9anHmU</t>
+    <t>&amp;/PMYjNh</t>
   </si>
   <si>
     <t>PICO GARCIA ALLISON JANELY</t>
@@ -3653,7 +3653,7 @@
     <t>allison.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>a9BJDzX5</t>
+    <t>oBoKyg/b</t>
   </si>
   <si>
     <t>POVEDA SANTANA ENZO JAVIER</t>
@@ -3665,7 +3665,7 @@
     <t>enzo.poveda@espam.edu.ec</t>
   </si>
   <si>
-    <t>zjnqpPTt</t>
+    <t>Yrk0?4nJ</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO NATALY SILVANA</t>
@@ -3674,7 +3674,7 @@
     <t>nataly.quijije@espam.edu.ec</t>
   </si>
   <si>
-    <t>Rd&amp;//gKS</t>
+    <t>AzFDUu4s</t>
   </si>
   <si>
     <t>ROBALINO DELGADO JORGE DAVID</t>
@@ -3683,7 +3683,7 @@
     <t>jorge.robalino@espam.edu.ec</t>
   </si>
   <si>
-    <t>scljdYwo</t>
+    <t>RXLlzobx</t>
   </si>
   <si>
     <t>SANCHEZ CASTILLO ADRIANA MICAELA</t>
@@ -3692,7 +3692,7 @@
     <t>adriana.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>r#5fZ9ND</t>
+    <t>2CRPl7zp</t>
   </si>
   <si>
     <t>SOLORZANO ALAVA TAIRUN FRANCISCO</t>
@@ -3701,7 +3701,7 @@
     <t>tairun.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>lsugohXI</t>
+    <t>GW1iPLCF</t>
   </si>
   <si>
     <t>SOLORZANO BAILON MARIA GABRIELA</t>
@@ -3710,7 +3710,7 @@
     <t>mariaga.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>gSHZSr5s</t>
+    <t>5hTWFaQ?</t>
   </si>
   <si>
     <t>TRUJILLO AGUAS MAYERLI DAYANA</t>
@@ -3719,7 +3719,7 @@
     <t>mayerli.trujillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>TXlpzwnC</t>
+    <t>ZGGnM74E</t>
   </si>
   <si>
     <t>VERA VERA CINTHIA MARIA</t>
@@ -3728,7 +3728,7 @@
     <t>cinthia.verav@espam.edu.ec</t>
   </si>
   <si>
-    <t>T&amp;SqMZzk</t>
+    <t>Cq0RkjF8</t>
   </si>
   <si>
     <t>VIDAL INTRIAGO ANDY YOEL</t>
@@ -3737,7 +3737,7 @@
     <t>andy.vidal@espam.edu.ec</t>
   </si>
   <si>
-    <t>F02ow96g</t>
+    <t>z8a6viz0</t>
   </si>
   <si>
     <t>VINTIMILLA PROAÑO MARIA DE LOURDES</t>
@@ -3746,7 +3746,7 @@
     <t>maria.vintimilla@espam.edu.ec</t>
   </si>
   <si>
-    <t>y71ei05I</t>
+    <t>kwpQaeEO</t>
   </si>
   <si>
     <t>VITERI SANTOS VINICIO ORLEY</t>
@@ -3755,7 +3755,7 @@
     <t>vinicio.viteri@espam.edu.ec</t>
   </si>
   <si>
-    <t>9/?NCpvm</t>
+    <t>/aFLC46p</t>
   </si>
   <si>
     <t>ZAMBRANO CANO FRANCISCO JAVIER</t>
@@ -3764,7 +3764,7 @@
     <t>francisco.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>wdOJ3Jr!</t>
+    <t>ZmN1BgZ4</t>
   </si>
   <si>
     <t>ZAMBRANO NAVARRETE ELBA MARIA</t>
@@ -3773,7 +3773,7 @@
     <t>elba.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>KK5yytW#</t>
+    <t>ZXhamM87</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO WENDY GISSELLA</t>
@@ -3782,7 +3782,7 @@
     <t>wendy.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>wv&amp;6mase</t>
+    <t>iiDdkjqh</t>
   </si>
   <si>
     <t>ARANA RUEDA ANGY LISSETH</t>
@@ -3794,7 +3794,7 @@
     <t>angy.arana@espam.edu.ec</t>
   </si>
   <si>
-    <t>TiP7DwlT</t>
+    <t>7FwvIh?e</t>
   </si>
   <si>
     <t>ARTEAGA VARGAS ANDREA VALERIA</t>
@@ -3803,7 +3803,7 @@
     <t>andrea.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>4Myd2Tnv</t>
+    <t>nU7DSI2F</t>
   </si>
   <si>
     <t>BARBERAN SANCHEZ KARLA MICHELLE</t>
@@ -3812,7 +3812,7 @@
     <t>karla.barberan@espam.edu.ec</t>
   </si>
   <si>
-    <t>2fn4kmj?</t>
+    <t>uC1aXnNL</t>
   </si>
   <si>
     <t>BAZURTO MANZABA SORAYA STEFANIA</t>
@@ -3821,7 +3821,7 @@
     <t>soraya.bazurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>EvOnXTW0</t>
+    <t>v3w9RTik</t>
   </si>
   <si>
     <t>CAGUA GARCIA ANDRES VIRGILIO</t>
@@ -3830,7 +3830,7 @@
     <t>andres.cagua@espam.edu.ec</t>
   </si>
   <si>
-    <t>CWQUBPeJ</t>
+    <t>yxJ#f?L7</t>
   </si>
   <si>
     <t>DOMINGUEZ CALDERON JEAN PIERRE</t>
@@ -3839,7 +3839,7 @@
     <t>jean.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>dL2PCQ44</t>
+    <t>XJe0jctb</t>
   </si>
   <si>
     <t>ESPINOZA ALCIVAR EVELYN ALEXANDRA</t>
@@ -3848,7 +3848,7 @@
     <t>evelyn.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>ad6kNdxg</t>
+    <t>9d4wYHiR</t>
   </si>
   <si>
     <t>LOOR MORENO DANIEL AGUSTIN</t>
@@ -3857,7 +3857,7 @@
     <t>daniel.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>RVu#P?Nq</t>
+    <t>zOznaJSd</t>
   </si>
   <si>
     <t>MACIAS PARRALES MEREDITH MARIBEL</t>
@@ -3866,7 +3866,7 @@
     <t>meredith.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>dulEjwvU</t>
+    <t>4MbUhA?t</t>
   </si>
   <si>
     <t>MENDOZA CANCHINGRE BRIGITH MIKAELA</t>
@@ -3875,7 +3875,7 @@
     <t>brigith.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>og!XIib7</t>
+    <t>w?ALPUDn</t>
   </si>
   <si>
     <t>MENDOZA VELEZ JOSE MIGUEL</t>
@@ -3884,7 +3884,7 @@
     <t>josemi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>9K2Y!D1L</t>
+    <t>DUOtee9V</t>
   </si>
   <si>
     <t>MEZA BRIONES ANTHONY NARCILO</t>
@@ -3893,7 +3893,7 @@
     <t>anthony.meza@espam.edu.ec</t>
   </si>
   <si>
-    <t>js&amp;jPgw6</t>
+    <t>tLVG8XUv</t>
   </si>
   <si>
     <t>MORA ZAMBRANO MARIA LAURA</t>
@@ -3902,7 +3902,7 @@
     <t>maria.mora@espam.edu.ec</t>
   </si>
   <si>
-    <t>9Iu5FxWe</t>
+    <t>f&amp;/fuiC2</t>
   </si>
   <si>
     <t>NAVARRETE ZAMBRANO ROBIN LUGERIO</t>
@@ -3911,7 +3911,7 @@
     <t>robin.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>SceRjmFT</t>
+    <t>Vmb7TE7b</t>
   </si>
   <si>
     <t>OSTAIZA LOPEZ JOSEPH MANUEL</t>
@@ -3920,7 +3920,7 @@
     <t>josepth.ostaiza@espam.edu.ec</t>
   </si>
   <si>
-    <t>RB1oNw#f</t>
+    <t>EzIVMmHs</t>
   </si>
   <si>
     <t>PARRAGA PARRAGA CARLA ESTEFANIA</t>
@@ -3929,7 +3929,7 @@
     <t>carla.parraga@espam.edu.ec</t>
   </si>
   <si>
-    <t>UbjPI0Jt</t>
+    <t>FgSds2xO</t>
   </si>
   <si>
     <t>PLAZA CABRERA MAYERLY MARIA</t>
@@ -3941,7 +3941,7 @@
     <t>mayerly.plaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>ce9cfsxk</t>
+    <t>K!bGtI15</t>
   </si>
   <si>
     <t>RODRIGUEZ VELIZ LEANDRO MOISES</t>
@@ -3950,7 +3950,7 @@
     <t>leandro.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>lg7r9?a9</t>
+    <t>hJE&amp;SGdu</t>
   </si>
   <si>
     <t>SANTANA GUERRERO MARIA RAQUEL</t>
@@ -3959,7 +3959,7 @@
     <t>mariar.santanag@espam.edu.ec</t>
   </si>
   <si>
-    <t>isvSQUL?</t>
+    <t>2SpRFxaM</t>
   </si>
   <si>
     <t>SANTOS SALAZAR JANDRY DAVID</t>
@@ -3968,7 +3968,7 @@
     <t>jandry.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>68l&amp;X&amp;hk</t>
+    <t>zQ88Sedy</t>
   </si>
   <si>
     <t>SOLORZANO LOOR KEYLA GEOVANNA</t>
@@ -3977,7 +3977,7 @@
     <t>keyla.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>um39IdDd</t>
+    <t>lJSZdm0n</t>
   </si>
   <si>
     <t>VALENCIA ZAMBRANO VALERIA MERCEDES</t>
@@ -3986,7 +3986,7 @@
     <t>valeria.valencia@espam.edu.ec</t>
   </si>
   <si>
-    <t>rPuc8TmP</t>
+    <t>lOPGs8hA</t>
   </si>
   <si>
     <t>VARGAS CHOEZ ALEXIS ELIAN</t>
@@ -3995,7 +3995,7 @@
     <t>alexis.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>1PKh9XV7</t>
+    <t>?#4hc7Fj</t>
   </si>
   <si>
     <t>VELEZ ALMEIDA CARMEN REBECA</t>
@@ -4004,7 +4004,7 @@
     <t>carmen.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>SUsVeRKP</t>
+    <t>McYqSr5d</t>
   </si>
   <si>
     <t>VELEZ LEGTON GENESIS YAMILET</t>
@@ -4013,7 +4013,7 @@
     <t>genesisya.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>0FnNydb#</t>
+    <t>&amp;PA21h?p</t>
   </si>
   <si>
     <t>VERA BALAREZO MARYAM JANELLA</t>
@@ -4022,7 +4022,7 @@
     <t>maryam.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>FTKDt6T9</t>
+    <t>bawG&amp;CFc</t>
   </si>
   <si>
     <t>VERA SERRANO CARLOS STEFANO</t>
@@ -4031,7 +4031,7 @@
     <t>carlos.verase@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vy?0RvYb</t>
+    <t>yIHRIfvh</t>
   </si>
   <si>
     <t>VIERA BAZURTO JOSE ALEXANDER</t>
@@ -4040,7 +4040,7 @@
     <t>jose.viera@espam.edu.ec</t>
   </si>
   <si>
-    <t>VyS5DPf/</t>
+    <t>Heiu1rQs</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR DIEGO JAHIR</t>
@@ -4049,7 +4049,7 @@
     <t>diego.zambranoa@espam.edu.ec</t>
   </si>
   <si>
-    <t>CvpPV4s!</t>
+    <t>Eqor2CsX</t>
   </si>
   <si>
     <t>ZAMBRANO MANZABA MARIA FERNANDA</t>
@@ -4058,7 +4058,7 @@
     <t>mariafer.zambranom@espam.edu.ec</t>
   </si>
   <si>
-    <t>uy4HhpOs</t>
+    <t>dNMph/ub</t>
   </si>
   <si>
     <t>ALCIVAR GILER MELANY JULISA</t>
@@ -4067,7 +4067,7 @@
     <t>melany.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>92MKmx&amp;I</t>
+    <t>M?/3MwoP</t>
   </si>
   <si>
     <t>ANDRADE ZAMBRANO NATHALY NICOLLE</t>
@@ -4076,7 +4076,7 @@
     <t>nathaly.andrade@espam.edu.ec</t>
   </si>
   <si>
-    <t>QH4/SudV</t>
+    <t>K5JlKcPI</t>
   </si>
   <si>
     <t>BASURTO MORAN LUIS ALEXANDER</t>
@@ -4085,7 +4085,7 @@
     <t>luis.basurtom@espam.edu.ec</t>
   </si>
   <si>
-    <t>5KGwOqfT</t>
+    <t>WLoeuxiA</t>
   </si>
   <si>
     <t>BERMELLO VELEZ ANGELA DANIELA</t>
@@ -4094,7 +4094,7 @@
     <t>angela.bermello@espam.edu.ec</t>
   </si>
   <si>
-    <t>zvA0#zAM</t>
+    <t>IasqUhI6</t>
   </si>
   <si>
     <t>BRAVO VERA GEMA VIVIANA</t>
@@ -4103,7 +4103,7 @@
     <t>gema.bravov@espam.edu.ec</t>
   </si>
   <si>
-    <t>IX87I1Tm</t>
+    <t>7yi9f?Jb</t>
   </si>
   <si>
     <t>BRIONES INTRIAGO LORENA LUCIA</t>
@@ -4112,7 +4112,7 @@
     <t>lorena.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;JGUdkPd</t>
+    <t>vDhRXJYM</t>
   </si>
   <si>
     <t>BURGOS BRAVO KATHERIN DANIELA</t>
@@ -4121,7 +4121,7 @@
     <t>katherin.burgos@espam.edu.ec</t>
   </si>
   <si>
-    <t>GdctE7Go</t>
+    <t>JVEik9RM</t>
   </si>
   <si>
     <t>LOOR PARRAGA ROY RUBEN</t>
@@ -4130,7 +4130,7 @@
     <t>roy.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>?tSmX5q/</t>
+    <t>ORHjdQh9</t>
   </si>
   <si>
     <t>LOPEZ GANCHOZO LEANDRO ANTONIO</t>
@@ -4139,7 +4139,7 @@
     <t>leandro.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>FXe7e1mG</t>
+    <t>MD3Gmz5B</t>
   </si>
   <si>
     <t>MACIAS MACIAS JOY ROBERTO</t>
@@ -4148,7 +4148,7 @@
     <t>joy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>S9blrJAP</t>
+    <t>D8XSPt1y</t>
   </si>
   <si>
     <t>MACIAS SILVA CINTHYA MARIANA</t>
@@ -4157,7 +4157,7 @@
     <t>cinthya.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>T7DIeAYB</t>
+    <t>1IP4d39V</t>
   </si>
   <si>
     <t>MENDOZA PONCE MARIA ANGELICA</t>
@@ -4166,7 +4166,7 @@
     <t>maria.mendozap@espam.edu.ec</t>
   </si>
   <si>
-    <t>24pCKuP4</t>
+    <t>sn78jhce</t>
   </si>
   <si>
     <t>MONCAYO LAINEZ KERLY ARIANNA</t>
@@ -4175,7 +4175,7 @@
     <t>kerly.moncayo@espam.edu.ec</t>
   </si>
   <si>
-    <t>gcnr7&amp;B9</t>
+    <t>TKmLSw3P</t>
   </si>
   <si>
     <t>MONTES POZO JEAN POLL</t>
@@ -4184,7 +4184,7 @@
     <t>jean.montes@espam.edu.ec</t>
   </si>
   <si>
-    <t>f2zaLKe0</t>
+    <t>tfJchqym</t>
   </si>
   <si>
     <t>MORENO OBANDO ANA BELLA</t>
@@ -4193,7 +4193,7 @@
     <t>ana.moreno@espam.edu.ec</t>
   </si>
   <si>
-    <t>gvqfge#W</t>
+    <t>FfPPssPm</t>
   </si>
   <si>
     <t>NAVARRETE PARODI ERIKA KARINA</t>
@@ -4202,7 +4202,7 @@
     <t>erika.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>qeIQ7eE8</t>
+    <t>aNZDJlM6</t>
   </si>
   <si>
     <t>ORMAZA ESPINOZA JESUS EMILIO</t>
@@ -4211,7 +4211,7 @@
     <t>jesus.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>!cd6!HfR</t>
+    <t>FZutlgie</t>
   </si>
   <si>
     <t>ORMAZA FALCONES MARIA ALEJANDRA</t>
@@ -4220,7 +4220,7 @@
     <t>maria.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>STKZynaB</t>
+    <t>#Z&amp;bbOS5</t>
   </si>
   <si>
     <t>PARRAGA QUIJIJE GEMA KAROLINA</t>
@@ -4229,7 +4229,7 @@
     <t>gemak.parragaq@espam.edu.ec</t>
   </si>
   <si>
-    <t>f6sJq2vP</t>
+    <t>WdSOlsfe</t>
   </si>
   <si>
     <t>PICO TOLA MARCO ANDRES</t>
@@ -4238,7 +4238,7 @@
     <t>marco.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ix&amp;KV?R3</t>
+    <t>YbgMxo?x</t>
   </si>
   <si>
     <t>PIN NAPA IVANA MAYERLI</t>
@@ -4247,7 +4247,7 @@
     <t>ivana.pin@espam.edu.ec</t>
   </si>
   <si>
-    <t>iP9?wY3l</t>
+    <t>SFZG4l0y</t>
   </si>
   <si>
     <t>ROMERO BRAVO JOSE AGUSTIN</t>
@@ -4256,7 +4256,7 @@
     <t>jose.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>jF3IWDMI</t>
+    <t>yTcBSz7d</t>
   </si>
   <si>
     <t>SALTOS INTRIAGO NATHALIA MELISSA</t>
@@ -4265,7 +4265,7 @@
     <t>nathalia.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>8#T3cze!</t>
+    <t>wsZBYi9n</t>
   </si>
   <si>
     <t>SALTOS SALTOS MADELYNE PIERINA</t>
@@ -4274,7 +4274,7 @@
     <t>madelyne.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>tu&amp;3JmI7</t>
+    <t>Sau52g/B</t>
   </si>
   <si>
     <t>SOLIS ORTIZ SANTIAGO</t>
@@ -4283,7 +4283,7 @@
     <t>santiago.solis@espam.edu.ec</t>
   </si>
   <si>
-    <t>v!mR?h3s</t>
+    <t>DspH86n!</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO GEMA NARCISA</t>
@@ -4292,7 +4292,7 @@
     <t>gema.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>a/DSPCZF</t>
+    <t>KzVRPWyB</t>
   </si>
   <si>
     <t>VARGAS SOLORZANO ANDREA DIVINA</t>
@@ -4301,7 +4301,7 @@
     <t>andrea.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z2x1sw/B</t>
+    <t>#qUh5IGa</t>
   </si>
   <si>
     <t>VELEZ VERA MANUEL ALEXANDER</t>
@@ -4310,7 +4310,7 @@
     <t>manuel.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>GyN1ZIbO</t>
+    <t>0Kc04tMQ</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO ADRIAN DAVID</t>
@@ -4319,7 +4319,7 @@
     <t>adrian.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>XPXTAjZV</t>
+    <t>HePkuDvG</t>
   </si>
   <si>
     <t>YLLESCA CEDEÑO JESUS JONATHAN</t>
@@ -4328,7 +4328,7 @@
     <t>jesus.yllesca@espam.edu.ec</t>
   </si>
   <si>
-    <t>iYQx?B6?</t>
+    <t>LI5jOlDL</t>
   </si>
   <si>
     <t>ZAMBRANO CATOTA DERLYN MILENA</t>
@@ -4337,7 +4337,7 @@
     <t>derlyn.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>CUU3EnMH</t>
+    <t>bf4hlFud</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO CHRISTIAN EDUARDO</t>
@@ -4346,7 +4346,7 @@
     <t>christian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>tsEdq5lJ</t>
+    <t>OUvIhc0F</t>
   </si>
   <si>
     <t>ZAMBRANO ROBLES GLENDY MERCEDES</t>
@@ -4355,7 +4355,7 @@
     <t>glendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>x/R9IZ7n</t>
+    <t>BEyLmPFc</t>
   </si>
   <si>
     <t>ZAMBRANO ROSADO JORGE ALESSANDRO</t>
@@ -4364,7 +4364,7 @@
     <t>jorge.zambranor@espam.edu.ec</t>
   </si>
   <si>
-    <t>DKdtsor6</t>
+    <t>YzmltSl2</t>
   </si>
   <si>
     <t>ZAMBRANO VERA WENDY ANAHI</t>
@@ -4373,7 +4373,7 @@
     <t>wendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Sw5KiUWN</t>
+    <t>l/nJ8ov2</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO JONATHAN JAVIER</t>
@@ -4382,7 +4382,7 @@
     <t>jonathan.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>N?V3TBcj</t>
+    <t>2mUxPikl</t>
   </si>
   <si>
     <t>ZAMORA SOLORZANO MAGALY DOLORES</t>
@@ -4391,7 +4391,7 @@
     <t>magaly.zamora@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q8xHAeFl</t>
+    <t>urw3Hnye</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO MARIA EMILIA</t>
@@ -4400,7 +4400,7 @@
     <t>maria.bravoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>xzrl6d?R</t>
+    <t>eGpGzMMU</t>
   </si>
   <si>
     <t>CEVALLOS ALVAREZ ARMANDO ENRIQUE</t>
@@ -4409,7 +4409,7 @@
     <t>armando.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>Cpx&amp;7HHK</t>
+    <t>EpvhI#28</t>
   </si>
   <si>
     <t>CEVALLOS VERA ARELIS STEFANIA</t>
@@ -4418,7 +4418,7 @@
     <t>arelis.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>aiEGSnvI</t>
+    <t>rioKIW4u</t>
   </si>
   <si>
     <t>COOL MERO PATRICIO JAVIER</t>
@@ -4427,7 +4427,7 @@
     <t>patricio.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>fM58K3Jp</t>
+    <t>1B/U2SKe</t>
   </si>
   <si>
     <t>FRANCO ORELLANA GUADALUPE MONSERRATE</t>
@@ -4436,7 +4436,7 @@
     <t>guadalupe.franco@espam.edu.ec</t>
   </si>
   <si>
-    <t>qK2HYJ1k</t>
+    <t>YyBKt6GW</t>
   </si>
   <si>
     <t>HUERTA BALDIVIEZO JEAN CRISTHIAN</t>
@@ -4445,7 +4445,7 @@
     <t>jean.huerta@espam.edu.ec</t>
   </si>
   <si>
-    <t>xYx5YMiS</t>
+    <t>Qi6ASpuK</t>
   </si>
   <si>
     <t>INTRIAGO CANTOS MARIA JOSE</t>
@@ -4454,7 +4454,7 @@
     <t>maria.intriagoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>iNgX?uzK</t>
+    <t>E&amp;jQUmQW</t>
   </si>
   <si>
     <t>LOOR CANTOS DIANA ISABEL</t>
@@ -4463,7 +4463,7 @@
     <t>diana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>mCaE1feh</t>
+    <t>N?VXFfG5</t>
   </si>
   <si>
     <t>LOOR SEGOVIA EVELYN ADRIANA</t>
@@ -4472,7 +4472,7 @@
     <t>evelyn.loors@espam.edu.ec</t>
   </si>
   <si>
-    <t>S/FD1uWO</t>
+    <t>h0B786ac</t>
   </si>
   <si>
     <t>MEDINA CEDEÑO JULIO CESAR</t>
@@ -4481,7 +4481,7 @@
     <t>julio.medina@espam.edu.ec</t>
   </si>
   <si>
-    <t>V#Vc1ipQ</t>
+    <t>vCZrQ7rx</t>
   </si>
   <si>
     <t>MERA VELEZ ALONDRA GARDENIA</t>
@@ -4490,7 +4490,7 @@
     <t>alondra.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>b1jk6krM</t>
+    <t>NGZfH!sq</t>
   </si>
   <si>
     <t>MUÑOZ ZAMBRANO CARLOS JOSUE</t>
@@ -4499,7 +4499,7 @@
     <t>carlos.munozz@espam.edu.ec</t>
   </si>
   <si>
-    <t>O9AE1#E5</t>
+    <t>X8edKOwA</t>
   </si>
   <si>
     <t>NAPA RODRIGUEZ JOSE AGUSTIN</t>
@@ -4508,7 +4508,7 @@
     <t>jose.napa@espam.edu.ec</t>
   </si>
   <si>
-    <t>s/Wm2PK1</t>
+    <t>CI0NaB95</t>
   </si>
   <si>
     <t>PALMA CEVALLOS MARIA JOSE</t>
@@ -4517,7 +4517,7 @@
     <t>maria.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>DF8sIPlO</t>
+    <t>3Aqnsq#K</t>
   </si>
   <si>
     <t>PATIÑO MESIAS MARIA GABRIELA</t>
@@ -4526,7 +4526,7 @@
     <t>maria.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>MQozOJyG</t>
+    <t>6W&amp;WPQAJ</t>
   </si>
   <si>
     <t>QUINTANA CAGUA YENIFER YULI</t>
@@ -4535,7 +4535,7 @@
     <t>yenifer.quintana@espam.edu.ec</t>
   </si>
   <si>
-    <t>o0e6Bbrk</t>
+    <t>v!lOao#x</t>
   </si>
   <si>
     <t>RIVERA CANTOS MARIA DANIELA</t>
@@ -4544,7 +4544,7 @@
     <t>maria.riverac@espam.edu.ec</t>
   </si>
   <si>
-    <t>i4W3vk7M</t>
+    <t>2CGY2ga9</t>
   </si>
   <si>
     <t>RODRIGUEZ PINCAY CARLOS BRYAN</t>
@@ -4553,7 +4553,7 @@
     <t>carlos.rodriguezp@espam.edu.ec</t>
   </si>
   <si>
-    <t>/aND1Q7/</t>
+    <t>iBH0GH3?</t>
   </si>
   <si>
     <t>SABANDO VELEZ CRISTHIAN ANTHONY</t>
@@ -4562,7 +4562,7 @@
     <t>cristhian.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>?q0u/W#H</t>
+    <t>gNwAmlLq</t>
   </si>
   <si>
     <t>SANTANA VERA ANTHONY JAHIR</t>
@@ -4571,7 +4571,7 @@
     <t>anthony.santana@espam.edu.ec</t>
   </si>
   <si>
-    <t>iAJR&amp;Eqp</t>
+    <t>sE7wDcDp</t>
   </si>
   <si>
     <t>VELEZ ESPINOZA JUNIOR JESUS</t>
@@ -4580,7 +4580,7 @@
     <t>junior.veleze@espam.edu.ec</t>
   </si>
   <si>
-    <t>YB#6Qgpx</t>
+    <t>?ZQIh7hY</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO DIEGO ALEJANDRO</t>
@@ -4589,7 +4589,7 @@
     <t>diego.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>jawXlP3I</t>
+    <t>eb##xpos</t>
   </si>
   <si>
     <t>ZAMBRANO VELEZ NAYELHY LILIBETH</t>
@@ -4598,7 +4598,7 @@
     <t>nayelhy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>EyjrZ0Ok</t>
+    <t>jJvDKqJA</t>
   </si>
   <si>
     <t>ZAMBRANO WITONG KENIA THAIS</t>
@@ -4607,7 +4607,7 @@
     <t>keniath.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>#2TzUCx!</t>
+    <t>Ar4nJenb</t>
   </si>
   <si>
     <t>ANCHUNDIA ANCHUNDIA GEMA LILIBETH</t>
@@ -4616,7 +4616,7 @@
     <t>gema.anchundia@espam.edu.ec</t>
   </si>
   <si>
-    <t>O#pU9kQr</t>
+    <t>3XQGf5U#</t>
   </si>
   <si>
     <t>ARTEAGA DELGADO JEAN CARLOS</t>
@@ -4625,7 +4625,7 @@
     <t>jean.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yy7gsWt4</t>
+    <t>oKEUVIcn</t>
   </si>
   <si>
     <t>BARREIRO ZAMBRANO JOSE VICENTE</t>
@@ -4634,7 +4634,7 @@
     <t>jose.barreiro@espam.edu.ec</t>
   </si>
   <si>
-    <t>r0f77OCY</t>
+    <t>hi8cboc/</t>
   </si>
   <si>
     <t>BASURTO ALCIVAR DARWIN JESUS</t>
@@ -4643,7 +4643,7 @@
     <t>darwin.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xi71x0yI</t>
+    <t>eJKnlQ7k</t>
   </si>
   <si>
     <t>BRAVO CEDEÑO JOSE RODOLFO</t>
@@ -4652,7 +4652,7 @@
     <t>jose.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wwiqx7Qo</t>
+    <t>3LTHuJa9</t>
   </si>
   <si>
     <t>BRIONES BERMEO ANTONY JAVIER</t>
@@ -4661,7 +4661,7 @@
     <t>antony.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>YiTEAYJ3</t>
+    <t>k5BweCGx</t>
   </si>
   <si>
     <t>CEDEÑO ANCHUNDIA YANDRY ANTONIO</t>
@@ -4673,7 +4673,7 @@
     <t>yandry.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>gFnaj448</t>
+    <t>/zzkQCNz</t>
   </si>
   <si>
     <t>CEDEÑO PEÑARRIETA DAYANA SOPHIA</t>
@@ -4682,7 +4682,7 @@
     <t>dayanaso.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>raSTzKfg</t>
+    <t>gx!FqrIN</t>
   </si>
   <si>
     <t>CHAVARRIA PEÑARRIETA MARCOS ALEJANDRO</t>
@@ -4691,7 +4691,7 @@
     <t>marcos.chavarria@espam.edu.ec</t>
   </si>
   <si>
-    <t>317ucfRN</t>
+    <t>wyw!TKTk</t>
   </si>
   <si>
     <t>DEL VALLE BASURTO CARMEN MELINA</t>
@@ -4700,7 +4700,7 @@
     <t>carmen.del@espam.edu.ec</t>
   </si>
   <si>
-    <t>Iw/VQiCg</t>
+    <t>khpvSM!J</t>
   </si>
   <si>
     <t>GUERRERO BRAVO ANA BELEN</t>
@@ -4709,7 +4709,7 @@
     <t>ana.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>m#5qclz4</t>
+    <t>tEr?OxBP</t>
   </si>
   <si>
     <t>GUERRERO GUERRERO JOSSELYN MELISSA</t>
@@ -4718,7 +4718,7 @@
     <t>josselyn.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>!1vTSCQL</t>
+    <t>sp44oxxG</t>
   </si>
   <si>
     <t>INTRIAGO BARBERAN LAURO ANTONIO</t>
@@ -4727,7 +4727,7 @@
     <t>lauro.intriago1@espam.edu.ec</t>
   </si>
   <si>
-    <t>C38ta0Zl</t>
+    <t>K6Gep/XI</t>
   </si>
   <si>
     <t>INTRIAGO MORA LENIN ARCENIO</t>
@@ -4736,7 +4736,7 @@
     <t>lenin.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>alX9keNU</t>
+    <t>UYRRFtQs</t>
   </si>
   <si>
     <t>MACIAS CALDERON JOSE ARIEL</t>
@@ -4745,7 +4745,7 @@
     <t>jose.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y6JzrUxr</t>
+    <t>Z8E6rQ!h</t>
   </si>
   <si>
     <t>MARCILLO VELEZ ANA PATRICIA</t>
@@ -4754,7 +4754,7 @@
     <t>ana.marcillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lmls#KXe</t>
+    <t>!UR5OhD4</t>
   </si>
   <si>
     <t>MERA FIGUEROA RAYMOND ALEJANDRO</t>
@@ -4763,7 +4763,7 @@
     <t>raymond.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>uVfhJ/F0</t>
+    <t>nkGQzw1N</t>
   </si>
   <si>
     <t>MOREIRA ZAMBRANO JOSSENKA MERCEDES</t>
@@ -4772,7 +4772,7 @@
     <t>jossenka.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nnlbcrcu</t>
+    <t>S3&amp;InpYL</t>
   </si>
   <si>
     <t>MUÑOZ ALCIVAR CRISTHIAN MARTIN</t>
@@ -4781,7 +4781,7 @@
     <t>cristhian.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>I49s6n&amp;i</t>
+    <t>lZrX87YA</t>
   </si>
   <si>
     <t>MUÑOZ MACIAS MARIA MAGDALENA</t>
@@ -4790,7 +4790,7 @@
     <t>mariama.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>q9Mtkd!U</t>
+    <t>bqWn&amp;JcX</t>
   </si>
   <si>
     <t>POLO GANCHOZO ARON ESNEYDER</t>
@@ -4799,7 +4799,7 @@
     <t>aron.polo@espam.edu.ec</t>
   </si>
   <si>
-    <t>we6R/GLn</t>
+    <t>PtNEG7tM</t>
   </si>
   <si>
     <t>RIOS BERMELLO JENIFFER LIZETH</t>
@@ -4808,7 +4808,7 @@
     <t>jeniffer.rios@espam.edu.ec</t>
   </si>
   <si>
-    <t>!QrtMLpY</t>
+    <t>TSo3oZg9</t>
   </si>
   <si>
     <t>SALVATIERRA VALDEZ VICKY NICOLLE</t>
@@ -4817,7 +4817,7 @@
     <t>vicky.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>OxcWAwPf</t>
+    <t>uSwxh2#M</t>
   </si>
   <si>
     <t>SANTOS VELEZ MONICA GERMANIA</t>
@@ -4826,7 +4826,7 @@
     <t>monica.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>egZ2/gkZ</t>
+    <t>TCm1NKYV</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO MILENA DENISSE</t>
@@ -4835,7 +4835,7 @@
     <t>milena.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>8r3r8tr2</t>
+    <t>KkD0RJwt</t>
   </si>
   <si>
     <t>TUQUERES TACURI JESSICA MARIBELL</t>
@@ -4844,7 +4844,7 @@
     <t>jessica.tuqueres@espam.edu.ec</t>
   </si>
   <si>
-    <t>MMskswKE</t>
+    <t>WlJondYB</t>
   </si>
   <si>
     <t>VERDUGA ERAZO JOSUE SALVADOR</t>
@@ -4853,7 +4853,7 @@
     <t>josue.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>qbXJ8Epj</t>
+    <t>2#JWLw3W</t>
   </si>
   <si>
     <t>YEPEZ VELIZ GENESIS THALIA</t>
@@ -4862,7 +4862,7 @@
     <t>genesis.yepez@espam.edu.ec</t>
   </si>
   <si>
-    <t>LWJIS#hJ</t>
+    <t>c5VYlIfD</t>
   </si>
   <si>
     <t>ZAMBRANO BASURTO ERICK RAFAEL</t>
@@ -4871,7 +4871,7 @@
     <t>erick.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>tzP?pMwa</t>
+    <t>KfgonhAw</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ JANDRY DEIVY</t>
@@ -4880,7 +4880,7 @@
     <t>jandry.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z??H7r/X</t>
+    <t>Sa1wDWv9</t>
   </si>
   <si>
     <t>AYONG VERA JUAN DAVID</t>
@@ -4889,7 +4889,7 @@
     <t>juan.ayong@espam.edu.ec</t>
   </si>
   <si>
-    <t>MTrZjD?2</t>
+    <t>hLOM!spf</t>
   </si>
   <si>
     <t>BASURTO SALAZAR ANGELA MARGARITA</t>
@@ -4898,7 +4898,7 @@
     <t>angela.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>OdGy27vG</t>
+    <t>5izI?2rv</t>
   </si>
   <si>
     <t>CASANOVA INTRIAGO ANDREA BELEN</t>
@@ -4910,7 +4910,7 @@
     <t>andrea.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>OnoREkV0</t>
+    <t>QX0I#A#0</t>
   </si>
   <si>
     <t>CHUMO ZAMBRANO ANTONIO BENITO</t>
@@ -4919,7 +4919,7 @@
     <t>antonio.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>PIs#&amp;mF/</t>
+    <t>T0RUKqLY</t>
   </si>
   <si>
     <t>GARCIA CORTEZ ERIKA STEFANIA</t>
@@ -4928,7 +4928,7 @@
     <t>erika.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>RjwJ!u9B</t>
+    <t>BEpCa1Ax</t>
   </si>
   <si>
     <t>GOMEZ BARRERA JUNIOR LENIN</t>
@@ -4937,7 +4937,7 @@
     <t>junior.gomez@espam.edu.ec</t>
   </si>
   <si>
-    <t>nkF732Ki</t>
+    <t>YTIX8NAF</t>
   </si>
   <si>
     <t>LOOR CEDEÑO RICARDO EMANUEL</t>
@@ -4946,7 +4946,7 @@
     <t>ricardo.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>7hW8E?Ua</t>
+    <t>2T1wj2bQ</t>
   </si>
   <si>
     <t>LOOR LUCAS EVELYN GUADALUPE</t>
@@ -4958,7 +4958,7 @@
     <t>evelyn.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>sh?RVQ/1</t>
+    <t>clcI?9W5</t>
   </si>
   <si>
     <t>LOOR VELASCO FABIANA BELEN</t>
@@ -4970,7 +4970,7 @@
     <t>fabiana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>9M#24&amp;vl</t>
+    <t>N60t!93E</t>
   </si>
   <si>
     <t>MARTINEZ CEDEÑO JENIFFER ESTEFANIA</t>
@@ -4979,7 +4979,7 @@
     <t>jeniffer.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>2I1/xGbw</t>
+    <t>5A7jGpkY</t>
   </si>
   <si>
     <t>MENDOZA BARRE EDDY ENMANUEL</t>
@@ -4988,7 +4988,7 @@
     <t>eddy.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>wUD&amp;VefD</t>
+    <t>&amp;/Ml56PT</t>
   </si>
   <si>
     <t>MURILLO PALACIOS ULICES JAIR</t>
@@ -4997,7 +4997,7 @@
     <t>ulices.murillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y78Xqj6r</t>
+    <t>HFu5t!K?</t>
   </si>
   <si>
     <t>QUIJANO ZAMBRANO JONATHAN ERNESTO</t>
@@ -5006,7 +5006,7 @@
     <t>jonathan.quijano@espam.edu.ec</t>
   </si>
   <si>
-    <t>LsqL/vpY</t>
+    <t>SdK8cHop</t>
   </si>
   <si>
     <t>ROBLES YORI EFRAIN DAVID</t>
@@ -5015,7 +5015,7 @@
     <t>efrain.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>SLMuv1oq</t>
+    <t>hz44gi!T</t>
   </si>
   <si>
     <t>SABANDO ZAMBRANO FREDDY ANTONIO</t>
@@ -5024,7 +5024,7 @@
     <t>freddy.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>xTfS4Osq</t>
+    <t>l8b&amp;B!34</t>
   </si>
   <si>
     <t>SOLORZANO GUERRERO RONALDO WANDERLEY</t>
@@ -5033,7 +5033,7 @@
     <t>ronaldo.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>!1oum!Xt</t>
+    <t>lSMVlK4G</t>
   </si>
   <si>
     <t>VELEZ CALDERON GENESIS MARIANA</t>
@@ -5045,7 +5045,7 @@
     <t>genesis.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>C93BTNKS</t>
+    <t>sT#ufrt#</t>
   </si>
   <si>
     <t>ZAMBRANO BALDA JOSE RAMIRO</t>
@@ -5054,7 +5054,7 @@
     <t>josera.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>?7o7MpCw</t>
+    <t>mtJEX??0</t>
   </si>
   <si>
     <t>ZAMBRANO CANTOS YENNY ANNABEL</t>
@@ -5063,7 +5063,7 @@
     <t>yenny.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>gKN8y&amp;oF</t>
+    <t>NnG49P3q</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR CRISTHIAN LEONARDO</t>
@@ -5072,7 +5072,7 @@
     <t>cristhian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>yBH829GR</t>
+    <t>ofnPo6MD</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR DIANA STEFANIA</t>
@@ -5081,7 +5081,7 @@
     <t>dianas.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>rZ1ymLqy</t>
+    <t>T8e6xEqp</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR MARIA EMILIA</t>
@@ -5090,7 +5090,7 @@
     <t>maria.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>pTx3Txld</t>
+    <t>r6ozJXTZ</t>
   </si>
   <si>
     <t>ZAMBRANO MOREIRA LEONELA ALEJANDRA</t>
@@ -5099,7 +5099,7 @@
     <t>leonela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>LJ2qawh4</t>
+    <t>fP/y!P4h</t>
   </si>
   <si>
     <t>ALAVA ORTIZ EDWIN ALEXANDER</t>
@@ -5108,7 +5108,7 @@
     <t>edwin.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>vEHaKCD4</t>
+    <t>Vn5NgPv!</t>
   </si>
   <si>
     <t>ALCIVAR LOOR GEMA LISBETH</t>
@@ -5117,7 +5117,7 @@
     <t>gemal.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>mawp4fw9</t>
+    <t>9LPeNrQL</t>
   </si>
   <si>
     <t>AVELLAN SANTANA GENESIS NICOLLE</t>
@@ -5126,7 +5126,7 @@
     <t>genesis.avellan@espam.edu.ec</t>
   </si>
   <si>
-    <t>ePGRaoV5</t>
+    <t>78kgXsWT</t>
   </si>
   <si>
     <t>CALDERON SANCHEZ SANDY KATHERINE</t>
@@ -5138,7 +5138,7 @@
     <t>sandy.calderon@espam.edu.ec</t>
   </si>
   <si>
-    <t>iuxQVf#6</t>
+    <t>4AoyyFxe</t>
   </si>
   <si>
     <t>CARDENAS ASTUDILLO ANGELA JULIANA</t>
@@ -5150,7 +5150,7 @@
     <t>angela.cardenas@espam.edu.ec</t>
   </si>
   <si>
-    <t>TL/4?hqp</t>
+    <t>P2ZOf?sX</t>
   </si>
   <si>
     <t>CARRILLO PACHAY MARCO STEVE</t>
@@ -5159,7 +5159,7 @@
     <t>marco.carrillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Uzy&amp;WQNR</t>
+    <t>mTkqI?yS</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO BRYAN ISIDRO</t>
@@ -5168,7 +5168,7 @@
     <t>bryan.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>ObqJ637/</t>
+    <t>u/dUieWL</t>
   </si>
   <si>
     <t>CEVALLOS SALTOS ANTHONY FERNANDO</t>
@@ -5177,7 +5177,7 @@
     <t>anthonyf.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wmcp!lys</t>
+    <t>xL!j0Aur</t>
   </si>
   <si>
     <t>CHANG ZAMBRANO MARTHA YAMILETH</t>
@@ -5186,7 +5186,7 @@
     <t>martha.chang@espam.edu.ec</t>
   </si>
   <si>
-    <t>Srpv4hr0</t>
+    <t>dYB!OQKk</t>
   </si>
   <si>
     <t>CHIRIBOGA FARIAS LUIS FERNANDO</t>
@@ -5195,7 +5195,7 @@
     <t>luis.chiriboga@espam.edu.ec</t>
   </si>
   <si>
-    <t>QTZYnykA</t>
+    <t>Zt0BWTVX</t>
   </si>
   <si>
     <t>ESPINOZA PILAY JERSON JOSE</t>
@@ -5204,7 +5204,7 @@
     <t>jerson.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pr?7Tss9</t>
+    <t>CqAtzdfQ</t>
   </si>
   <si>
     <t>FARIAS MERA MAURICIO ANDRES</t>
@@ -5213,7 +5213,7 @@
     <t>mauricio.farias@espam.edu.ec</t>
   </si>
   <si>
-    <t>P2fr/WXo</t>
+    <t>A&amp;uXjqgD</t>
   </si>
   <si>
     <t>HERNANDEZ GONZALEZ JAMILEX KAREY</t>
@@ -5225,7 +5225,7 @@
     <t>jamilex.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Gf6bGOnb</t>
+    <t>afS?nNrE</t>
   </si>
   <si>
     <t>LEONES FALCONES ABAD JHOAN</t>
@@ -5234,7 +5234,7 @@
     <t>abad.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>LTM5zJqB</t>
+    <t>aGaGfpal</t>
   </si>
   <si>
     <t>LOOR CEVALLOS ANA MARIA</t>
@@ -5243,7 +5243,7 @@
     <t>anama.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>/O7fVqKX</t>
+    <t>DRy5waUz</t>
   </si>
   <si>
     <t>LOOR LOOR RONALD POLIVIO</t>
@@ -5252,7 +5252,7 @@
     <t>ronald.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>lzm14K8h</t>
+    <t>x?kftP#y</t>
   </si>
   <si>
     <t>LOOR REYES GENESIS JAMILETH</t>
@@ -5261,7 +5261,7 @@
     <t>genesis.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>3l9MVaxE</t>
+    <t>egEYtPkm</t>
   </si>
   <si>
     <t>MACIAS BRAVO RICARDO FRANCISCO</t>
@@ -5270,7 +5270,7 @@
     <t>ricardo.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>?0xR5Wis</t>
+    <t>Zk0nvRHp</t>
   </si>
   <si>
     <t>MACIAS MACIAS LISSETH LILIBETH</t>
@@ -5279,7 +5279,7 @@
     <t>lisseth.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>DA#eIgCX</t>
+    <t>Xl&amp;YxDd8</t>
   </si>
   <si>
     <t>MANZABA CEDEÑO KEVIN ALBERTO</t>
@@ -5288,7 +5288,7 @@
     <t>kevin.manzaba@espam.edu.ec</t>
   </si>
   <si>
-    <t>IfUIlc7r</t>
+    <t>68rS8H/U</t>
   </si>
   <si>
     <t>MARQUEZ LEMA NAYELI SABRINA</t>
@@ -5297,7 +5297,7 @@
     <t>nayeli.marquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>3n5k7!v6</t>
+    <t>h4L#19QP</t>
   </si>
   <si>
     <t>MENDOZA BRIONES MARIUXI KATHERINE</t>
@@ -5309,7 +5309,7 @@
     <t>mariuxi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>L8YNP9l8</t>
+    <t>/vlsZ/Sq</t>
   </si>
   <si>
     <t>MOLINA CEDEÑO JUAN DE DIOS</t>
@@ -5318,7 +5318,7 @@
     <t>juan.molina@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;ysN3W2#</t>
+    <t>Mu56oxPi</t>
   </si>
   <si>
     <t>MONTESDEOCA GARCIA YUDID ALEXANDRA</t>
@@ -5327,7 +5327,7 @@
     <t>yudid.montesdeoca@espam.edu.ec</t>
   </si>
   <si>
-    <t>M5ppYvft</t>
+    <t>#qnARxF7</t>
   </si>
   <si>
     <t>MUÑOZ MERA JUAN PABLO</t>
@@ -5336,7 +5336,7 @@
     <t>juan.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>z?IWQZWO</t>
+    <t>KJ1dzMhE</t>
   </si>
   <si>
     <t>NAVARRETE ORMAZA ERICK ALEXANDER</t>
@@ -5345,7 +5345,7 @@
     <t>erick.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>tBzPWSfj</t>
+    <t>#dIrigDe</t>
   </si>
   <si>
     <t>OCAMPO BARRE ANTHONY VICENTE</t>
@@ -5354,7 +5354,7 @@
     <t>anthony.ocampo@espam.edu.ec</t>
   </si>
   <si>
-    <t>5/6&amp;YrxU</t>
+    <t>5!nihOfu</t>
   </si>
   <si>
     <t>PARRALES FALCONES ANTHONY LEONARDO</t>
@@ -5363,7 +5363,7 @@
     <t>anthony.parrales@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;7TFxnt7</t>
+    <t>b6mDEPAX</t>
   </si>
   <si>
     <t>RAMOS SALTOS NICOLE PAOLA</t>
@@ -5372,7 +5372,7 @@
     <t>nicole.ramos@espam.edu.ec</t>
   </si>
   <si>
-    <t>3phOQ9lg</t>
+    <t>t2d1GsJh</t>
   </si>
   <si>
     <t>ROBLES MOLINA JENIFFER STEFANIA</t>
@@ -5381,7 +5381,7 @@
     <t>jeniffer.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>sgS2Dr1V</t>
+    <t>zQ!rwkfh</t>
   </si>
   <si>
     <t>RODRIGUEZ CAMPOS JEAN KATHERINE</t>
@@ -5390,7 +5390,7 @@
     <t>jean.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>dj&amp;nIQJa</t>
+    <t>TjNM/CEr</t>
   </si>
   <si>
     <t>SANCHEZ MEDINA GISSEL STEPHANIE</t>
@@ -5399,7 +5399,7 @@
     <t>gissel.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>9jsfbgLH</t>
+    <t>rGshWoQ3</t>
   </si>
   <si>
     <t>VASQUEZ VERA ARGENIS JAVIER</t>
@@ -5408,7 +5408,7 @@
     <t>argenis.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>/Zv/qvIZ</t>
+    <t>gymbrXsg</t>
   </si>
   <si>
     <t>VASQUEZ VERA MARIA MERCEDES</t>
@@ -5417,7 +5417,7 @@
     <t>maria.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Eh9p!qxH</t>
+    <t>HTS!OClX</t>
   </si>
   <si>
     <t>VELEZ MERA JOSSELYN JOSSENKA</t>
@@ -5426,7 +5426,7 @@
     <t>josselynjo.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>AbVEjIPL</t>
+    <t>sJnq826V</t>
   </si>
   <si>
     <t>VELEZ PALACIOS STEVEN RAMON</t>
@@ -5435,7 +5435,7 @@
     <t>steven.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>bMIRKQrk</t>
+    <t>8ot#7GnX</t>
   </si>
   <si>
     <t>VERA BRAVO MARY LAURA</t>
@@ -5444,7 +5444,7 @@
     <t>mary.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>#wNdHAFD</t>
+    <t>gPE18seb</t>
   </si>
   <si>
     <t>VILLAMIL VALENCIA ISABEL ANDREA</t>
@@ -5453,7 +5453,7 @@
     <t>isabel.villamil@espam.edu.ec</t>
   </si>
   <si>
-    <t>S&amp;2j8c7j</t>
+    <t>WCTYaPx!</t>
   </si>
   <si>
     <t>ZAMBRANO COBEÑA PABLO ALBERTO</t>
@@ -5462,7 +5462,7 @@
     <t>pablo.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>g5C6QDbA</t>
+    <t>&amp;D3AHoM6</t>
   </si>
   <si>
     <t>ALVAREZ INTRIAGO MAILIN KATHERINE</t>
@@ -5471,7 +5471,7 @@
     <t>mailin.alvarez@espam.edu.ec</t>
   </si>
   <si>
-    <t>r9yK!78D</t>
+    <t>rm2dJ1#!</t>
   </si>
   <si>
     <t>BRAVO ARTEAGA RICARDO JAVIER</t>
@@ -5480,7 +5480,7 @@
     <t>ricardo.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>0zSb?2b8</t>
+    <t>?Xk1IPs4</t>
   </si>
   <si>
     <t>BRAVO VERGARA GEMA CAROLINA</t>
@@ -5489,7 +5489,7 @@
     <t>gemac.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>yFndoWtp</t>
+    <t>0E!ibH9#</t>
   </si>
   <si>
     <t>CEDEÑO VELASQUEZ GEMA GUADALUPE</t>
@@ -5498,7 +5498,7 @@
     <t>gemag.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>9RtD/PF!</t>
+    <t>#rDK&amp;0xy</t>
   </si>
   <si>
     <t>CHAVEZ VELIZ DENIS ALEXANDER</t>
@@ -5507,7 +5507,7 @@
     <t>denis.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>LGfq?Z2b</t>
+    <t>k5nru6u7</t>
   </si>
   <si>
     <t>DEMERA ZAMBRANO JACKSON ANDRES</t>
@@ -5516,7 +5516,7 @@
     <t>jackson.demera@espam.edu.ec</t>
   </si>
   <si>
-    <t>bg04fSY9</t>
+    <t>btFBHTvE</t>
   </si>
   <si>
     <t>GANCHOZO LECTONG GRESSILLE GUISSELLA</t>
@@ -5525,7 +5525,7 @@
     <t>gressille.ganchozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>swDJn1FU</t>
+    <t>fN2oirQB</t>
   </si>
   <si>
     <t>INDIO ZAMBRANO ODALIS MICHELLE</t>
@@ -5537,7 +5537,7 @@
     <t>odalis.indio@espam.edu.ec</t>
   </si>
   <si>
-    <t>UBnjZcz2</t>
+    <t>3kQu/UlY</t>
   </si>
   <si>
     <t>INTRIAGO TERAN BRYAN ASDRUBAL</t>
@@ -5546,7 +5546,7 @@
     <t>bryan.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>?F8cMC1h</t>
+    <t>8Q20QuXt</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO GISSELA KAROLINA</t>
@@ -5555,7 +5555,7 @@
     <t>gissela.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>c5knZq8Y</t>
+    <t>eZMnE5Lf</t>
   </si>
   <si>
     <t>LEONES SOLORZANO YARITZA DANIELA</t>
@@ -5564,7 +5564,7 @@
     <t>yaritza.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>k0yKtTv2</t>
+    <t>n&amp;u8QtaC</t>
   </si>
   <si>
     <t>LOPEZ MORA JOSSELYN AMARILYS</t>
@@ -5573,7 +5573,7 @@
     <t>josselyn.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>nou?Njwh</t>
+    <t>b8!WMsXk</t>
   </si>
   <si>
     <t>MERA LOOR ANTONY ELIAN</t>
@@ -5582,7 +5582,7 @@
     <t>antony.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>yVt5gabL</t>
+    <t>o8qFrSJ!</t>
   </si>
   <si>
     <t>MERA SABANDO GEMA YAMILETH</t>
@@ -5591,7 +5591,7 @@
     <t>gema.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>grAhYT98</t>
+    <t>vAwzr9AK</t>
   </si>
   <si>
     <t>MIRANDA IBARRA ALFONSO SEBASTIAN</t>
@@ -5600,7 +5600,7 @@
     <t>alfonso.miranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>rzmde8Wm</t>
+    <t>QXhvE66?</t>
   </si>
   <si>
     <t>MONGE ERAZO JECSY PIERINA</t>
@@ -5609,7 +5609,7 @@
     <t>jecsy.monge@espam.edu.ec</t>
   </si>
   <si>
-    <t>Gn5Utv86</t>
+    <t>HHCE#V0?</t>
   </si>
   <si>
     <t>ROMERO ORTEGA ANGEL ANDRES</t>
@@ -5618,7 +5618,7 @@
     <t>angel.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>uAlELojy</t>
+    <t>86?fPXQ4</t>
   </si>
   <si>
     <t>SOLORZANO INTRIAGO OSCAR FABIAN</t>
@@ -5630,7 +5630,7 @@
     <t>oscar.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>c&amp;Lk4Xe7</t>
+    <t>uACyAwin</t>
   </si>
   <si>
     <t>VALVERDE ZAPATA KATHIUSCA CARLOTA</t>
@@ -5642,7 +5642,7 @@
     <t>kathiusca.valverde@espam.edu.ec</t>
   </si>
   <si>
-    <t>E!#UoxJI</t>
+    <t>0YWKWadI</t>
   </si>
   <si>
     <t>VERA AYALA GENESIS LISBETH</t>
@@ -5651,7 +5651,7 @@
     <t>genesis.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>l0w&amp;JuoH</t>
+    <t>S#fLVVTx</t>
   </si>
   <si>
     <t>VERA PULIDO MARIA IVANNA</t>
@@ -5660,7 +5660,7 @@
     <t>mariai.verap@espam.edu.ec</t>
   </si>
   <si>
-    <t>iycuvNgb</t>
+    <t>ggJUhGfQ</t>
   </si>
   <si>
     <t>VERA ZAMBRANO JAZMIN CAROLINA</t>
@@ -5669,7 +5669,7 @@
     <t>jazmin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>2jjn9Xg/</t>
+    <t>FngwVibk</t>
   </si>
   <si>
     <t>VERGARA ARBOLEDA WENDY DEL ROCIO</t>
@@ -5681,7 +5681,7 @@
     <t>wendy.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>BxIxkhWZ</t>
+    <t>mbRINPkG</t>
   </si>
   <si>
     <t>VILLAMAR GONZALEZ ELENA SAMANTA</t>
@@ -5690,7 +5690,7 @@
     <t>elena.villamar@espam.edu.ec</t>
   </si>
   <si>
-    <t>7CkigrNq</t>
+    <t>EC8VRN&amp;Y</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR GENESIS VALENTINA</t>
@@ -5699,7 +5699,7 @@
     <t>genesis.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>C/CftOwS</t>
+    <t>6ONzXTbp</t>
   </si>
   <si>
     <t>ZAMBRANO CHAVEZ ANDREA MONSERRATE</t>
@@ -5708,7 +5708,7 @@
     <t>andream.zambranoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>s3IV&amp;Ks0</t>
+    <t>Z5/u2NNg</t>
   </si>
   <si>
     <t>ZAMBRANO GRACIA DANIELA ANGELINA</t>
@@ -5717,7 +5717,7 @@
     <t>daniela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>foA#OP?1</t>
+    <t>JSxx!?Kt</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ WILLY JHONAY</t>
@@ -5726,7 +5726,7 @@
     <t>willy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>?DAXfaKA</t>
+    <t>/o&amp;WvD&amp;g</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO TATIANA ELIZABETH</t>
@@ -5735,7 +5735,7 @@
     <t>tatianael.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>L50oJ!!Q</t>
+    <t>BUfJTak!</t>
   </si>
 </sst>
 </file>

--- a/public/storage/seeds/datosPassword.xlsx
+++ b/public/storage/seeds/datosPassword.xlsx
@@ -44,7 +44,7 @@
     <t>angie.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>MN5drS/h</t>
+    <t>TljGPb!J</t>
   </si>
   <si>
     <t>ALCIVAR VERA KARLA MILENA</t>
@@ -53,7 +53,7 @@
     <t>karla.alcivar.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>fXuuOAaH</t>
+    <t>Lt5X0W7x</t>
   </si>
   <si>
     <t>ALVIA ROCA HENRY ISAAC</t>
@@ -65,7 +65,7 @@
     <t>henry.alvia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>EaVQKyeC</t>
+    <t>9S1eT8cQ</t>
   </si>
   <si>
     <t>ANANGONO GOMEZ ANA MARCELA</t>
@@ -74,7 +74,7 @@
     <t>ana.anangono.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>YrhEw7q0</t>
+    <t>x9dDVEC4</t>
   </si>
   <si>
     <t>BRAVO MARCILLO NATHALY SILVANA</t>
@@ -86,7 +86,7 @@
     <t>nathaly.bravo.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Gs&amp;Jkq2s</t>
+    <t>S3ogIVjN</t>
   </si>
   <si>
     <t>BRIONES SUAREZ DANIA MELISSA</t>
@@ -95,7 +95,7 @@
     <t>dania.briones.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>JP5ZOfnY</t>
+    <t>ZD0jrXhZ</t>
   </si>
   <si>
     <t>CANCHINGRE LOZA MARIANA DE JESUS</t>
@@ -107,7 +107,7 @@
     <t>mariana.canchingre.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>krtlO5eg</t>
+    <t>YC1KNuPy</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA EMILY JAHAIRA</t>
@@ -116,7 +116,7 @@
     <t>emily.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>uJJ!oZr/</t>
+    <t>tJ#BY5QZ</t>
   </si>
   <si>
     <t>CEDEÑO VELEZ STEVEN ANTONIO</t>
@@ -125,7 +125,7 @@
     <t>steven.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>HfuKAeNC</t>
+    <t>0T?hmN2X</t>
   </si>
   <si>
     <t>CHICA ORDOÑEZ YAIZA ANAHI</t>
@@ -134,7 +134,7 @@
     <t>yaiza.chica.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>5JousHfi</t>
+    <t>6!YbMZBF</t>
   </si>
   <si>
     <t>CORONEL MERO DAMARY SABRINA</t>
@@ -143,7 +143,7 @@
     <t>damary.coronel.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>LaxJWgkg</t>
+    <t>owgiWrAl</t>
   </si>
   <si>
     <t>DELGADO BENAVIDES MELISSA ANDREINA</t>
@@ -152,7 +152,7 @@
     <t>melissa.delgado.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>IKOgfA##</t>
+    <t>ay#OSvxh</t>
   </si>
   <si>
     <t>DELGADO SOLORZANO TONY DAMIAN</t>
@@ -161,7 +161,7 @@
     <t>tony.delgado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>9yVbQ15S</t>
+    <t>QHrIMQk?</t>
   </si>
   <si>
     <t>ELENO GENDE JOSELYN KATHERINE</t>
@@ -173,7 +173,7 @@
     <t>joselyn.eleno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ya4M?cKI</t>
+    <t>4X#N0Je6</t>
   </si>
   <si>
     <t>GARCIA RIVERA ANGHELA LISBETH</t>
@@ -185,7 +185,7 @@
     <t>anghela.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>zsvxvp0d</t>
+    <t>QOSjXxn&amp;</t>
   </si>
   <si>
     <t>GARCIA ROSS PRISCILA TAHILY</t>
@@ -194,7 +194,7 @@
     <t>priscila.garcia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>6Rb1kHuZ</t>
+    <t>k0x2GVr#</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO MARILYN MICHEL</t>
@@ -203,7 +203,7 @@
     <t>marilyn.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>u1m40L5?</t>
+    <t>i#FMcYMI</t>
   </si>
   <si>
     <t>LUCAS MENDOZA MOISES NOE</t>
@@ -212,7 +212,7 @@
     <t>moises.lucas.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>zby!h80J</t>
+    <t>Dj2v42Y9</t>
   </si>
   <si>
     <t>MANTUANO LOOR JENIFER DANIELA</t>
@@ -221,7 +221,7 @@
     <t>jenifer.mantuano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>N1HrG8eU</t>
+    <t>kEKYN#&amp;3</t>
   </si>
   <si>
     <t>MENENDEZ SANTANA JOSMELY ANAHI</t>
@@ -230,7 +230,7 @@
     <t>josmely.menendez.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>!UQ9TbTc</t>
+    <t>zU2NgbJ#</t>
   </si>
   <si>
     <t>MEZA ESPINOZA MISHEL NICOL</t>
@@ -239,7 +239,7 @@
     <t>mishel.meza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>tgDSFoNv</t>
+    <t>9OiJOidl</t>
   </si>
   <si>
     <t>MORANTE TROYA JAIME ANDRES</t>
@@ -248,7 +248,7 @@
     <t>jaime.morante.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>0mj5iFnt</t>
+    <t>xCgUT#6/</t>
   </si>
   <si>
     <t>PARRAGA MOREIRA CINDY ANDREA</t>
@@ -257,7 +257,7 @@
     <t>cindy.parraga.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9xY69bZk</t>
+    <t>T4LQwrc!</t>
   </si>
   <si>
     <t>PEÑAFIEL VALENCIA JULEISY LISBETH</t>
@@ -269,7 +269,7 @@
     <t>juleisy.penafiel.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>zOo38omL</t>
+    <t>ZVZ5dan7</t>
   </si>
   <si>
     <t>PICO CRIOLLO MILETH KATHERINE</t>
@@ -278,7 +278,7 @@
     <t>mileth.pico.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>B8mq0LnK</t>
+    <t>Irl7#/5D</t>
   </si>
   <si>
     <t>RENDON GILER JUNIOR ARIEL</t>
@@ -287,7 +287,7 @@
     <t>junior.rendon@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;pvfJnEA</t>
+    <t>DsqP?gij</t>
   </si>
   <si>
     <t>SALVATIERRA SANTOS BRYAN ALEJANDRO</t>
@@ -296,7 +296,7 @@
     <t>bryan.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>4IlwrYBc</t>
+    <t>52HYrK?V</t>
   </si>
   <si>
     <t>SOLORZANO LUCAS ALEXANDER JOEL</t>
@@ -308,7 +308,7 @@
     <t>alexander.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>rgG2P66R</t>
+    <t>TNMUMgPt</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ DAYANA NICOLLE</t>
@@ -317,7 +317,7 @@
     <t>dayanna.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>OfiMUnE7</t>
+    <t>M2?Aryyv</t>
   </si>
   <si>
     <t>TENORIO QUINTERO ELY GILMAR</t>
@@ -329,7 +329,7 @@
     <t>ely.tenorio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>AwXnB/Dv</t>
+    <t>9UmHKPku</t>
   </si>
   <si>
     <t>VELASQUEZ DOMINGUEZ JORDAN RICARDO</t>
@@ -338,7 +338,7 @@
     <t>jordan.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>PF2Ru4qw</t>
+    <t>nodHeI3?</t>
   </si>
   <si>
     <t>VILLAVICENCIO SALVADOR MELANIE HELLAIM</t>
@@ -350,7 +350,7 @@
     <t>melanie.villavicencio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>sEee/PgV</t>
+    <t>7kGR6Pl9</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO ANGELO ALEXANDER</t>
@@ -359,7 +359,7 @@
     <t>angelo.zambrano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ec9/h#F?</t>
+    <t>1MPTlpnw</t>
   </si>
   <si>
     <t>ZAMBRANO VALENCIA SHIRLEY EDITH</t>
@@ -368,7 +368,7 @@
     <t>shirley.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2whPuyWR</t>
+    <t>WGzPOIUT</t>
   </si>
   <si>
     <t>ANGEL GOMEZ GILENY NAHOMY</t>
@@ -380,7 +380,7 @@
     <t>gileny.angel.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mBKUkaK7</t>
+    <t>vRCnN&amp;&amp;y</t>
   </si>
   <si>
     <t>BARRE QUIJANO DARWIN JOSE</t>
@@ -389,7 +389,7 @@
     <t>darwin.barre@espam.edu.ec</t>
   </si>
   <si>
-    <t>m5UF&amp;oYm</t>
+    <t>WcaMxFt9</t>
   </si>
   <si>
     <t>BRAVO ALVAREZ EMILY JESUS</t>
@@ -398,7 +398,7 @@
     <t>emily.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>0H!knIVJ</t>
+    <t>AcD#0gyZ</t>
   </si>
   <si>
     <t>CAGUA YOONG NAHOMY JAMILETH</t>
@@ -407,7 +407,7 @@
     <t>nahomy.cagua.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>vWuO0p2y</t>
+    <t>rJl9OTyL</t>
   </si>
   <si>
     <t>CASTILLO CEDEÑO EMILIA MARICELA</t>
@@ -416,7 +416,7 @@
     <t>emilia.castillo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>EuN&amp;dLjZ</t>
+    <t>fFTqIgiS</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO JOSE DANIEL</t>
@@ -425,7 +425,7 @@
     <t>jose.cedenoz.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZfaDeIUg</t>
+    <t>H095kcHL</t>
   </si>
   <si>
     <t>CIFUENTES VELASQUEZ JOSE JAHIR</t>
@@ -434,7 +434,7 @@
     <t>jose.cifuentes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>k1EKJ0m2</t>
+    <t>KW2xFdyj</t>
   </si>
   <si>
     <t>CONFORME CIFUENTES ROBERTH JESUS</t>
@@ -443,7 +443,7 @@
     <t>roberth.conforme.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>E6RWGFMW</t>
+    <t>y4uP&amp;uUj</t>
   </si>
   <si>
     <t>CORDERO GILER SALMA PAOLA</t>
@@ -452,7 +452,7 @@
     <t>salma.cordero.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>nzQGYz7S</t>
+    <t>&amp;8&amp;0CMxK</t>
   </si>
   <si>
     <t>FARIAS VELIZ RENE OCTAVIO</t>
@@ -461,7 +461,7 @@
     <t>rene.farias.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>pieZpuI2</t>
+    <t>p&amp;/#dLtI</t>
   </si>
   <si>
     <t>GARCIA DUEÑAS JEAN FERNANDO</t>
@@ -470,7 +470,7 @@
     <t>jean.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>d6MG61X3</t>
+    <t>ch179eZb</t>
   </si>
   <si>
     <t>HERRERA BASURTO IVIS ANTONELLA</t>
@@ -479,7 +479,7 @@
     <t>ivis.herrera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>YcosHdRw</t>
+    <t>NOfg3XOq</t>
   </si>
   <si>
     <t>HIDALGO LOOR MARLYN NALLELY</t>
@@ -488,7 +488,7 @@
     <t>marlyn.hidalgo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>cyCuv8fl</t>
+    <t>oCp1?6Vi</t>
   </si>
   <si>
     <t>IBARRA CHAVARRIA JUAN DIEGO</t>
@@ -497,7 +497,7 @@
     <t>juan.ibarra.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>TUKxn!sz</t>
+    <t>tYDLtbI?</t>
   </si>
   <si>
     <t>JAYA ZAPATA VICTOR EDUARDO</t>
@@ -506,7 +506,7 @@
     <t>victor.jaya.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>6tNmYTNx</t>
+    <t>TTd#2QGo</t>
   </si>
   <si>
     <t>LOOR DELGADO JERRY JOEL</t>
@@ -515,7 +515,7 @@
     <t>jerry.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>PpGxdypj</t>
+    <t>iRfH7En5</t>
   </si>
   <si>
     <t>MANTUANO PONCE MELANY MONCERRATE</t>
@@ -524,7 +524,7 @@
     <t>melany.mantuano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>t3I9bxvZ</t>
+    <t>bhcfAi33</t>
   </si>
   <si>
     <t>MENDOZA VASQUEZ ARIEL ALEXIS</t>
@@ -536,7 +536,7 @@
     <t>ariel.mendoza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>xmpycDqg</t>
+    <t>7y0/PiGo</t>
   </si>
   <si>
     <t>MOREIRA GARCIA MACARIO EMANUEL</t>
@@ -545,7 +545,7 @@
     <t>macario.moreira.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>RoZHqW/k</t>
+    <t>M9PP7uKQ</t>
   </si>
   <si>
     <t>MOREIRA GILCES GABRIELA NIKOL</t>
@@ -554,7 +554,7 @@
     <t>gabriela.moreira.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ur35Fd7R</t>
+    <t>AIey#qpL</t>
   </si>
   <si>
     <t>NOBOA MONTESDEOCA INGRITH MADELEYN</t>
@@ -563,7 +563,7 @@
     <t>ingrith.noboa.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ah4r89HM</t>
+    <t>cQEthjax</t>
   </si>
   <si>
     <t>ORDOÑEZ ALCIVAR ALEX PAUL</t>
@@ -572,7 +572,7 @@
     <t>alex.ordonez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>d03DSNTe</t>
+    <t>AwE7HesE</t>
   </si>
   <si>
     <t>PALMA GARCIA MELYN JARITZA</t>
@@ -581,7 +581,7 @@
     <t>melyn.palma.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>CldT9h3s</t>
+    <t>8DzduI8r</t>
   </si>
   <si>
     <t>PAREDES MERO GHISLAINE ANAHI</t>
@@ -590,7 +590,7 @@
     <t>ghislaine.paredes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>tozm!6mI</t>
+    <t>yJ2Zv&amp;Wc</t>
   </si>
   <si>
     <t>QUIJIJE PIANDA XIOMARA MISHELLE</t>
@@ -602,7 +602,7 @@
     <t>xiomara.quijije.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>PcfoH2X#</t>
+    <t>M/clJI21</t>
   </si>
   <si>
     <t>SALAVARRIA AVEIGA YULIANA GUADALUPE</t>
@@ -611,7 +611,7 @@
     <t>yuliana.salavarria.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>pa2JjZzh</t>
+    <t>Bs2omIai</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR JAIR SEBASTIAN</t>
@@ -620,7 +620,7 @@
     <t>jair.santos.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>5EgAzqKS</t>
+    <t>7Wv!!Qp2</t>
   </si>
   <si>
     <t>SOLORZANO CANDELA JARITZA NOHEMY</t>
@@ -629,7 +629,7 @@
     <t>jaritza.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>X#lNYWg7</t>
+    <t>OA27zb4M</t>
   </si>
   <si>
     <t>VERA CEBALLOS MARIA CONCEPCION</t>
@@ -638,7 +638,7 @@
     <t>maria.vera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>YOYeSUd/</t>
+    <t>PstFd1Mh</t>
   </si>
   <si>
     <t>ALAVA MUÑOZ BILL JARVI</t>
@@ -647,7 +647,7 @@
     <t>bill.alava.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>la&amp;5ArdX</t>
+    <t>Q8ySTGkF</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO ESTHER JOMARA</t>
@@ -656,7 +656,7 @@
     <t>esther.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>85u5GL98</t>
+    <t>hqSS4uM0</t>
   </si>
   <si>
     <t>ALMEIDA LOOR MARIA VICTORIA</t>
@@ -665,7 +665,7 @@
     <t>maria.almeida.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>8ZhvDf32</t>
+    <t>Fw4d1xZN</t>
   </si>
   <si>
     <t>ANDRADE VILLAVICENCIO PABLO HUGO</t>
@@ -674,7 +674,7 @@
     <t>pablo.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>yoR?4BVO</t>
+    <t>ZfWHrF8n</t>
   </si>
   <si>
     <t>AVENDAÑO YZQUIERDO ADRIANA ISABEL</t>
@@ -686,7 +686,7 @@
     <t>adriana.avendano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>rvZ#Z2F2</t>
+    <t>JIL2I?2s</t>
   </si>
   <si>
     <t>BALUARTE PARRAGA MAYERLY NARCISA</t>
@@ -698,7 +698,7 @@
     <t>mayerly.baluarte.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>GtCaxBGk</t>
+    <t>0dzOjRrd</t>
   </si>
   <si>
     <t>BARRE CASTAÑEDA MAYERLI SOLANGE</t>
@@ -710,7 +710,7 @@
     <t>mayerli.barre.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>0g9K5mlB</t>
+    <t>lRnb3JG2</t>
   </si>
   <si>
     <t>BERMEO MENDOZA LESLY JULIETT</t>
@@ -719,7 +719,7 @@
     <t>lesly.bermeo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>rvqNRTLu</t>
+    <t>UTUmfKkL</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO DANA KATIUSKA</t>
@@ -728,7 +728,7 @@
     <t>dana.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>#0bpTQpq</t>
+    <t>CizY8a9k</t>
   </si>
   <si>
     <t>CEDEÑO ALVARADO JORGE LUIS</t>
@@ -737,7 +737,7 @@
     <t>jorge.cedeno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ve4#hLbZ</t>
+    <t>pJtscjCF</t>
   </si>
   <si>
     <t>DOMINGUEZ ANGEL ANAIS ZULEYMA</t>
@@ -749,7 +749,7 @@
     <t>anais.dominguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>yX8YX5At</t>
+    <t>sxbCpXel</t>
   </si>
   <si>
     <t>ESPARZA TELLO ERICKA MARIA</t>
@@ -761,7 +761,7 @@
     <t>ericka.esparza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>aJp7daXz</t>
+    <t>c?yG9VAB</t>
   </si>
   <si>
     <t>GRAIN MARCILLO MICHAEL JOSUE</t>
@@ -770,7 +770,7 @@
     <t>michael.grain.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>TdZEfl7V</t>
+    <t>&amp;j3o46n&amp;</t>
   </si>
   <si>
     <t>JAMA ZAMBRANO ROBERTH XAVIER</t>
@@ -779,7 +779,7 @@
     <t>roberth.jama@espam.edu.ec</t>
   </si>
   <si>
-    <t>#6uaB6rh</t>
+    <t>smzitlO#</t>
   </si>
   <si>
     <t>LARA BONE ANGIE NICOLE</t>
@@ -791,7 +791,7 @@
     <t>angie.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>R2mzbB7e</t>
+    <t>x0t0voOZ</t>
   </si>
   <si>
     <t>LOPEZ DELGADO DAYANA NICOLLE</t>
@@ -800,7 +800,7 @@
     <t>dayana.lopez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>wSeFvv!I</t>
+    <t>FqiwFgfI</t>
   </si>
   <si>
     <t>MELO CENTENO HELEN SOFIA</t>
@@ -809,7 +809,7 @@
     <t>helen.melo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>yXFhGH1!</t>
+    <t>fi&amp;F0z5c</t>
   </si>
   <si>
     <t>MENDOZA ORTEGA ANGELO DANIEL</t>
@@ -818,7 +818,7 @@
     <t>angelo.mendoza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>/iZqMr7M</t>
+    <t>G39#Nf?4</t>
   </si>
   <si>
     <t>MERO CARRILLO EMELY MILENA</t>
@@ -827,7 +827,7 @@
     <t>emely.mero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>183XGgVn</t>
+    <t>ruhYR8zx</t>
   </si>
   <si>
     <t>MITE MENENDEZ GEORGE ISAAC</t>
@@ -836,7 +836,7 @@
     <t>george.mite.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>/xJyc&amp;Yv</t>
+    <t>bglMl612</t>
   </si>
   <si>
     <t>MONCAYO CAGUA LADY NOHELIA</t>
@@ -845,7 +845,7 @@
     <t>lady.moncayo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mtSQUCax</t>
+    <t>D79ePRre</t>
   </si>
   <si>
     <t>ORMAZA ALCIVAR NOHELIA MILENA</t>
@@ -854,7 +854,7 @@
     <t>nohelia.ormaza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2WgFEue!</t>
+    <t>zze&amp;964#</t>
   </si>
   <si>
     <t>PANTA CANDELA YONNY ALEXANDER</t>
@@ -863,7 +863,7 @@
     <t>jonny.panta.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>QXZmRG28</t>
+    <t>3ZQnUw9u</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA YAJAIRA NICOLE</t>
@@ -872,7 +872,7 @@
     <t>yajaira.quinatoa.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>x!1yaIJd</t>
+    <t>RpD!DZch</t>
   </si>
   <si>
     <t>REYNA RAMIREZ SINDY MAHOLY</t>
@@ -881,7 +881,7 @@
     <t>sindy.reyna.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>QYYGShIo</t>
+    <t>#9jXG9hi</t>
   </si>
   <si>
     <t>RODRIGUEZ ANCHUNDIA LUIS FERNANDO</t>
@@ -890,7 +890,7 @@
     <t>luis.rodriguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>cRHg1K!w</t>
+    <t>UaobGrCN</t>
   </si>
   <si>
     <t>SABANDO TUAREZ MILENA BLANCA</t>
@@ -899,7 +899,7 @@
     <t>milena.sabando.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>xS5&amp;KGfo</t>
+    <t>sB4bFIOq</t>
   </si>
   <si>
     <t>SALAZAR RAMIREZ YARITZA GABRIELA</t>
@@ -908,7 +908,7 @@
     <t>yaritza.salazar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>R0sHszx&amp;</t>
+    <t>PmX5GJ41</t>
   </si>
   <si>
     <t>SHIGUANGO AGUINDA KATTY MIRELLA</t>
@@ -917,7 +917,7 @@
     <t>katty.shiguango.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FxyQsFcn</t>
+    <t>zAsg09r#</t>
   </si>
   <si>
     <t>VACA MORALES JOSE EDUARDO</t>
@@ -926,7 +926,7 @@
     <t>jose.vaca.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>OvXj4KOi</t>
+    <t>I2I44LPN</t>
   </si>
   <si>
     <t>VELASQUEZ MEJIA ARIANNA ELIZABETH</t>
@@ -935,7 +935,7 @@
     <t>arianna.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>s2ESPRhl</t>
+    <t>i?09#IpN</t>
   </si>
   <si>
     <t>VELEZ CEDEÑO YANDRY ALAIN</t>
@@ -944,7 +944,7 @@
     <t>yandry.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>hHXnlAhS</t>
+    <t>zg3m3?1g</t>
   </si>
   <si>
     <t>VERA ZAMORA DIXON YAIR</t>
@@ -953,7 +953,7 @@
     <t>dixon.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>dczfkJFa</t>
+    <t>FybI2OQo</t>
   </si>
   <si>
     <t>ZAMBRANO FORTIS RICARDO MIGUEL</t>
@@ -962,7 +962,7 @@
     <t>ricardo.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>oMrBPxF2</t>
+    <t>v0g5HMLb</t>
   </si>
   <si>
     <t>ALVARADO DUEÑAS KARELYS VANESSA</t>
@@ -971,7 +971,7 @@
     <t>karelys.alvarado.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ips5Tg0k</t>
+    <t>k!WsKR5L</t>
   </si>
   <si>
     <t>ANDRADE ILES ALVIERY JAHIR</t>
@@ -983,7 +983,7 @@
     <t>alviery.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>XGaB&amp;gTz</t>
+    <t>FAuxz7nU</t>
   </si>
   <si>
     <t>ARTEAGA RAMOS DIEGO ALEJANDRO</t>
@@ -992,7 +992,7 @@
     <t>diego.arteaga.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>vDqEZSJD</t>
+    <t>?nwNAMXx</t>
   </si>
   <si>
     <t>BARREIRO INTRIAGO STEFANY PIERINA</t>
@@ -1001,7 +1001,7 @@
     <t>stefany.barreiro.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>qsYvM980</t>
+    <t>8aqECHyH</t>
   </si>
   <si>
     <t>BRAVO QUINTERO SARA NICOLE</t>
@@ -1013,7 +1013,7 @@
     <t>sara.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mtFp8lTP</t>
+    <t>YgKj/c1a</t>
   </si>
   <si>
     <t>CABALLERO MUÑOZ STEVEN FABRICIO</t>
@@ -1022,7 +1022,7 @@
     <t>steven.caballero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>XSV!w0i/</t>
+    <t>mf93LatA</t>
   </si>
   <si>
     <t>CARRASCO VERA LUCAS JOSUE</t>
@@ -1031,7 +1031,7 @@
     <t>lucas.carrasco.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>2SLiaB8Y</t>
+    <t>BpfB3cdZ</t>
   </si>
   <si>
     <t>CEDEÑO MURILLO KENNER STEVEN</t>
@@ -1040,7 +1040,7 @@
     <t>kenner.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>mUqYSQWm</t>
+    <t>SCYCLzc4</t>
   </si>
   <si>
     <t>CUERO PAZMIÑO EMMANUEL JOSUE</t>
@@ -1049,7 +1049,7 @@
     <t>emmanuel.cuero.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>X&amp;e4e5!W</t>
+    <t>JFYz!1X/</t>
   </si>
   <si>
     <t>LADINES CASTRO MIRKA DARLISHA</t>
@@ -1061,7 +1061,7 @@
     <t>mirka.ladines.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>usEdXAyH</t>
+    <t>39u22VSs</t>
   </si>
   <si>
     <t>LARA FRANCO MICHAEL ARGEL</t>
@@ -1073,7 +1073,7 @@
     <t>michael.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?FG&amp;B3vV</t>
+    <t>jwH/VXDU</t>
   </si>
   <si>
     <t>LEYTHON QUIÑONEZ JEIMY SILVANA</t>
@@ -1085,7 +1085,7 @@
     <t>jeimy.leython.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>EhUfluOp</t>
+    <t>loAfh6Y9</t>
   </si>
   <si>
     <t>LOOR LOOR GENESIS DANIELA</t>
@@ -1094,7 +1094,7 @@
     <t>genesis.loor.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>KoISo7xF</t>
+    <t>83cPMo2A</t>
   </si>
   <si>
     <t>MATAMBA GUANGA THALIA VALERIA</t>
@@ -1106,7 +1106,7 @@
     <t>thalia.matamba.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>F&amp;rJjDA?</t>
+    <t>XZLbBneY</t>
   </si>
   <si>
     <t>MENDOZA DE LA CRUZ MARTHA DANIELA</t>
@@ -1115,7 +1115,7 @@
     <t>martha.mendoza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>vV83#8FU</t>
+    <t>Z5d!Ilbx</t>
   </si>
   <si>
     <t>MINOTA BORJA ALEXANDER JAHIR</t>
@@ -1127,7 +1127,7 @@
     <t>alexander.minota.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>OnPRZ?XC</t>
+    <t>IJsiLzfq</t>
   </si>
   <si>
     <t>NAVIA LOOR JOSE EFRAIN</t>
@@ -1136,7 +1136,7 @@
     <t>jose.navia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>kqYNq6?P</t>
+    <t>drgZZpt4</t>
   </si>
   <si>
     <t>PILATAXI UTRERAS KATHERIN JULIETH</t>
@@ -1145,7 +1145,7 @@
     <t>katherin.pilataxi.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>/E&amp;e/VzL</t>
+    <t>z1snOG85</t>
   </si>
   <si>
     <t>PINARGOTE CARREÑO FELIX JOEL</t>
@@ -1154,7 +1154,7 @@
     <t>felix.pinargote.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>9TlICi!v</t>
+    <t>pFL5PMfV</t>
   </si>
   <si>
     <t>PONCE ZAMBRANO ARIANA JESSENIA</t>
@@ -1163,7 +1163,7 @@
     <t>ariana.ponce.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>irpccmrr</t>
+    <t>#?3Usksi</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA KELLY MARIUXI</t>
@@ -1172,7 +1172,7 @@
     <t>kelly.quinatoa.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>aC2EBL?U</t>
+    <t>HhcqNC7#</t>
   </si>
   <si>
     <t>ROSADO ROSADO JOEL JESUS</t>
@@ -1181,7 +1181,7 @@
     <t>joel.rosado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6yYCR0cv</t>
+    <t>oYbqgNJu</t>
   </si>
   <si>
     <t>SANMARTIN TAPIA CARMEN EDITH</t>
@@ -1190,7 +1190,7 @@
     <t>carmen.sanmartin.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mSkDVoKS</t>
+    <t>s?hhrFo0</t>
   </si>
   <si>
     <t>SAYAY DAGUA JOSELYN NICOL</t>
@@ -1202,7 +1202,7 @@
     <t>joselyn.sayay.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>kMT6t9QD</t>
+    <t>wlHQ&amp;v2m</t>
   </si>
   <si>
     <t>SOLORZANO PAZMIÑO DECCY DANIELA</t>
@@ -1211,7 +1211,7 @@
     <t>deccy.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZDB5kThn</t>
+    <t>kgYxxkwL</t>
   </si>
   <si>
     <t>VERGARA ZAMBRANO MATIAS ALEXANDER</t>
@@ -1220,7 +1220,7 @@
     <t>matias.vergara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>oeqHpRMk</t>
+    <t>DZVnte0k</t>
   </si>
   <si>
     <t>ZAMBRANO INTRIAGO FRAYDA JESSENIA</t>
@@ -1229,7 +1229,7 @@
     <t>frayda.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lj2WqnG7</t>
+    <t>grYmvxmm</t>
   </si>
   <si>
     <t>ZAMBRANO VALAREZO ANDREA LISBETH</t>
@@ -1238,7 +1238,7 @@
     <t>andrea.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FEQcw/ve</t>
+    <t>u/Nj8wxG</t>
   </si>
   <si>
     <t>AGUAS MARTINEZ KEVIN SNAIDER</t>
@@ -1247,7 +1247,7 @@
     <t>kevin.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>/MdE5mj6</t>
+    <t>W8i&amp;mIgL</t>
   </si>
   <si>
     <t>ANDRADE GARCIA LUZ CRUCELINA</t>
@@ -1256,7 +1256,7 @@
     <t>luz.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#XM&amp;yY?G</t>
+    <t>eeyng6L/</t>
   </si>
   <si>
     <t>BARBERAN MERO HELEN ADRIANA</t>
@@ -1265,7 +1265,7 @@
     <t>helen.barberan.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zV8ls3vc</t>
+    <t>3qpOfc60</t>
   </si>
   <si>
     <t>BARROS ZAMBRANO DANIEL ANGEL</t>
@@ -1274,7 +1274,7 @@
     <t>daniel.barros.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>y3RNDlQ0</t>
+    <t>Ip003IHF</t>
   </si>
   <si>
     <t>BASURTO ZAMBRANO CARLOS RAUL</t>
@@ -1283,7 +1283,7 @@
     <t>carlos.basurto.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>SCWsQsct</t>
+    <t>#yV8UFQ6</t>
   </si>
   <si>
     <t>BRAVO BRAVO ANTHONY ADEMIR</t>
@@ -1292,7 +1292,7 @@
     <t>anthony.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>/L1ck72r</t>
+    <t>YVagFYzT</t>
   </si>
   <si>
     <t>CANTOS VERA ANGELA AUXILIADORA</t>
@@ -1301,7 +1301,7 @@
     <t>angela.cantos.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Gf0Z!Nk</t>
+    <t>4JG#dgwp</t>
   </si>
   <si>
     <t>CASTRO BOLAÑO FANNY TATIANA</t>
@@ -1310,7 +1310,7 @@
     <t>fanny.castro.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>11Lk&amp;9fg</t>
+    <t>DsJLSQUh</t>
   </si>
   <si>
     <t>CASTRO SALTOS MATTEWS FARID</t>
@@ -1319,7 +1319,7 @@
     <t>mattews.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>NC4O3HE5</t>
+    <t>mDWo6A67</t>
   </si>
   <si>
     <t>CHANCAY RADE ANTONY GABRIEL</t>
@@ -1328,7 +1328,7 @@
     <t>antony.chancay@espam.edu.ec</t>
   </si>
   <si>
-    <t>bL&amp;74!km</t>
+    <t>lR/QO2&amp;1</t>
   </si>
   <si>
     <t>COBEÑA GARCIA YOMAYRA ALEXANDRA</t>
@@ -1337,7 +1337,7 @@
     <t>yomayra.cobena.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>yiewUAa#</t>
+    <t>2jepQb#v</t>
   </si>
   <si>
     <t>CRUZ ERAZO JOSE MIGUEL</t>
@@ -1346,7 +1346,7 @@
     <t>jose.cruz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>WAzsdy&amp;4</t>
+    <t>KYNJinNI</t>
   </si>
   <si>
     <t>GARCIA ANDRADE MARIA ROSA</t>
@@ -1355,7 +1355,7 @@
     <t>maria.garcia.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ldUrjSsl</t>
+    <t>qvEgI3QH</t>
   </si>
   <si>
     <t>HERNANDEZ LOPEZ LUIS DAVID</t>
@@ -1364,7 +1364,7 @@
     <t>luis.hernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?91sszGQ</t>
+    <t>Zl3#NFYQ</t>
   </si>
   <si>
     <t>LEON FUENTES JONATHAN ALBINO</t>
@@ -1376,7 +1376,7 @@
     <t>jonathan.leon.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>jf2!MVvX</t>
+    <t>JhB7o&amp;gP</t>
   </si>
   <si>
     <t>MACIAS ANCHUNDIA ROBERTO CARLOS</t>
@@ -1385,7 +1385,7 @@
     <t>roberto.macias.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>8f7lWH3Q</t>
+    <t>0kI!3xw7</t>
   </si>
   <si>
     <t>MAZA AGREDA KAREN IBETH</t>
@@ -1394,7 +1394,7 @@
     <t>karen.maza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>aD80jCug</t>
+    <t>oI#elq#g</t>
   </si>
   <si>
     <t>MUÑOZ MERA LITZY ALEJANDRA</t>
@@ -1403,7 +1403,7 @@
     <t>litzy.munoz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>uB5QUOCe</t>
+    <t>Qo?rWy3d</t>
   </si>
   <si>
     <t>MUÑOZ MOLINA ANDRY FABIAN</t>
@@ -1412,7 +1412,7 @@
     <t>andry.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ilM38WpW</t>
+    <t>A4J&amp;MDcV</t>
   </si>
   <si>
     <t>ORMAZA VALENCIA KEVIN JAVIER</t>
@@ -1424,7 +1424,7 @@
     <t>kevin.ormaza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>DMcujt28</t>
+    <t>2uBVjScc</t>
   </si>
   <si>
     <t>PAZMIÑO PINCAY NAYELLY AGUSTINA</t>
@@ -1433,7 +1433,7 @@
     <t>nayelly.pazmino.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>LxgAaiZa</t>
+    <t>o5kGZkF7</t>
   </si>
   <si>
     <t>POZO PONCE DANNY IVAN</t>
@@ -1442,7 +1442,7 @@
     <t>danny.pozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>#rWEzBWo</t>
+    <t>yQssEjnF</t>
   </si>
   <si>
     <t>QUIJANO MEZA MARIANA LISETH</t>
@@ -1451,7 +1451,7 @@
     <t>mariana.quijano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>G3EABe6a</t>
+    <t>MQAGCMbV</t>
   </si>
   <si>
     <t>QUIÑONEZ AÑAPA RODRIGO MANUEL</t>
@@ -1463,7 +1463,7 @@
     <t>rodrigo.quinonez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>jfhYGl3g</t>
+    <t>JNNG0zyY</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR KELVIN YOEL</t>
@@ -1472,7 +1472,7 @@
     <t>kelvin.santos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y2QGIx9M</t>
+    <t>QSem5i&amp;X</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ SANDY</t>
@@ -1481,7 +1481,7 @@
     <t>sandy.solorzano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>OAnZsVpO</t>
+    <t>f1Np3JN/</t>
   </si>
   <si>
     <t>TOALA PIN ARIEL ALEJANDRO</t>
@@ -1493,7 +1493,7 @@
     <t>ariel.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>57hDb!Yu</t>
+    <t>yKScYKfb</t>
   </si>
   <si>
     <t>VEGA INTRIAGO MIGUEL ANGEL</t>
@@ -1502,7 +1502,7 @@
     <t>miguel.vega.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>MqMyvRb3</t>
+    <t>rY&amp;ImCr6</t>
   </si>
   <si>
     <t>VELASQUEZ RODRIGUEZ GEMA BELEN</t>
@@ -1511,7 +1511,7 @@
     <t>gema.velasquez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YhSs3yDE</t>
+    <t>er!hTmOD</t>
   </si>
   <si>
     <t>VERA MENDOZA MARIA VICTORIA</t>
@@ -1520,7 +1520,7 @@
     <t>maria.veram.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>CPPf2dcW</t>
+    <t>?QaBaHWy</t>
   </si>
   <si>
     <t>VERA PALACIOS JORDANO SAUL</t>
@@ -1529,7 +1529,7 @@
     <t>jordano.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>hjM3cx!c</t>
+    <t>nMb&amp;l70G</t>
   </si>
   <si>
     <t>ZAMBRANO MERA VALENTINA MONSERRATE</t>
@@ -1538,7 +1538,7 @@
     <t>valentina.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>pSzOC#j0</t>
+    <t>E&amp;ufpBPu</t>
   </si>
   <si>
     <t>ZAMBRANO QUIMI JUAN GEORGE</t>
@@ -1550,7 +1550,7 @@
     <t>juan.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>clBcY3Jf</t>
+    <t>5hVJVhCP</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO GEOMAYRA KATHERINE</t>
@@ -1562,7 +1562,7 @@
     <t>geomayra.alcivar.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ko1SG3CV</t>
+    <t>5GHepQUX</t>
   </si>
   <si>
     <t>ANDRADE CASTILLO CLAUDIA VICTORIA</t>
@@ -1571,7 +1571,7 @@
     <t>claudia.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Sh42!Xjo</t>
+    <t>3DcXDoju</t>
   </si>
   <si>
     <t>ANGUISACA CUENCA ALEXANDRA CECIBEL</t>
@@ -1580,7 +1580,7 @@
     <t>alexandra.anguisaca.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>hs8G5B!I</t>
+    <t>moI316wQ</t>
   </si>
   <si>
     <t>BARIAS GUARACA LESLY NAYHELY</t>
@@ -1589,7 +1589,7 @@
     <t>lesly.barias.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>2TtZKK7h</t>
+    <t>SBtR3j4U</t>
   </si>
   <si>
     <t>BARROS VERA ANGEL DAVID</t>
@@ -1598,7 +1598,7 @@
     <t>angel.barros.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>W!3LwO4P</t>
+    <t>XYr?3XfD</t>
   </si>
   <si>
     <t>BAZURTO SANTOS KENNIA KATHERINE</t>
@@ -1607,7 +1607,7 @@
     <t>kennia.bazurto.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>yo3vSS#l</t>
+    <t>2Wk#ACqQ</t>
   </si>
   <si>
     <t>BRAVO BAZURTO GISSELA MARIA</t>
@@ -1616,7 +1616,7 @@
     <t>gissela.bravo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>tY9ySpvJ</t>
+    <t>fGi1MEYM</t>
   </si>
   <si>
     <t>BUSTAMANTE YANEZ ANTHONY MICHEL</t>
@@ -1625,7 +1625,7 @@
     <t>anthony.bustamante.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ouEyftCi</t>
+    <t>SDU&amp;B/jz</t>
   </si>
   <si>
     <t>CASTRO SOLORZANO NIURKA JULIANA</t>
@@ -1634,7 +1634,7 @@
     <t>niurka.castro.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>n6xiPtdq</t>
+    <t>dwzjPDdm</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO YOHANA VANESA</t>
@@ -1643,7 +1643,7 @@
     <t>yohana.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>CflpKbj4</t>
+    <t>Kdl6cDW9</t>
   </si>
   <si>
     <t>CEDEÑO INTRIAGO JEAN PIERRE</t>
@@ -1652,7 +1652,7 @@
     <t>jean.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>R4BuNbb?</t>
+    <t>7ZkCa45n</t>
   </si>
   <si>
     <t>DELGADO CEVALLOS MARIA JOSE</t>
@@ -1661,7 +1661,7 @@
     <t>maria.delgado.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ClPQdArW</t>
+    <t>kgjV8t/U</t>
   </si>
   <si>
     <t>ERAZO MORALES GABRIELA ALEJANDRA</t>
@@ -1670,7 +1670,7 @@
     <t>gabriela.erazo.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>L/fO!lB/</t>
+    <t>9kBWYF9I</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO LUIS JOSE</t>
@@ -1679,7 +1679,7 @@
     <t>luis.intriagoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1!yy9&amp;Z8</t>
+    <t>83AyyRhI</t>
   </si>
   <si>
     <t>LOOR ORTIZ YORDY DAVID</t>
@@ -1688,7 +1688,7 @@
     <t>yordy.loor.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>WrzNXxO0</t>
+    <t>9HjVOJvk</t>
   </si>
   <si>
     <t>LOZANO GAMEZ THALIA VANESSA</t>
@@ -1700,7 +1700,7 @@
     <t>thalia.lozano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;zhgsUan</t>
+    <t>Mx/LiS!w</t>
   </si>
   <si>
     <t>MONTES RODRIGUEZ ROLANDO ANTONIO</t>
@@ -1709,7 +1709,7 @@
     <t>rolando.montes.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>JO#P&amp;yqJ</t>
+    <t>mWqHd63c</t>
   </si>
   <si>
     <t>PALMA RENDON ARGENIS ARTURO</t>
@@ -1718,7 +1718,7 @@
     <t>argenis.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nw2tY#3b</t>
+    <t>rafRa05O</t>
   </si>
   <si>
     <t>PAREDES YUMBILLO KATTY MARGOTH</t>
@@ -1730,7 +1730,7 @@
     <t>katty.paredes.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>t3fujZMg</t>
+    <t>XQAsovqT</t>
   </si>
   <si>
     <t>PARRALES DELGADO ALAN SEBASTIAN</t>
@@ -1739,7 +1739,7 @@
     <t>alan.parrales.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>RcG8vzis</t>
+    <t>fBvdyEQz</t>
   </si>
   <si>
     <t>PATA CEDEÑO ROSA JUANA</t>
@@ -1751,7 +1751,7 @@
     <t>rosa.pata.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>uFPZ2YxB</t>
+    <t>VSGYN4Kg</t>
   </si>
   <si>
     <t>RETETE BASARAN KEVIN ALEXANDER</t>
@@ -1760,7 +1760,7 @@
     <t>kevin.retete.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>BzJ&amp;ALdc</t>
+    <t>HweFFfk8</t>
   </si>
   <si>
     <t>ROMAN MACIAS ESTEFANIA ISABEL</t>
@@ -1769,7 +1769,7 @@
     <t>estefania.roman.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>p0?V47CA</t>
+    <t>!27Q05iX</t>
   </si>
   <si>
     <t>SANDOVAL UREÑA FERNANDA DAYANARA</t>
@@ -1781,7 +1781,7 @@
     <t>fernanda.sandoval.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>8kF&amp;cMLY</t>
+    <t>YsUwMHB0</t>
   </si>
   <si>
     <t>SUBIAGA RAMOS LUIS ALEJANDRO</t>
@@ -1790,7 +1790,7 @@
     <t>luis.subiaga.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>L#6bLNUH</t>
+    <t>tdG0zOl3</t>
   </si>
   <si>
     <t>VELASQUEZ AVEIGA MARIA JESUS</t>
@@ -1799,7 +1799,7 @@
     <t>maria.velasquez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>W&amp;dCc37w</t>
+    <t>E6va!f1h</t>
   </si>
   <si>
     <t>VELEZ CHEME JORDAN ESTEBAN</t>
@@ -1811,7 +1811,7 @@
     <t>jordan.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>acW0iy1G</t>
+    <t>dO/2c#/j</t>
   </si>
   <si>
     <t>VELEZ MENDOZA DARWIN ALEXIS</t>
@@ -1820,7 +1820,7 @@
     <t>darwin.velez.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>P5XewS4t</t>
+    <t>KYQhXxKo</t>
   </si>
   <si>
     <t>VERA BARRE RONNY ARISTIDES</t>
@@ -1829,7 +1829,7 @@
     <t>ronny.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>9NB!Q3p1</t>
+    <t>T3AKeqxS</t>
   </si>
   <si>
     <t>ZAMBRANO MACIAS DIEGO ANDRES</t>
@@ -1838,7 +1838,7 @@
     <t>diego.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>DBa3C9qI</t>
+    <t>LD2WX5Gh</t>
   </si>
   <si>
     <t>ZAMBRANO REYNA YERSY ENRIQUE</t>
@@ -1847,7 +1847,7 @@
     <t>yersy.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>PM2nTOef</t>
+    <t>rv1R1zEk</t>
   </si>
   <si>
     <t>CARDENAS MIELES CRISTHYAN ALBERTO</t>
@@ -1856,7 +1856,7 @@
     <t>cristhyan.cardenas.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>xbSWb#Tz</t>
+    <t>/lE/Zj3a</t>
   </si>
   <si>
     <t>CASTRO CARRERA JUAN CARLOS</t>
@@ -1865,7 +1865,7 @@
     <t>juan.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>BJ3Rz!Kj</t>
+    <t>kONbiCKA</t>
   </si>
   <si>
     <t>CHAVEZ MIRANDA ANTHONY MIGUEL</t>
@@ -1874,7 +1874,7 @@
     <t>anthony.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>#pw5t0QO</t>
+    <t>eEiS#O13</t>
   </si>
   <si>
     <t>CUSME ZAMBRANO MICHAEL RICHARD</t>
@@ -1883,7 +1883,7 @@
     <t>michael.cusme.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7rtWDV9A</t>
+    <t>Sv6r1YM6</t>
   </si>
   <si>
     <t>GILER SALAZAR CARLOS IGNACIO</t>
@@ -1892,7 +1892,7 @@
     <t>carlos.giler@espam.edu.ec</t>
   </si>
   <si>
-    <t>F9uQ0Qnp</t>
+    <t>Z2K8zZcW</t>
   </si>
   <si>
     <t>HERNANDEZ DIAZ MARIA JOSE</t>
@@ -1904,7 +1904,7 @@
     <t>maria.hernandez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>q#6AlI4W</t>
+    <t>e3CGfgp!</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA ESTELA NATHALY</t>
@@ -1913,7 +1913,7 @@
     <t>estela.hidalgo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>J&amp;wONwpu</t>
+    <t>kpKZWb3?</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA PIERINA NATHALY</t>
@@ -1922,7 +1922,7 @@
     <t>pierina.hidalgo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ac#NGYzw</t>
+    <t>2YfN3c4J</t>
   </si>
   <si>
     <t>LARA QUIJIJE PAMELA JULISSA</t>
@@ -1931,7 +1931,7 @@
     <t>pamela.lara.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>uyhdbBlD</t>
+    <t>1QgS89Si</t>
   </si>
   <si>
     <t>LOOR PITIZACA FRANK ALLAN</t>
@@ -1940,7 +1940,7 @@
     <t>frank.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>1En/#EUG</t>
+    <t>eCrWAfHb</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO GEMA STEFANIA</t>
@@ -1949,7 +1949,7 @@
     <t>gema.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>jZtJ&amp;?YF</t>
+    <t>cY5uZ3pY</t>
   </si>
   <si>
     <t>PALACIOS TAPIA CESAR XAVIER</t>
@@ -1958,7 +1958,7 @@
     <t>cesar.palacios.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>EGjfM4Jy</t>
+    <t>hODZcy8z</t>
   </si>
   <si>
     <t>PEÑARRETA LANCHE PILAR MICAELA</t>
@@ -1967,7 +1967,7 @@
     <t>pilar.penarreta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>f7C9!kWj</t>
+    <t>bW7pXcNa</t>
   </si>
   <si>
     <t>PILLASAGUA PINARGOTE INGRID MAYERLI</t>
@@ -1979,7 +1979,7 @@
     <t>ingrid.pillasagua.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>uMaSwK0z</t>
+    <t>/yY?hGJR</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO GEMA LISBETH</t>
@@ -1988,7 +1988,7 @@
     <t>gema.quijije.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>XKy1DUQI</t>
+    <t>jwA&amp;lHTO</t>
   </si>
   <si>
     <t>RUIZ ZAMBRANO VICTOR ANDRES</t>
@@ -1997,7 +1997,7 @@
     <t>victor.ruiz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>higB#Pgm</t>
+    <t>iueGnfAn</t>
   </si>
   <si>
     <t>SALTOS SALAZAR MAYERLY VERONICA</t>
@@ -2009,7 +2009,7 @@
     <t>mayerly.saltos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>giH#2bfn</t>
+    <t>j?DcFZ7g</t>
   </si>
   <si>
     <t>SANTANA PALOMINO FRANKLIN JOHAO</t>
@@ -2018,7 +2018,7 @@
     <t>franklin.santana.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>jQvWT7XV</t>
+    <t>f0ivVjlX</t>
   </si>
   <si>
     <t>TAFFUR TOASA OLGA MARIA</t>
@@ -2027,7 +2027,7 @@
     <t>olga.taffur@espam.edu.ec</t>
   </si>
   <si>
-    <t>SCCv5&amp;lj</t>
+    <t>JecTsKqp</t>
   </si>
   <si>
     <t>TOALA MACAY JOSSELYN VALERIA</t>
@@ -2036,7 +2036,7 @@
     <t>josselyn.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>dprkLD?U</t>
+    <t>MN1FV/P2</t>
   </si>
   <si>
     <t>VALLADARES ALCIVAR LUIS EDUARDO</t>
@@ -2045,7 +2045,7 @@
     <t>luis.valladares@espam.edu.ec</t>
   </si>
   <si>
-    <t>xWiWtSk!</t>
+    <t>juBX3gqw</t>
   </si>
   <si>
     <t>VERA ZAMBRANO HILTER JOSSBEL</t>
@@ -2054,7 +2054,7 @@
     <t>hilter.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>HGAsjvas</t>
+    <t>/6N03gCU</t>
   </si>
   <si>
     <t>VERGARA TABOADA ROMEL ALEXANDER</t>
@@ -2063,7 +2063,7 @@
     <t>romel.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vn81rCVJ</t>
+    <t>8pHjy/rr</t>
   </si>
   <si>
     <t>ZAMBRANO RIVAS NALLELY LISBETH</t>
@@ -2072,7 +2072,7 @@
     <t>nallely.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>0/cw!3d2</t>
+    <t>kg?6ZU1#</t>
   </si>
   <si>
     <t>ABAD MIRANDA KENYA ESTEFANIA</t>
@@ -2084,7 +2084,7 @@
     <t>kenya.abad.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>rkn7knAE</t>
+    <t>KjgNftul</t>
   </si>
   <si>
     <t>ALAVA MORENO MILTON ANTERO</t>
@@ -2093,7 +2093,7 @@
     <t>milton.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>wt4M66pt</t>
+    <t>64v?wQBq</t>
   </si>
   <si>
     <t>ALMEIDA CEDEÑO CINDY BELEN</t>
@@ -2102,7 +2102,7 @@
     <t>cindy.almeida.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>lg?VnWLE</t>
+    <t>13RzvqBs</t>
   </si>
   <si>
     <t>ANCHUNDIA VERA JUSTIN JOSE</t>
@@ -2111,7 +2111,7 @@
     <t>justin.anchundia.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>BUKCtkF0</t>
+    <t>WnzzGV#I</t>
   </si>
   <si>
     <t>AYONG PALADINES MARIA FERNANDA</t>
@@ -2120,7 +2120,7 @@
     <t>maria.ayong.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>AEg8Vm?e</t>
+    <t>q1Z/OwI!</t>
   </si>
   <si>
     <t>BRAVO CEVALLOS MELANY PIERINA</t>
@@ -2129,7 +2129,7 @@
     <t>melany.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>sJz84m6?</t>
+    <t>pIMBol#2</t>
   </si>
   <si>
     <t>CASANOVA SALAZAR ROSEMBERG STEVEN</t>
@@ -2138,7 +2138,7 @@
     <t>rosemberg.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>ClD8?emU</t>
+    <t>J3Cd5RiZ</t>
   </si>
   <si>
     <t>FERNANDEZ TORRES JALENI SCARLETH</t>
@@ -2150,7 +2150,7 @@
     <t>jaleni.fernandez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>DUG4Ymha</t>
+    <t>bidzS9!t</t>
   </si>
   <si>
     <t>HERRERA SABANDO WILLIAMS ANDRES</t>
@@ -2159,7 +2159,7 @@
     <t>williams.herrera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6DlmDwxr</t>
+    <t>wIycipKr</t>
   </si>
   <si>
     <t>LOPEZ PALADINES EDGAR JOSE</t>
@@ -2168,7 +2168,7 @@
     <t>edgar.lopez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>iOoKi!zm</t>
+    <t>2W!hVMP5</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES LINCI YERLEY</t>
@@ -2177,7 +2177,7 @@
     <t>linci.medranda.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>cPY9npb?</t>
+    <t>JeS7dtIi</t>
   </si>
   <si>
     <t>MENDIETA GILER JORDY EDUARDO</t>
@@ -2186,7 +2186,7 @@
     <t>jordy.mendieta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>LXgnL&amp;Zt</t>
+    <t>p47wLux#</t>
   </si>
   <si>
     <t>MORENO VELIZ ALDRIN DAIRY</t>
@@ -2195,7 +2195,7 @@
     <t>aldrin.moreno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>hf9q/dCZ</t>
+    <t>muqKJeyA</t>
   </si>
   <si>
     <t>MUÑOZ VERA GENESIS LOURDES</t>
@@ -2204,7 +2204,7 @@
     <t>genesis.munoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z8fhsKU&amp;</t>
+    <t>aRyhDv9U</t>
   </si>
   <si>
     <t>PLAZA CHOEZ RODOLFO JEAMPIERRE</t>
@@ -2213,7 +2213,7 @@
     <t>rodolfo.plaza.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>lGgglqRE</t>
+    <t>YqMehONv</t>
   </si>
   <si>
     <t>PRECIADO MOREIRA PABLO ANTHONY</t>
@@ -2225,7 +2225,7 @@
     <t>pablo.preciado@espam.edu.ec</t>
   </si>
   <si>
-    <t>nouYRDRz</t>
+    <t>Mp8k2dPN</t>
   </si>
   <si>
     <t>SABANDO SALCEDO GENESIS BETZABETH</t>
@@ -2237,7 +2237,7 @@
     <t>genesis.sabando.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>istQ7B25</t>
+    <t>R3mD1kx5</t>
   </si>
   <si>
     <t>SOLEDISPA ZAMBRANO CRISTHINA ISABELA</t>
@@ -2246,7 +2246,7 @@
     <t>cristhina.soledispa.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>SG&amp;9CYdh</t>
+    <t>hFfA1AUl</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ EVELYN AGUSTINA</t>
@@ -2255,7 +2255,7 @@
     <t>evelyn.solorzanor@espam.edu.ec</t>
   </si>
   <si>
-    <t>bQmMsR6o</t>
+    <t>k23l1e#o</t>
   </si>
   <si>
     <t>VERA AGUAS KELVIN JEAN PIERRE</t>
@@ -2264,7 +2264,7 @@
     <t>kelvin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>#w1DGXgh</t>
+    <t>RrKPuuAJ</t>
   </si>
   <si>
     <t>VERA LOOR DENYS ESTEFANIA</t>
@@ -2273,7 +2273,7 @@
     <t>denys.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>0P9csF0/</t>
+    <t>zYE!hJbp</t>
   </si>
   <si>
     <t>VINCES PIN MARIA FERNANDA</t>
@@ -2282,7 +2282,7 @@
     <t>maria.vinces.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YPbwn4kN</t>
+    <t>setLXxIS</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO MARIA BELEN</t>
@@ -2291,7 +2291,7 @@
     <t>mariab.zambranoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>9R/G/8u9</t>
+    <t>bV!inkmS</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO DIANA ESTHER</t>
@@ -2300,7 +2300,7 @@
     <t>diana.alcivar.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>oi0dBs0q</t>
+    <t>eZV1QDba</t>
   </si>
   <si>
     <t>ALVAREZ BORJA ANGHELO JOSUE</t>
@@ -2309,7 +2309,7 @@
     <t>anghelo.alvarez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>vBhto8W8</t>
+    <t>#Fd2Qh!w</t>
   </si>
   <si>
     <t>BRAVO MENDOZA ALBERDY JAVIER</t>
@@ -2318,7 +2318,7 @@
     <t>alberdy.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>OTo1KuOg</t>
+    <t>2ECOjhCx</t>
   </si>
   <si>
     <t>GARCIA PARRAGA FATIMA MARIA</t>
@@ -2327,7 +2327,7 @@
     <t>fatima.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wff90n4y</t>
+    <t>QAT!LNpl</t>
   </si>
   <si>
     <t>GRACIA PRATT WILINTON JOSUE</t>
@@ -2339,7 +2339,7 @@
     <t>wilinton.gracia.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>nuhAvATS</t>
+    <t>sJc685Xr</t>
   </si>
   <si>
     <t>MARRETT BEDOYA MISHELLE MARCELA</t>
@@ -2351,7 +2351,7 @@
     <t>mishelle.marrett.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>a0H?pi!c</t>
+    <t>RyLfZbtV</t>
   </si>
   <si>
     <t>MERA CASTILLO NATHALY VIRGINIA</t>
@@ -2360,7 +2360,7 @@
     <t>nathaly.mera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>8u8PNngV</t>
+    <t>hQKzx?nd</t>
   </si>
   <si>
     <t>ROSERO VERA LUIS ANDRES</t>
@@ -2369,7 +2369,7 @@
     <t>luis.rosero@espam.edu.ec</t>
   </si>
   <si>
-    <t>S2PJ0znZ</t>
+    <t>4r#3GlGR</t>
   </si>
   <si>
     <t>SANTISTEBAN BENAVIDES JOSUE ROMARIO</t>
@@ -2378,7 +2378,7 @@
     <t>josue.santisteban.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?HRt!GQr</t>
+    <t>qvmT5ziV</t>
   </si>
   <si>
     <t>SOLORZANO CUSME GEMA JULIANA</t>
@@ -2387,7 +2387,7 @@
     <t>gemaju.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>PKfd9Wso</t>
+    <t>VnP7?#d2</t>
   </si>
   <si>
     <t>TORRES PINARGOTE MAHOLY</t>
@@ -2396,7 +2396,7 @@
     <t>maholy.torres.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!7!fGlDp</t>
+    <t>Ma1O/NRc</t>
   </si>
   <si>
     <t>ZAMBRANO BRAVO LEANDRO ISMAEL</t>
@@ -2405,7 +2405,7 @@
     <t>leandro.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zvKxoTub</t>
+    <t>5rlpjwDt</t>
   </si>
   <si>
     <t>ZAMBRANO GARCIA HENRY ARTURO</t>
@@ -2414,7 +2414,7 @@
     <t>henry.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?ISNVDgh</t>
+    <t>nVAGLqR3</t>
   </si>
   <si>
     <t>BARRE PARRAGA BETSY BEATRIZ</t>
@@ -2423,7 +2423,7 @@
     <t>betsy.barre.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>SEjsWAKl</t>
+    <t>hUtTl&amp;/m</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO CAMILA PATRICIA</t>
@@ -2435,7 +2435,7 @@
     <t>camila.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>X1QYMS08</t>
+    <t>/PJsx4gp</t>
   </si>
   <si>
     <t>CEDEÑO SOLORZANO ANTHONY STEVEN</t>
@@ -2444,7 +2444,7 @@
     <t>anthony.cedenos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>IZo2RRVl</t>
+    <t>MVsXO#dS</t>
   </si>
   <si>
     <t>CEDEÑO TUAREZ ANGIE LISSETTE</t>
@@ -2453,7 +2453,7 @@
     <t>angie.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>7?xSZkpm</t>
+    <t>ETeKvv#c</t>
   </si>
   <si>
     <t>CHAVEZ LANDAZURI JACKSON JAIR</t>
@@ -2465,7 +2465,7 @@
     <t>jackson.chavez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>i!0xDnIs</t>
+    <t>h800dSx1</t>
   </si>
   <si>
     <t>CHICA MOREIRA MARIA FERNANDA</t>
@@ -2474,7 +2474,7 @@
     <t>maria.chica.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>o#SxXiSF</t>
+    <t>7PAX2OLW</t>
   </si>
   <si>
     <t>GARCIA ZAMBRANO WENDY YAMILETH</t>
@@ -2483,7 +2483,7 @@
     <t>wendy.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>z1O9IHGr</t>
+    <t>?luCI3f8</t>
   </si>
   <si>
     <t>GARZON CEDEÑO FRANCESCO RUBEN</t>
@@ -2492,7 +2492,7 @@
     <t>francesco.garzon.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>UgX2PUCm</t>
+    <t>I3s/Cda1</t>
   </si>
   <si>
     <t>GUERRERO CEDEÑO MICHAEL JORDY</t>
@@ -2501,7 +2501,7 @@
     <t>michael.guerrero.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>P1V5whqs</t>
+    <t>Ku0E7JQA</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES CRISTHIAN JOSE</t>
@@ -2510,7 +2510,7 @@
     <t>cristhian.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>dIq#DDMA</t>
+    <t>luSLVzTm</t>
   </si>
   <si>
     <t>ORELLANA ANCHUNDIA JESUS MIGUEL</t>
@@ -2519,7 +2519,7 @@
     <t>jesus.orellana@espam.edu.ec</t>
   </si>
   <si>
-    <t>HiICp5TX</t>
+    <t>O1e7BHHX</t>
   </si>
   <si>
     <t>ORTIZ GOMEZ EDUARDO ANDRES</t>
@@ -2528,7 +2528,7 @@
     <t>eduardo.ortiz@espam.edu.ec</t>
   </si>
   <si>
-    <t>9BQ#vvIC</t>
+    <t>bnxQK5ST</t>
   </si>
   <si>
     <t>PAZMIÑO MERA SHANDE ALEXANDER</t>
@@ -2537,7 +2537,7 @@
     <t>shande.pazmino.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>OerFINBK</t>
+    <t>KQWiasJ&amp;</t>
   </si>
   <si>
     <t>PEÑARRIETA BAZURTO ERICK ANDRES</t>
@@ -2546,7 +2546,7 @@
     <t>erick.penarrieta@espam.edu.ec</t>
   </si>
   <si>
-    <t>9?0VGtei</t>
+    <t>xA5M#chR</t>
   </si>
   <si>
     <t>RIERA GAVILANES IZHURY MILLENYTH</t>
@@ -2558,7 +2558,7 @@
     <t>izhury.riera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>q#LVJd53</t>
+    <t>zccY3m&amp;I</t>
   </si>
   <si>
     <t>RIVERA CEDEÑO RIVALDO JOSE</t>
@@ -2570,7 +2570,7 @@
     <t>rivaldo.rivera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>e6l51B1/</t>
+    <t>Nq8F5Nqv</t>
   </si>
   <si>
     <t>SALDARRIAGA ARTEAGA OMAIRA MARIBI</t>
@@ -2579,7 +2579,7 @@
     <t>omaira.saldarriaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>fkt3Xt1#</t>
+    <t>wzu8h0aM</t>
   </si>
   <si>
     <t>SANDOVAL MERA NALLELY STEFANIA</t>
@@ -2588,7 +2588,7 @@
     <t>nallely.sandoval.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>x?eQaRuz</t>
+    <t>H92nu68m</t>
   </si>
   <si>
     <t>SUQUI CANGO BRYAN EDUARDO</t>
@@ -2600,7 +2600,7 @@
     <t>bryan.suqui.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ed3Uo1r7</t>
+    <t>#YxmG2zs</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO CARLOS ANDRES</t>
@@ -2609,7 +2609,7 @@
     <t>carlos.verduga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>WpplEZzA</t>
+    <t>5RBU?yeT</t>
   </si>
   <si>
     <t>ZAMBRANO LARA MARVIN RENE</t>
@@ -2618,7 +2618,7 @@
     <t>marvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>zCulmDMx</t>
+    <t>Tn8c9qGm</t>
   </si>
   <si>
     <t>ZAMBRANO OBANDO KELVIN JOSUE</t>
@@ -2630,7 +2630,7 @@
     <t>kelvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>?vm6JGMj</t>
+    <t>T2mCmvms</t>
   </si>
   <si>
     <t>ZAPATA QUINCHE ANDREA CAROLINA</t>
@@ -2639,7 +2639,7 @@
     <t>andrea.zapata.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>UAW1aiyk</t>
+    <t>fhxs94PK</t>
   </si>
   <si>
     <t>ALMEIDA PEREZ ANGEL FERNANDO</t>
@@ -2648,7 +2648,7 @@
     <t>angel.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>9OG&amp;lPOJ</t>
+    <t>j/cmKQJZ</t>
   </si>
   <si>
     <t>CEDEÑO PARRAGA MELANY NALLELY</t>
@@ -2657,7 +2657,7 @@
     <t>melany.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>H4RIpW/z</t>
+    <t>V81J5fs1</t>
   </si>
   <si>
     <t>CEDEÑO SALVATIERRA JENIFFER ALEJANDRA</t>
@@ -2666,7 +2666,7 @@
     <t>jeniffer.cedenosal@espam.edu.ec</t>
   </si>
   <si>
-    <t>z3b20/kv</t>
+    <t>2kXlLaDx</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA SCHEZNARDA EDITH</t>
@@ -2675,7 +2675,7 @@
     <t>scheznarda.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zq!8?n4K</t>
+    <t>pZj?otJY</t>
   </si>
   <si>
     <t>GANCHOZO VELEZ EMILY JULEXY</t>
@@ -2684,7 +2684,7 @@
     <t>emily.ganchozo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>C1kwMv3N</t>
+    <t>phYPkeS/</t>
   </si>
   <si>
     <t>LEON VIZÑAY ROQUE JAVIER</t>
@@ -2696,7 +2696,7 @@
     <t>roque.leon@espam.edu.ec</t>
   </si>
   <si>
-    <t>c9ANbBRR</t>
+    <t>0yKgHIXI</t>
   </si>
   <si>
     <t>LOOR LOOR EVELYN YAMILETH</t>
@@ -2705,7 +2705,7 @@
     <t>evelynya.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>sXtb4mlt</t>
+    <t>&amp;LV38/mN</t>
   </si>
   <si>
     <t>LOOR MOREIRA MELANIE NOEMI</t>
@@ -2714,7 +2714,7 @@
     <t>melanie.loorm.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qqcie?Jb</t>
+    <t>&amp;lS/6cJH</t>
   </si>
   <si>
     <t>LOPEZ ESTACIO ROSA ANGELICA</t>
@@ -2723,7 +2723,7 @@
     <t>rosa.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>xmiZkKCl</t>
+    <t>T0dRM&amp;BN</t>
   </si>
   <si>
     <t>MENDOZA MUÑOZ FLOR ANTONELA</t>
@@ -2732,7 +2732,7 @@
     <t>flor.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HOWaeadf</t>
+    <t>5u4KVrQu</t>
   </si>
   <si>
     <t>MERELO SOLORZANO NAIDELYN MISHELLE</t>
@@ -2741,7 +2741,7 @@
     <t>naidelyn.merelo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>m30Fra#f</t>
+    <t>aBqyK6PO</t>
   </si>
   <si>
     <t>MOREIRA LOOR FABIAN ALEXANDER</t>
@@ -2750,7 +2750,7 @@
     <t>fabian.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zc17jMpI</t>
+    <t>t0ewPE8E</t>
   </si>
   <si>
     <t>PAZMIÑO FALCONES JOSE MIGUEL</t>
@@ -2759,7 +2759,7 @@
     <t>jose.pazmino@espam.edu.ec</t>
   </si>
   <si>
-    <t>5m/R0vAm</t>
+    <t>zocs2K4?</t>
   </si>
   <si>
     <t>PEÑAFIEL PITA BRITHANNY MICAELA</t>
@@ -2771,7 +2771,7 @@
     <t>brithanny.penafiel.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0B1WfHcZ</t>
+    <t>eAU1&amp;5mf</t>
   </si>
   <si>
     <t>PINTO PALACIOS JOSE ANTONIO</t>
@@ -2780,7 +2780,7 @@
     <t>jose.pinto@espam.edu.ec</t>
   </si>
   <si>
-    <t>oSxQANcC</t>
+    <t>#CioY!DU</t>
   </si>
   <si>
     <t>RENTERIA VALENCIA NEURYS GYSSELA</t>
@@ -2792,7 +2792,7 @@
     <t>neurys.renteria@espam.edu.ec</t>
   </si>
   <si>
-    <t>toA45NC&amp;</t>
+    <t>gKTf7lsQ</t>
   </si>
   <si>
     <t>RIVAS ZAMBRANO ALISSON KATIUSKA</t>
@@ -2801,7 +2801,7 @@
     <t>alisson.rivas.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Iv4IwwFP</t>
+    <t>42sHjLz?</t>
   </si>
   <si>
     <t>TORRES VARGAS KARELIS ANDREINA</t>
@@ -2813,7 +2813,7 @@
     <t>karelis.torres@espam.edu.ec</t>
   </si>
   <si>
-    <t>QZSUV5JT</t>
+    <t>rxJ&amp;P!OK</t>
   </si>
   <si>
     <t>VALDIVIESO CHUNG DANIEL JAFET</t>
@@ -2822,7 +2822,7 @@
     <t>daniel.valdivieso.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>h7Rzh7KP</t>
+    <t>bYinIEcr</t>
   </si>
   <si>
     <t>VASCONEZ GONZALEZ FRANCISCO ALESSIO</t>
@@ -2831,7 +2831,7 @@
     <t>francisco.vasconez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>CJkbG0s3</t>
+    <t>w4KNkFAn</t>
   </si>
   <si>
     <t>VELEZ ORTEGA BORIS ANDRES</t>
@@ -2840,7 +2840,7 @@
     <t>boris.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?dhD78kx</t>
+    <t>zTt3s4B?</t>
   </si>
   <si>
     <t>VERA ESTUPIÑAN BRYAN FRANCISCO</t>
@@ -2849,7 +2849,7 @@
     <t>bryan.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>UNuWzV62</t>
+    <t>XhmA!wX8</t>
   </si>
   <si>
     <t>VERA LOOR ARIANA PAOLA</t>
@@ -2858,7 +2858,7 @@
     <t>ariana.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>xxBVo4IW</t>
+    <t>BcvzFuTp</t>
   </si>
   <si>
     <t>ZAMBRANO VEGA AURA ARACELY</t>
@@ -2867,7 +2867,7 @@
     <t>aura.zambranov@espam.edu.ec</t>
   </si>
   <si>
-    <t>RM8ILDzX</t>
+    <t>hp&amp;1v&amp;cV</t>
   </si>
   <si>
     <t>ALMEIDA ZAMBRANO HALINTONG VICENTE</t>
@@ -2876,7 +2876,7 @@
     <t>halintong.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>A#pJ11qR</t>
+    <t>?jrOgEfK</t>
   </si>
   <si>
     <t>AYALA VILLAFUERTE NAHOMY NAYELY</t>
@@ -2885,7 +2885,7 @@
     <t>nahomy.ayala@espam.edu.ec</t>
   </si>
   <si>
-    <t>8cjhQN1t</t>
+    <t>okD27Wx&amp;</t>
   </si>
   <si>
     <t>BASURTO CEDEÑO ITALO JORDANO</t>
@@ -2894,7 +2894,7 @@
     <t>italo.basurto.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>d/G93j4w</t>
+    <t>UZVda5qF</t>
   </si>
   <si>
     <t>CASTRO TAIPE YERIK LEXANDER</t>
@@ -2903,7 +2903,7 @@
     <t>yerik.castro.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>PRmuKL3R</t>
+    <t>ucAxBbRE</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA CARLOS PAUL</t>
@@ -2912,7 +2912,7 @@
     <t>carlos.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ui!iixu?</t>
+    <t>#ClcPKVI</t>
   </si>
   <si>
     <t>COBEÑA ZAMBRANO EDIS ARIEL</t>
@@ -2921,7 +2921,7 @@
     <t>edis.cobena@espam.edu.ec</t>
   </si>
   <si>
-    <t>N2Pp2CVR</t>
+    <t>fkHwZha#</t>
   </si>
   <si>
     <t>CORDOVA MUGUERZA ADRIANA NICOLLE</t>
@@ -2930,7 +2930,7 @@
     <t>adriana.muguersa.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BVRtnf!3</t>
+    <t>jILA?8oC</t>
   </si>
   <si>
     <t>COTERA PIN MAYERLY DAYANARA</t>
@@ -2939,7 +2939,7 @@
     <t>mayerly.cotera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>gPn92ZR5</t>
+    <t>9vBLXDqm</t>
   </si>
   <si>
     <t>CUENCA CUSME CECILIA ALEXANDRA</t>
@@ -2948,7 +2948,7 @@
     <t>cecilia.cuenca@espam.edu.ec</t>
   </si>
   <si>
-    <t>cL!V?Upb</t>
+    <t>vGy/q5LC</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA ANGIE MISHELLE</t>
@@ -2957,7 +2957,7 @@
     <t>angie.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HJTJfdXo</t>
+    <t>YQ3M!jJB</t>
   </si>
   <si>
     <t>LATA QUINCHI SANDRA LOURDES</t>
@@ -2966,7 +2966,7 @@
     <t>sandra.lata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>UDgbY0KB</t>
+    <t>nsZ8X9Vd</t>
   </si>
   <si>
     <t>MEJICANGO CALLE JAZMIN LISBETH</t>
@@ -2978,7 +2978,7 @@
     <t>jazmin.mejicango.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>LkMXDoWn</t>
+    <t>Tqe#yy/y</t>
   </si>
   <si>
     <t>MENDOZA GANCHOZO DOMENICA NICOLE</t>
@@ -2987,7 +2987,7 @@
     <t>domenica.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>4uqVy4Cr</t>
+    <t>x150j3&amp;I</t>
   </si>
   <si>
     <t>MOREIRA CEVALLOS NAYELY VANESSA</t>
@@ -2996,7 +2996,7 @@
     <t>nayely.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>25NLCG2K</t>
+    <t>8UxhwlLP</t>
   </si>
   <si>
     <t>MUÑOZ VERA MICHELLE VALENTINA</t>
@@ -3005,7 +3005,7 @@
     <t>michelle.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>D1jegsa1</t>
+    <t>NQ4!iPhI</t>
   </si>
   <si>
     <t>OLMOS RIVERA CLEOPATRA STEFANIA</t>
@@ -3014,7 +3014,7 @@
     <t>cleopatra.olmos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>x3OB5tMa</t>
+    <t>jl1iZ3Ll</t>
   </si>
   <si>
     <t>PAREDES RODRIGUEZ GIBELY JARLETH</t>
@@ -3026,7 +3026,7 @@
     <t>gibely.paredes.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>K8z?/!v5</t>
+    <t>hfVsQ3Lc</t>
   </si>
   <si>
     <t>PERUGACHI MECIAS GEOVANNY ALEJANDRO</t>
@@ -3035,7 +3035,7 @@
     <t>geovanny.perugachi.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!h&amp;lpbtQ</t>
+    <t>KPa?59&amp;B</t>
   </si>
   <si>
     <t>PITA MACIAS RUBEN DARIO</t>
@@ -3044,7 +3044,7 @@
     <t>ruben.pita@espam.edu.ec</t>
   </si>
   <si>
-    <t>IZQGijk&amp;</t>
+    <t>K7mQdv8&amp;</t>
   </si>
   <si>
     <t>ROSADO QUIROZ JANDRY FABRICIO</t>
@@ -3053,7 +3053,7 @@
     <t>jandry.rosado.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wi0QQ9wZ</t>
+    <t>UGC8qAzV</t>
   </si>
   <si>
     <t>SANCHEZ CHOEZ BERTHA DOLORES</t>
@@ -3062,7 +3062,7 @@
     <t>bertha.choez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>EmYYJ6y5</t>
+    <t>rn&amp;zNEh!</t>
   </si>
   <si>
     <t>VALENCIA MARCILLO JENIFFER KAROLINA</t>
@@ -3071,7 +3071,7 @@
     <t>jenifferk.valenciam@espam.edu.ec</t>
   </si>
   <si>
-    <t>DlSNut55</t>
+    <t>TlJQvI2B</t>
   </si>
   <si>
     <t>VELASQUEZ GUADAMUD MARIO DAMIAN</t>
@@ -3080,7 +3080,7 @@
     <t>mario.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>RWciE26i</t>
+    <t>KtBb7hB6</t>
   </si>
   <si>
     <t>VELEZ RIVAS JOFFRE GEOVANNY</t>
@@ -3089,7 +3089,7 @@
     <t>joffre.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;4IXGnW/</t>
+    <t>es1VzWZ5</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO GEMA BRIGITH</t>
@@ -3098,7 +3098,7 @@
     <t>gema.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Tu/GtP1e</t>
+    <t>?SWey7&amp;S</t>
   </si>
   <si>
     <t>VERA CEVALLOS CARMEN GISSELLA</t>
@@ -3107,7 +3107,7 @@
     <t>carmen.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>MZlUuZ61</t>
+    <t>rtQNHB1Z</t>
   </si>
   <si>
     <t>VERA SOLORZANO CARLOS NEPTALI</t>
@@ -3116,7 +3116,7 @@
     <t>carlos.veras@espam.edu.ec</t>
   </si>
   <si>
-    <t>W!xjTA&amp;r</t>
+    <t>eMgA6KQQ</t>
   </si>
   <si>
     <t>VERA VERA YUSTHYN YARLETH</t>
@@ -3125,7 +3125,7 @@
     <t>yusthyn.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>E0sbD8Q5</t>
+    <t>sr12H!/7</t>
   </si>
   <si>
     <t>VIDAL SABANDO MARIA KATHERINE</t>
@@ -3134,7 +3134,7 @@
     <t>maria.vidal.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>kBKLlo&amp;I</t>
+    <t>PUr7YxFw</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR EMILIO JOSE</t>
@@ -3143,7 +3143,7 @@
     <t>emilio.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>/kH8CpHC</t>
+    <t>RI3scQBh</t>
   </si>
   <si>
     <t>ZAMBRANO AVEIGA MAYRA ALEXANDRA</t>
@@ -3152,7 +3152,7 @@
     <t>mayra.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>b52n&amp;#qq</t>
+    <t>0ZFVtbZk</t>
   </si>
   <si>
     <t>ZAMBRANO VERA MARIA BEATRIZ</t>
@@ -3161,7 +3161,7 @@
     <t>maria.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>NJi3HTJW</t>
+    <t>HmAM9Ape</t>
   </si>
   <si>
     <t>ALCIVAR RODRIGUEZ STEFANY LISETH</t>
@@ -3170,7 +3170,7 @@
     <t>stefany.alcivar.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>iWVpSiIN</t>
+    <t>sqb&amp;q!DT</t>
   </si>
   <si>
     <t>ANGULO GLENN YURANI MAGERLI</t>
@@ -3182,7 +3182,7 @@
     <t>yurani.angulo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?M&amp;X0MZI</t>
+    <t>0hrw??sJ</t>
   </si>
   <si>
     <t>ARTEAGA TRIVIÑO CAMILA</t>
@@ -3191,7 +3191,7 @@
     <t>camila.arteaga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>8IpHQ28R</t>
+    <t>#eBBxAMF</t>
   </si>
   <si>
     <t>BALDERRAMO CABRERA JOSE GERMAN</t>
@@ -3200,7 +3200,7 @@
     <t>jose.balderramo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>hWrfj/RR</t>
+    <t>8ocOfMz!</t>
   </si>
   <si>
     <t>BRAVO MUÑOZ JEAN MYCKEL</t>
@@ -3209,7 +3209,7 @@
     <t>jean.bravomu@espam.edu.ec</t>
   </si>
   <si>
-    <t>cQIS82dV</t>
+    <t>XDtEq3X5</t>
   </si>
   <si>
     <t>BRAVO SANTANA JUNIOR XAVIER</t>
@@ -3218,7 +3218,7 @@
     <t>juniorx.bravos@espam.edu.ec</t>
   </si>
   <si>
-    <t>5ws5bRZy</t>
+    <t>ZtHhBLE3</t>
   </si>
   <si>
     <t>CAGUA RODRIGUEZ NAYELY ANAHI</t>
@@ -3227,7 +3227,7 @@
     <t>nayely.cagua.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>mtQCIa0d</t>
+    <t>75yAFbMH</t>
   </si>
   <si>
     <t>CALDERON RODRIGUEZ FATIMA DANIELA</t>
@@ -3236,7 +3236,7 @@
     <t>fatima.calderon.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sX5zTylZ</t>
+    <t>XiKG3chb</t>
   </si>
   <si>
     <t>CASTILLO MEJIA MARIA CARLOTA</t>
@@ -3245,7 +3245,7 @@
     <t>maria.castillo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>h#SPutT8</t>
+    <t>f67dTwac</t>
   </si>
   <si>
     <t>CEDEÑO CUSME DAYANARA NARCISA</t>
@@ -3254,7 +3254,7 @@
     <t>dayanara.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>6LFYG!3t</t>
+    <t>PW1pyAmE</t>
   </si>
   <si>
     <t>CELORIO VERA PETER PABLO</t>
@@ -3263,7 +3263,7 @@
     <t>peter.celorio.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>lFoh?PV6</t>
+    <t>dpeYCjR8</t>
   </si>
   <si>
     <t>COOL MORENO DIANA ESTHEFANIA</t>
@@ -3272,7 +3272,7 @@
     <t>diana.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lajp/xPA</t>
+    <t>jt32?EAj</t>
   </si>
   <si>
     <t>DELGADO GARZON PAOLA FERNANDA</t>
@@ -3281,7 +3281,7 @@
     <t>paola.delgadog.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>tE81A9sN</t>
+    <t>TbVxxYTO</t>
   </si>
   <si>
     <t>DOMINGUEZ DOMINGUEZ ROMINA MELISSA</t>
@@ -3290,7 +3290,7 @@
     <t>romina.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>xZAGUKfQ</t>
+    <t>7JPPie&amp;0</t>
   </si>
   <si>
     <t>GARCIA MUÑOZ EDDY SANTIAGO</t>
@@ -3299,7 +3299,7 @@
     <t>eddy.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>tTjtWmws</t>
+    <t>CwfHAVpL</t>
   </si>
   <si>
     <t>GARCIA PONCE LEONELA ANTONELLA</t>
@@ -3308,7 +3308,7 @@
     <t>leonela.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>R5/CSOqD</t>
+    <t>DKcskC9Y</t>
   </si>
   <si>
     <t>LOPEZ SOLORZANO YIMMY</t>
@@ -3317,7 +3317,7 @@
     <t>yimmy.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ef/EYbz?</t>
+    <t>vIT6NEla</t>
   </si>
   <si>
     <t>LOPEZ ZAMBRANO JORGE ISAAC</t>
@@ -3326,7 +3326,7 @@
     <t>jorge.lopez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YAlBnvAH</t>
+    <t>eG/0Z1J5</t>
   </si>
   <si>
     <t>MACIAS GUAGUA MAGERLY THAIS</t>
@@ -3338,7 +3338,7 @@
     <t>magerly.macias.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>s#DRt&amp;iG</t>
+    <t>EXAsAg58</t>
   </si>
   <si>
     <t>MARTINEZ SABANDO MARCELO EFRAIN</t>
@@ -3347,7 +3347,7 @@
     <t>marcelo.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>dmx4DqC2</t>
+    <t>T22Sw/gJ</t>
   </si>
   <si>
     <t>MEDRANDA CEDEÑO IVAN ARTURO</t>
@@ -3356,7 +3356,7 @@
     <t>ivan.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>OmL7504R</t>
+    <t>X2A1uEnO</t>
   </si>
   <si>
     <t>MENDOZA INTRIAGO KEYLA YAMIRA</t>
@@ -3365,7 +3365,7 @@
     <t>keyla.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>a4GYVj55</t>
+    <t>ECXC2lJP</t>
   </si>
   <si>
     <t>MENDOZA LOOR MARIAGRACIA</t>
@@ -3374,7 +3374,7 @@
     <t>mariagracia.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>6PLW52hr</t>
+    <t>8ejMGT08</t>
   </si>
   <si>
     <t>MOREIRA VELEZ ANGELICA LISBETH</t>
@@ -3383,7 +3383,7 @@
     <t>angelica.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>j4JdQ7S6</t>
+    <t>z/MEpISP</t>
   </si>
   <si>
     <t>PATA HERRERA ESTRELLA TATIANA</t>
@@ -3392,7 +3392,7 @@
     <t>estrella.pata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ijgeOWuh</t>
+    <t>h32#Q111</t>
   </si>
   <si>
     <t>PONCE MIRANDA YOEL ISAIAS</t>
@@ -3401,7 +3401,7 @@
     <t>yoel.ponce@espam.edu.ec</t>
   </si>
   <si>
-    <t>I8R5Jf&amp;5</t>
+    <t>LDM8Tvuv</t>
   </si>
   <si>
     <t>RIVAS ALARCON ALISSON MAYERLI</t>
@@ -3413,7 +3413,7 @@
     <t>alisson.rivas@espam.edu.ec</t>
   </si>
   <si>
-    <t>PhDt61Yg</t>
+    <t>7u0hG&amp;4R</t>
   </si>
   <si>
     <t>SABANDO VERA EMELY NOEMI</t>
@@ -3425,7 +3425,7 @@
     <t>emely.sabando.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sg4#P9wR</t>
+    <t>PoCxtAJl</t>
   </si>
   <si>
     <t>VELASQUEZ ZAMBRANO JUAN DIEGO</t>
@@ -3434,7 +3434,7 @@
     <t>juan.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>kgbU4Whb</t>
+    <t>k1w2GymA</t>
   </si>
   <si>
     <t>ZAMBRANO MENDOZA JOSE LUIS</t>
@@ -3443,7 +3443,7 @@
     <t>jose.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>f5PzoEjL</t>
+    <t>dTYHQorD</t>
   </si>
   <si>
     <t>ZAMBRANO PEREZ CARLOS JULIO</t>
@@ -3452,7 +3452,7 @@
     <t>carlos.zambranop@espam.edu.ec</t>
   </si>
   <si>
-    <t>tIL&amp;nqp9</t>
+    <t>Ot!YMD!?</t>
   </si>
   <si>
     <t>ACHIG GUALACATA EVELIN LISETTE</t>
@@ -3461,7 +3461,7 @@
     <t>evelin.achig@espam.edu.ec</t>
   </si>
   <si>
-    <t>P&amp;H0NeZk</t>
+    <t>f##Achz5</t>
   </si>
   <si>
     <t>AGUAS VERA JEICOL MIKE</t>
@@ -3470,7 +3470,7 @@
     <t>jeicol.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>jDSOQoUX</t>
+    <t>gnpyu77V</t>
   </si>
   <si>
     <t>BRAVO BASURTO JUAN CARLOS</t>
@@ -3479,7 +3479,7 @@
     <t>juan.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>ulQ39jJ4</t>
+    <t>RX8!uxJl</t>
   </si>
   <si>
     <t>CANTOS ZAMBRANO MARIA FERNANDA</t>
@@ -3488,7 +3488,7 @@
     <t>mariaf.cantos@espam.edu.ec</t>
   </si>
   <si>
-    <t>cM&amp;B7P?N</t>
+    <t>DNYrGe1!</t>
   </si>
   <si>
     <t>CASTILLO DELGADO LERENY JAMILEX</t>
@@ -3497,7 +3497,7 @@
     <t>lereny.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>q?DCCzpO</t>
+    <t>ZybEctuZ</t>
   </si>
   <si>
     <t>CASTILLO JACOME JHON JAIRO</t>
@@ -3506,7 +3506,7 @@
     <t>jhon.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>ExAxB8xF</t>
+    <t>n7w?UB0y</t>
   </si>
   <si>
     <t>CELORIO MENDOZA MIRIAN ALEJANDRA</t>
@@ -3515,7 +3515,7 @@
     <t>mirian.celorio@espam.edu.ec</t>
   </si>
   <si>
-    <t>RWLQIvj1</t>
+    <t>D&amp;n!1s2B</t>
   </si>
   <si>
     <t>CHUMO CHAVEZ JANINA BELEN</t>
@@ -3524,7 +3524,7 @@
     <t>janina.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>7IDLf!f5</t>
+    <t>#Vovo/Jh</t>
   </si>
   <si>
     <t>DELGADO LOPEZ MERCEDES ELIZABETH</t>
@@ -3533,7 +3533,7 @@
     <t>mercedes.delgado@espam.edu.ec</t>
   </si>
   <si>
-    <t>zd#Q3MF0</t>
+    <t>NEy2nQPD</t>
   </si>
   <si>
     <t>ESTEVES OLVERA DIANA MILENA</t>
@@ -3542,7 +3542,7 @@
     <t>diana.esteves@espam.edu.ec</t>
   </si>
   <si>
-    <t>Toyfg&amp;!L</t>
+    <t>IW28oB6M</t>
   </si>
   <si>
     <t>FALLAIN ZAMBRANO MARIA ANGELICA</t>
@@ -3551,7 +3551,7 @@
     <t>maria.fallain@espam.edu.ec</t>
   </si>
   <si>
-    <t>O?WHR0J6</t>
+    <t>6wnnxLSV</t>
   </si>
   <si>
     <t>FERNANDEZ CEVALLOS FRANCISCO ESTUARDO</t>
@@ -3560,7 +3560,7 @@
     <t>francisco.fernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>wq8I1NR8</t>
+    <t>WnchD62G</t>
   </si>
   <si>
     <t>HERNANDEZ HERNANDEZ MARIA ZULEMA</t>
@@ -3572,7 +3572,7 @@
     <t>maria.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wh8OwL4D</t>
+    <t>P4XYTNlA</t>
   </si>
   <si>
     <t>INTRIAGO SOLORZANO LEYDI GABRIELA</t>
@@ -3581,7 +3581,7 @@
     <t>leydi.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>WjjFlk/D</t>
+    <t>EMacppS6</t>
   </si>
   <si>
     <t>MACIAS LOOR ELIAN RENE</t>
@@ -3590,7 +3590,7 @@
     <t>elian.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>7riv0rNs</t>
+    <t>4KNaWQwY</t>
   </si>
   <si>
     <t>MACIAS PISCO NACHY MONSERRAT</t>
@@ -3599,7 +3599,7 @@
     <t>nachy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>ejPoEhGa</t>
+    <t>Ulcj9Pb2</t>
   </si>
   <si>
     <t>MERA LOOR JONAYKER REYNALDO</t>
@@ -3608,7 +3608,7 @@
     <t>jonayker.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>xEjCIShb</t>
+    <t>yDr/hPHP</t>
   </si>
   <si>
     <t>MOREIRA BASURTO YORDY JOEL</t>
@@ -3617,7 +3617,7 @@
     <t>yordy.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>PaZ9owRr</t>
+    <t>STpQmcHh</t>
   </si>
   <si>
     <t>MOREIRA MENDOZA MAGDALENA JAMILETH</t>
@@ -3626,7 +3626,7 @@
     <t>magdalena.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>Atcu?WAf</t>
+    <t>nbLnulKI</t>
   </si>
   <si>
     <t>PANTUSIN MUGUERZA ANDREA LISSETH</t>
@@ -3635,7 +3635,7 @@
     <t>andrea.pantusin@espam.edu.ec</t>
   </si>
   <si>
-    <t>97?&amp;aMvp</t>
+    <t>YD!D#R4f</t>
   </si>
   <si>
     <t>PATIÑO MEJIA MILENA ANAHI</t>
@@ -3644,7 +3644,7 @@
     <t>milena.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;/PMYjNh</t>
+    <t>nW#V1RNN</t>
   </si>
   <si>
     <t>PICO GARCIA ALLISON JANELY</t>
@@ -3653,7 +3653,7 @@
     <t>allison.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>oBoKyg/b</t>
+    <t>vITYLnpA</t>
   </si>
   <si>
     <t>POVEDA SANTANA ENZO JAVIER</t>
@@ -3665,7 +3665,7 @@
     <t>enzo.poveda@espam.edu.ec</t>
   </si>
   <si>
-    <t>Yrk0?4nJ</t>
+    <t>c!TurVQQ</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO NATALY SILVANA</t>
@@ -3674,7 +3674,7 @@
     <t>nataly.quijije@espam.edu.ec</t>
   </si>
   <si>
-    <t>AzFDUu4s</t>
+    <t>/ETNDypo</t>
   </si>
   <si>
     <t>ROBALINO DELGADO JORGE DAVID</t>
@@ -3683,7 +3683,7 @@
     <t>jorge.robalino@espam.edu.ec</t>
   </si>
   <si>
-    <t>RXLlzobx</t>
+    <t>YuM&amp;&amp;ay7</t>
   </si>
   <si>
     <t>SANCHEZ CASTILLO ADRIANA MICAELA</t>
@@ -3692,7 +3692,7 @@
     <t>adriana.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>2CRPl7zp</t>
+    <t>hwr3!ayX</t>
   </si>
   <si>
     <t>SOLORZANO ALAVA TAIRUN FRANCISCO</t>
@@ -3701,7 +3701,7 @@
     <t>tairun.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>GW1iPLCF</t>
+    <t>Wzl3M45q</t>
   </si>
   <si>
     <t>SOLORZANO BAILON MARIA GABRIELA</t>
@@ -3710,7 +3710,7 @@
     <t>mariaga.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>5hTWFaQ?</t>
+    <t>uA3gr0tU</t>
   </si>
   <si>
     <t>TRUJILLO AGUAS MAYERLI DAYANA</t>
@@ -3719,7 +3719,7 @@
     <t>mayerli.trujillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZGGnM74E</t>
+    <t>VmgNwF!?</t>
   </si>
   <si>
     <t>VERA VERA CINTHIA MARIA</t>
@@ -3728,7 +3728,7 @@
     <t>cinthia.verav@espam.edu.ec</t>
   </si>
   <si>
-    <t>Cq0RkjF8</t>
+    <t>eM7PG2AH</t>
   </si>
   <si>
     <t>VIDAL INTRIAGO ANDY YOEL</t>
@@ -3737,7 +3737,7 @@
     <t>andy.vidal@espam.edu.ec</t>
   </si>
   <si>
-    <t>z8a6viz0</t>
+    <t>z#rDOALb</t>
   </si>
   <si>
     <t>VINTIMILLA PROAÑO MARIA DE LOURDES</t>
@@ -3746,7 +3746,7 @@
     <t>maria.vintimilla@espam.edu.ec</t>
   </si>
   <si>
-    <t>kwpQaeEO</t>
+    <t>!XVnYvxo</t>
   </si>
   <si>
     <t>VITERI SANTOS VINICIO ORLEY</t>
@@ -3755,7 +3755,7 @@
     <t>vinicio.viteri@espam.edu.ec</t>
   </si>
   <si>
-    <t>/aFLC46p</t>
+    <t>eHWUe/GH</t>
   </si>
   <si>
     <t>ZAMBRANO CANO FRANCISCO JAVIER</t>
@@ -3764,7 +3764,7 @@
     <t>francisco.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZmN1BgZ4</t>
+    <t>b9!gr1Fl</t>
   </si>
   <si>
     <t>ZAMBRANO NAVARRETE ELBA MARIA</t>
@@ -3773,7 +3773,7 @@
     <t>elba.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZXhamM87</t>
+    <t>HnY0#FL1</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO WENDY GISSELLA</t>
@@ -3782,7 +3782,7 @@
     <t>wendy.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>iiDdkjqh</t>
+    <t>i2/al8Xo</t>
   </si>
   <si>
     <t>ARANA RUEDA ANGY LISSETH</t>
@@ -3794,7 +3794,7 @@
     <t>angy.arana@espam.edu.ec</t>
   </si>
   <si>
-    <t>7FwvIh?e</t>
+    <t>HMc1UPra</t>
   </si>
   <si>
     <t>ARTEAGA VARGAS ANDREA VALERIA</t>
@@ -3803,7 +3803,7 @@
     <t>andrea.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>nU7DSI2F</t>
+    <t>jbAH6dWS</t>
   </si>
   <si>
     <t>BARBERAN SANCHEZ KARLA MICHELLE</t>
@@ -3812,7 +3812,7 @@
     <t>karla.barberan@espam.edu.ec</t>
   </si>
   <si>
-    <t>uC1aXnNL</t>
+    <t>F#Alz3zI</t>
   </si>
   <si>
     <t>BAZURTO MANZABA SORAYA STEFANIA</t>
@@ -3821,7 +3821,7 @@
     <t>soraya.bazurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>v3w9RTik</t>
+    <t>uFOG0qCw</t>
   </si>
   <si>
     <t>CAGUA GARCIA ANDRES VIRGILIO</t>
@@ -3830,7 +3830,7 @@
     <t>andres.cagua@espam.edu.ec</t>
   </si>
   <si>
-    <t>yxJ#f?L7</t>
+    <t>sWxx122X</t>
   </si>
   <si>
     <t>DOMINGUEZ CALDERON JEAN PIERRE</t>
@@ -3839,7 +3839,7 @@
     <t>jean.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>XJe0jctb</t>
+    <t>ru7CBYzb</t>
   </si>
   <si>
     <t>ESPINOZA ALCIVAR EVELYN ALEXANDRA</t>
@@ -3848,7 +3848,7 @@
     <t>evelyn.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>9d4wYHiR</t>
+    <t>qkqRXo#G</t>
   </si>
   <si>
     <t>LOOR MORENO DANIEL AGUSTIN</t>
@@ -3857,7 +3857,7 @@
     <t>daniel.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>zOznaJSd</t>
+    <t>14O9h3uz</t>
   </si>
   <si>
     <t>MACIAS PARRALES MEREDITH MARIBEL</t>
@@ -3866,7 +3866,7 @@
     <t>meredith.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>4MbUhA?t</t>
+    <t>gTTLMFhQ</t>
   </si>
   <si>
     <t>MENDOZA CANCHINGRE BRIGITH MIKAELA</t>
@@ -3875,7 +3875,7 @@
     <t>brigith.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>w?ALPUDn</t>
+    <t>1rN5ObeD</t>
   </si>
   <si>
     <t>MENDOZA VELEZ JOSE MIGUEL</t>
@@ -3884,7 +3884,7 @@
     <t>josemi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>DUOtee9V</t>
+    <t>h&amp;t2hza1</t>
   </si>
   <si>
     <t>MEZA BRIONES ANTHONY NARCILO</t>
@@ -3893,7 +3893,7 @@
     <t>anthony.meza@espam.edu.ec</t>
   </si>
   <si>
-    <t>tLVG8XUv</t>
+    <t>Y5hDLIy3</t>
   </si>
   <si>
     <t>MORA ZAMBRANO MARIA LAURA</t>
@@ -3902,7 +3902,7 @@
     <t>maria.mora@espam.edu.ec</t>
   </si>
   <si>
-    <t>f&amp;/fuiC2</t>
+    <t>hhxqfyOz</t>
   </si>
   <si>
     <t>NAVARRETE ZAMBRANO ROBIN LUGERIO</t>
@@ -3911,7 +3911,7 @@
     <t>robin.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vmb7TE7b</t>
+    <t>1KP0jwat</t>
   </si>
   <si>
     <t>OSTAIZA LOPEZ JOSEPH MANUEL</t>
@@ -3920,7 +3920,7 @@
     <t>josepth.ostaiza@espam.edu.ec</t>
   </si>
   <si>
-    <t>EzIVMmHs</t>
+    <t>bEGY3bqN</t>
   </si>
   <si>
     <t>PARRAGA PARRAGA CARLA ESTEFANIA</t>
@@ -3929,7 +3929,7 @@
     <t>carla.parraga@espam.edu.ec</t>
   </si>
   <si>
-    <t>FgSds2xO</t>
+    <t>B&amp;JDe7SF</t>
   </si>
   <si>
     <t>PLAZA CABRERA MAYERLY MARIA</t>
@@ -3941,7 +3941,7 @@
     <t>mayerly.plaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>K!bGtI15</t>
+    <t>Gnd5ZYHB</t>
   </si>
   <si>
     <t>RODRIGUEZ VELIZ LEANDRO MOISES</t>
@@ -3950,7 +3950,7 @@
     <t>leandro.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>hJE&amp;SGdu</t>
+    <t>vgD2plzR</t>
   </si>
   <si>
     <t>SANTANA GUERRERO MARIA RAQUEL</t>
@@ -3959,7 +3959,7 @@
     <t>mariar.santanag@espam.edu.ec</t>
   </si>
   <si>
-    <t>2SpRFxaM</t>
+    <t>Iy0HfiRy</t>
   </si>
   <si>
     <t>SANTOS SALAZAR JANDRY DAVID</t>
@@ -3968,7 +3968,7 @@
     <t>jandry.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>zQ88Sedy</t>
+    <t>yoL&amp;yszW</t>
   </si>
   <si>
     <t>SOLORZANO LOOR KEYLA GEOVANNA</t>
@@ -3977,7 +3977,7 @@
     <t>keyla.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>lJSZdm0n</t>
+    <t>BYIgKwbg</t>
   </si>
   <si>
     <t>VALENCIA ZAMBRANO VALERIA MERCEDES</t>
@@ -3986,7 +3986,7 @@
     <t>valeria.valencia@espam.edu.ec</t>
   </si>
   <si>
-    <t>lOPGs8hA</t>
+    <t>OlxzI9!x</t>
   </si>
   <si>
     <t>VARGAS CHOEZ ALEXIS ELIAN</t>
@@ -3995,7 +3995,7 @@
     <t>alexis.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>?#4hc7Fj</t>
+    <t>UIvURyMB</t>
   </si>
   <si>
     <t>VELEZ ALMEIDA CARMEN REBECA</t>
@@ -4004,7 +4004,7 @@
     <t>carmen.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>McYqSr5d</t>
+    <t>KTdOzLcw</t>
   </si>
   <si>
     <t>VELEZ LEGTON GENESIS YAMILET</t>
@@ -4013,7 +4013,7 @@
     <t>genesisya.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;PA21h?p</t>
+    <t>vqlD?C1w</t>
   </si>
   <si>
     <t>VERA BALAREZO MARYAM JANELLA</t>
@@ -4022,7 +4022,7 @@
     <t>maryam.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>bawG&amp;CFc</t>
+    <t>PU1d9caY</t>
   </si>
   <si>
     <t>VERA SERRANO CARLOS STEFANO</t>
@@ -4031,7 +4031,7 @@
     <t>carlos.verase@espam.edu.ec</t>
   </si>
   <si>
-    <t>yIHRIfvh</t>
+    <t>!KgXGi6U</t>
   </si>
   <si>
     <t>VIERA BAZURTO JOSE ALEXANDER</t>
@@ -4040,7 +4040,7 @@
     <t>jose.viera@espam.edu.ec</t>
   </si>
   <si>
-    <t>Heiu1rQs</t>
+    <t>nIm3lMZn</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR DIEGO JAHIR</t>
@@ -4049,7 +4049,7 @@
     <t>diego.zambranoa@espam.edu.ec</t>
   </si>
   <si>
-    <t>Eqor2CsX</t>
+    <t>acG4fYJz</t>
   </si>
   <si>
     <t>ZAMBRANO MANZABA MARIA FERNANDA</t>
@@ -4058,7 +4058,7 @@
     <t>mariafer.zambranom@espam.edu.ec</t>
   </si>
   <si>
-    <t>dNMph/ub</t>
+    <t>GknZoFar</t>
   </si>
   <si>
     <t>ALCIVAR GILER MELANY JULISA</t>
@@ -4067,7 +4067,7 @@
     <t>melany.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>M?/3MwoP</t>
+    <t>jVWtnKaJ</t>
   </si>
   <si>
     <t>ANDRADE ZAMBRANO NATHALY NICOLLE</t>
@@ -4076,7 +4076,7 @@
     <t>nathaly.andrade@espam.edu.ec</t>
   </si>
   <si>
-    <t>K5JlKcPI</t>
+    <t>DE00L9J!</t>
   </si>
   <si>
     <t>BASURTO MORAN LUIS ALEXANDER</t>
@@ -4085,7 +4085,7 @@
     <t>luis.basurtom@espam.edu.ec</t>
   </si>
   <si>
-    <t>WLoeuxiA</t>
+    <t>esy#kuEn</t>
   </si>
   <si>
     <t>BERMELLO VELEZ ANGELA DANIELA</t>
@@ -4094,7 +4094,7 @@
     <t>angela.bermello@espam.edu.ec</t>
   </si>
   <si>
-    <t>IasqUhI6</t>
+    <t>bkSDw!IF</t>
   </si>
   <si>
     <t>BRAVO VERA GEMA VIVIANA</t>
@@ -4103,7 +4103,7 @@
     <t>gema.bravov@espam.edu.ec</t>
   </si>
   <si>
-    <t>7yi9f?Jb</t>
+    <t>T!y&amp;UhkU</t>
   </si>
   <si>
     <t>BRIONES INTRIAGO LORENA LUCIA</t>
@@ -4112,7 +4112,7 @@
     <t>lorena.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>vDhRXJYM</t>
+    <t>YhpBWM#u</t>
   </si>
   <si>
     <t>BURGOS BRAVO KATHERIN DANIELA</t>
@@ -4121,7 +4121,7 @@
     <t>katherin.burgos@espam.edu.ec</t>
   </si>
   <si>
-    <t>JVEik9RM</t>
+    <t>HaZ/1LKK</t>
   </si>
   <si>
     <t>LOOR PARRAGA ROY RUBEN</t>
@@ -4130,7 +4130,7 @@
     <t>roy.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>ORHjdQh9</t>
+    <t>J2mj/PGb</t>
   </si>
   <si>
     <t>LOPEZ GANCHOZO LEANDRO ANTONIO</t>
@@ -4139,7 +4139,7 @@
     <t>leandro.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>MD3Gmz5B</t>
+    <t>FiEzJiQX</t>
   </si>
   <si>
     <t>MACIAS MACIAS JOY ROBERTO</t>
@@ -4148,7 +4148,7 @@
     <t>joy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>D8XSPt1y</t>
+    <t>i?pjYGWo</t>
   </si>
   <si>
     <t>MACIAS SILVA CINTHYA MARIANA</t>
@@ -4157,7 +4157,7 @@
     <t>cinthya.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>1IP4d39V</t>
+    <t>fFmBcevE</t>
   </si>
   <si>
     <t>MENDOZA PONCE MARIA ANGELICA</t>
@@ -4166,7 +4166,7 @@
     <t>maria.mendozap@espam.edu.ec</t>
   </si>
   <si>
-    <t>sn78jhce</t>
+    <t>qhXkQcki</t>
   </si>
   <si>
     <t>MONCAYO LAINEZ KERLY ARIANNA</t>
@@ -4175,7 +4175,7 @@
     <t>kerly.moncayo@espam.edu.ec</t>
   </si>
   <si>
-    <t>TKmLSw3P</t>
+    <t>6U4Od!3Q</t>
   </si>
   <si>
     <t>MONTES POZO JEAN POLL</t>
@@ -4184,7 +4184,7 @@
     <t>jean.montes@espam.edu.ec</t>
   </si>
   <si>
-    <t>tfJchqym</t>
+    <t>U38T31x?</t>
   </si>
   <si>
     <t>MORENO OBANDO ANA BELLA</t>
@@ -4193,7 +4193,7 @@
     <t>ana.moreno@espam.edu.ec</t>
   </si>
   <si>
-    <t>FfPPssPm</t>
+    <t>tHU1QdQi</t>
   </si>
   <si>
     <t>NAVARRETE PARODI ERIKA KARINA</t>
@@ -4202,7 +4202,7 @@
     <t>erika.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>aNZDJlM6</t>
+    <t>sy8Mt!iU</t>
   </si>
   <si>
     <t>ORMAZA ESPINOZA JESUS EMILIO</t>
@@ -4211,7 +4211,7 @@
     <t>jesus.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>FZutlgie</t>
+    <t>bGqKgX6D</t>
   </si>
   <si>
     <t>ORMAZA FALCONES MARIA ALEJANDRA</t>
@@ -4220,7 +4220,7 @@
     <t>maria.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>#Z&amp;bbOS5</t>
+    <t>O!8oq2gY</t>
   </si>
   <si>
     <t>PARRAGA QUIJIJE GEMA KAROLINA</t>
@@ -4229,7 +4229,7 @@
     <t>gemak.parragaq@espam.edu.ec</t>
   </si>
   <si>
-    <t>WdSOlsfe</t>
+    <t>VTDAraTb</t>
   </si>
   <si>
     <t>PICO TOLA MARCO ANDRES</t>
@@ -4238,7 +4238,7 @@
     <t>marco.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>YbgMxo?x</t>
+    <t>V1JmQ5ET</t>
   </si>
   <si>
     <t>PIN NAPA IVANA MAYERLI</t>
@@ -4247,7 +4247,7 @@
     <t>ivana.pin@espam.edu.ec</t>
   </si>
   <si>
-    <t>SFZG4l0y</t>
+    <t>Q9ysbZPf</t>
   </si>
   <si>
     <t>ROMERO BRAVO JOSE AGUSTIN</t>
@@ -4256,7 +4256,7 @@
     <t>jose.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>yTcBSz7d</t>
+    <t>a9/ojwqw</t>
   </si>
   <si>
     <t>SALTOS INTRIAGO NATHALIA MELISSA</t>
@@ -4265,7 +4265,7 @@
     <t>nathalia.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>wsZBYi9n</t>
+    <t>au!6&amp;BIg</t>
   </si>
   <si>
     <t>SALTOS SALTOS MADELYNE PIERINA</t>
@@ -4274,7 +4274,7 @@
     <t>madelyne.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>Sau52g/B</t>
+    <t>jk8FLPp7</t>
   </si>
   <si>
     <t>SOLIS ORTIZ SANTIAGO</t>
@@ -4283,7 +4283,7 @@
     <t>santiago.solis@espam.edu.ec</t>
   </si>
   <si>
-    <t>DspH86n!</t>
+    <t>/HKGKf8s</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO GEMA NARCISA</t>
@@ -4292,7 +4292,7 @@
     <t>gema.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>KzVRPWyB</t>
+    <t>teKemjU2</t>
   </si>
   <si>
     <t>VARGAS SOLORZANO ANDREA DIVINA</t>
@@ -4301,7 +4301,7 @@
     <t>andrea.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>#qUh5IGa</t>
+    <t>46JrIedo</t>
   </si>
   <si>
     <t>VELEZ VERA MANUEL ALEXANDER</t>
@@ -4310,7 +4310,7 @@
     <t>manuel.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Kc04tMQ</t>
+    <t>58gxobxn</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO ADRIAN DAVID</t>
@@ -4319,7 +4319,7 @@
     <t>adrian.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>HePkuDvG</t>
+    <t>DBfv9jap</t>
   </si>
   <si>
     <t>YLLESCA CEDEÑO JESUS JONATHAN</t>
@@ -4328,7 +4328,7 @@
     <t>jesus.yllesca@espam.edu.ec</t>
   </si>
   <si>
-    <t>LI5jOlDL</t>
+    <t>Mwx2h#Tn</t>
   </si>
   <si>
     <t>ZAMBRANO CATOTA DERLYN MILENA</t>
@@ -4337,7 +4337,7 @@
     <t>derlyn.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>bf4hlFud</t>
+    <t>3aP6pDk6</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO CHRISTIAN EDUARDO</t>
@@ -4346,7 +4346,7 @@
     <t>christian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>OUvIhc0F</t>
+    <t>HGU394Gi</t>
   </si>
   <si>
     <t>ZAMBRANO ROBLES GLENDY MERCEDES</t>
@@ -4355,7 +4355,7 @@
     <t>glendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>BEyLmPFc</t>
+    <t>T5kV3mbW</t>
   </si>
   <si>
     <t>ZAMBRANO ROSADO JORGE ALESSANDRO</t>
@@ -4364,7 +4364,7 @@
     <t>jorge.zambranor@espam.edu.ec</t>
   </si>
   <si>
-    <t>YzmltSl2</t>
+    <t>zm/YkTqI</t>
   </si>
   <si>
     <t>ZAMBRANO VERA WENDY ANAHI</t>
@@ -4373,7 +4373,7 @@
     <t>wendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>l/nJ8ov2</t>
+    <t>ZyS36AQV</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO JONATHAN JAVIER</t>
@@ -4382,7 +4382,7 @@
     <t>jonathan.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>2mUxPikl</t>
+    <t>PXmWlieo</t>
   </si>
   <si>
     <t>ZAMORA SOLORZANO MAGALY DOLORES</t>
@@ -4391,7 +4391,7 @@
     <t>magaly.zamora@espam.edu.ec</t>
   </si>
   <si>
-    <t>urw3Hnye</t>
+    <t>q8mbmpeO</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO MARIA EMILIA</t>
@@ -4400,7 +4400,7 @@
     <t>maria.bravoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>eGpGzMMU</t>
+    <t>JJB!R6fq</t>
   </si>
   <si>
     <t>CEVALLOS ALVAREZ ARMANDO ENRIQUE</t>
@@ -4409,7 +4409,7 @@
     <t>armando.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>EpvhI#28</t>
+    <t>gw2NG3vZ</t>
   </si>
   <si>
     <t>CEVALLOS VERA ARELIS STEFANIA</t>
@@ -4418,7 +4418,7 @@
     <t>arelis.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>rioKIW4u</t>
+    <t>nmAdrpzf</t>
   </si>
   <si>
     <t>COOL MERO PATRICIO JAVIER</t>
@@ -4427,7 +4427,7 @@
     <t>patricio.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>1B/U2SKe</t>
+    <t>akSX!h2v</t>
   </si>
   <si>
     <t>FRANCO ORELLANA GUADALUPE MONSERRATE</t>
@@ -4436,7 +4436,7 @@
     <t>guadalupe.franco@espam.edu.ec</t>
   </si>
   <si>
-    <t>YyBKt6GW</t>
+    <t>EocvTm5u</t>
   </si>
   <si>
     <t>HUERTA BALDIVIEZO JEAN CRISTHIAN</t>
@@ -4445,7 +4445,7 @@
     <t>jean.huerta@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qi6ASpuK</t>
+    <t>snsvmEz5</t>
   </si>
   <si>
     <t>INTRIAGO CANTOS MARIA JOSE</t>
@@ -4454,7 +4454,7 @@
     <t>maria.intriagoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>E&amp;jQUmQW</t>
+    <t>8MvoL3AZ</t>
   </si>
   <si>
     <t>LOOR CANTOS DIANA ISABEL</t>
@@ -4463,7 +4463,7 @@
     <t>diana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>N?VXFfG5</t>
+    <t>l&amp;ieAP?F</t>
   </si>
   <si>
     <t>LOOR SEGOVIA EVELYN ADRIANA</t>
@@ -4472,7 +4472,7 @@
     <t>evelyn.loors@espam.edu.ec</t>
   </si>
   <si>
-    <t>h0B786ac</t>
+    <t>dK!wj6NY</t>
   </si>
   <si>
     <t>MEDINA CEDEÑO JULIO CESAR</t>
@@ -4481,7 +4481,7 @@
     <t>julio.medina@espam.edu.ec</t>
   </si>
   <si>
-    <t>vCZrQ7rx</t>
+    <t>5y4R96ZL</t>
   </si>
   <si>
     <t>MERA VELEZ ALONDRA GARDENIA</t>
@@ -4490,7 +4490,7 @@
     <t>alondra.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>NGZfH!sq</t>
+    <t>YMb5NUOF</t>
   </si>
   <si>
     <t>MUÑOZ ZAMBRANO CARLOS JOSUE</t>
@@ -4499,7 +4499,7 @@
     <t>carlos.munozz@espam.edu.ec</t>
   </si>
   <si>
-    <t>X8edKOwA</t>
+    <t>EGyliR7D</t>
   </si>
   <si>
     <t>NAPA RODRIGUEZ JOSE AGUSTIN</t>
@@ -4508,7 +4508,7 @@
     <t>jose.napa@espam.edu.ec</t>
   </si>
   <si>
-    <t>CI0NaB95</t>
+    <t>mBorHlzJ</t>
   </si>
   <si>
     <t>PALMA CEVALLOS MARIA JOSE</t>
@@ -4517,7 +4517,7 @@
     <t>maria.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>3Aqnsq#K</t>
+    <t>MSoeN2Ph</t>
   </si>
   <si>
     <t>PATIÑO MESIAS MARIA GABRIELA</t>
@@ -4526,7 +4526,7 @@
     <t>maria.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>6W&amp;WPQAJ</t>
+    <t>4MEmM8Wj</t>
   </si>
   <si>
     <t>QUINTANA CAGUA YENIFER YULI</t>
@@ -4535,7 +4535,7 @@
     <t>yenifer.quintana@espam.edu.ec</t>
   </si>
   <si>
-    <t>v!lOao#x</t>
+    <t>u9U5JQ9#</t>
   </si>
   <si>
     <t>RIVERA CANTOS MARIA DANIELA</t>
@@ -4544,7 +4544,7 @@
     <t>maria.riverac@espam.edu.ec</t>
   </si>
   <si>
-    <t>2CGY2ga9</t>
+    <t>!wyPC#ta</t>
   </si>
   <si>
     <t>RODRIGUEZ PINCAY CARLOS BRYAN</t>
@@ -4553,7 +4553,7 @@
     <t>carlos.rodriguezp@espam.edu.ec</t>
   </si>
   <si>
-    <t>iBH0GH3?</t>
+    <t>J0GQ0mib</t>
   </si>
   <si>
     <t>SABANDO VELEZ CRISTHIAN ANTHONY</t>
@@ -4562,7 +4562,7 @@
     <t>cristhian.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>gNwAmlLq</t>
+    <t>!g4J93ji</t>
   </si>
   <si>
     <t>SANTANA VERA ANTHONY JAHIR</t>
@@ -4571,7 +4571,7 @@
     <t>anthony.santana@espam.edu.ec</t>
   </si>
   <si>
-    <t>sE7wDcDp</t>
+    <t>VYUy&amp;P/t</t>
   </si>
   <si>
     <t>VELEZ ESPINOZA JUNIOR JESUS</t>
@@ -4580,7 +4580,7 @@
     <t>junior.veleze@espam.edu.ec</t>
   </si>
   <si>
-    <t>?ZQIh7hY</t>
+    <t>6#VrxliH</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO DIEGO ALEJANDRO</t>
@@ -4589,7 +4589,7 @@
     <t>diego.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>eb##xpos</t>
+    <t>qC&amp;92PPj</t>
   </si>
   <si>
     <t>ZAMBRANO VELEZ NAYELHY LILIBETH</t>
@@ -4598,7 +4598,7 @@
     <t>nayelhy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>jJvDKqJA</t>
+    <t>wkoeMY&amp;8</t>
   </si>
   <si>
     <t>ZAMBRANO WITONG KENIA THAIS</t>
@@ -4607,7 +4607,7 @@
     <t>keniath.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ar4nJenb</t>
+    <t>GK3CnfWU</t>
   </si>
   <si>
     <t>ANCHUNDIA ANCHUNDIA GEMA LILIBETH</t>
@@ -4616,7 +4616,7 @@
     <t>gema.anchundia@espam.edu.ec</t>
   </si>
   <si>
-    <t>3XQGf5U#</t>
+    <t>!tWo#j3o</t>
   </si>
   <si>
     <t>ARTEAGA DELGADO JEAN CARLOS</t>
@@ -4625,7 +4625,7 @@
     <t>jean.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>oKEUVIcn</t>
+    <t>6UF4hN25</t>
   </si>
   <si>
     <t>BARREIRO ZAMBRANO JOSE VICENTE</t>
@@ -4634,7 +4634,7 @@
     <t>jose.barreiro@espam.edu.ec</t>
   </si>
   <si>
-    <t>hi8cboc/</t>
+    <t>9k1?h!wD</t>
   </si>
   <si>
     <t>BASURTO ALCIVAR DARWIN JESUS</t>
@@ -4643,7 +4643,7 @@
     <t>darwin.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>eJKnlQ7k</t>
+    <t>SOW7!qoY</t>
   </si>
   <si>
     <t>BRAVO CEDEÑO JOSE RODOLFO</t>
@@ -4652,7 +4652,7 @@
     <t>jose.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>3LTHuJa9</t>
+    <t>K7GI?X9M</t>
   </si>
   <si>
     <t>BRIONES BERMEO ANTONY JAVIER</t>
@@ -4661,7 +4661,7 @@
     <t>antony.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>k5BweCGx</t>
+    <t>FYCkw!VU</t>
   </si>
   <si>
     <t>CEDEÑO ANCHUNDIA YANDRY ANTONIO</t>
@@ -4673,7 +4673,7 @@
     <t>yandry.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>/zzkQCNz</t>
+    <t>OrHruP?H</t>
   </si>
   <si>
     <t>CEDEÑO PEÑARRIETA DAYANA SOPHIA</t>
@@ -4682,7 +4682,7 @@
     <t>dayanaso.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>gx!FqrIN</t>
+    <t>eT6dwERa</t>
   </si>
   <si>
     <t>CHAVARRIA PEÑARRIETA MARCOS ALEJANDRO</t>
@@ -4691,7 +4691,7 @@
     <t>marcos.chavarria@espam.edu.ec</t>
   </si>
   <si>
-    <t>wyw!TKTk</t>
+    <t>MQ&amp;3dBxE</t>
   </si>
   <si>
     <t>DEL VALLE BASURTO CARMEN MELINA</t>
@@ -4700,7 +4700,7 @@
     <t>carmen.del@espam.edu.ec</t>
   </si>
   <si>
-    <t>khpvSM!J</t>
+    <t>A?OjdLCk</t>
   </si>
   <si>
     <t>GUERRERO BRAVO ANA BELEN</t>
@@ -4709,7 +4709,7 @@
     <t>ana.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>tEr?OxBP</t>
+    <t>En3v1w4Q</t>
   </si>
   <si>
     <t>GUERRERO GUERRERO JOSSELYN MELISSA</t>
@@ -4718,7 +4718,7 @@
     <t>josselyn.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>sp44oxxG</t>
+    <t>vPliWA#R</t>
   </si>
   <si>
     <t>INTRIAGO BARBERAN LAURO ANTONIO</t>
@@ -4727,7 +4727,7 @@
     <t>lauro.intriago1@espam.edu.ec</t>
   </si>
   <si>
-    <t>K6Gep/XI</t>
+    <t>fq8ZdZzz</t>
   </si>
   <si>
     <t>INTRIAGO MORA LENIN ARCENIO</t>
@@ -4736,7 +4736,7 @@
     <t>lenin.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>UYRRFtQs</t>
+    <t>m2L4RNVe</t>
   </si>
   <si>
     <t>MACIAS CALDERON JOSE ARIEL</t>
@@ -4745,7 +4745,7 @@
     <t>jose.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z8E6rQ!h</t>
+    <t>mRUHmFQy</t>
   </si>
   <si>
     <t>MARCILLO VELEZ ANA PATRICIA</t>
@@ -4754,7 +4754,7 @@
     <t>ana.marcillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>!UR5OhD4</t>
+    <t>il/yX#Dq</t>
   </si>
   <si>
     <t>MERA FIGUEROA RAYMOND ALEJANDRO</t>
@@ -4763,7 +4763,7 @@
     <t>raymond.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>nkGQzw1N</t>
+    <t>VGmNc/mV</t>
   </si>
   <si>
     <t>MOREIRA ZAMBRANO JOSSENKA MERCEDES</t>
@@ -4772,7 +4772,7 @@
     <t>jossenka.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>S3&amp;InpYL</t>
+    <t>1xL4&amp;VEp</t>
   </si>
   <si>
     <t>MUÑOZ ALCIVAR CRISTHIAN MARTIN</t>
@@ -4781,7 +4781,7 @@
     <t>cristhian.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>lZrX87YA</t>
+    <t>/14ZACAG</t>
   </si>
   <si>
     <t>MUÑOZ MACIAS MARIA MAGDALENA</t>
@@ -4790,7 +4790,7 @@
     <t>mariama.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>bqWn&amp;JcX</t>
+    <t>6GfIdW68</t>
   </si>
   <si>
     <t>POLO GANCHOZO ARON ESNEYDER</t>
@@ -4799,7 +4799,7 @@
     <t>aron.polo@espam.edu.ec</t>
   </si>
   <si>
-    <t>PtNEG7tM</t>
+    <t>S8X7F0Kn</t>
   </si>
   <si>
     <t>RIOS BERMELLO JENIFFER LIZETH</t>
@@ -4808,7 +4808,7 @@
     <t>jeniffer.rios@espam.edu.ec</t>
   </si>
   <si>
-    <t>TSo3oZg9</t>
+    <t>NLnZZJjr</t>
   </si>
   <si>
     <t>SALVATIERRA VALDEZ VICKY NICOLLE</t>
@@ -4817,7 +4817,7 @@
     <t>vicky.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>uSwxh2#M</t>
+    <t>CHI4f6uI</t>
   </si>
   <si>
     <t>SANTOS VELEZ MONICA GERMANIA</t>
@@ -4826,7 +4826,7 @@
     <t>monica.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>TCm1NKYV</t>
+    <t>cbI/gQqh</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO MILENA DENISSE</t>
@@ -4835,7 +4835,7 @@
     <t>milena.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>KkD0RJwt</t>
+    <t>PCHJyIFx</t>
   </si>
   <si>
     <t>TUQUERES TACURI JESSICA MARIBELL</t>
@@ -4844,7 +4844,7 @@
     <t>jessica.tuqueres@espam.edu.ec</t>
   </si>
   <si>
-    <t>WlJondYB</t>
+    <t>Zjjeh9np</t>
   </si>
   <si>
     <t>VERDUGA ERAZO JOSUE SALVADOR</t>
@@ -4853,7 +4853,7 @@
     <t>josue.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>2#JWLw3W</t>
+    <t>Ar9F0O4O</t>
   </si>
   <si>
     <t>YEPEZ VELIZ GENESIS THALIA</t>
@@ -4862,7 +4862,7 @@
     <t>genesis.yepez@espam.edu.ec</t>
   </si>
   <si>
-    <t>c5VYlIfD</t>
+    <t>ToxgHhbG</t>
   </si>
   <si>
     <t>ZAMBRANO BASURTO ERICK RAFAEL</t>
@@ -4871,7 +4871,7 @@
     <t>erick.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>KfgonhAw</t>
+    <t>2?#Yrw&amp;b</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ JANDRY DEIVY</t>
@@ -4880,7 +4880,7 @@
     <t>jandry.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Sa1wDWv9</t>
+    <t>#CzF8KLX</t>
   </si>
   <si>
     <t>AYONG VERA JUAN DAVID</t>
@@ -4889,7 +4889,7 @@
     <t>juan.ayong@espam.edu.ec</t>
   </si>
   <si>
-    <t>hLOM!spf</t>
+    <t>65hmWaZ1</t>
   </si>
   <si>
     <t>BASURTO SALAZAR ANGELA MARGARITA</t>
@@ -4898,7 +4898,7 @@
     <t>angela.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>5izI?2rv</t>
+    <t>2#E5kPB#</t>
   </si>
   <si>
     <t>CASANOVA INTRIAGO ANDREA BELEN</t>
@@ -4910,7 +4910,7 @@
     <t>andrea.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>QX0I#A#0</t>
+    <t>ZNCN9RrC</t>
   </si>
   <si>
     <t>CHUMO ZAMBRANO ANTONIO BENITO</t>
@@ -4919,7 +4919,7 @@
     <t>antonio.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>T0RUKqLY</t>
+    <t>Rr5hM0sF</t>
   </si>
   <si>
     <t>GARCIA CORTEZ ERIKA STEFANIA</t>
@@ -4928,7 +4928,7 @@
     <t>erika.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>BEpCa1Ax</t>
+    <t>oY?/zbF2</t>
   </si>
   <si>
     <t>GOMEZ BARRERA JUNIOR LENIN</t>
@@ -4937,7 +4937,7 @@
     <t>junior.gomez@espam.edu.ec</t>
   </si>
   <si>
-    <t>YTIX8NAF</t>
+    <t>aCmAYwTe</t>
   </si>
   <si>
     <t>LOOR CEDEÑO RICARDO EMANUEL</t>
@@ -4946,7 +4946,7 @@
     <t>ricardo.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>2T1wj2bQ</t>
+    <t>qarptx1x</t>
   </si>
   <si>
     <t>LOOR LUCAS EVELYN GUADALUPE</t>
@@ -4958,7 +4958,7 @@
     <t>evelyn.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>clcI?9W5</t>
+    <t>?tmhsWzr</t>
   </si>
   <si>
     <t>LOOR VELASCO FABIANA BELEN</t>
@@ -4970,7 +4970,7 @@
     <t>fabiana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>N60t!93E</t>
+    <t>nCRClwwo</t>
   </si>
   <si>
     <t>MARTINEZ CEDEÑO JENIFFER ESTEFANIA</t>
@@ -4979,7 +4979,7 @@
     <t>jeniffer.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>5A7jGpkY</t>
+    <t>/pUxRhXf</t>
   </si>
   <si>
     <t>MENDOZA BARRE EDDY ENMANUEL</t>
@@ -4988,7 +4988,7 @@
     <t>eddy.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;/Ml56PT</t>
+    <t>1SBJiWov</t>
   </si>
   <si>
     <t>MURILLO PALACIOS ULICES JAIR</t>
@@ -4997,7 +4997,7 @@
     <t>ulices.murillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>HFu5t!K?</t>
+    <t>jiuNZPNi</t>
   </si>
   <si>
     <t>QUIJANO ZAMBRANO JONATHAN ERNESTO</t>
@@ -5006,7 +5006,7 @@
     <t>jonathan.quijano@espam.edu.ec</t>
   </si>
   <si>
-    <t>SdK8cHop</t>
+    <t>Nb!Nx3tB</t>
   </si>
   <si>
     <t>ROBLES YORI EFRAIN DAVID</t>
@@ -5015,7 +5015,7 @@
     <t>efrain.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>hz44gi!T</t>
+    <t>ImYLGJJ?</t>
   </si>
   <si>
     <t>SABANDO ZAMBRANO FREDDY ANTONIO</t>
@@ -5024,7 +5024,7 @@
     <t>freddy.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>l8b&amp;B!34</t>
+    <t>!GynVIjN</t>
   </si>
   <si>
     <t>SOLORZANO GUERRERO RONALDO WANDERLEY</t>
@@ -5033,7 +5033,7 @@
     <t>ronaldo.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>lSMVlK4G</t>
+    <t>6qNGeRhd</t>
   </si>
   <si>
     <t>VELEZ CALDERON GENESIS MARIANA</t>
@@ -5045,7 +5045,7 @@
     <t>genesis.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>sT#ufrt#</t>
+    <t>eaqh0q5o</t>
   </si>
   <si>
     <t>ZAMBRANO BALDA JOSE RAMIRO</t>
@@ -5054,7 +5054,7 @@
     <t>josera.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>mtJEX??0</t>
+    <t>K#9yU4ss</t>
   </si>
   <si>
     <t>ZAMBRANO CANTOS YENNY ANNABEL</t>
@@ -5063,7 +5063,7 @@
     <t>yenny.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>NnG49P3q</t>
+    <t>yte6SxDT</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR CRISTHIAN LEONARDO</t>
@@ -5072,7 +5072,7 @@
     <t>cristhian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ofnPo6MD</t>
+    <t>!0IBtgv9</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR DIANA STEFANIA</t>
@@ -5081,7 +5081,7 @@
     <t>dianas.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>T8e6xEqp</t>
+    <t>XdRU9Nef</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR MARIA EMILIA</t>
@@ -5090,7 +5090,7 @@
     <t>maria.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>r6ozJXTZ</t>
+    <t>Z4JE5cO9</t>
   </si>
   <si>
     <t>ZAMBRANO MOREIRA LEONELA ALEJANDRA</t>
@@ -5099,7 +5099,7 @@
     <t>leonela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>fP/y!P4h</t>
+    <t>AuTw5Xm?</t>
   </si>
   <si>
     <t>ALAVA ORTIZ EDWIN ALEXANDER</t>
@@ -5108,7 +5108,7 @@
     <t>edwin.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vn5NgPv!</t>
+    <t>Livl&amp;UN0</t>
   </si>
   <si>
     <t>ALCIVAR LOOR GEMA LISBETH</t>
@@ -5117,7 +5117,7 @@
     <t>gemal.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>9LPeNrQL</t>
+    <t>e#BGLiuB</t>
   </si>
   <si>
     <t>AVELLAN SANTANA GENESIS NICOLLE</t>
@@ -5126,7 +5126,7 @@
     <t>genesis.avellan@espam.edu.ec</t>
   </si>
   <si>
-    <t>78kgXsWT</t>
+    <t>1o?5CGgG</t>
   </si>
   <si>
     <t>CALDERON SANCHEZ SANDY KATHERINE</t>
@@ -5138,7 +5138,7 @@
     <t>sandy.calderon@espam.edu.ec</t>
   </si>
   <si>
-    <t>4AoyyFxe</t>
+    <t>A6!pPdTW</t>
   </si>
   <si>
     <t>CARDENAS ASTUDILLO ANGELA JULIANA</t>
@@ -5150,7 +5150,7 @@
     <t>angela.cardenas@espam.edu.ec</t>
   </si>
   <si>
-    <t>P2ZOf?sX</t>
+    <t>lg6z&amp;aOr</t>
   </si>
   <si>
     <t>CARRILLO PACHAY MARCO STEVE</t>
@@ -5159,7 +5159,7 @@
     <t>marco.carrillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>mTkqI?yS</t>
+    <t>zjbkzjnc</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO BRYAN ISIDRO</t>
@@ -5168,7 +5168,7 @@
     <t>bryan.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>u/dUieWL</t>
+    <t>NH2aGYUF</t>
   </si>
   <si>
     <t>CEVALLOS SALTOS ANTHONY FERNANDO</t>
@@ -5177,7 +5177,7 @@
     <t>anthonyf.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>xL!j0Aur</t>
+    <t>x8MfJbzm</t>
   </si>
   <si>
     <t>CHANG ZAMBRANO MARTHA YAMILETH</t>
@@ -5186,7 +5186,7 @@
     <t>martha.chang@espam.edu.ec</t>
   </si>
   <si>
-    <t>dYB!OQKk</t>
+    <t>vAji5gj?</t>
   </si>
   <si>
     <t>CHIRIBOGA FARIAS LUIS FERNANDO</t>
@@ -5195,7 +5195,7 @@
     <t>luis.chiriboga@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zt0BWTVX</t>
+    <t>qFg1rNc4</t>
   </si>
   <si>
     <t>ESPINOZA PILAY JERSON JOSE</t>
@@ -5204,7 +5204,7 @@
     <t>jerson.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>CqAtzdfQ</t>
+    <t>0S9nL3E7</t>
   </si>
   <si>
     <t>FARIAS MERA MAURICIO ANDRES</t>
@@ -5213,7 +5213,7 @@
     <t>mauricio.farias@espam.edu.ec</t>
   </si>
   <si>
-    <t>A&amp;uXjqgD</t>
+    <t>7a0noiWs</t>
   </si>
   <si>
     <t>HERNANDEZ GONZALEZ JAMILEX KAREY</t>
@@ -5225,7 +5225,7 @@
     <t>jamilex.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>afS?nNrE</t>
+    <t>1jTAg7k!</t>
   </si>
   <si>
     <t>LEONES FALCONES ABAD JHOAN</t>
@@ -5234,7 +5234,7 @@
     <t>abad.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>aGaGfpal</t>
+    <t>oikD/5o2</t>
   </si>
   <si>
     <t>LOOR CEVALLOS ANA MARIA</t>
@@ -5243,7 +5243,7 @@
     <t>anama.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>DRy5waUz</t>
+    <t>ZRI/GFyq</t>
   </si>
   <si>
     <t>LOOR LOOR RONALD POLIVIO</t>
@@ -5252,7 +5252,7 @@
     <t>ronald.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>x?kftP#y</t>
+    <t>eWIfBPCf</t>
   </si>
   <si>
     <t>LOOR REYES GENESIS JAMILETH</t>
@@ -5261,7 +5261,7 @@
     <t>genesis.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>egEYtPkm</t>
+    <t>TxoTdysr</t>
   </si>
   <si>
     <t>MACIAS BRAVO RICARDO FRANCISCO</t>
@@ -5270,7 +5270,7 @@
     <t>ricardo.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zk0nvRHp</t>
+    <t>QV/o#4ib</t>
   </si>
   <si>
     <t>MACIAS MACIAS LISSETH LILIBETH</t>
@@ -5279,7 +5279,7 @@
     <t>lisseth.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xl&amp;YxDd8</t>
+    <t>K&amp;fYgfku</t>
   </si>
   <si>
     <t>MANZABA CEDEÑO KEVIN ALBERTO</t>
@@ -5288,7 +5288,7 @@
     <t>kevin.manzaba@espam.edu.ec</t>
   </si>
   <si>
-    <t>68rS8H/U</t>
+    <t>93QJgV8u</t>
   </si>
   <si>
     <t>MARQUEZ LEMA NAYELI SABRINA</t>
@@ -5297,7 +5297,7 @@
     <t>nayeli.marquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>h4L#19QP</t>
+    <t>84rgV0wz</t>
   </si>
   <si>
     <t>MENDOZA BRIONES MARIUXI KATHERINE</t>
@@ -5309,7 +5309,7 @@
     <t>mariuxi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>/vlsZ/Sq</t>
+    <t>kNHv&amp;i8P</t>
   </si>
   <si>
     <t>MOLINA CEDEÑO JUAN DE DIOS</t>
@@ -5318,7 +5318,7 @@
     <t>juan.molina@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mu56oxPi</t>
+    <t>uEsUndpw</t>
   </si>
   <si>
     <t>MONTESDEOCA GARCIA YUDID ALEXANDRA</t>
@@ -5327,7 +5327,7 @@
     <t>yudid.montesdeoca@espam.edu.ec</t>
   </si>
   <si>
-    <t>#qnARxF7</t>
+    <t>osgfobTq</t>
   </si>
   <si>
     <t>MUÑOZ MERA JUAN PABLO</t>
@@ -5336,7 +5336,7 @@
     <t>juan.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>KJ1dzMhE</t>
+    <t>17HlwF/L</t>
   </si>
   <si>
     <t>NAVARRETE ORMAZA ERICK ALEXANDER</t>
@@ -5345,7 +5345,7 @@
     <t>erick.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>#dIrigDe</t>
+    <t>n1miT1Zq</t>
   </si>
   <si>
     <t>OCAMPO BARRE ANTHONY VICENTE</t>
@@ -5354,7 +5354,7 @@
     <t>anthony.ocampo@espam.edu.ec</t>
   </si>
   <si>
-    <t>5!nihOfu</t>
+    <t>DCWYPmtG</t>
   </si>
   <si>
     <t>PARRALES FALCONES ANTHONY LEONARDO</t>
@@ -5363,7 +5363,7 @@
     <t>anthony.parrales@espam.edu.ec</t>
   </si>
   <si>
-    <t>b6mDEPAX</t>
+    <t>5SHWGzvU</t>
   </si>
   <si>
     <t>RAMOS SALTOS NICOLE PAOLA</t>
@@ -5372,7 +5372,7 @@
     <t>nicole.ramos@espam.edu.ec</t>
   </si>
   <si>
-    <t>t2d1GsJh</t>
+    <t>jZpBzlJV</t>
   </si>
   <si>
     <t>ROBLES MOLINA JENIFFER STEFANIA</t>
@@ -5381,7 +5381,7 @@
     <t>jeniffer.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>zQ!rwkfh</t>
+    <t>5LkUl&amp;vT</t>
   </si>
   <si>
     <t>RODRIGUEZ CAMPOS JEAN KATHERINE</t>
@@ -5390,7 +5390,7 @@
     <t>jean.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>TjNM/CEr</t>
+    <t>oBX?eYjF</t>
   </si>
   <si>
     <t>SANCHEZ MEDINA GISSEL STEPHANIE</t>
@@ -5399,7 +5399,7 @@
     <t>gissel.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>rGshWoQ3</t>
+    <t>jCVB!PKD</t>
   </si>
   <si>
     <t>VASQUEZ VERA ARGENIS JAVIER</t>
@@ -5408,7 +5408,7 @@
     <t>argenis.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>gymbrXsg</t>
+    <t>wREmVM#T</t>
   </si>
   <si>
     <t>VASQUEZ VERA MARIA MERCEDES</t>
@@ -5417,7 +5417,7 @@
     <t>maria.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>HTS!OClX</t>
+    <t>MD6pXzR&amp;</t>
   </si>
   <si>
     <t>VELEZ MERA JOSSELYN JOSSENKA</t>
@@ -5426,7 +5426,7 @@
     <t>josselynjo.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>sJnq826V</t>
+    <t>nW3Vk1A3</t>
   </si>
   <si>
     <t>VELEZ PALACIOS STEVEN RAMON</t>
@@ -5435,7 +5435,7 @@
     <t>steven.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>8ot#7GnX</t>
+    <t>S9dv#Ywq</t>
   </si>
   <si>
     <t>VERA BRAVO MARY LAURA</t>
@@ -5444,7 +5444,7 @@
     <t>mary.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>gPE18seb</t>
+    <t>tt5DivNG</t>
   </si>
   <si>
     <t>VILLAMIL VALENCIA ISABEL ANDREA</t>
@@ -5453,7 +5453,7 @@
     <t>isabel.villamil@espam.edu.ec</t>
   </si>
   <si>
-    <t>WCTYaPx!</t>
+    <t>Dk!blnLR</t>
   </si>
   <si>
     <t>ZAMBRANO COBEÑA PABLO ALBERTO</t>
@@ -5462,7 +5462,7 @@
     <t>pablo.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;D3AHoM6</t>
+    <t>&amp;BUCe#uP</t>
   </si>
   <si>
     <t>ALVAREZ INTRIAGO MAILIN KATHERINE</t>
@@ -5471,7 +5471,7 @@
     <t>mailin.alvarez@espam.edu.ec</t>
   </si>
   <si>
-    <t>rm2dJ1#!</t>
+    <t>fGajkvGh</t>
   </si>
   <si>
     <t>BRAVO ARTEAGA RICARDO JAVIER</t>
@@ -5480,7 +5480,7 @@
     <t>ricardo.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>?Xk1IPs4</t>
+    <t>u5GO6mFY</t>
   </si>
   <si>
     <t>BRAVO VERGARA GEMA CAROLINA</t>
@@ -5489,7 +5489,7 @@
     <t>gemac.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>0E!ibH9#</t>
+    <t>QT5p#LTI</t>
   </si>
   <si>
     <t>CEDEÑO VELASQUEZ GEMA GUADALUPE</t>
@@ -5498,7 +5498,7 @@
     <t>gemag.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>#rDK&amp;0xy</t>
+    <t>evbI?tPN</t>
   </si>
   <si>
     <t>CHAVEZ VELIZ DENIS ALEXANDER</t>
@@ -5507,7 +5507,7 @@
     <t>denis.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>k5nru6u7</t>
+    <t>SEOPT#r5</t>
   </si>
   <si>
     <t>DEMERA ZAMBRANO JACKSON ANDRES</t>
@@ -5516,7 +5516,7 @@
     <t>jackson.demera@espam.edu.ec</t>
   </si>
   <si>
-    <t>btFBHTvE</t>
+    <t>OcwjsEjO</t>
   </si>
   <si>
     <t>GANCHOZO LECTONG GRESSILLE GUISSELLA</t>
@@ -5525,7 +5525,7 @@
     <t>gressille.ganchozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>fN2oirQB</t>
+    <t>dYXTqe5U</t>
   </si>
   <si>
     <t>INDIO ZAMBRANO ODALIS MICHELLE</t>
@@ -5537,7 +5537,7 @@
     <t>odalis.indio@espam.edu.ec</t>
   </si>
   <si>
-    <t>3kQu/UlY</t>
+    <t>W!H4OYwN</t>
   </si>
   <si>
     <t>INTRIAGO TERAN BRYAN ASDRUBAL</t>
@@ -5546,7 +5546,7 @@
     <t>bryan.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>8Q20QuXt</t>
+    <t>?DV?3/JQ</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO GISSELA KAROLINA</t>
@@ -5555,7 +5555,7 @@
     <t>gissela.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>eZMnE5Lf</t>
+    <t>azYUTt6U</t>
   </si>
   <si>
     <t>LEONES SOLORZANO YARITZA DANIELA</t>
@@ -5564,7 +5564,7 @@
     <t>yaritza.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>n&amp;u8QtaC</t>
+    <t>WqS1vAa&amp;</t>
   </si>
   <si>
     <t>LOPEZ MORA JOSSELYN AMARILYS</t>
@@ -5573,7 +5573,7 @@
     <t>josselyn.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>b8!WMsXk</t>
+    <t>?pzB/C8N</t>
   </si>
   <si>
     <t>MERA LOOR ANTONY ELIAN</t>
@@ -5582,7 +5582,7 @@
     <t>antony.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>o8qFrSJ!</t>
+    <t>9lLdbd7h</t>
   </si>
   <si>
     <t>MERA SABANDO GEMA YAMILETH</t>
@@ -5591,7 +5591,7 @@
     <t>gema.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>vAwzr9AK</t>
+    <t>f!ju91bG</t>
   </si>
   <si>
     <t>MIRANDA IBARRA ALFONSO SEBASTIAN</t>
@@ -5600,7 +5600,7 @@
     <t>alfonso.miranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>QXhvE66?</t>
+    <t>yNQNrZYx</t>
   </si>
   <si>
     <t>MONGE ERAZO JECSY PIERINA</t>
@@ -5609,7 +5609,7 @@
     <t>jecsy.monge@espam.edu.ec</t>
   </si>
   <si>
-    <t>HHCE#V0?</t>
+    <t>d2WYlve7</t>
   </si>
   <si>
     <t>ROMERO ORTEGA ANGEL ANDRES</t>
@@ -5618,7 +5618,7 @@
     <t>angel.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>86?fPXQ4</t>
+    <t>faiunFgJ</t>
   </si>
   <si>
     <t>SOLORZANO INTRIAGO OSCAR FABIAN</t>
@@ -5630,7 +5630,7 @@
     <t>oscar.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>uACyAwin</t>
+    <t>dHW01F1i</t>
   </si>
   <si>
     <t>VALVERDE ZAPATA KATHIUSCA CARLOTA</t>
@@ -5642,7 +5642,7 @@
     <t>kathiusca.valverde@espam.edu.ec</t>
   </si>
   <si>
-    <t>0YWKWadI</t>
+    <t>XLUcU1dF</t>
   </si>
   <si>
     <t>VERA AYALA GENESIS LISBETH</t>
@@ -5651,7 +5651,7 @@
     <t>genesis.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>S#fLVVTx</t>
+    <t>qtshGR9/</t>
   </si>
   <si>
     <t>VERA PULIDO MARIA IVANNA</t>
@@ -5660,7 +5660,7 @@
     <t>mariai.verap@espam.edu.ec</t>
   </si>
   <si>
-    <t>ggJUhGfQ</t>
+    <t>YM/DsdzU</t>
   </si>
   <si>
     <t>VERA ZAMBRANO JAZMIN CAROLINA</t>
@@ -5669,7 +5669,7 @@
     <t>jazmin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>FngwVibk</t>
+    <t>aFcBsdpi</t>
   </si>
   <si>
     <t>VERGARA ARBOLEDA WENDY DEL ROCIO</t>
@@ -5681,7 +5681,7 @@
     <t>wendy.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>mbRINPkG</t>
+    <t>c5PbNFj/</t>
   </si>
   <si>
     <t>VILLAMAR GONZALEZ ELENA SAMANTA</t>
@@ -5690,7 +5690,7 @@
     <t>elena.villamar@espam.edu.ec</t>
   </si>
   <si>
-    <t>EC8VRN&amp;Y</t>
+    <t>0Bnq04WX</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR GENESIS VALENTINA</t>
@@ -5699,7 +5699,7 @@
     <t>genesis.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>6ONzXTbp</t>
+    <t>l0dEDVRT</t>
   </si>
   <si>
     <t>ZAMBRANO CHAVEZ ANDREA MONSERRATE</t>
@@ -5708,7 +5708,7 @@
     <t>andream.zambranoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z5/u2NNg</t>
+    <t>My4jnfRX</t>
   </si>
   <si>
     <t>ZAMBRANO GRACIA DANIELA ANGELINA</t>
@@ -5717,7 +5717,7 @@
     <t>daniela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>JSxx!?Kt</t>
+    <t>dcX7BHM8</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ WILLY JHONAY</t>
@@ -5726,7 +5726,7 @@
     <t>willy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>/o&amp;WvD&amp;g</t>
+    <t>uliqZlbO</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO TATIANA ELIZABETH</t>
@@ -5735,7 +5735,7 @@
     <t>tatianael.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>BUfJTak!</t>
+    <t>7Nk3H&amp;W5</t>
   </si>
 </sst>
 </file>

--- a/public/storage/seeds/datosPassword.xlsx
+++ b/public/storage/seeds/datosPassword.xlsx
@@ -44,7 +44,7 @@
     <t>angie.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>TljGPb!J</t>
+    <t>nUrcCNb9</t>
   </si>
   <si>
     <t>ALCIVAR VERA KARLA MILENA</t>
@@ -53,7 +53,7 @@
     <t>karla.alcivar.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lt5X0W7x</t>
+    <t>q8RdTBIf</t>
   </si>
   <si>
     <t>ALVIA ROCA HENRY ISAAC</t>
@@ -65,7 +65,7 @@
     <t>henry.alvia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>9S1eT8cQ</t>
+    <t>iEZlvSmx</t>
   </si>
   <si>
     <t>ANANGONO GOMEZ ANA MARCELA</t>
@@ -74,7 +74,7 @@
     <t>ana.anangono.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>x9dDVEC4</t>
+    <t>4WUYvr4o</t>
   </si>
   <si>
     <t>BRAVO MARCILLO NATHALY SILVANA</t>
@@ -86,7 +86,7 @@
     <t>nathaly.bravo.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>S3ogIVjN</t>
+    <t>pZIwjql!</t>
   </si>
   <si>
     <t>BRIONES SUAREZ DANIA MELISSA</t>
@@ -95,7 +95,7 @@
     <t>dania.briones.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZD0jrXhZ</t>
+    <t>SP8ssJpm</t>
   </si>
   <si>
     <t>CANCHINGRE LOZA MARIANA DE JESUS</t>
@@ -107,7 +107,7 @@
     <t>mariana.canchingre.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>YC1KNuPy</t>
+    <t>0h/8i/r?</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA EMILY JAHAIRA</t>
@@ -116,7 +116,7 @@
     <t>emily.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>tJ#BY5QZ</t>
+    <t>xuV3hwI4</t>
   </si>
   <si>
     <t>CEDEÑO VELEZ STEVEN ANTONIO</t>
@@ -125,7 +125,7 @@
     <t>steven.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>0T?hmN2X</t>
+    <t>MpK?LRS5</t>
   </si>
   <si>
     <t>CHICA ORDOÑEZ YAIZA ANAHI</t>
@@ -134,7 +134,7 @@
     <t>yaiza.chica.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>6!YbMZBF</t>
+    <t>EEO/OEUP</t>
   </si>
   <si>
     <t>CORONEL MERO DAMARY SABRINA</t>
@@ -143,7 +143,7 @@
     <t>damary.coronel.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>owgiWrAl</t>
+    <t>zTPHiEDN</t>
   </si>
   <si>
     <t>DELGADO BENAVIDES MELISSA ANDREINA</t>
@@ -152,7 +152,7 @@
     <t>melissa.delgado.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ay#OSvxh</t>
+    <t>jHVD3oik</t>
   </si>
   <si>
     <t>DELGADO SOLORZANO TONY DAMIAN</t>
@@ -161,7 +161,7 @@
     <t>tony.delgado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>QHrIMQk?</t>
+    <t>2LRQw0gF</t>
   </si>
   <si>
     <t>ELENO GENDE JOSELYN KATHERINE</t>
@@ -173,7 +173,7 @@
     <t>joselyn.eleno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>4X#N0Je6</t>
+    <t>4t8ThygO</t>
   </si>
   <si>
     <t>GARCIA RIVERA ANGHELA LISBETH</t>
@@ -185,7 +185,7 @@
     <t>anghela.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>QOSjXxn&amp;</t>
+    <t>mMhC3b?v</t>
   </si>
   <si>
     <t>GARCIA ROSS PRISCILA TAHILY</t>
@@ -194,7 +194,7 @@
     <t>priscila.garcia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>k0x2GVr#</t>
+    <t>?gs5/#qi</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO MARILYN MICHEL</t>
@@ -203,7 +203,7 @@
     <t>marilyn.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>i#FMcYMI</t>
+    <t>Rlklw10!</t>
   </si>
   <si>
     <t>LUCAS MENDOZA MOISES NOE</t>
@@ -212,7 +212,7 @@
     <t>moises.lucas.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Dj2v42Y9</t>
+    <t>1Je3EcOP</t>
   </si>
   <si>
     <t>MANTUANO LOOR JENIFER DANIELA</t>
@@ -221,7 +221,7 @@
     <t>jenifer.mantuano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>kEKYN#&amp;3</t>
+    <t>Ex/vaavl</t>
   </si>
   <si>
     <t>MENENDEZ SANTANA JOSMELY ANAHI</t>
@@ -230,7 +230,7 @@
     <t>josmely.menendez.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>zU2NgbJ#</t>
+    <t>XvY5SBEG</t>
   </si>
   <si>
     <t>MEZA ESPINOZA MISHEL NICOL</t>
@@ -239,7 +239,7 @@
     <t>mishel.meza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>9OiJOidl</t>
+    <t>6hoJl3/0</t>
   </si>
   <si>
     <t>MORANTE TROYA JAIME ANDRES</t>
@@ -248,7 +248,7 @@
     <t>jaime.morante.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>xCgUT#6/</t>
+    <t>iexTynq9</t>
   </si>
   <si>
     <t>PARRAGA MOREIRA CINDY ANDREA</t>
@@ -257,7 +257,7 @@
     <t>cindy.parraga.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>T4LQwrc!</t>
+    <t>g6HI94B0</t>
   </si>
   <si>
     <t>PEÑAFIEL VALENCIA JULEISY LISBETH</t>
@@ -269,7 +269,7 @@
     <t>juleisy.penafiel.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZVZ5dan7</t>
+    <t>LqzIFGK/</t>
   </si>
   <si>
     <t>PICO CRIOLLO MILETH KATHERINE</t>
@@ -278,7 +278,7 @@
     <t>mileth.pico.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Irl7#/5D</t>
+    <t>prY#MPs6</t>
   </si>
   <si>
     <t>RENDON GILER JUNIOR ARIEL</t>
@@ -287,7 +287,7 @@
     <t>junior.rendon@espam.edu.ec</t>
   </si>
   <si>
-    <t>DsqP?gij</t>
+    <t>!2PhTXil</t>
   </si>
   <si>
     <t>SALVATIERRA SANTOS BRYAN ALEJANDRO</t>
@@ -296,7 +296,7 @@
     <t>bryan.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>52HYrK?V</t>
+    <t>iWQ/Qd7J</t>
   </si>
   <si>
     <t>SOLORZANO LUCAS ALEXANDER JOEL</t>
@@ -308,7 +308,7 @@
     <t>alexander.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>TNMUMgPt</t>
+    <t>g9Y1evQC</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ DAYANA NICOLLE</t>
@@ -317,7 +317,7 @@
     <t>dayanna.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>M2?Aryyv</t>
+    <t>/hn8Qpua</t>
   </si>
   <si>
     <t>TENORIO QUINTERO ELY GILMAR</t>
@@ -329,7 +329,7 @@
     <t>ely.tenorio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>9UmHKPku</t>
+    <t>zxLjid#x</t>
   </si>
   <si>
     <t>VELASQUEZ DOMINGUEZ JORDAN RICARDO</t>
@@ -338,7 +338,7 @@
     <t>jordan.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>nodHeI3?</t>
+    <t>2ge3tX0r</t>
   </si>
   <si>
     <t>VILLAVICENCIO SALVADOR MELANIE HELLAIM</t>
@@ -350,7 +350,7 @@
     <t>melanie.villavicencio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>7kGR6Pl9</t>
+    <t>!x9JS71t</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO ANGELO ALEXANDER</t>
@@ -359,7 +359,7 @@
     <t>angelo.zambrano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>1MPTlpnw</t>
+    <t>ExP6ezea</t>
   </si>
   <si>
     <t>ZAMBRANO VALENCIA SHIRLEY EDITH</t>
@@ -368,7 +368,7 @@
     <t>shirley.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>WGzPOIUT</t>
+    <t>sEQP5?IN</t>
   </si>
   <si>
     <t>ANGEL GOMEZ GILENY NAHOMY</t>
@@ -380,7 +380,7 @@
     <t>gileny.angel.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>vRCnN&amp;&amp;y</t>
+    <t>sO51j9S9</t>
   </si>
   <si>
     <t>BARRE QUIJANO DARWIN JOSE</t>
@@ -389,7 +389,7 @@
     <t>darwin.barre@espam.edu.ec</t>
   </si>
   <si>
-    <t>WcaMxFt9</t>
+    <t>#plUJPqD</t>
   </si>
   <si>
     <t>BRAVO ALVAREZ EMILY JESUS</t>
@@ -398,7 +398,7 @@
     <t>emily.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>AcD#0gyZ</t>
+    <t>4jfe9dKS</t>
   </si>
   <si>
     <t>CAGUA YOONG NAHOMY JAMILETH</t>
@@ -407,7 +407,7 @@
     <t>nahomy.cagua.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>rJl9OTyL</t>
+    <t>2VKSIK8#</t>
   </si>
   <si>
     <t>CASTILLO CEDEÑO EMILIA MARICELA</t>
@@ -416,7 +416,7 @@
     <t>emilia.castillo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>fFTqIgiS</t>
+    <t>jdyjGBvm</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO JOSE DANIEL</t>
@@ -425,7 +425,7 @@
     <t>jose.cedenoz.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>H095kcHL</t>
+    <t>0InqPHqS</t>
   </si>
   <si>
     <t>CIFUENTES VELASQUEZ JOSE JAHIR</t>
@@ -434,7 +434,7 @@
     <t>jose.cifuentes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>KW2xFdyj</t>
+    <t>i3t?&amp;dWf</t>
   </si>
   <si>
     <t>CONFORME CIFUENTES ROBERTH JESUS</t>
@@ -443,7 +443,7 @@
     <t>roberth.conforme.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>y4uP&amp;uUj</t>
+    <t>aipw8PGR</t>
   </si>
   <si>
     <t>CORDERO GILER SALMA PAOLA</t>
@@ -452,7 +452,7 @@
     <t>salma.cordero.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;8&amp;0CMxK</t>
+    <t>bDJ?B6lQ</t>
   </si>
   <si>
     <t>FARIAS VELIZ RENE OCTAVIO</t>
@@ -461,7 +461,7 @@
     <t>rene.farias.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>p&amp;/#dLtI</t>
+    <t>6&amp;1oKUQg</t>
   </si>
   <si>
     <t>GARCIA DUEÑAS JEAN FERNANDO</t>
@@ -470,7 +470,7 @@
     <t>jean.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ch179eZb</t>
+    <t>ezVeLxga</t>
   </si>
   <si>
     <t>HERRERA BASURTO IVIS ANTONELLA</t>
@@ -479,7 +479,7 @@
     <t>ivis.herrera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>NOfg3XOq</t>
+    <t>4w?VXUvT</t>
   </si>
   <si>
     <t>HIDALGO LOOR MARLYN NALLELY</t>
@@ -488,7 +488,7 @@
     <t>marlyn.hidalgo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>oCp1?6Vi</t>
+    <t>ggOtm8g1</t>
   </si>
   <si>
     <t>IBARRA CHAVARRIA JUAN DIEGO</t>
@@ -497,7 +497,7 @@
     <t>juan.ibarra.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>tYDLtbI?</t>
+    <t>ApioZ3CX</t>
   </si>
   <si>
     <t>JAYA ZAPATA VICTOR EDUARDO</t>
@@ -506,7 +506,7 @@
     <t>victor.jaya.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>TTd#2QGo</t>
+    <t>iLq2wvUa</t>
   </si>
   <si>
     <t>LOOR DELGADO JERRY JOEL</t>
@@ -515,7 +515,7 @@
     <t>jerry.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>iRfH7En5</t>
+    <t>gcSnG5mT</t>
   </si>
   <si>
     <t>MANTUANO PONCE MELANY MONCERRATE</t>
@@ -524,7 +524,7 @@
     <t>melany.mantuano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>bhcfAi33</t>
+    <t>XrLapmY9</t>
   </si>
   <si>
     <t>MENDOZA VASQUEZ ARIEL ALEXIS</t>
@@ -536,7 +536,7 @@
     <t>ariel.mendoza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>7y0/PiGo</t>
+    <t>?tfc9e8T</t>
   </si>
   <si>
     <t>MOREIRA GARCIA MACARIO EMANUEL</t>
@@ -545,7 +545,7 @@
     <t>macario.moreira.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>M9PP7uKQ</t>
+    <t>Z1fetBKl</t>
   </si>
   <si>
     <t>MOREIRA GILCES GABRIELA NIKOL</t>
@@ -554,7 +554,7 @@
     <t>gabriela.moreira.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>AIey#qpL</t>
+    <t>taJw!Ma5</t>
   </si>
   <si>
     <t>NOBOA MONTESDEOCA INGRITH MADELEYN</t>
@@ -563,7 +563,7 @@
     <t>ingrith.noboa.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>cQEthjax</t>
+    <t>&amp;7/Wy7nX</t>
   </si>
   <si>
     <t>ORDOÑEZ ALCIVAR ALEX PAUL</t>
@@ -572,7 +572,7 @@
     <t>alex.ordonez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>AwE7HesE</t>
+    <t>AHPz!GQR</t>
   </si>
   <si>
     <t>PALMA GARCIA MELYN JARITZA</t>
@@ -581,7 +581,7 @@
     <t>melyn.palma.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>8DzduI8r</t>
+    <t>RiiEpJwZ</t>
   </si>
   <si>
     <t>PAREDES MERO GHISLAINE ANAHI</t>
@@ -590,7 +590,7 @@
     <t>ghislaine.paredes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>yJ2Zv&amp;Wc</t>
+    <t>3LCXFGlz</t>
   </si>
   <si>
     <t>QUIJIJE PIANDA XIOMARA MISHELLE</t>
@@ -602,7 +602,7 @@
     <t>xiomara.quijije.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>M/clJI21</t>
+    <t>IR1ylfGo</t>
   </si>
   <si>
     <t>SALAVARRIA AVEIGA YULIANA GUADALUPE</t>
@@ -611,7 +611,7 @@
     <t>yuliana.salavarria.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Bs2omIai</t>
+    <t>TPpNKYqF</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR JAIR SEBASTIAN</t>
@@ -620,7 +620,7 @@
     <t>jair.santos.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Wv!!Qp2</t>
+    <t>uAkbrSYO</t>
   </si>
   <si>
     <t>SOLORZANO CANDELA JARITZA NOHEMY</t>
@@ -629,7 +629,7 @@
     <t>jaritza.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>OA27zb4M</t>
+    <t>&amp;&amp;e58K71</t>
   </si>
   <si>
     <t>VERA CEBALLOS MARIA CONCEPCION</t>
@@ -638,7 +638,7 @@
     <t>maria.vera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>PstFd1Mh</t>
+    <t>F9#JrR6l</t>
   </si>
   <si>
     <t>ALAVA MUÑOZ BILL JARVI</t>
@@ -647,7 +647,7 @@
     <t>bill.alava.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q8ySTGkF</t>
+    <t>/vNvEfoZ</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO ESTHER JOMARA</t>
@@ -656,7 +656,7 @@
     <t>esther.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>hqSS4uM0</t>
+    <t>FsrI1YrF</t>
   </si>
   <si>
     <t>ALMEIDA LOOR MARIA VICTORIA</t>
@@ -665,7 +665,7 @@
     <t>maria.almeida.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Fw4d1xZN</t>
+    <t>uRrTG31Q</t>
   </si>
   <si>
     <t>ANDRADE VILLAVICENCIO PABLO HUGO</t>
@@ -674,7 +674,7 @@
     <t>pablo.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZfWHrF8n</t>
+    <t>!Q&amp;4jTO8</t>
   </si>
   <si>
     <t>AVENDAÑO YZQUIERDO ADRIANA ISABEL</t>
@@ -686,7 +686,7 @@
     <t>adriana.avendano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>JIL2I?2s</t>
+    <t>nVrirrEr</t>
   </si>
   <si>
     <t>BALUARTE PARRAGA MAYERLY NARCISA</t>
@@ -698,7 +698,7 @@
     <t>mayerly.baluarte.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>0dzOjRrd</t>
+    <t>IZ7hG8YD</t>
   </si>
   <si>
     <t>BARRE CASTAÑEDA MAYERLI SOLANGE</t>
@@ -710,7 +710,7 @@
     <t>mayerli.barre.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>lRnb3JG2</t>
+    <t>X?TAKyWM</t>
   </si>
   <si>
     <t>BERMEO MENDOZA LESLY JULIETT</t>
@@ -719,7 +719,7 @@
     <t>lesly.bermeo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>UTUmfKkL</t>
+    <t>1jmElz2o</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO DANA KATIUSKA</t>
@@ -728,7 +728,7 @@
     <t>dana.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>CizY8a9k</t>
+    <t>clVKre6v</t>
   </si>
   <si>
     <t>CEDEÑO ALVARADO JORGE LUIS</t>
@@ -737,7 +737,7 @@
     <t>jorge.cedeno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>pJtscjCF</t>
+    <t>!EnYv?Ao</t>
   </si>
   <si>
     <t>DOMINGUEZ ANGEL ANAIS ZULEYMA</t>
@@ -749,7 +749,7 @@
     <t>anais.dominguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>sxbCpXel</t>
+    <t>wNrTvjdK</t>
   </si>
   <si>
     <t>ESPARZA TELLO ERICKA MARIA</t>
@@ -761,7 +761,7 @@
     <t>ericka.esparza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>c?yG9VAB</t>
+    <t>Z78#dqS/</t>
   </si>
   <si>
     <t>GRAIN MARCILLO MICHAEL JOSUE</t>
@@ -770,7 +770,7 @@
     <t>michael.grain.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;j3o46n&amp;</t>
+    <t>UfxD8pkZ</t>
   </si>
   <si>
     <t>JAMA ZAMBRANO ROBERTH XAVIER</t>
@@ -779,7 +779,7 @@
     <t>roberth.jama@espam.edu.ec</t>
   </si>
   <si>
-    <t>smzitlO#</t>
+    <t>I0BmgqZY</t>
   </si>
   <si>
     <t>LARA BONE ANGIE NICOLE</t>
@@ -791,7 +791,7 @@
     <t>angie.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>x0t0voOZ</t>
+    <t>q!CC7arJ</t>
   </si>
   <si>
     <t>LOPEZ DELGADO DAYANA NICOLLE</t>
@@ -800,7 +800,7 @@
     <t>dayana.lopez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FqiwFgfI</t>
+    <t>tdp5wprS</t>
   </si>
   <si>
     <t>MELO CENTENO HELEN SOFIA</t>
@@ -809,7 +809,7 @@
     <t>helen.melo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>fi&amp;F0z5c</t>
+    <t>G67eE/uv</t>
   </si>
   <si>
     <t>MENDOZA ORTEGA ANGELO DANIEL</t>
@@ -818,7 +818,7 @@
     <t>angelo.mendoza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>G39#Nf?4</t>
+    <t>SP7vmaij</t>
   </si>
   <si>
     <t>MERO CARRILLO EMELY MILENA</t>
@@ -827,7 +827,7 @@
     <t>emely.mero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ruhYR8zx</t>
+    <t>hczOz/?a</t>
   </si>
   <si>
     <t>MITE MENENDEZ GEORGE ISAAC</t>
@@ -836,7 +836,7 @@
     <t>george.mite.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>bglMl612</t>
+    <t>hv!XE0o9</t>
   </si>
   <si>
     <t>MONCAYO CAGUA LADY NOHELIA</t>
@@ -845,7 +845,7 @@
     <t>lady.moncayo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>D79ePRre</t>
+    <t>sWmsZiN8</t>
   </si>
   <si>
     <t>ORMAZA ALCIVAR NOHELIA MILENA</t>
@@ -854,7 +854,7 @@
     <t>nohelia.ormaza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>zze&amp;964#</t>
+    <t>t2aFF893</t>
   </si>
   <si>
     <t>PANTA CANDELA YONNY ALEXANDER</t>
@@ -863,7 +863,7 @@
     <t>jonny.panta.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>3ZQnUw9u</t>
+    <t>bpANiJRA</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA YAJAIRA NICOLE</t>
@@ -872,7 +872,7 @@
     <t>yajaira.quinatoa.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>RpD!DZch</t>
+    <t>pV4TSzoC</t>
   </si>
   <si>
     <t>REYNA RAMIREZ SINDY MAHOLY</t>
@@ -881,7 +881,7 @@
     <t>sindy.reyna.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>#9jXG9hi</t>
+    <t>G1KzXYOT</t>
   </si>
   <si>
     <t>RODRIGUEZ ANCHUNDIA LUIS FERNANDO</t>
@@ -890,7 +890,7 @@
     <t>luis.rodriguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>UaobGrCN</t>
+    <t>L8fQwQIR</t>
   </si>
   <si>
     <t>SABANDO TUAREZ MILENA BLANCA</t>
@@ -899,7 +899,7 @@
     <t>milena.sabando.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>sB4bFIOq</t>
+    <t>Fy1pgmd3</t>
   </si>
   <si>
     <t>SALAZAR RAMIREZ YARITZA GABRIELA</t>
@@ -908,7 +908,7 @@
     <t>yaritza.salazar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>PmX5GJ41</t>
+    <t>Zt&amp;ctIjo</t>
   </si>
   <si>
     <t>SHIGUANGO AGUINDA KATTY MIRELLA</t>
@@ -917,7 +917,7 @@
     <t>katty.shiguango.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>zAsg09r#</t>
+    <t>9QaMDL2r</t>
   </si>
   <si>
     <t>VACA MORALES JOSE EDUARDO</t>
@@ -926,7 +926,7 @@
     <t>jose.vaca.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>I2I44LPN</t>
+    <t>rngCo0nS</t>
   </si>
   <si>
     <t>VELASQUEZ MEJIA ARIANNA ELIZABETH</t>
@@ -935,7 +935,7 @@
     <t>arianna.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>i?09#IpN</t>
+    <t>pVDva1Qb</t>
   </si>
   <si>
     <t>VELEZ CEDEÑO YANDRY ALAIN</t>
@@ -944,7 +944,7 @@
     <t>yandry.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>zg3m3?1g</t>
+    <t>acK9T&amp;Uc</t>
   </si>
   <si>
     <t>VERA ZAMORA DIXON YAIR</t>
@@ -953,7 +953,7 @@
     <t>dixon.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>FybI2OQo</t>
+    <t>jAtfmWIg</t>
   </si>
   <si>
     <t>ZAMBRANO FORTIS RICARDO MIGUEL</t>
@@ -962,7 +962,7 @@
     <t>ricardo.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>v0g5HMLb</t>
+    <t>5DifwVrS</t>
   </si>
   <si>
     <t>ALVARADO DUEÑAS KARELYS VANESSA</t>
@@ -971,7 +971,7 @@
     <t>karelys.alvarado.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>k!WsKR5L</t>
+    <t>IemCoGzQ</t>
   </si>
   <si>
     <t>ANDRADE ILES ALVIERY JAHIR</t>
@@ -983,7 +983,7 @@
     <t>alviery.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FAuxz7nU</t>
+    <t>cC7PWJk3</t>
   </si>
   <si>
     <t>ARTEAGA RAMOS DIEGO ALEJANDRO</t>
@@ -992,7 +992,7 @@
     <t>diego.arteaga.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>?nwNAMXx</t>
+    <t>NpwYvLUd</t>
   </si>
   <si>
     <t>BARREIRO INTRIAGO STEFANY PIERINA</t>
@@ -1001,7 +1001,7 @@
     <t>stefany.barreiro.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>8aqECHyH</t>
+    <t>bXFloR0l</t>
   </si>
   <si>
     <t>BRAVO QUINTERO SARA NICOLE</t>
@@ -1013,7 +1013,7 @@
     <t>sara.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>YgKj/c1a</t>
+    <t>NarcLCcq</t>
   </si>
   <si>
     <t>CABALLERO MUÑOZ STEVEN FABRICIO</t>
@@ -1022,7 +1022,7 @@
     <t>steven.caballero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>mf93LatA</t>
+    <t>pWzMNid0</t>
   </si>
   <si>
     <t>CARRASCO VERA LUCAS JOSUE</t>
@@ -1031,7 +1031,7 @@
     <t>lucas.carrasco.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BpfB3cdZ</t>
+    <t>cwO#WL6U</t>
   </si>
   <si>
     <t>CEDEÑO MURILLO KENNER STEVEN</t>
@@ -1040,7 +1040,7 @@
     <t>kenner.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>SCYCLzc4</t>
+    <t>9MO9?908</t>
   </si>
   <si>
     <t>CUERO PAZMIÑO EMMANUEL JOSUE</t>
@@ -1049,7 +1049,7 @@
     <t>emmanuel.cuero.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>JFYz!1X/</t>
+    <t>AqXpus3C</t>
   </si>
   <si>
     <t>LADINES CASTRO MIRKA DARLISHA</t>
@@ -1061,7 +1061,7 @@
     <t>mirka.ladines.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>39u22VSs</t>
+    <t>#fl!eUw&amp;</t>
   </si>
   <si>
     <t>LARA FRANCO MICHAEL ARGEL</t>
@@ -1073,7 +1073,7 @@
     <t>michael.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>jwH/VXDU</t>
+    <t>t9?Eck19</t>
   </si>
   <si>
     <t>LEYTHON QUIÑONEZ JEIMY SILVANA</t>
@@ -1085,7 +1085,7 @@
     <t>jeimy.leython.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>loAfh6Y9</t>
+    <t>TXtBS5uz</t>
   </si>
   <si>
     <t>LOOR LOOR GENESIS DANIELA</t>
@@ -1094,7 +1094,7 @@
     <t>genesis.loor.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>83cPMo2A</t>
+    <t>9JFgD?Vr</t>
   </si>
   <si>
     <t>MATAMBA GUANGA THALIA VALERIA</t>
@@ -1106,7 +1106,7 @@
     <t>thalia.matamba.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>XZLbBneY</t>
+    <t>PNf57uqQ</t>
   </si>
   <si>
     <t>MENDOZA DE LA CRUZ MARTHA DANIELA</t>
@@ -1115,7 +1115,7 @@
     <t>martha.mendoza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z5d!Ilbx</t>
+    <t>At9qiiFr</t>
   </si>
   <si>
     <t>MINOTA BORJA ALEXANDER JAHIR</t>
@@ -1127,7 +1127,7 @@
     <t>alexander.minota.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>IJsiLzfq</t>
+    <t>Y9rZ4yVe</t>
   </si>
   <si>
     <t>NAVIA LOOR JOSE EFRAIN</t>
@@ -1136,7 +1136,7 @@
     <t>jose.navia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>drgZZpt4</t>
+    <t>Pdj224?k</t>
   </si>
   <si>
     <t>PILATAXI UTRERAS KATHERIN JULIETH</t>
@@ -1145,7 +1145,7 @@
     <t>katherin.pilataxi.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>z1snOG85</t>
+    <t>mixo&amp;/?y</t>
   </si>
   <si>
     <t>PINARGOTE CARREÑO FELIX JOEL</t>
@@ -1154,7 +1154,7 @@
     <t>felix.pinargote.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>pFL5PMfV</t>
+    <t>#?EH4Qo3</t>
   </si>
   <si>
     <t>PONCE ZAMBRANO ARIANA JESSENIA</t>
@@ -1163,7 +1163,7 @@
     <t>ariana.ponce.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#?3Usksi</t>
+    <t>2Medbw4H</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA KELLY MARIUXI</t>
@@ -1172,7 +1172,7 @@
     <t>kelly.quinatoa.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>HhcqNC7#</t>
+    <t>gAhtGziX</t>
   </si>
   <si>
     <t>ROSADO ROSADO JOEL JESUS</t>
@@ -1181,7 +1181,7 @@
     <t>joel.rosado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>oYbqgNJu</t>
+    <t>gln/BDXB</t>
   </si>
   <si>
     <t>SANMARTIN TAPIA CARMEN EDITH</t>
@@ -1190,7 +1190,7 @@
     <t>carmen.sanmartin.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>s?hhrFo0</t>
+    <t>i6R2ADnW</t>
   </si>
   <si>
     <t>SAYAY DAGUA JOSELYN NICOL</t>
@@ -1202,7 +1202,7 @@
     <t>joselyn.sayay.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>wlHQ&amp;v2m</t>
+    <t>vW6IIP/1</t>
   </si>
   <si>
     <t>SOLORZANO PAZMIÑO DECCY DANIELA</t>
@@ -1211,7 +1211,7 @@
     <t>deccy.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>kgYxxkwL</t>
+    <t>eJxcRPvA</t>
   </si>
   <si>
     <t>VERGARA ZAMBRANO MATIAS ALEXANDER</t>
@@ -1220,7 +1220,7 @@
     <t>matias.vergara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>DZVnte0k</t>
+    <t>rBT4OOt5</t>
   </si>
   <si>
     <t>ZAMBRANO INTRIAGO FRAYDA JESSENIA</t>
@@ -1229,7 +1229,7 @@
     <t>frayda.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>grYmvxmm</t>
+    <t>PvzEeREd</t>
   </si>
   <si>
     <t>ZAMBRANO VALAREZO ANDREA LISBETH</t>
@@ -1238,7 +1238,7 @@
     <t>andrea.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>u/Nj8wxG</t>
+    <t>aDy/43#J</t>
   </si>
   <si>
     <t>AGUAS MARTINEZ KEVIN SNAIDER</t>
@@ -1247,7 +1247,7 @@
     <t>kevin.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>W8i&amp;mIgL</t>
+    <t>tOF12jSK</t>
   </si>
   <si>
     <t>ANDRADE GARCIA LUZ CRUCELINA</t>
@@ -1256,7 +1256,7 @@
     <t>luz.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>eeyng6L/</t>
+    <t>7?C1SFEq</t>
   </si>
   <si>
     <t>BARBERAN MERO HELEN ADRIANA</t>
@@ -1265,7 +1265,7 @@
     <t>helen.barberan.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>3qpOfc60</t>
+    <t>w!hPvc1j</t>
   </si>
   <si>
     <t>BARROS ZAMBRANO DANIEL ANGEL</t>
@@ -1274,7 +1274,7 @@
     <t>daniel.barros.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ip003IHF</t>
+    <t>d1XYGu/&amp;</t>
   </si>
   <si>
     <t>BASURTO ZAMBRANO CARLOS RAUL</t>
@@ -1283,7 +1283,7 @@
     <t>carlos.basurto.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>#yV8UFQ6</t>
+    <t>/aDu6LmL</t>
   </si>
   <si>
     <t>BRAVO BRAVO ANTHONY ADEMIR</t>
@@ -1292,7 +1292,7 @@
     <t>anthony.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YVagFYzT</t>
+    <t>9VwKq048</t>
   </si>
   <si>
     <t>CANTOS VERA ANGELA AUXILIADORA</t>
@@ -1301,7 +1301,7 @@
     <t>angela.cantos.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>4JG#dgwp</t>
+    <t>8nGqeiCV</t>
   </si>
   <si>
     <t>CASTRO BOLAÑO FANNY TATIANA</t>
@@ -1310,7 +1310,7 @@
     <t>fanny.castro.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>DsJLSQUh</t>
+    <t>7Q/3YsLv</t>
   </si>
   <si>
     <t>CASTRO SALTOS MATTEWS FARID</t>
@@ -1319,7 +1319,7 @@
     <t>mattews.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>mDWo6A67</t>
+    <t>U1lKXz0l</t>
   </si>
   <si>
     <t>CHANCAY RADE ANTONY GABRIEL</t>
@@ -1328,7 +1328,7 @@
     <t>antony.chancay@espam.edu.ec</t>
   </si>
   <si>
-    <t>lR/QO2&amp;1</t>
+    <t>HkHZLEey</t>
   </si>
   <si>
     <t>COBEÑA GARCIA YOMAYRA ALEXANDRA</t>
@@ -1337,7 +1337,7 @@
     <t>yomayra.cobena.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>2jepQb#v</t>
+    <t>s1!ed6Gj</t>
   </si>
   <si>
     <t>CRUZ ERAZO JOSE MIGUEL</t>
@@ -1346,7 +1346,7 @@
     <t>jose.cruz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>KYNJinNI</t>
+    <t>lvOiRRKN</t>
   </si>
   <si>
     <t>GARCIA ANDRADE MARIA ROSA</t>
@@ -1355,7 +1355,7 @@
     <t>maria.garcia.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>qvEgI3QH</t>
+    <t>QsEMXy2d</t>
   </si>
   <si>
     <t>HERNANDEZ LOPEZ LUIS DAVID</t>
@@ -1364,7 +1364,7 @@
     <t>luis.hernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zl3#NFYQ</t>
+    <t>R2ucEWnL</t>
   </si>
   <si>
     <t>LEON FUENTES JONATHAN ALBINO</t>
@@ -1376,7 +1376,7 @@
     <t>jonathan.leon.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>JhB7o&amp;gP</t>
+    <t>z/d#WW9p</t>
   </si>
   <si>
     <t>MACIAS ANCHUNDIA ROBERTO CARLOS</t>
@@ -1385,7 +1385,7 @@
     <t>roberto.macias.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>0kI!3xw7</t>
+    <t>iXssLqKd</t>
   </si>
   <si>
     <t>MAZA AGREDA KAREN IBETH</t>
@@ -1394,7 +1394,7 @@
     <t>karen.maza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>oI#elq#g</t>
+    <t>Xfsvg&amp;4V</t>
   </si>
   <si>
     <t>MUÑOZ MERA LITZY ALEJANDRA</t>
@@ -1403,7 +1403,7 @@
     <t>litzy.munoz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qo?rWy3d</t>
+    <t>vBydWsdL</t>
   </si>
   <si>
     <t>MUÑOZ MOLINA ANDRY FABIAN</t>
@@ -1412,7 +1412,7 @@
     <t>andry.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>A4J&amp;MDcV</t>
+    <t>9ViMNxKa</t>
   </si>
   <si>
     <t>ORMAZA VALENCIA KEVIN JAVIER</t>
@@ -1424,7 +1424,7 @@
     <t>kevin.ormaza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>2uBVjScc</t>
+    <t>jN1vGoXx</t>
   </si>
   <si>
     <t>PAZMIÑO PINCAY NAYELLY AGUSTINA</t>
@@ -1433,7 +1433,7 @@
     <t>nayelly.pazmino.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>o5kGZkF7</t>
+    <t>?lJ9BC3y</t>
   </si>
   <si>
     <t>POZO PONCE DANNY IVAN</t>
@@ -1442,7 +1442,7 @@
     <t>danny.pozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>yQssEjnF</t>
+    <t>75mBJmB6</t>
   </si>
   <si>
     <t>QUIJANO MEZA MARIANA LISETH</t>
@@ -1451,7 +1451,7 @@
     <t>mariana.quijano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>MQAGCMbV</t>
+    <t>PN#HKSI1</t>
   </si>
   <si>
     <t>QUIÑONEZ AÑAPA RODRIGO MANUEL</t>
@@ -1463,7 +1463,7 @@
     <t>rodrigo.quinonez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>JNNG0zyY</t>
+    <t>iF/VuoUu</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR KELVIN YOEL</t>
@@ -1472,7 +1472,7 @@
     <t>kelvin.santos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>QSem5i&amp;X</t>
+    <t>L7XB6Q!3</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ SANDY</t>
@@ -1481,7 +1481,7 @@
     <t>sandy.solorzano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>f1Np3JN/</t>
+    <t>kcmcAj#P</t>
   </si>
   <si>
     <t>TOALA PIN ARIEL ALEJANDRO</t>
@@ -1493,7 +1493,7 @@
     <t>ariel.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>yKScYKfb</t>
+    <t>m?!lC&amp;Yl</t>
   </si>
   <si>
     <t>VEGA INTRIAGO MIGUEL ANGEL</t>
@@ -1502,7 +1502,7 @@
     <t>miguel.vega.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>rY&amp;ImCr6</t>
+    <t>ZxtXgpBO</t>
   </si>
   <si>
     <t>VELASQUEZ RODRIGUEZ GEMA BELEN</t>
@@ -1511,7 +1511,7 @@
     <t>gema.velasquez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>er!hTmOD</t>
+    <t>owx5xd/d</t>
   </si>
   <si>
     <t>VERA MENDOZA MARIA VICTORIA</t>
@@ -1520,7 +1520,7 @@
     <t>maria.veram.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>?QaBaHWy</t>
+    <t>&amp;!gVIkga</t>
   </si>
   <si>
     <t>VERA PALACIOS JORDANO SAUL</t>
@@ -1529,7 +1529,7 @@
     <t>jordano.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>nMb&amp;l70G</t>
+    <t>j0zMGZmy</t>
   </si>
   <si>
     <t>ZAMBRANO MERA VALENTINA MONSERRATE</t>
@@ -1538,7 +1538,7 @@
     <t>valentina.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>E&amp;ufpBPu</t>
+    <t>?vVmIc0g</t>
   </si>
   <si>
     <t>ZAMBRANO QUIMI JUAN GEORGE</t>
@@ -1550,7 +1550,7 @@
     <t>juan.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>5hVJVhCP</t>
+    <t>xkr3OJN7</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO GEOMAYRA KATHERINE</t>
@@ -1562,7 +1562,7 @@
     <t>geomayra.alcivar.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>5GHepQUX</t>
+    <t>HtbqmFQr</t>
   </si>
   <si>
     <t>ANDRADE CASTILLO CLAUDIA VICTORIA</t>
@@ -1571,7 +1571,7 @@
     <t>claudia.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>3DcXDoju</t>
+    <t>WKpDaFjQ</t>
   </si>
   <si>
     <t>ANGUISACA CUENCA ALEXANDRA CECIBEL</t>
@@ -1580,7 +1580,7 @@
     <t>alexandra.anguisaca.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>moI316wQ</t>
+    <t>fNJBGaRJ</t>
   </si>
   <si>
     <t>BARIAS GUARACA LESLY NAYHELY</t>
@@ -1589,7 +1589,7 @@
     <t>lesly.barias.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>SBtR3j4U</t>
+    <t>ipb8!Qk3</t>
   </si>
   <si>
     <t>BARROS VERA ANGEL DAVID</t>
@@ -1598,7 +1598,7 @@
     <t>angel.barros.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XYr?3XfD</t>
+    <t>do9ePTaI</t>
   </si>
   <si>
     <t>BAZURTO SANTOS KENNIA KATHERINE</t>
@@ -1607,7 +1607,7 @@
     <t>kennia.bazurto.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>2Wk#ACqQ</t>
+    <t>L97h8upH</t>
   </si>
   <si>
     <t>BRAVO BAZURTO GISSELA MARIA</t>
@@ -1616,7 +1616,7 @@
     <t>gissela.bravo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>fGi1MEYM</t>
+    <t>KN7q!/sJ</t>
   </si>
   <si>
     <t>BUSTAMANTE YANEZ ANTHONY MICHEL</t>
@@ -1625,7 +1625,7 @@
     <t>anthony.bustamante.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>SDU&amp;B/jz</t>
+    <t>BOSV#tEt</t>
   </si>
   <si>
     <t>CASTRO SOLORZANO NIURKA JULIANA</t>
@@ -1634,7 +1634,7 @@
     <t>niurka.castro.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>dwzjPDdm</t>
+    <t>Nj5D4XSQ</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO YOHANA VANESA</t>
@@ -1643,7 +1643,7 @@
     <t>yohana.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Kdl6cDW9</t>
+    <t>6u7SkgB7</t>
   </si>
   <si>
     <t>CEDEÑO INTRIAGO JEAN PIERRE</t>
@@ -1652,7 +1652,7 @@
     <t>jean.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>7ZkCa45n</t>
+    <t>OHp1XU0H</t>
   </si>
   <si>
     <t>DELGADO CEVALLOS MARIA JOSE</t>
@@ -1661,7 +1661,7 @@
     <t>maria.delgado.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>kgjV8t/U</t>
+    <t>l2yUqy4p</t>
   </si>
   <si>
     <t>ERAZO MORALES GABRIELA ALEJANDRA</t>
@@ -1670,7 +1670,7 @@
     <t>gabriela.erazo.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>9kBWYF9I</t>
+    <t>5TkqFXWa</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO LUIS JOSE</t>
@@ -1679,7 +1679,7 @@
     <t>luis.intriagoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>83AyyRhI</t>
+    <t>EFNQh5Dm</t>
   </si>
   <si>
     <t>LOOR ORTIZ YORDY DAVID</t>
@@ -1688,7 +1688,7 @@
     <t>yordy.loor.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9HjVOJvk</t>
+    <t>pCbWtBQ5</t>
   </si>
   <si>
     <t>LOZANO GAMEZ THALIA VANESSA</t>
@@ -1700,7 +1700,7 @@
     <t>thalia.lozano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mx/LiS!w</t>
+    <t>g&amp;ZUB#cv</t>
   </si>
   <si>
     <t>MONTES RODRIGUEZ ROLANDO ANTONIO</t>
@@ -1709,7 +1709,7 @@
     <t>rolando.montes.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>mWqHd63c</t>
+    <t>Lun2sJy9</t>
   </si>
   <si>
     <t>PALMA RENDON ARGENIS ARTURO</t>
@@ -1718,7 +1718,7 @@
     <t>argenis.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>rafRa05O</t>
+    <t>l2skmBKU</t>
   </si>
   <si>
     <t>PAREDES YUMBILLO KATTY MARGOTH</t>
@@ -1730,7 +1730,7 @@
     <t>katty.paredes.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>XQAsovqT</t>
+    <t>aS4d/vOj</t>
   </si>
   <si>
     <t>PARRALES DELGADO ALAN SEBASTIAN</t>
@@ -1739,7 +1739,7 @@
     <t>alan.parrales.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>fBvdyEQz</t>
+    <t>NVHEU#v7</t>
   </si>
   <si>
     <t>PATA CEDEÑO ROSA JUANA</t>
@@ -1751,7 +1751,7 @@
     <t>rosa.pata.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>VSGYN4Kg</t>
+    <t>zb&amp;LFMN3</t>
   </si>
   <si>
     <t>RETETE BASARAN KEVIN ALEXANDER</t>
@@ -1760,7 +1760,7 @@
     <t>kevin.retete.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>HweFFfk8</t>
+    <t>F9V62Qf8</t>
   </si>
   <si>
     <t>ROMAN MACIAS ESTEFANIA ISABEL</t>
@@ -1769,7 +1769,7 @@
     <t>estefania.roman.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!27Q05iX</t>
+    <t>/&amp;Q?Zivu</t>
   </si>
   <si>
     <t>SANDOVAL UREÑA FERNANDA DAYANARA</t>
@@ -1781,7 +1781,7 @@
     <t>fernanda.sandoval.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>YsUwMHB0</t>
+    <t>rM9LLLht</t>
   </si>
   <si>
     <t>SUBIAGA RAMOS LUIS ALEJANDRO</t>
@@ -1790,7 +1790,7 @@
     <t>luis.subiaga.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>tdG0zOl3</t>
+    <t>zoZINYLC</t>
   </si>
   <si>
     <t>VELASQUEZ AVEIGA MARIA JESUS</t>
@@ -1799,7 +1799,7 @@
     <t>maria.velasquez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>E6va!f1h</t>
+    <t>!g7hv4xn</t>
   </si>
   <si>
     <t>VELEZ CHEME JORDAN ESTEBAN</t>
@@ -1811,7 +1811,7 @@
     <t>jordan.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>dO/2c#/j</t>
+    <t>opR4Z!98</t>
   </si>
   <si>
     <t>VELEZ MENDOZA DARWIN ALEXIS</t>
@@ -1820,7 +1820,7 @@
     <t>darwin.velez.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>KYQhXxKo</t>
+    <t>MdgZneN9</t>
   </si>
   <si>
     <t>VERA BARRE RONNY ARISTIDES</t>
@@ -1829,7 +1829,7 @@
     <t>ronny.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>T3AKeqxS</t>
+    <t>xOKCKmxb</t>
   </si>
   <si>
     <t>ZAMBRANO MACIAS DIEGO ANDRES</t>
@@ -1838,7 +1838,7 @@
     <t>diego.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>LD2WX5Gh</t>
+    <t>Zd&amp;cH#C#</t>
   </si>
   <si>
     <t>ZAMBRANO REYNA YERSY ENRIQUE</t>
@@ -1847,7 +1847,7 @@
     <t>yersy.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>rv1R1zEk</t>
+    <t>ut4OSe?4</t>
   </si>
   <si>
     <t>CARDENAS MIELES CRISTHYAN ALBERTO</t>
@@ -1856,7 +1856,7 @@
     <t>cristhyan.cardenas.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>/lE/Zj3a</t>
+    <t>!F?&amp;pXPm</t>
   </si>
   <si>
     <t>CASTRO CARRERA JUAN CARLOS</t>
@@ -1865,7 +1865,7 @@
     <t>juan.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>kONbiCKA</t>
+    <t>qKg0mTih</t>
   </si>
   <si>
     <t>CHAVEZ MIRANDA ANTHONY MIGUEL</t>
@@ -1874,7 +1874,7 @@
     <t>anthony.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>eEiS#O13</t>
+    <t>BXUGtTwO</t>
   </si>
   <si>
     <t>CUSME ZAMBRANO MICHAEL RICHARD</t>
@@ -1883,7 +1883,7 @@
     <t>michael.cusme.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Sv6r1YM6</t>
+    <t>zNe3yQ0h</t>
   </si>
   <si>
     <t>GILER SALAZAR CARLOS IGNACIO</t>
@@ -1892,7 +1892,7 @@
     <t>carlos.giler@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z2K8zZcW</t>
+    <t>4UOi4Vid</t>
   </si>
   <si>
     <t>HERNANDEZ DIAZ MARIA JOSE</t>
@@ -1904,7 +1904,7 @@
     <t>maria.hernandez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>e3CGfgp!</t>
+    <t>9QCT79ro</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA ESTELA NATHALY</t>
@@ -1913,7 +1913,7 @@
     <t>estela.hidalgo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>kpKZWb3?</t>
+    <t>ksGLJQip</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA PIERINA NATHALY</t>
@@ -1922,7 +1922,7 @@
     <t>pierina.hidalgo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>2YfN3c4J</t>
+    <t>JEWZrFWZ</t>
   </si>
   <si>
     <t>LARA QUIJIJE PAMELA JULISSA</t>
@@ -1931,7 +1931,7 @@
     <t>pamela.lara.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>1QgS89Si</t>
+    <t>bxnhniGK</t>
   </si>
   <si>
     <t>LOOR PITIZACA FRANK ALLAN</t>
@@ -1940,7 +1940,7 @@
     <t>frank.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>eCrWAfHb</t>
+    <t>#UgsINej</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO GEMA STEFANIA</t>
@@ -1949,7 +1949,7 @@
     <t>gema.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>cY5uZ3pY</t>
+    <t>ej29T05#</t>
   </si>
   <si>
     <t>PALACIOS TAPIA CESAR XAVIER</t>
@@ -1958,7 +1958,7 @@
     <t>cesar.palacios.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>hODZcy8z</t>
+    <t>6suz2wi0</t>
   </si>
   <si>
     <t>PEÑARRETA LANCHE PILAR MICAELA</t>
@@ -1967,7 +1967,7 @@
     <t>pilar.penarreta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>bW7pXcNa</t>
+    <t>j3laRO&amp;v</t>
   </si>
   <si>
     <t>PILLASAGUA PINARGOTE INGRID MAYERLI</t>
@@ -1979,7 +1979,7 @@
     <t>ingrid.pillasagua.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>/yY?hGJR</t>
+    <t>j5UlTYdf</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO GEMA LISBETH</t>
@@ -1988,7 +1988,7 @@
     <t>gema.quijije.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>jwA&amp;lHTO</t>
+    <t>qpXDdNaA</t>
   </si>
   <si>
     <t>RUIZ ZAMBRANO VICTOR ANDRES</t>
@@ -1997,7 +1997,7 @@
     <t>victor.ruiz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>iueGnfAn</t>
+    <t>IC3Qe4/9</t>
   </si>
   <si>
     <t>SALTOS SALAZAR MAYERLY VERONICA</t>
@@ -2009,7 +2009,7 @@
     <t>mayerly.saltos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>j?DcFZ7g</t>
+    <t>fF0tyvU!</t>
   </si>
   <si>
     <t>SANTANA PALOMINO FRANKLIN JOHAO</t>
@@ -2018,7 +2018,7 @@
     <t>franklin.santana.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>f0ivVjlX</t>
+    <t>jfnF8#4G</t>
   </si>
   <si>
     <t>TAFFUR TOASA OLGA MARIA</t>
@@ -2027,7 +2027,7 @@
     <t>olga.taffur@espam.edu.ec</t>
   </si>
   <si>
-    <t>JecTsKqp</t>
+    <t>vhiw1eCb</t>
   </si>
   <si>
     <t>TOALA MACAY JOSSELYN VALERIA</t>
@@ -2036,7 +2036,7 @@
     <t>josselyn.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>MN1FV/P2</t>
+    <t>flKG/SBk</t>
   </si>
   <si>
     <t>VALLADARES ALCIVAR LUIS EDUARDO</t>
@@ -2045,7 +2045,7 @@
     <t>luis.valladares@espam.edu.ec</t>
   </si>
   <si>
-    <t>juBX3gqw</t>
+    <t>Y39svHsM</t>
   </si>
   <si>
     <t>VERA ZAMBRANO HILTER JOSSBEL</t>
@@ -2054,7 +2054,7 @@
     <t>hilter.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>/6N03gCU</t>
+    <t>4Hxohtgt</t>
   </si>
   <si>
     <t>VERGARA TABOADA ROMEL ALEXANDER</t>
@@ -2063,7 +2063,7 @@
     <t>romel.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>8pHjy/rr</t>
+    <t>7?evfeVZ</t>
   </si>
   <si>
     <t>ZAMBRANO RIVAS NALLELY LISBETH</t>
@@ -2072,7 +2072,7 @@
     <t>nallely.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>kg?6ZU1#</t>
+    <t>N6955FU&amp;</t>
   </si>
   <si>
     <t>ABAD MIRANDA KENYA ESTEFANIA</t>
@@ -2084,7 +2084,7 @@
     <t>kenya.abad.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>KjgNftul</t>
+    <t>EAsd39H/</t>
   </si>
   <si>
     <t>ALAVA MORENO MILTON ANTERO</t>
@@ -2093,7 +2093,7 @@
     <t>milton.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>64v?wQBq</t>
+    <t>m4Kr#XlH</t>
   </si>
   <si>
     <t>ALMEIDA CEDEÑO CINDY BELEN</t>
@@ -2102,7 +2102,7 @@
     <t>cindy.almeida.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>13RzvqBs</t>
+    <t>LqXXOuiV</t>
   </si>
   <si>
     <t>ANCHUNDIA VERA JUSTIN JOSE</t>
@@ -2111,7 +2111,7 @@
     <t>justin.anchundia.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>WnzzGV#I</t>
+    <t>mnDkIuiw</t>
   </si>
   <si>
     <t>AYONG PALADINES MARIA FERNANDA</t>
@@ -2120,7 +2120,7 @@
     <t>maria.ayong.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>q1Z/OwI!</t>
+    <t>fFWlPAlQ</t>
   </si>
   <si>
     <t>BRAVO CEVALLOS MELANY PIERINA</t>
@@ -2129,7 +2129,7 @@
     <t>melany.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>pIMBol#2</t>
+    <t>gjy&amp;Sh?L</t>
   </si>
   <si>
     <t>CASANOVA SALAZAR ROSEMBERG STEVEN</t>
@@ -2138,7 +2138,7 @@
     <t>rosemberg.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>J3Cd5RiZ</t>
+    <t>Fbn3mQSW</t>
   </si>
   <si>
     <t>FERNANDEZ TORRES JALENI SCARLETH</t>
@@ -2150,7 +2150,7 @@
     <t>jaleni.fernandez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>bidzS9!t</t>
+    <t>k3dI4n?U</t>
   </si>
   <si>
     <t>HERRERA SABANDO WILLIAMS ANDRES</t>
@@ -2159,7 +2159,7 @@
     <t>williams.herrera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>wIycipKr</t>
+    <t>VpZpwhW!</t>
   </si>
   <si>
     <t>LOPEZ PALADINES EDGAR JOSE</t>
@@ -2168,7 +2168,7 @@
     <t>edgar.lopez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>2W!hVMP5</t>
+    <t>MbqImmK7</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES LINCI YERLEY</t>
@@ -2177,7 +2177,7 @@
     <t>linci.medranda.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>JeS7dtIi</t>
+    <t>55ZZbHGZ</t>
   </si>
   <si>
     <t>MENDIETA GILER JORDY EDUARDO</t>
@@ -2186,7 +2186,7 @@
     <t>jordy.mendieta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>p47wLux#</t>
+    <t>E#0NNA7M</t>
   </si>
   <si>
     <t>MORENO VELIZ ALDRIN DAIRY</t>
@@ -2195,7 +2195,7 @@
     <t>aldrin.moreno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>muqKJeyA</t>
+    <t>a5XSHBD1</t>
   </si>
   <si>
     <t>MUÑOZ VERA GENESIS LOURDES</t>
@@ -2204,7 +2204,7 @@
     <t>genesis.munoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>aRyhDv9U</t>
+    <t>0nOAX#Xd</t>
   </si>
   <si>
     <t>PLAZA CHOEZ RODOLFO JEAMPIERRE</t>
@@ -2213,7 +2213,7 @@
     <t>rodolfo.plaza.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YqMehONv</t>
+    <t>4kIu0JcE</t>
   </si>
   <si>
     <t>PRECIADO MOREIRA PABLO ANTHONY</t>
@@ -2225,7 +2225,7 @@
     <t>pablo.preciado@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mp8k2dPN</t>
+    <t>gcaQ9WI9</t>
   </si>
   <si>
     <t>SABANDO SALCEDO GENESIS BETZABETH</t>
@@ -2237,7 +2237,7 @@
     <t>genesis.sabando.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>R3mD1kx5</t>
+    <t>YU7#PjTF</t>
   </si>
   <si>
     <t>SOLEDISPA ZAMBRANO CRISTHINA ISABELA</t>
@@ -2246,7 +2246,7 @@
     <t>cristhina.soledispa.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>hFfA1AUl</t>
+    <t>qRTQOrNg</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ EVELYN AGUSTINA</t>
@@ -2255,7 +2255,7 @@
     <t>evelyn.solorzanor@espam.edu.ec</t>
   </si>
   <si>
-    <t>k23l1e#o</t>
+    <t>YFqDYd5A</t>
   </si>
   <si>
     <t>VERA AGUAS KELVIN JEAN PIERRE</t>
@@ -2264,7 +2264,7 @@
     <t>kelvin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>RrKPuuAJ</t>
+    <t>/0VfnBUV</t>
   </si>
   <si>
     <t>VERA LOOR DENYS ESTEFANIA</t>
@@ -2273,7 +2273,7 @@
     <t>denys.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zYE!hJbp</t>
+    <t>!BlIN4XV</t>
   </si>
   <si>
     <t>VINCES PIN MARIA FERNANDA</t>
@@ -2282,7 +2282,7 @@
     <t>maria.vinces.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>setLXxIS</t>
+    <t>Mw6UK6Cx</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO MARIA BELEN</t>
@@ -2291,7 +2291,7 @@
     <t>mariab.zambranoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>bV!inkmS</t>
+    <t>X/uU2Mqm</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO DIANA ESTHER</t>
@@ -2300,7 +2300,7 @@
     <t>diana.alcivar.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>eZV1QDba</t>
+    <t>8/?n?UKj</t>
   </si>
   <si>
     <t>ALVAREZ BORJA ANGHELO JOSUE</t>
@@ -2309,7 +2309,7 @@
     <t>anghelo.alvarez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>#Fd2Qh!w</t>
+    <t>b99JoN5e</t>
   </si>
   <si>
     <t>BRAVO MENDOZA ALBERDY JAVIER</t>
@@ -2318,7 +2318,7 @@
     <t>alberdy.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>2ECOjhCx</t>
+    <t>vfsaCdtN</t>
   </si>
   <si>
     <t>GARCIA PARRAGA FATIMA MARIA</t>
@@ -2327,7 +2327,7 @@
     <t>fatima.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>QAT!LNpl</t>
+    <t>VRNtXXaS</t>
   </si>
   <si>
     <t>GRACIA PRATT WILINTON JOSUE</t>
@@ -2339,7 +2339,7 @@
     <t>wilinton.gracia.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>sJc685Xr</t>
+    <t>McZSh/jN</t>
   </si>
   <si>
     <t>MARRETT BEDOYA MISHELLE MARCELA</t>
@@ -2351,7 +2351,7 @@
     <t>mishelle.marrett.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>RyLfZbtV</t>
+    <t>LzhvRoB4</t>
   </si>
   <si>
     <t>MERA CASTILLO NATHALY VIRGINIA</t>
@@ -2360,7 +2360,7 @@
     <t>nathaly.mera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>hQKzx?nd</t>
+    <t>oPygF80P</t>
   </si>
   <si>
     <t>ROSERO VERA LUIS ANDRES</t>
@@ -2369,7 +2369,7 @@
     <t>luis.rosero@espam.edu.ec</t>
   </si>
   <si>
-    <t>4r#3GlGR</t>
+    <t>d4NxIdj#</t>
   </si>
   <si>
     <t>SANTISTEBAN BENAVIDES JOSUE ROMARIO</t>
@@ -2378,7 +2378,7 @@
     <t>josue.santisteban.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>qvmT5ziV</t>
+    <t>4A#RwEOD</t>
   </si>
   <si>
     <t>SOLORZANO CUSME GEMA JULIANA</t>
@@ -2387,7 +2387,7 @@
     <t>gemaju.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>VnP7?#d2</t>
+    <t>gWbE9#XM</t>
   </si>
   <si>
     <t>TORRES PINARGOTE MAHOLY</t>
@@ -2396,7 +2396,7 @@
     <t>maholy.torres.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ma1O/NRc</t>
+    <t>&amp;7KeHi06</t>
   </si>
   <si>
     <t>ZAMBRANO BRAVO LEANDRO ISMAEL</t>
@@ -2405,7 +2405,7 @@
     <t>leandro.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>5rlpjwDt</t>
+    <t>RQs!y!ED</t>
   </si>
   <si>
     <t>ZAMBRANO GARCIA HENRY ARTURO</t>
@@ -2414,7 +2414,7 @@
     <t>henry.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nVAGLqR3</t>
+    <t>CxUF!ylO</t>
   </si>
   <si>
     <t>BARRE PARRAGA BETSY BEATRIZ</t>
@@ -2423,7 +2423,7 @@
     <t>betsy.barre.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>hUtTl&amp;/m</t>
+    <t>i0m/s!tC</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO CAMILA PATRICIA</t>
@@ -2435,7 +2435,7 @@
     <t>camila.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/PJsx4gp</t>
+    <t>#AsoqI?Z</t>
   </si>
   <si>
     <t>CEDEÑO SOLORZANO ANTHONY STEVEN</t>
@@ -2444,7 +2444,7 @@
     <t>anthony.cedenos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>MVsXO#dS</t>
+    <t>2PwhQXr9</t>
   </si>
   <si>
     <t>CEDEÑO TUAREZ ANGIE LISSETTE</t>
@@ -2453,7 +2453,7 @@
     <t>angie.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>ETeKvv#c</t>
+    <t>nrH3m2hA</t>
   </si>
   <si>
     <t>CHAVEZ LANDAZURI JACKSON JAIR</t>
@@ -2465,7 +2465,7 @@
     <t>jackson.chavez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>h800dSx1</t>
+    <t>H3laLzwc</t>
   </si>
   <si>
     <t>CHICA MOREIRA MARIA FERNANDA</t>
@@ -2474,7 +2474,7 @@
     <t>maria.chica.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>7PAX2OLW</t>
+    <t>cvQlRVfk</t>
   </si>
   <si>
     <t>GARCIA ZAMBRANO WENDY YAMILETH</t>
@@ -2483,7 +2483,7 @@
     <t>wendy.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?luCI3f8</t>
+    <t>P7kuVBE0</t>
   </si>
   <si>
     <t>GARZON CEDEÑO FRANCESCO RUBEN</t>
@@ -2492,7 +2492,7 @@
     <t>francesco.garzon.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>I3s/Cda1</t>
+    <t>hZAcLtpW</t>
   </si>
   <si>
     <t>GUERRERO CEDEÑO MICHAEL JORDY</t>
@@ -2501,7 +2501,7 @@
     <t>michael.guerrero.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ku0E7JQA</t>
+    <t>dugrqLyl</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES CRISTHIAN JOSE</t>
@@ -2510,7 +2510,7 @@
     <t>cristhian.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>luSLVzTm</t>
+    <t>7WqEHaiO</t>
   </si>
   <si>
     <t>ORELLANA ANCHUNDIA JESUS MIGUEL</t>
@@ -2519,7 +2519,7 @@
     <t>jesus.orellana@espam.edu.ec</t>
   </si>
   <si>
-    <t>O1e7BHHX</t>
+    <t>HBmOX2A!</t>
   </si>
   <si>
     <t>ORTIZ GOMEZ EDUARDO ANDRES</t>
@@ -2528,7 +2528,7 @@
     <t>eduardo.ortiz@espam.edu.ec</t>
   </si>
   <si>
-    <t>bnxQK5ST</t>
+    <t>r#72f6X9</t>
   </si>
   <si>
     <t>PAZMIÑO MERA SHANDE ALEXANDER</t>
@@ -2537,7 +2537,7 @@
     <t>shande.pazmino.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>KQWiasJ&amp;</t>
+    <t>K1oHIynL</t>
   </si>
   <si>
     <t>PEÑARRIETA BAZURTO ERICK ANDRES</t>
@@ -2546,7 +2546,7 @@
     <t>erick.penarrieta@espam.edu.ec</t>
   </si>
   <si>
-    <t>xA5M#chR</t>
+    <t>&amp;nsUJIzz</t>
   </si>
   <si>
     <t>RIERA GAVILANES IZHURY MILLENYTH</t>
@@ -2558,7 +2558,7 @@
     <t>izhury.riera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>zccY3m&amp;I</t>
+    <t>MS8InhM?</t>
   </si>
   <si>
     <t>RIVERA CEDEÑO RIVALDO JOSE</t>
@@ -2570,7 +2570,7 @@
     <t>rivaldo.rivera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nq8F5Nqv</t>
+    <t>pyRY/AUr</t>
   </si>
   <si>
     <t>SALDARRIAGA ARTEAGA OMAIRA MARIBI</t>
@@ -2579,7 +2579,7 @@
     <t>omaira.saldarriaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>wzu8h0aM</t>
+    <t>!8#E2uAk</t>
   </si>
   <si>
     <t>SANDOVAL MERA NALLELY STEFANIA</t>
@@ -2588,7 +2588,7 @@
     <t>nallely.sandoval.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>H92nu68m</t>
+    <t>WiUxQyho</t>
   </si>
   <si>
     <t>SUQUI CANGO BRYAN EDUARDO</t>
@@ -2600,7 +2600,7 @@
     <t>bryan.suqui.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>#YxmG2zs</t>
+    <t>MoOEc?9Q</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO CARLOS ANDRES</t>
@@ -2609,7 +2609,7 @@
     <t>carlos.verduga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>5RBU?yeT</t>
+    <t>1CiX2A4b</t>
   </si>
   <si>
     <t>ZAMBRANO LARA MARVIN RENE</t>
@@ -2618,7 +2618,7 @@
     <t>marvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Tn8c9qGm</t>
+    <t>Qo8Wx2!J</t>
   </si>
   <si>
     <t>ZAMBRANO OBANDO KELVIN JOSUE</t>
@@ -2630,7 +2630,7 @@
     <t>kelvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>T2mCmvms</t>
+    <t>m?y4C5f2</t>
   </si>
   <si>
     <t>ZAPATA QUINCHE ANDREA CAROLINA</t>
@@ -2639,7 +2639,7 @@
     <t>andrea.zapata.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>fhxs94PK</t>
+    <t>4dI4b2pb</t>
   </si>
   <si>
     <t>ALMEIDA PEREZ ANGEL FERNANDO</t>
@@ -2648,7 +2648,7 @@
     <t>angel.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>j/cmKQJZ</t>
+    <t>l/dsm9LQ</t>
   </si>
   <si>
     <t>CEDEÑO PARRAGA MELANY NALLELY</t>
@@ -2657,7 +2657,7 @@
     <t>melany.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>V81J5fs1</t>
+    <t>CxxWlkA&amp;</t>
   </si>
   <si>
     <t>CEDEÑO SALVATIERRA JENIFFER ALEJANDRA</t>
@@ -2666,7 +2666,7 @@
     <t>jeniffer.cedenosal@espam.edu.ec</t>
   </si>
   <si>
-    <t>2kXlLaDx</t>
+    <t>IniPnXSw</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA SCHEZNARDA EDITH</t>
@@ -2675,7 +2675,7 @@
     <t>scheznarda.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>pZj?otJY</t>
+    <t>Cv2MIWh6</t>
   </si>
   <si>
     <t>GANCHOZO VELEZ EMILY JULEXY</t>
@@ -2684,7 +2684,7 @@
     <t>emily.ganchozo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>phYPkeS/</t>
+    <t>ANWXt6p&amp;</t>
   </si>
   <si>
     <t>LEON VIZÑAY ROQUE JAVIER</t>
@@ -2696,7 +2696,7 @@
     <t>roque.leon@espam.edu.ec</t>
   </si>
   <si>
-    <t>0yKgHIXI</t>
+    <t>PVvhtbfz</t>
   </si>
   <si>
     <t>LOOR LOOR EVELYN YAMILETH</t>
@@ -2705,7 +2705,7 @@
     <t>evelynya.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;LV38/mN</t>
+    <t>58jwHqa2</t>
   </si>
   <si>
     <t>LOOR MOREIRA MELANIE NOEMI</t>
@@ -2714,7 +2714,7 @@
     <t>melanie.loorm.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;lS/6cJH</t>
+    <t>zgIKGXvk</t>
   </si>
   <si>
     <t>LOPEZ ESTACIO ROSA ANGELICA</t>
@@ -2723,7 +2723,7 @@
     <t>rosa.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>T0dRM&amp;BN</t>
+    <t>FfhVvzkE</t>
   </si>
   <si>
     <t>MENDOZA MUÑOZ FLOR ANTONELA</t>
@@ -2732,7 +2732,7 @@
     <t>flor.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>5u4KVrQu</t>
+    <t>KXfPgIdK</t>
   </si>
   <si>
     <t>MERELO SOLORZANO NAIDELYN MISHELLE</t>
@@ -2741,7 +2741,7 @@
     <t>naidelyn.merelo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>aBqyK6PO</t>
+    <t>XIf#ohsi</t>
   </si>
   <si>
     <t>MOREIRA LOOR FABIAN ALEXANDER</t>
@@ -2750,7 +2750,7 @@
     <t>fabian.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>t0ewPE8E</t>
+    <t>7guxej&amp;R</t>
   </si>
   <si>
     <t>PAZMIÑO FALCONES JOSE MIGUEL</t>
@@ -2759,7 +2759,7 @@
     <t>jose.pazmino@espam.edu.ec</t>
   </si>
   <si>
-    <t>zocs2K4?</t>
+    <t>6zZwCSuC</t>
   </si>
   <si>
     <t>PEÑAFIEL PITA BRITHANNY MICAELA</t>
@@ -2771,7 +2771,7 @@
     <t>brithanny.penafiel.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>eAU1&amp;5mf</t>
+    <t>C8Ss6U/S</t>
   </si>
   <si>
     <t>PINTO PALACIOS JOSE ANTONIO</t>
@@ -2780,7 +2780,7 @@
     <t>jose.pinto@espam.edu.ec</t>
   </si>
   <si>
-    <t>#CioY!DU</t>
+    <t>3/Zhyfq!</t>
   </si>
   <si>
     <t>RENTERIA VALENCIA NEURYS GYSSELA</t>
@@ -2792,7 +2792,7 @@
     <t>neurys.renteria@espam.edu.ec</t>
   </si>
   <si>
-    <t>gKTf7lsQ</t>
+    <t>58nKYs9m</t>
   </si>
   <si>
     <t>RIVAS ZAMBRANO ALISSON KATIUSKA</t>
@@ -2801,7 +2801,7 @@
     <t>alisson.rivas.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>42sHjLz?</t>
+    <t>6aohZx&amp;N</t>
   </si>
   <si>
     <t>TORRES VARGAS KARELIS ANDREINA</t>
@@ -2813,7 +2813,7 @@
     <t>karelis.torres@espam.edu.ec</t>
   </si>
   <si>
-    <t>rxJ&amp;P!OK</t>
+    <t>aOr2#ddg</t>
   </si>
   <si>
     <t>VALDIVIESO CHUNG DANIEL JAFET</t>
@@ -2822,7 +2822,7 @@
     <t>daniel.valdivieso.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>bYinIEcr</t>
+    <t>nTXYICsg</t>
   </si>
   <si>
     <t>VASCONEZ GONZALEZ FRANCISCO ALESSIO</t>
@@ -2831,7 +2831,7 @@
     <t>francisco.vasconez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>w4KNkFAn</t>
+    <t>!zXn5PFi</t>
   </si>
   <si>
     <t>VELEZ ORTEGA BORIS ANDRES</t>
@@ -2840,7 +2840,7 @@
     <t>boris.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zTt3s4B?</t>
+    <t>9aoWt?Bh</t>
   </si>
   <si>
     <t>VERA ESTUPIÑAN BRYAN FRANCISCO</t>
@@ -2849,7 +2849,7 @@
     <t>bryan.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>XhmA!wX8</t>
+    <t>o#lTtp8C</t>
   </si>
   <si>
     <t>VERA LOOR ARIANA PAOLA</t>
@@ -2858,7 +2858,7 @@
     <t>ariana.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BcvzFuTp</t>
+    <t>Q79xwPaZ</t>
   </si>
   <si>
     <t>ZAMBRANO VEGA AURA ARACELY</t>
@@ -2867,7 +2867,7 @@
     <t>aura.zambranov@espam.edu.ec</t>
   </si>
   <si>
-    <t>hp&amp;1v&amp;cV</t>
+    <t>OcZJCBvc</t>
   </si>
   <si>
     <t>ALMEIDA ZAMBRANO HALINTONG VICENTE</t>
@@ -2876,7 +2876,7 @@
     <t>halintong.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>?jrOgEfK</t>
+    <t>q#okf6Xs</t>
   </si>
   <si>
     <t>AYALA VILLAFUERTE NAHOMY NAYELY</t>
@@ -2885,7 +2885,7 @@
     <t>nahomy.ayala@espam.edu.ec</t>
   </si>
   <si>
-    <t>okD27Wx&amp;</t>
+    <t>o26lvk10</t>
   </si>
   <si>
     <t>BASURTO CEDEÑO ITALO JORDANO</t>
@@ -2894,7 +2894,7 @@
     <t>italo.basurto.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>UZVda5qF</t>
+    <t>Z1w?qNpi</t>
   </si>
   <si>
     <t>CASTRO TAIPE YERIK LEXANDER</t>
@@ -2903,7 +2903,7 @@
     <t>yerik.castro.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ucAxBbRE</t>
+    <t>nyMQ7oWo</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA CARLOS PAUL</t>
@@ -2912,7 +2912,7 @@
     <t>carlos.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#ClcPKVI</t>
+    <t>vEiC?Jnw</t>
   </si>
   <si>
     <t>COBEÑA ZAMBRANO EDIS ARIEL</t>
@@ -2921,7 +2921,7 @@
     <t>edis.cobena@espam.edu.ec</t>
   </si>
   <si>
-    <t>fkHwZha#</t>
+    <t>UjZWxbd8</t>
   </si>
   <si>
     <t>CORDOVA MUGUERZA ADRIANA NICOLLE</t>
@@ -2930,7 +2930,7 @@
     <t>adriana.muguersa.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jILA?8oC</t>
+    <t>wd9L55!H</t>
   </si>
   <si>
     <t>COTERA PIN MAYERLY DAYANARA</t>
@@ -2939,7 +2939,7 @@
     <t>mayerly.cotera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9vBLXDqm</t>
+    <t>0ieyOLBi</t>
   </si>
   <si>
     <t>CUENCA CUSME CECILIA ALEXANDRA</t>
@@ -2948,7 +2948,7 @@
     <t>cecilia.cuenca@espam.edu.ec</t>
   </si>
   <si>
-    <t>vGy/q5LC</t>
+    <t>rRICnd1z</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA ANGIE MISHELLE</t>
@@ -2957,7 +2957,7 @@
     <t>angie.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>YQ3M!jJB</t>
+    <t>tf8zvOD6</t>
   </si>
   <si>
     <t>LATA QUINCHI SANDRA LOURDES</t>
@@ -2966,7 +2966,7 @@
     <t>sandra.lata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nsZ8X9Vd</t>
+    <t>QQPAAvDd</t>
   </si>
   <si>
     <t>MEJICANGO CALLE JAZMIN LISBETH</t>
@@ -2978,7 +2978,7 @@
     <t>jazmin.mejicango.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Tqe#yy/y</t>
+    <t>BIqBI?L9</t>
   </si>
   <si>
     <t>MENDOZA GANCHOZO DOMENICA NICOLE</t>
@@ -2987,7 +2987,7 @@
     <t>domenica.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>x150j3&amp;I</t>
+    <t>JUxo9&amp;zU</t>
   </si>
   <si>
     <t>MOREIRA CEVALLOS NAYELY VANESSA</t>
@@ -2996,7 +2996,7 @@
     <t>nayely.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>8UxhwlLP</t>
+    <t>z/RD#V7V</t>
   </si>
   <si>
     <t>MUÑOZ VERA MICHELLE VALENTINA</t>
@@ -3005,7 +3005,7 @@
     <t>michelle.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>NQ4!iPhI</t>
+    <t>JX2r!ngj</t>
   </si>
   <si>
     <t>OLMOS RIVERA CLEOPATRA STEFANIA</t>
@@ -3014,7 +3014,7 @@
     <t>cleopatra.olmos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jl1iZ3Ll</t>
+    <t>1USyas?Y</t>
   </si>
   <si>
     <t>PAREDES RODRIGUEZ GIBELY JARLETH</t>
@@ -3026,7 +3026,7 @@
     <t>gibely.paredes.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>hfVsQ3Lc</t>
+    <t>9?Aw/rq0</t>
   </si>
   <si>
     <t>PERUGACHI MECIAS GEOVANNY ALEJANDRO</t>
@@ -3035,7 +3035,7 @@
     <t>geovanny.perugachi.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>KPa?59&amp;B</t>
+    <t>Vvnm/wzN</t>
   </si>
   <si>
     <t>PITA MACIAS RUBEN DARIO</t>
@@ -3044,7 +3044,7 @@
     <t>ruben.pita@espam.edu.ec</t>
   </si>
   <si>
-    <t>K7mQdv8&amp;</t>
+    <t>bDvS6cMA</t>
   </si>
   <si>
     <t>ROSADO QUIROZ JANDRY FABRICIO</t>
@@ -3053,7 +3053,7 @@
     <t>jandry.rosado.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>UGC8qAzV</t>
+    <t>Xcv5p&amp;!t</t>
   </si>
   <si>
     <t>SANCHEZ CHOEZ BERTHA DOLORES</t>
@@ -3062,7 +3062,7 @@
     <t>bertha.choez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>rn&amp;zNEh!</t>
+    <t>lpM!!/J/</t>
   </si>
   <si>
     <t>VALENCIA MARCILLO JENIFFER KAROLINA</t>
@@ -3071,7 +3071,7 @@
     <t>jenifferk.valenciam@espam.edu.ec</t>
   </si>
   <si>
-    <t>TlJQvI2B</t>
+    <t>sHjJ2o9H</t>
   </si>
   <si>
     <t>VELASQUEZ GUADAMUD MARIO DAMIAN</t>
@@ -3080,7 +3080,7 @@
     <t>mario.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>KtBb7hB6</t>
+    <t>R9hyj1PX</t>
   </si>
   <si>
     <t>VELEZ RIVAS JOFFRE GEOVANNY</t>
@@ -3089,7 +3089,7 @@
     <t>joffre.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>es1VzWZ5</t>
+    <t>vMP9!9OW</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO GEMA BRIGITH</t>
@@ -3098,7 +3098,7 @@
     <t>gema.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>?SWey7&amp;S</t>
+    <t>Cbl5WQCT</t>
   </si>
   <si>
     <t>VERA CEVALLOS CARMEN GISSELLA</t>
@@ -3107,7 +3107,7 @@
     <t>carmen.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>rtQNHB1Z</t>
+    <t>zUl34rWS</t>
   </si>
   <si>
     <t>VERA SOLORZANO CARLOS NEPTALI</t>
@@ -3116,7 +3116,7 @@
     <t>carlos.veras@espam.edu.ec</t>
   </si>
   <si>
-    <t>eMgA6KQQ</t>
+    <t>nyxZZhlE</t>
   </si>
   <si>
     <t>VERA VERA YUSTHYN YARLETH</t>
@@ -3125,7 +3125,7 @@
     <t>yusthyn.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sr12H!/7</t>
+    <t>o3pc6E!E</t>
   </si>
   <si>
     <t>VIDAL SABANDO MARIA KATHERINE</t>
@@ -3134,7 +3134,7 @@
     <t>maria.vidal.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>PUr7YxFw</t>
+    <t>wxNONIeb</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR EMILIO JOSE</t>
@@ -3143,7 +3143,7 @@
     <t>emilio.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>RI3scQBh</t>
+    <t>xv!iN#/6</t>
   </si>
   <si>
     <t>ZAMBRANO AVEIGA MAYRA ALEXANDRA</t>
@@ -3152,7 +3152,7 @@
     <t>mayra.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0ZFVtbZk</t>
+    <t>FQV8Nwfz</t>
   </si>
   <si>
     <t>ZAMBRANO VERA MARIA BEATRIZ</t>
@@ -3161,7 +3161,7 @@
     <t>maria.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>HmAM9Ape</t>
+    <t>#a5UFsvE</t>
   </si>
   <si>
     <t>ALCIVAR RODRIGUEZ STEFANY LISETH</t>
@@ -3170,7 +3170,7 @@
     <t>stefany.alcivar.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>sqb&amp;q!DT</t>
+    <t>lzMYfU1Q</t>
   </si>
   <si>
     <t>ANGULO GLENN YURANI MAGERLI</t>
@@ -3182,7 +3182,7 @@
     <t>yurani.angulo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0hrw??sJ</t>
+    <t>p3cA31ge</t>
   </si>
   <si>
     <t>ARTEAGA TRIVIÑO CAMILA</t>
@@ -3191,7 +3191,7 @@
     <t>camila.arteaga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#eBBxAMF</t>
+    <t>G!owKoCD</t>
   </si>
   <si>
     <t>BALDERRAMO CABRERA JOSE GERMAN</t>
@@ -3200,7 +3200,7 @@
     <t>jose.balderramo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>8ocOfMz!</t>
+    <t>EQ5H3/Ni</t>
   </si>
   <si>
     <t>BRAVO MUÑOZ JEAN MYCKEL</t>
@@ -3209,7 +3209,7 @@
     <t>jean.bravomu@espam.edu.ec</t>
   </si>
   <si>
-    <t>XDtEq3X5</t>
+    <t>eLJfHYqQ</t>
   </si>
   <si>
     <t>BRAVO SANTANA JUNIOR XAVIER</t>
@@ -3218,7 +3218,7 @@
     <t>juniorx.bravos@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZtHhBLE3</t>
+    <t>J9OquAP7</t>
   </si>
   <si>
     <t>CAGUA RODRIGUEZ NAYELY ANAHI</t>
@@ -3227,7 +3227,7 @@
     <t>nayely.cagua.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>75yAFbMH</t>
+    <t>m!h!nET4</t>
   </si>
   <si>
     <t>CALDERON RODRIGUEZ FATIMA DANIELA</t>
@@ -3236,7 +3236,7 @@
     <t>fatima.calderon.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XiKG3chb</t>
+    <t>D##GQJkd</t>
   </si>
   <si>
     <t>CASTILLO MEJIA MARIA CARLOTA</t>
@@ -3245,7 +3245,7 @@
     <t>maria.castillo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>f67dTwac</t>
+    <t>uT8INDaR</t>
   </si>
   <si>
     <t>CEDEÑO CUSME DAYANARA NARCISA</t>
@@ -3254,7 +3254,7 @@
     <t>dayanara.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>PW1pyAmE</t>
+    <t>804?Ge0i</t>
   </si>
   <si>
     <t>CELORIO VERA PETER PABLO</t>
@@ -3263,7 +3263,7 @@
     <t>peter.celorio.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>dpeYCjR8</t>
+    <t>wUPcsR#B</t>
   </si>
   <si>
     <t>COOL MORENO DIANA ESTHEFANIA</t>
@@ -3272,7 +3272,7 @@
     <t>diana.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>jt32?EAj</t>
+    <t>oWWwC/f!</t>
   </si>
   <si>
     <t>DELGADO GARZON PAOLA FERNANDA</t>
@@ -3281,7 +3281,7 @@
     <t>paola.delgadog.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>TbVxxYTO</t>
+    <t>/JTa?cpm</t>
   </si>
   <si>
     <t>DOMINGUEZ DOMINGUEZ ROMINA MELISSA</t>
@@ -3290,7 +3290,7 @@
     <t>romina.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>7JPPie&amp;0</t>
+    <t>hGpYw1QQ</t>
   </si>
   <si>
     <t>GARCIA MUÑOZ EDDY SANTIAGO</t>
@@ -3299,7 +3299,7 @@
     <t>eddy.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>CwfHAVpL</t>
+    <t>4mlu7vIz</t>
   </si>
   <si>
     <t>GARCIA PONCE LEONELA ANTONELLA</t>
@@ -3308,7 +3308,7 @@
     <t>leonela.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>DKcskC9Y</t>
+    <t>ojbiLUxZ</t>
   </si>
   <si>
     <t>LOPEZ SOLORZANO YIMMY</t>
@@ -3317,7 +3317,7 @@
     <t>yimmy.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>vIT6NEla</t>
+    <t>AZkfqRI7</t>
   </si>
   <si>
     <t>LOPEZ ZAMBRANO JORGE ISAAC</t>
@@ -3326,7 +3326,7 @@
     <t>jorge.lopez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>eG/0Z1J5</t>
+    <t>CVdA49N8</t>
   </si>
   <si>
     <t>MACIAS GUAGUA MAGERLY THAIS</t>
@@ -3338,7 +3338,7 @@
     <t>magerly.macias.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>EXAsAg58</t>
+    <t>uI&amp;YIGJ/</t>
   </si>
   <si>
     <t>MARTINEZ SABANDO MARCELO EFRAIN</t>
@@ -3347,7 +3347,7 @@
     <t>marcelo.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>T22Sw/gJ</t>
+    <t>PMPcbKlI</t>
   </si>
   <si>
     <t>MEDRANDA CEDEÑO IVAN ARTURO</t>
@@ -3356,7 +3356,7 @@
     <t>ivan.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>X2A1uEnO</t>
+    <t>vxtKsI6F</t>
   </si>
   <si>
     <t>MENDOZA INTRIAGO KEYLA YAMIRA</t>
@@ -3365,7 +3365,7 @@
     <t>keyla.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>ECXC2lJP</t>
+    <t>n62GgFrG</t>
   </si>
   <si>
     <t>MENDOZA LOOR MARIAGRACIA</t>
@@ -3374,7 +3374,7 @@
     <t>mariagracia.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>8ejMGT08</t>
+    <t>pHcY4MrG</t>
   </si>
   <si>
     <t>MOREIRA VELEZ ANGELICA LISBETH</t>
@@ -3383,7 +3383,7 @@
     <t>angelica.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>z/MEpISP</t>
+    <t>zJTE4SmE</t>
   </si>
   <si>
     <t>PATA HERRERA ESTRELLA TATIANA</t>
@@ -3392,7 +3392,7 @@
     <t>estrella.pata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>h32#Q111</t>
+    <t>wn4g6ngH</t>
   </si>
   <si>
     <t>PONCE MIRANDA YOEL ISAIAS</t>
@@ -3401,7 +3401,7 @@
     <t>yoel.ponce@espam.edu.ec</t>
   </si>
   <si>
-    <t>LDM8Tvuv</t>
+    <t>4XakscD8</t>
   </si>
   <si>
     <t>RIVAS ALARCON ALISSON MAYERLI</t>
@@ -3413,7 +3413,7 @@
     <t>alisson.rivas@espam.edu.ec</t>
   </si>
   <si>
-    <t>7u0hG&amp;4R</t>
+    <t>lmUMrNqe</t>
   </si>
   <si>
     <t>SABANDO VERA EMELY NOEMI</t>
@@ -3425,7 +3425,7 @@
     <t>emely.sabando.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>PoCxtAJl</t>
+    <t>PpXpIeO!</t>
   </si>
   <si>
     <t>VELASQUEZ ZAMBRANO JUAN DIEGO</t>
@@ -3434,7 +3434,7 @@
     <t>juan.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>k1w2GymA</t>
+    <t>eK?Qn93i</t>
   </si>
   <si>
     <t>ZAMBRANO MENDOZA JOSE LUIS</t>
@@ -3443,7 +3443,7 @@
     <t>jose.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>dTYHQorD</t>
+    <t>jGgnkgF!</t>
   </si>
   <si>
     <t>ZAMBRANO PEREZ CARLOS JULIO</t>
@@ -3452,7 +3452,7 @@
     <t>carlos.zambranop@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ot!YMD!?</t>
+    <t>ll9NambR</t>
   </si>
   <si>
     <t>ACHIG GUALACATA EVELIN LISETTE</t>
@@ -3461,7 +3461,7 @@
     <t>evelin.achig@espam.edu.ec</t>
   </si>
   <si>
-    <t>f##Achz5</t>
+    <t>Xq#MjXE#</t>
   </si>
   <si>
     <t>AGUAS VERA JEICOL MIKE</t>
@@ -3470,7 +3470,7 @@
     <t>jeicol.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>gnpyu77V</t>
+    <t>XCQEsV4f</t>
   </si>
   <si>
     <t>BRAVO BASURTO JUAN CARLOS</t>
@@ -3479,7 +3479,7 @@
     <t>juan.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>RX8!uxJl</t>
+    <t>cLFu!BjF</t>
   </si>
   <si>
     <t>CANTOS ZAMBRANO MARIA FERNANDA</t>
@@ -3488,7 +3488,7 @@
     <t>mariaf.cantos@espam.edu.ec</t>
   </si>
   <si>
-    <t>DNYrGe1!</t>
+    <t>Xd5FHv&amp;x</t>
   </si>
   <si>
     <t>CASTILLO DELGADO LERENY JAMILEX</t>
@@ -3497,7 +3497,7 @@
     <t>lereny.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZybEctuZ</t>
+    <t>od/WpG!3</t>
   </si>
   <si>
     <t>CASTILLO JACOME JHON JAIRO</t>
@@ -3506,7 +3506,7 @@
     <t>jhon.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>n7w?UB0y</t>
+    <t>7p7MjgMb</t>
   </si>
   <si>
     <t>CELORIO MENDOZA MIRIAN ALEJANDRA</t>
@@ -3515,7 +3515,7 @@
     <t>mirian.celorio@espam.edu.ec</t>
   </si>
   <si>
-    <t>D&amp;n!1s2B</t>
+    <t>fR&amp;#cJ8Z</t>
   </si>
   <si>
     <t>CHUMO CHAVEZ JANINA BELEN</t>
@@ -3524,7 +3524,7 @@
     <t>janina.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>#Vovo/Jh</t>
+    <t>Oee13l?p</t>
   </si>
   <si>
     <t>DELGADO LOPEZ MERCEDES ELIZABETH</t>
@@ -3533,7 +3533,7 @@
     <t>mercedes.delgado@espam.edu.ec</t>
   </si>
   <si>
-    <t>NEy2nQPD</t>
+    <t>fW41ng6V</t>
   </si>
   <si>
     <t>ESTEVES OLVERA DIANA MILENA</t>
@@ -3542,7 +3542,7 @@
     <t>diana.esteves@espam.edu.ec</t>
   </si>
   <si>
-    <t>IW28oB6M</t>
+    <t>EptqV7yZ</t>
   </si>
   <si>
     <t>FALLAIN ZAMBRANO MARIA ANGELICA</t>
@@ -3551,7 +3551,7 @@
     <t>maria.fallain@espam.edu.ec</t>
   </si>
   <si>
-    <t>6wnnxLSV</t>
+    <t>/7Gz2jKC</t>
   </si>
   <si>
     <t>FERNANDEZ CEVALLOS FRANCISCO ESTUARDO</t>
@@ -3560,7 +3560,7 @@
     <t>francisco.fernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>WnchD62G</t>
+    <t>u?0NQfgO</t>
   </si>
   <si>
     <t>HERNANDEZ HERNANDEZ MARIA ZULEMA</t>
@@ -3572,7 +3572,7 @@
     <t>maria.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>P4XYTNlA</t>
+    <t>REG1k0!s</t>
   </si>
   <si>
     <t>INTRIAGO SOLORZANO LEYDI GABRIELA</t>
@@ -3581,7 +3581,7 @@
     <t>leydi.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>EMacppS6</t>
+    <t>Nl2Jv4oY</t>
   </si>
   <si>
     <t>MACIAS LOOR ELIAN RENE</t>
@@ -3590,7 +3590,7 @@
     <t>elian.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>4KNaWQwY</t>
+    <t>Uh!wgope</t>
   </si>
   <si>
     <t>MACIAS PISCO NACHY MONSERRAT</t>
@@ -3599,7 +3599,7 @@
     <t>nachy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ulcj9Pb2</t>
+    <t>ZI!tat&amp;J</t>
   </si>
   <si>
     <t>MERA LOOR JONAYKER REYNALDO</t>
@@ -3608,7 +3608,7 @@
     <t>jonayker.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>yDr/hPHP</t>
+    <t>RrRJ!ppo</t>
   </si>
   <si>
     <t>MOREIRA BASURTO YORDY JOEL</t>
@@ -3617,7 +3617,7 @@
     <t>yordy.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>STpQmcHh</t>
+    <t>MvUtxP&amp;V</t>
   </si>
   <si>
     <t>MOREIRA MENDOZA MAGDALENA JAMILETH</t>
@@ -3626,7 +3626,7 @@
     <t>magdalena.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>nbLnulKI</t>
+    <t>?0N5WeQ3</t>
   </si>
   <si>
     <t>PANTUSIN MUGUERZA ANDREA LISSETH</t>
@@ -3635,7 +3635,7 @@
     <t>andrea.pantusin@espam.edu.ec</t>
   </si>
   <si>
-    <t>YD!D#R4f</t>
+    <t>01HX3ROV</t>
   </si>
   <si>
     <t>PATIÑO MEJIA MILENA ANAHI</t>
@@ -3644,7 +3644,7 @@
     <t>milena.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>nW#V1RNN</t>
+    <t>tNSLl9Z&amp;</t>
   </si>
   <si>
     <t>PICO GARCIA ALLISON JANELY</t>
@@ -3653,7 +3653,7 @@
     <t>allison.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>vITYLnpA</t>
+    <t>S&amp;!n6I8n</t>
   </si>
   <si>
     <t>POVEDA SANTANA ENZO JAVIER</t>
@@ -3665,7 +3665,7 @@
     <t>enzo.poveda@espam.edu.ec</t>
   </si>
   <si>
-    <t>c!TurVQQ</t>
+    <t>/6?UdC3o</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO NATALY SILVANA</t>
@@ -3674,7 +3674,7 @@
     <t>nataly.quijije@espam.edu.ec</t>
   </si>
   <si>
-    <t>/ETNDypo</t>
+    <t>K4ybcAq/</t>
   </si>
   <si>
     <t>ROBALINO DELGADO JORGE DAVID</t>
@@ -3683,7 +3683,7 @@
     <t>jorge.robalino@espam.edu.ec</t>
   </si>
   <si>
-    <t>YuM&amp;&amp;ay7</t>
+    <t>ndiGVf5M</t>
   </si>
   <si>
     <t>SANCHEZ CASTILLO ADRIANA MICAELA</t>
@@ -3692,7 +3692,7 @@
     <t>adriana.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>hwr3!ayX</t>
+    <t>S8UxZ2yB</t>
   </si>
   <si>
     <t>SOLORZANO ALAVA TAIRUN FRANCISCO</t>
@@ -3701,7 +3701,7 @@
     <t>tairun.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Wzl3M45q</t>
+    <t>ohAC3yl6</t>
   </si>
   <si>
     <t>SOLORZANO BAILON MARIA GABRIELA</t>
@@ -3710,7 +3710,7 @@
     <t>mariaga.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>uA3gr0tU</t>
+    <t>njGtOtSL</t>
   </si>
   <si>
     <t>TRUJILLO AGUAS MAYERLI DAYANA</t>
@@ -3719,7 +3719,7 @@
     <t>mayerli.trujillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>VmgNwF!?</t>
+    <t>W3VZ?m6y</t>
   </si>
   <si>
     <t>VERA VERA CINTHIA MARIA</t>
@@ -3728,7 +3728,7 @@
     <t>cinthia.verav@espam.edu.ec</t>
   </si>
   <si>
-    <t>eM7PG2AH</t>
+    <t>MOUo1CCz</t>
   </si>
   <si>
     <t>VIDAL INTRIAGO ANDY YOEL</t>
@@ -3737,7 +3737,7 @@
     <t>andy.vidal@espam.edu.ec</t>
   </si>
   <si>
-    <t>z#rDOALb</t>
+    <t>OK&amp;z!s!J</t>
   </si>
   <si>
     <t>VINTIMILLA PROAÑO MARIA DE LOURDES</t>
@@ -3746,7 +3746,7 @@
     <t>maria.vintimilla@espam.edu.ec</t>
   </si>
   <si>
-    <t>!XVnYvxo</t>
+    <t>0L/xHN&amp;f</t>
   </si>
   <si>
     <t>VITERI SANTOS VINICIO ORLEY</t>
@@ -3755,7 +3755,7 @@
     <t>vinicio.viteri@espam.edu.ec</t>
   </si>
   <si>
-    <t>eHWUe/GH</t>
+    <t>iDjVugBd</t>
   </si>
   <si>
     <t>ZAMBRANO CANO FRANCISCO JAVIER</t>
@@ -3764,7 +3764,7 @@
     <t>francisco.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>b9!gr1Fl</t>
+    <t>hp7mXu#j</t>
   </si>
   <si>
     <t>ZAMBRANO NAVARRETE ELBA MARIA</t>
@@ -3773,7 +3773,7 @@
     <t>elba.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>HnY0#FL1</t>
+    <t>rIDRE7x5</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO WENDY GISSELLA</t>
@@ -3782,7 +3782,7 @@
     <t>wendy.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>i2/al8Xo</t>
+    <t>EayGfYRP</t>
   </si>
   <si>
     <t>ARANA RUEDA ANGY LISSETH</t>
@@ -3794,7 +3794,7 @@
     <t>angy.arana@espam.edu.ec</t>
   </si>
   <si>
-    <t>HMc1UPra</t>
+    <t>fW290ZjH</t>
   </si>
   <si>
     <t>ARTEAGA VARGAS ANDREA VALERIA</t>
@@ -3803,7 +3803,7 @@
     <t>andrea.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>jbAH6dWS</t>
+    <t>mR0cWZTO</t>
   </si>
   <si>
     <t>BARBERAN SANCHEZ KARLA MICHELLE</t>
@@ -3812,7 +3812,7 @@
     <t>karla.barberan@espam.edu.ec</t>
   </si>
   <si>
-    <t>F#Alz3zI</t>
+    <t>u5YyNSVS</t>
   </si>
   <si>
     <t>BAZURTO MANZABA SORAYA STEFANIA</t>
@@ -3821,7 +3821,7 @@
     <t>soraya.bazurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>uFOG0qCw</t>
+    <t>E1X7ZB1J</t>
   </si>
   <si>
     <t>CAGUA GARCIA ANDRES VIRGILIO</t>
@@ -3830,7 +3830,7 @@
     <t>andres.cagua@espam.edu.ec</t>
   </si>
   <si>
-    <t>sWxx122X</t>
+    <t>Fsv?PCmB</t>
   </si>
   <si>
     <t>DOMINGUEZ CALDERON JEAN PIERRE</t>
@@ -3839,7 +3839,7 @@
     <t>jean.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ru7CBYzb</t>
+    <t>7Njj2pHt</t>
   </si>
   <si>
     <t>ESPINOZA ALCIVAR EVELYN ALEXANDRA</t>
@@ -3848,7 +3848,7 @@
     <t>evelyn.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>qkqRXo#G</t>
+    <t>0T9sJ9S9</t>
   </si>
   <si>
     <t>LOOR MORENO DANIEL AGUSTIN</t>
@@ -3857,7 +3857,7 @@
     <t>daniel.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>14O9h3uz</t>
+    <t>XHA3&amp;DTh</t>
   </si>
   <si>
     <t>MACIAS PARRALES MEREDITH MARIBEL</t>
@@ -3866,7 +3866,7 @@
     <t>meredith.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>gTTLMFhQ</t>
+    <t>bCz2yts!</t>
   </si>
   <si>
     <t>MENDOZA CANCHINGRE BRIGITH MIKAELA</t>
@@ -3875,7 +3875,7 @@
     <t>brigith.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>1rN5ObeD</t>
+    <t>DRCrnlCU</t>
   </si>
   <si>
     <t>MENDOZA VELEZ JOSE MIGUEL</t>
@@ -3884,7 +3884,7 @@
     <t>josemi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>h&amp;t2hza1</t>
+    <t>s/X?z2&amp;#</t>
   </si>
   <si>
     <t>MEZA BRIONES ANTHONY NARCILO</t>
@@ -3893,7 +3893,7 @@
     <t>anthony.meza@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y5hDLIy3</t>
+    <t>8q0PB5BZ</t>
   </si>
   <si>
     <t>MORA ZAMBRANO MARIA LAURA</t>
@@ -3902,7 +3902,7 @@
     <t>maria.mora@espam.edu.ec</t>
   </si>
   <si>
-    <t>hhxqfyOz</t>
+    <t>LhcoJNE8</t>
   </si>
   <si>
     <t>NAVARRETE ZAMBRANO ROBIN LUGERIO</t>
@@ -3911,7 +3911,7 @@
     <t>robin.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>1KP0jwat</t>
+    <t>yIdX2&amp;0J</t>
   </si>
   <si>
     <t>OSTAIZA LOPEZ JOSEPH MANUEL</t>
@@ -3920,7 +3920,7 @@
     <t>josepth.ostaiza@espam.edu.ec</t>
   </si>
   <si>
-    <t>bEGY3bqN</t>
+    <t>?1z3e8h2</t>
   </si>
   <si>
     <t>PARRAGA PARRAGA CARLA ESTEFANIA</t>
@@ -3929,7 +3929,7 @@
     <t>carla.parraga@espam.edu.ec</t>
   </si>
   <si>
-    <t>B&amp;JDe7SF</t>
+    <t>QfUoOhOF</t>
   </si>
   <si>
     <t>PLAZA CABRERA MAYERLY MARIA</t>
@@ -3941,7 +3941,7 @@
     <t>mayerly.plaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>Gnd5ZYHB</t>
+    <t>oTLUQWUh</t>
   </si>
   <si>
     <t>RODRIGUEZ VELIZ LEANDRO MOISES</t>
@@ -3950,7 +3950,7 @@
     <t>leandro.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>vgD2plzR</t>
+    <t>2H!5gF58</t>
   </si>
   <si>
     <t>SANTANA GUERRERO MARIA RAQUEL</t>
@@ -3959,7 +3959,7 @@
     <t>mariar.santanag@espam.edu.ec</t>
   </si>
   <si>
-    <t>Iy0HfiRy</t>
+    <t>3MdMbcEM</t>
   </si>
   <si>
     <t>SANTOS SALAZAR JANDRY DAVID</t>
@@ -3968,7 +3968,7 @@
     <t>jandry.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>yoL&amp;yszW</t>
+    <t>uB2!8f9f</t>
   </si>
   <si>
     <t>SOLORZANO LOOR KEYLA GEOVANNA</t>
@@ -3977,7 +3977,7 @@
     <t>keyla.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>BYIgKwbg</t>
+    <t>r&amp;qg5eS6</t>
   </si>
   <si>
     <t>VALENCIA ZAMBRANO VALERIA MERCEDES</t>
@@ -3986,7 +3986,7 @@
     <t>valeria.valencia@espam.edu.ec</t>
   </si>
   <si>
-    <t>OlxzI9!x</t>
+    <t>yQCbg7GO</t>
   </si>
   <si>
     <t>VARGAS CHOEZ ALEXIS ELIAN</t>
@@ -3995,7 +3995,7 @@
     <t>alexis.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>UIvURyMB</t>
+    <t>I?HtXZyv</t>
   </si>
   <si>
     <t>VELEZ ALMEIDA CARMEN REBECA</t>
@@ -4004,7 +4004,7 @@
     <t>carmen.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>KTdOzLcw</t>
+    <t>DS4Nnhzd</t>
   </si>
   <si>
     <t>VELEZ LEGTON GENESIS YAMILET</t>
@@ -4013,7 +4013,7 @@
     <t>genesisya.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>vqlD?C1w</t>
+    <t>?hNvW7K#</t>
   </si>
   <si>
     <t>VERA BALAREZO MARYAM JANELLA</t>
@@ -4022,7 +4022,7 @@
     <t>maryam.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>PU1d9caY</t>
+    <t>RyFWTsE6</t>
   </si>
   <si>
     <t>VERA SERRANO CARLOS STEFANO</t>
@@ -4031,7 +4031,7 @@
     <t>carlos.verase@espam.edu.ec</t>
   </si>
   <si>
-    <t>!KgXGi6U</t>
+    <t>DDZ3Haxq</t>
   </si>
   <si>
     <t>VIERA BAZURTO JOSE ALEXANDER</t>
@@ -4040,7 +4040,7 @@
     <t>jose.viera@espam.edu.ec</t>
   </si>
   <si>
-    <t>nIm3lMZn</t>
+    <t>BZmD3Zn/</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR DIEGO JAHIR</t>
@@ -4049,7 +4049,7 @@
     <t>diego.zambranoa@espam.edu.ec</t>
   </si>
   <si>
-    <t>acG4fYJz</t>
+    <t>2ysLuDX1</t>
   </si>
   <si>
     <t>ZAMBRANO MANZABA MARIA FERNANDA</t>
@@ -4058,7 +4058,7 @@
     <t>mariafer.zambranom@espam.edu.ec</t>
   </si>
   <si>
-    <t>GknZoFar</t>
+    <t>R8Mn/9l1</t>
   </si>
   <si>
     <t>ALCIVAR GILER MELANY JULISA</t>
@@ -4067,7 +4067,7 @@
     <t>melany.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>jVWtnKaJ</t>
+    <t>Il?MgiR2</t>
   </si>
   <si>
     <t>ANDRADE ZAMBRANO NATHALY NICOLLE</t>
@@ -4076,7 +4076,7 @@
     <t>nathaly.andrade@espam.edu.ec</t>
   </si>
   <si>
-    <t>DE00L9J!</t>
+    <t>FfmsF5N4</t>
   </si>
   <si>
     <t>BASURTO MORAN LUIS ALEXANDER</t>
@@ -4085,7 +4085,7 @@
     <t>luis.basurtom@espam.edu.ec</t>
   </si>
   <si>
-    <t>esy#kuEn</t>
+    <t>u8U0RPYQ</t>
   </si>
   <si>
     <t>BERMELLO VELEZ ANGELA DANIELA</t>
@@ -4094,7 +4094,7 @@
     <t>angela.bermello@espam.edu.ec</t>
   </si>
   <si>
-    <t>bkSDw!IF</t>
+    <t>XygPNL?n</t>
   </si>
   <si>
     <t>BRAVO VERA GEMA VIVIANA</t>
@@ -4103,7 +4103,7 @@
     <t>gema.bravov@espam.edu.ec</t>
   </si>
   <si>
-    <t>T!y&amp;UhkU</t>
+    <t>/5fmnXo4</t>
   </si>
   <si>
     <t>BRIONES INTRIAGO LORENA LUCIA</t>
@@ -4112,7 +4112,7 @@
     <t>lorena.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>YhpBWM#u</t>
+    <t>zI7I5WTw</t>
   </si>
   <si>
     <t>BURGOS BRAVO KATHERIN DANIELA</t>
@@ -4121,7 +4121,7 @@
     <t>katherin.burgos@espam.edu.ec</t>
   </si>
   <si>
-    <t>HaZ/1LKK</t>
+    <t>yySEqM#P</t>
   </si>
   <si>
     <t>LOOR PARRAGA ROY RUBEN</t>
@@ -4130,7 +4130,7 @@
     <t>roy.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>J2mj/PGb</t>
+    <t>NQ16O1/o</t>
   </si>
   <si>
     <t>LOPEZ GANCHOZO LEANDRO ANTONIO</t>
@@ -4139,7 +4139,7 @@
     <t>leandro.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>FiEzJiQX</t>
+    <t>NVPpQqWx</t>
   </si>
   <si>
     <t>MACIAS MACIAS JOY ROBERTO</t>
@@ -4148,7 +4148,7 @@
     <t>joy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>i?pjYGWo</t>
+    <t>f0EczYzu</t>
   </si>
   <si>
     <t>MACIAS SILVA CINTHYA MARIANA</t>
@@ -4157,7 +4157,7 @@
     <t>cinthya.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>fFmBcevE</t>
+    <t>nIS4j3fD</t>
   </si>
   <si>
     <t>MENDOZA PONCE MARIA ANGELICA</t>
@@ -4166,7 +4166,7 @@
     <t>maria.mendozap@espam.edu.ec</t>
   </si>
   <si>
-    <t>qhXkQcki</t>
+    <t>xSKZzcWz</t>
   </si>
   <si>
     <t>MONCAYO LAINEZ KERLY ARIANNA</t>
@@ -4175,7 +4175,7 @@
     <t>kerly.moncayo@espam.edu.ec</t>
   </si>
   <si>
-    <t>6U4Od!3Q</t>
+    <t>4p1dkJD4</t>
   </si>
   <si>
     <t>MONTES POZO JEAN POLL</t>
@@ -4184,7 +4184,7 @@
     <t>jean.montes@espam.edu.ec</t>
   </si>
   <si>
-    <t>U38T31x?</t>
+    <t>6XSYS3lU</t>
   </si>
   <si>
     <t>MORENO OBANDO ANA BELLA</t>
@@ -4193,7 +4193,7 @@
     <t>ana.moreno@espam.edu.ec</t>
   </si>
   <si>
-    <t>tHU1QdQi</t>
+    <t>RL&amp;Wotg4</t>
   </si>
   <si>
     <t>NAVARRETE PARODI ERIKA KARINA</t>
@@ -4202,7 +4202,7 @@
     <t>erika.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>sy8Mt!iU</t>
+    <t>K4LRsuei</t>
   </si>
   <si>
     <t>ORMAZA ESPINOZA JESUS EMILIO</t>
@@ -4211,7 +4211,7 @@
     <t>jesus.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>bGqKgX6D</t>
+    <t>hqBlU10r</t>
   </si>
   <si>
     <t>ORMAZA FALCONES MARIA ALEJANDRA</t>
@@ -4220,7 +4220,7 @@
     <t>maria.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>O!8oq2gY</t>
+    <t>pVPncUP?</t>
   </si>
   <si>
     <t>PARRAGA QUIJIJE GEMA KAROLINA</t>
@@ -4229,7 +4229,7 @@
     <t>gemak.parragaq@espam.edu.ec</t>
   </si>
   <si>
-    <t>VTDAraTb</t>
+    <t>mNK1kHFh</t>
   </si>
   <si>
     <t>PICO TOLA MARCO ANDRES</t>
@@ -4238,7 +4238,7 @@
     <t>marco.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>V1JmQ5ET</t>
+    <t>WjdR!Tcr</t>
   </si>
   <si>
     <t>PIN NAPA IVANA MAYERLI</t>
@@ -4247,7 +4247,7 @@
     <t>ivana.pin@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q9ysbZPf</t>
+    <t>iW842XzN</t>
   </si>
   <si>
     <t>ROMERO BRAVO JOSE AGUSTIN</t>
@@ -4256,7 +4256,7 @@
     <t>jose.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>a9/ojwqw</t>
+    <t>0k/vEgeM</t>
   </si>
   <si>
     <t>SALTOS INTRIAGO NATHALIA MELISSA</t>
@@ -4265,7 +4265,7 @@
     <t>nathalia.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>au!6&amp;BIg</t>
+    <t>Ajs/KoAX</t>
   </si>
   <si>
     <t>SALTOS SALTOS MADELYNE PIERINA</t>
@@ -4274,7 +4274,7 @@
     <t>madelyne.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>jk8FLPp7</t>
+    <t>6ocaj7tG</t>
   </si>
   <si>
     <t>SOLIS ORTIZ SANTIAGO</t>
@@ -4283,7 +4283,7 @@
     <t>santiago.solis@espam.edu.ec</t>
   </si>
   <si>
-    <t>/HKGKf8s</t>
+    <t>ikmyS7JV</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO GEMA NARCISA</t>
@@ -4292,7 +4292,7 @@
     <t>gema.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>teKemjU2</t>
+    <t>tIWgbb/Z</t>
   </si>
   <si>
     <t>VARGAS SOLORZANO ANDREA DIVINA</t>
@@ -4301,7 +4301,7 @@
     <t>andrea.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>46JrIedo</t>
+    <t>XLaL#lYq</t>
   </si>
   <si>
     <t>VELEZ VERA MANUEL ALEXANDER</t>
@@ -4310,7 +4310,7 @@
     <t>manuel.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>58gxobxn</t>
+    <t>Td8XPjsa</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO ADRIAN DAVID</t>
@@ -4319,7 +4319,7 @@
     <t>adrian.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>DBfv9jap</t>
+    <t>d4WCZA6R</t>
   </si>
   <si>
     <t>YLLESCA CEDEÑO JESUS JONATHAN</t>
@@ -4328,7 +4328,7 @@
     <t>jesus.yllesca@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mwx2h#Tn</t>
+    <t>98kSR27p</t>
   </si>
   <si>
     <t>ZAMBRANO CATOTA DERLYN MILENA</t>
@@ -4337,7 +4337,7 @@
     <t>derlyn.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>3aP6pDk6</t>
+    <t>q!lsD/0#</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO CHRISTIAN EDUARDO</t>
@@ -4346,7 +4346,7 @@
     <t>christian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>HGU394Gi</t>
+    <t>CNkcyuPZ</t>
   </si>
   <si>
     <t>ZAMBRANO ROBLES GLENDY MERCEDES</t>
@@ -4355,7 +4355,7 @@
     <t>glendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>T5kV3mbW</t>
+    <t>xm9KV!JO</t>
   </si>
   <si>
     <t>ZAMBRANO ROSADO JORGE ALESSANDRO</t>
@@ -4364,7 +4364,7 @@
     <t>jorge.zambranor@espam.edu.ec</t>
   </si>
   <si>
-    <t>zm/YkTqI</t>
+    <t>lfbJ1VjL</t>
   </si>
   <si>
     <t>ZAMBRANO VERA WENDY ANAHI</t>
@@ -4373,7 +4373,7 @@
     <t>wendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZyS36AQV</t>
+    <t>I9f!4Y!I</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO JONATHAN JAVIER</t>
@@ -4382,7 +4382,7 @@
     <t>jonathan.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>PXmWlieo</t>
+    <t>#jVxLWUd</t>
   </si>
   <si>
     <t>ZAMORA SOLORZANO MAGALY DOLORES</t>
@@ -4391,7 +4391,7 @@
     <t>magaly.zamora@espam.edu.ec</t>
   </si>
   <si>
-    <t>q8mbmpeO</t>
+    <t>prrSKEAf</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO MARIA EMILIA</t>
@@ -4400,7 +4400,7 @@
     <t>maria.bravoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>JJB!R6fq</t>
+    <t>MxKNXYDK</t>
   </si>
   <si>
     <t>CEVALLOS ALVAREZ ARMANDO ENRIQUE</t>
@@ -4409,7 +4409,7 @@
     <t>armando.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>gw2NG3vZ</t>
+    <t>TWieg9IQ</t>
   </si>
   <si>
     <t>CEVALLOS VERA ARELIS STEFANIA</t>
@@ -4418,7 +4418,7 @@
     <t>arelis.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>nmAdrpzf</t>
+    <t>r5&amp;1?pa?</t>
   </si>
   <si>
     <t>COOL MERO PATRICIO JAVIER</t>
@@ -4427,7 +4427,7 @@
     <t>patricio.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>akSX!h2v</t>
+    <t>B0FBpUCP</t>
   </si>
   <si>
     <t>FRANCO ORELLANA GUADALUPE MONSERRATE</t>
@@ -4436,7 +4436,7 @@
     <t>guadalupe.franco@espam.edu.ec</t>
   </si>
   <si>
-    <t>EocvTm5u</t>
+    <t>Zj?aqNCl</t>
   </si>
   <si>
     <t>HUERTA BALDIVIEZO JEAN CRISTHIAN</t>
@@ -4445,7 +4445,7 @@
     <t>jean.huerta@espam.edu.ec</t>
   </si>
   <si>
-    <t>snsvmEz5</t>
+    <t>g1&amp;ZNJY&amp;</t>
   </si>
   <si>
     <t>INTRIAGO CANTOS MARIA JOSE</t>
@@ -4454,7 +4454,7 @@
     <t>maria.intriagoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>8MvoL3AZ</t>
+    <t>mCF!jTv4</t>
   </si>
   <si>
     <t>LOOR CANTOS DIANA ISABEL</t>
@@ -4463,7 +4463,7 @@
     <t>diana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>l&amp;ieAP?F</t>
+    <t>jEn0YdIR</t>
   </si>
   <si>
     <t>LOOR SEGOVIA EVELYN ADRIANA</t>
@@ -4472,7 +4472,7 @@
     <t>evelyn.loors@espam.edu.ec</t>
   </si>
   <si>
-    <t>dK!wj6NY</t>
+    <t>B!LwMKAG</t>
   </si>
   <si>
     <t>MEDINA CEDEÑO JULIO CESAR</t>
@@ -4481,7 +4481,7 @@
     <t>julio.medina@espam.edu.ec</t>
   </si>
   <si>
-    <t>5y4R96ZL</t>
+    <t>Y#Hd9xDj</t>
   </si>
   <si>
     <t>MERA VELEZ ALONDRA GARDENIA</t>
@@ -4490,7 +4490,7 @@
     <t>alondra.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>YMb5NUOF</t>
+    <t>0Np#YieK</t>
   </si>
   <si>
     <t>MUÑOZ ZAMBRANO CARLOS JOSUE</t>
@@ -4499,7 +4499,7 @@
     <t>carlos.munozz@espam.edu.ec</t>
   </si>
   <si>
-    <t>EGyliR7D</t>
+    <t>ctd7yGPI</t>
   </si>
   <si>
     <t>NAPA RODRIGUEZ JOSE AGUSTIN</t>
@@ -4508,7 +4508,7 @@
     <t>jose.napa@espam.edu.ec</t>
   </si>
   <si>
-    <t>mBorHlzJ</t>
+    <t>xQ7xXO!S</t>
   </si>
   <si>
     <t>PALMA CEVALLOS MARIA JOSE</t>
@@ -4517,7 +4517,7 @@
     <t>maria.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>MSoeN2Ph</t>
+    <t>cA7VTt7Z</t>
   </si>
   <si>
     <t>PATIÑO MESIAS MARIA GABRIELA</t>
@@ -4526,7 +4526,7 @@
     <t>maria.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>4MEmM8Wj</t>
+    <t>tb8#IAO9</t>
   </si>
   <si>
     <t>QUINTANA CAGUA YENIFER YULI</t>
@@ -4535,7 +4535,7 @@
     <t>yenifer.quintana@espam.edu.ec</t>
   </si>
   <si>
-    <t>u9U5JQ9#</t>
+    <t>8RNYroM9</t>
   </si>
   <si>
     <t>RIVERA CANTOS MARIA DANIELA</t>
@@ -4544,7 +4544,7 @@
     <t>maria.riverac@espam.edu.ec</t>
   </si>
   <si>
-    <t>!wyPC#ta</t>
+    <t>P3OgaZz#</t>
   </si>
   <si>
     <t>RODRIGUEZ PINCAY CARLOS BRYAN</t>
@@ -4553,7 +4553,7 @@
     <t>carlos.rodriguezp@espam.edu.ec</t>
   </si>
   <si>
-    <t>J0GQ0mib</t>
+    <t>taYh!w6S</t>
   </si>
   <si>
     <t>SABANDO VELEZ CRISTHIAN ANTHONY</t>
@@ -4562,7 +4562,7 @@
     <t>cristhian.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>!g4J93ji</t>
+    <t>sc/sD/6O</t>
   </si>
   <si>
     <t>SANTANA VERA ANTHONY JAHIR</t>
@@ -4571,7 +4571,7 @@
     <t>anthony.santana@espam.edu.ec</t>
   </si>
   <si>
-    <t>VYUy&amp;P/t</t>
+    <t>wWss1nDx</t>
   </si>
   <si>
     <t>VELEZ ESPINOZA JUNIOR JESUS</t>
@@ -4580,7 +4580,7 @@
     <t>junior.veleze@espam.edu.ec</t>
   </si>
   <si>
-    <t>6#VrxliH</t>
+    <t>9dD&amp;L?T8</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO DIEGO ALEJANDRO</t>
@@ -4589,7 +4589,7 @@
     <t>diego.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>qC&amp;92PPj</t>
+    <t>v16?mBoO</t>
   </si>
   <si>
     <t>ZAMBRANO VELEZ NAYELHY LILIBETH</t>
@@ -4598,7 +4598,7 @@
     <t>nayelhy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>wkoeMY&amp;8</t>
+    <t>uG6f7fh0</t>
   </si>
   <si>
     <t>ZAMBRANO WITONG KENIA THAIS</t>
@@ -4607,7 +4607,7 @@
     <t>keniath.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>GK3CnfWU</t>
+    <t>GjB/S6uR</t>
   </si>
   <si>
     <t>ANCHUNDIA ANCHUNDIA GEMA LILIBETH</t>
@@ -4616,7 +4616,7 @@
     <t>gema.anchundia@espam.edu.ec</t>
   </si>
   <si>
-    <t>!tWo#j3o</t>
+    <t>HUYu0TYT</t>
   </si>
   <si>
     <t>ARTEAGA DELGADO JEAN CARLOS</t>
@@ -4625,7 +4625,7 @@
     <t>jean.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>6UF4hN25</t>
+    <t>2a3yl#nS</t>
   </si>
   <si>
     <t>BARREIRO ZAMBRANO JOSE VICENTE</t>
@@ -4634,7 +4634,7 @@
     <t>jose.barreiro@espam.edu.ec</t>
   </si>
   <si>
-    <t>9k1?h!wD</t>
+    <t>hRGy49fW</t>
   </si>
   <si>
     <t>BASURTO ALCIVAR DARWIN JESUS</t>
@@ -4643,7 +4643,7 @@
     <t>darwin.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>SOW7!qoY</t>
+    <t>2woUPqQQ</t>
   </si>
   <si>
     <t>BRAVO CEDEÑO JOSE RODOLFO</t>
@@ -4652,7 +4652,7 @@
     <t>jose.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>K7GI?X9M</t>
+    <t>vrchcDzA</t>
   </si>
   <si>
     <t>BRIONES BERMEO ANTONY JAVIER</t>
@@ -4661,7 +4661,7 @@
     <t>antony.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>FYCkw!VU</t>
+    <t>yQTVTRvp</t>
   </si>
   <si>
     <t>CEDEÑO ANCHUNDIA YANDRY ANTONIO</t>
@@ -4673,7 +4673,7 @@
     <t>yandry.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>OrHruP?H</t>
+    <t>OEGTGToM</t>
   </si>
   <si>
     <t>CEDEÑO PEÑARRIETA DAYANA SOPHIA</t>
@@ -4682,7 +4682,7 @@
     <t>dayanaso.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>eT6dwERa</t>
+    <t>ddH4Fnhg</t>
   </si>
   <si>
     <t>CHAVARRIA PEÑARRIETA MARCOS ALEJANDRO</t>
@@ -4691,7 +4691,7 @@
     <t>marcos.chavarria@espam.edu.ec</t>
   </si>
   <si>
-    <t>MQ&amp;3dBxE</t>
+    <t>F?!dcRlT</t>
   </si>
   <si>
     <t>DEL VALLE BASURTO CARMEN MELINA</t>
@@ -4700,7 +4700,7 @@
     <t>carmen.del@espam.edu.ec</t>
   </si>
   <si>
-    <t>A?OjdLCk</t>
+    <t>3QW7FaVJ</t>
   </si>
   <si>
     <t>GUERRERO BRAVO ANA BELEN</t>
@@ -4709,7 +4709,7 @@
     <t>ana.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>En3v1w4Q</t>
+    <t>Fwt8W/zf</t>
   </si>
   <si>
     <t>GUERRERO GUERRERO JOSSELYN MELISSA</t>
@@ -4718,7 +4718,7 @@
     <t>josselyn.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>vPliWA#R</t>
+    <t>KinG52Qm</t>
   </si>
   <si>
     <t>INTRIAGO BARBERAN LAURO ANTONIO</t>
@@ -4727,7 +4727,7 @@
     <t>lauro.intriago1@espam.edu.ec</t>
   </si>
   <si>
-    <t>fq8ZdZzz</t>
+    <t>Hz9RQupI</t>
   </si>
   <si>
     <t>INTRIAGO MORA LENIN ARCENIO</t>
@@ -4736,7 +4736,7 @@
     <t>lenin.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>m2L4RNVe</t>
+    <t>Tfamsa6Y</t>
   </si>
   <si>
     <t>MACIAS CALDERON JOSE ARIEL</t>
@@ -4745,7 +4745,7 @@
     <t>jose.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>mRUHmFQy</t>
+    <t>ouqmKC1?</t>
   </si>
   <si>
     <t>MARCILLO VELEZ ANA PATRICIA</t>
@@ -4754,7 +4754,7 @@
     <t>ana.marcillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>il/yX#Dq</t>
+    <t>OVB6NKg3</t>
   </si>
   <si>
     <t>MERA FIGUEROA RAYMOND ALEJANDRO</t>
@@ -4763,7 +4763,7 @@
     <t>raymond.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>VGmNc/mV</t>
+    <t>FDfeZcmz</t>
   </si>
   <si>
     <t>MOREIRA ZAMBRANO JOSSENKA MERCEDES</t>
@@ -4772,7 +4772,7 @@
     <t>jossenka.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>1xL4&amp;VEp</t>
+    <t>&amp;?d3OEXS</t>
   </si>
   <si>
     <t>MUÑOZ ALCIVAR CRISTHIAN MARTIN</t>
@@ -4781,7 +4781,7 @@
     <t>cristhian.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>/14ZACAG</t>
+    <t>5?A&amp;SgAU</t>
   </si>
   <si>
     <t>MUÑOZ MACIAS MARIA MAGDALENA</t>
@@ -4790,7 +4790,7 @@
     <t>mariama.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>6GfIdW68</t>
+    <t>HLuY2cNw</t>
   </si>
   <si>
     <t>POLO GANCHOZO ARON ESNEYDER</t>
@@ -4799,7 +4799,7 @@
     <t>aron.polo@espam.edu.ec</t>
   </si>
   <si>
-    <t>S8X7F0Kn</t>
+    <t>/BaK?G2v</t>
   </si>
   <si>
     <t>RIOS BERMELLO JENIFFER LIZETH</t>
@@ -4808,7 +4808,7 @@
     <t>jeniffer.rios@espam.edu.ec</t>
   </si>
   <si>
-    <t>NLnZZJjr</t>
+    <t>TVD#fwIM</t>
   </si>
   <si>
     <t>SALVATIERRA VALDEZ VICKY NICOLLE</t>
@@ -4817,7 +4817,7 @@
     <t>vicky.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>CHI4f6uI</t>
+    <t>4cAKpCR6</t>
   </si>
   <si>
     <t>SANTOS VELEZ MONICA GERMANIA</t>
@@ -4826,7 +4826,7 @@
     <t>monica.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>cbI/gQqh</t>
+    <t>WC&amp;ToQm/</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO MILENA DENISSE</t>
@@ -4835,7 +4835,7 @@
     <t>milena.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>PCHJyIFx</t>
+    <t>NgVJ!P9H</t>
   </si>
   <si>
     <t>TUQUERES TACURI JESSICA MARIBELL</t>
@@ -4844,7 +4844,7 @@
     <t>jessica.tuqueres@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zjjeh9np</t>
+    <t>Q#O2Trgv</t>
   </si>
   <si>
     <t>VERDUGA ERAZO JOSUE SALVADOR</t>
@@ -4853,7 +4853,7 @@
     <t>josue.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ar9F0O4O</t>
+    <t>41Gr1YZo</t>
   </si>
   <si>
     <t>YEPEZ VELIZ GENESIS THALIA</t>
@@ -4862,7 +4862,7 @@
     <t>genesis.yepez@espam.edu.ec</t>
   </si>
   <si>
-    <t>ToxgHhbG</t>
+    <t>5Cg5nH4F</t>
   </si>
   <si>
     <t>ZAMBRANO BASURTO ERICK RAFAEL</t>
@@ -4871,7 +4871,7 @@
     <t>erick.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>2?#Yrw&amp;b</t>
+    <t>PCY0!qKk</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ JANDRY DEIVY</t>
@@ -4880,7 +4880,7 @@
     <t>jandry.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>#CzF8KLX</t>
+    <t>?!Xb5zyw</t>
   </si>
   <si>
     <t>AYONG VERA JUAN DAVID</t>
@@ -4889,7 +4889,7 @@
     <t>juan.ayong@espam.edu.ec</t>
   </si>
   <si>
-    <t>65hmWaZ1</t>
+    <t>j4QUz0K!</t>
   </si>
   <si>
     <t>BASURTO SALAZAR ANGELA MARGARITA</t>
@@ -4898,7 +4898,7 @@
     <t>angela.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>2#E5kPB#</t>
+    <t>Gs9S3ttd</t>
   </si>
   <si>
     <t>CASANOVA INTRIAGO ANDREA BELEN</t>
@@ -4910,7 +4910,7 @@
     <t>andrea.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZNCN9RrC</t>
+    <t>zm9&amp;ngR4</t>
   </si>
   <si>
     <t>CHUMO ZAMBRANO ANTONIO BENITO</t>
@@ -4919,7 +4919,7 @@
     <t>antonio.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Rr5hM0sF</t>
+    <t>STaB&amp;0ZD</t>
   </si>
   <si>
     <t>GARCIA CORTEZ ERIKA STEFANIA</t>
@@ -4928,7 +4928,7 @@
     <t>erika.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>oY?/zbF2</t>
+    <t>#1&amp;xqF?u</t>
   </si>
   <si>
     <t>GOMEZ BARRERA JUNIOR LENIN</t>
@@ -4937,7 +4937,7 @@
     <t>junior.gomez@espam.edu.ec</t>
   </si>
   <si>
-    <t>aCmAYwTe</t>
+    <t>n&amp;KuCuOq</t>
   </si>
   <si>
     <t>LOOR CEDEÑO RICARDO EMANUEL</t>
@@ -4946,7 +4946,7 @@
     <t>ricardo.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>qarptx1x</t>
+    <t>tDNvWyOW</t>
   </si>
   <si>
     <t>LOOR LUCAS EVELYN GUADALUPE</t>
@@ -4958,7 +4958,7 @@
     <t>evelyn.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>?tmhsWzr</t>
+    <t>li!l2uxg</t>
   </si>
   <si>
     <t>LOOR VELASCO FABIANA BELEN</t>
@@ -4970,7 +4970,7 @@
     <t>fabiana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>nCRClwwo</t>
+    <t>ATpTO5RO</t>
   </si>
   <si>
     <t>MARTINEZ CEDEÑO JENIFFER ESTEFANIA</t>
@@ -4979,7 +4979,7 @@
     <t>jeniffer.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>/pUxRhXf</t>
+    <t>8DMW11JB</t>
   </si>
   <si>
     <t>MENDOZA BARRE EDDY ENMANUEL</t>
@@ -4988,7 +4988,7 @@
     <t>eddy.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>1SBJiWov</t>
+    <t>THnV/Ng2</t>
   </si>
   <si>
     <t>MURILLO PALACIOS ULICES JAIR</t>
@@ -4997,7 +4997,7 @@
     <t>ulices.murillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>jiuNZPNi</t>
+    <t>u07iR/Ns</t>
   </si>
   <si>
     <t>QUIJANO ZAMBRANO JONATHAN ERNESTO</t>
@@ -5006,7 +5006,7 @@
     <t>jonathan.quijano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nb!Nx3tB</t>
+    <t>LCdMnfcf</t>
   </si>
   <si>
     <t>ROBLES YORI EFRAIN DAVID</t>
@@ -5015,7 +5015,7 @@
     <t>efrain.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>ImYLGJJ?</t>
+    <t>AlhGqEHL</t>
   </si>
   <si>
     <t>SABANDO ZAMBRANO FREDDY ANTONIO</t>
@@ -5024,7 +5024,7 @@
     <t>freddy.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>!GynVIjN</t>
+    <t>6ec06Qnm</t>
   </si>
   <si>
     <t>SOLORZANO GUERRERO RONALDO WANDERLEY</t>
@@ -5033,7 +5033,7 @@
     <t>ronaldo.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>6qNGeRhd</t>
+    <t>y6Wa!74G</t>
   </si>
   <si>
     <t>VELEZ CALDERON GENESIS MARIANA</t>
@@ -5045,7 +5045,7 @@
     <t>genesis.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>eaqh0q5o</t>
+    <t>&amp;U3cI//4</t>
   </si>
   <si>
     <t>ZAMBRANO BALDA JOSE RAMIRO</t>
@@ -5054,7 +5054,7 @@
     <t>josera.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>K#9yU4ss</t>
+    <t>Bc#nMRhA</t>
   </si>
   <si>
     <t>ZAMBRANO CANTOS YENNY ANNABEL</t>
@@ -5063,7 +5063,7 @@
     <t>yenny.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>yte6SxDT</t>
+    <t>BNlP?PfD</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR CRISTHIAN LEONARDO</t>
@@ -5072,7 +5072,7 @@
     <t>cristhian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>!0IBtgv9</t>
+    <t>yNzXa8!M</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR DIANA STEFANIA</t>
@@ -5081,7 +5081,7 @@
     <t>dianas.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>XdRU9Nef</t>
+    <t>M4sxv&amp;EF</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR MARIA EMILIA</t>
@@ -5090,7 +5090,7 @@
     <t>maria.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z4JE5cO9</t>
+    <t>9Kre0Tl#</t>
   </si>
   <si>
     <t>ZAMBRANO MOREIRA LEONELA ALEJANDRA</t>
@@ -5099,7 +5099,7 @@
     <t>leonela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>AuTw5Xm?</t>
+    <t>!Xp#D4Y#</t>
   </si>
   <si>
     <t>ALAVA ORTIZ EDWIN ALEXANDER</t>
@@ -5108,7 +5108,7 @@
     <t>edwin.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>Livl&amp;UN0</t>
+    <t>!2lQl2NH</t>
   </si>
   <si>
     <t>ALCIVAR LOOR GEMA LISBETH</t>
@@ -5117,7 +5117,7 @@
     <t>gemal.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>e#BGLiuB</t>
+    <t>!ETVcCEJ</t>
   </si>
   <si>
     <t>AVELLAN SANTANA GENESIS NICOLLE</t>
@@ -5126,7 +5126,7 @@
     <t>genesis.avellan@espam.edu.ec</t>
   </si>
   <si>
-    <t>1o?5CGgG</t>
+    <t>CTv&amp;ENin</t>
   </si>
   <si>
     <t>CALDERON SANCHEZ SANDY KATHERINE</t>
@@ -5138,7 +5138,7 @@
     <t>sandy.calderon@espam.edu.ec</t>
   </si>
   <si>
-    <t>A6!pPdTW</t>
+    <t>OrOjsoSP</t>
   </si>
   <si>
     <t>CARDENAS ASTUDILLO ANGELA JULIANA</t>
@@ -5150,7 +5150,7 @@
     <t>angela.cardenas@espam.edu.ec</t>
   </si>
   <si>
-    <t>lg6z&amp;aOr</t>
+    <t>UAqNc3f#</t>
   </si>
   <si>
     <t>CARRILLO PACHAY MARCO STEVE</t>
@@ -5159,7 +5159,7 @@
     <t>marco.carrillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>zjbkzjnc</t>
+    <t>ns9JmbSp</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO BRYAN ISIDRO</t>
@@ -5168,7 +5168,7 @@
     <t>bryan.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>NH2aGYUF</t>
+    <t>dwlXizLb</t>
   </si>
   <si>
     <t>CEVALLOS SALTOS ANTHONY FERNANDO</t>
@@ -5177,7 +5177,7 @@
     <t>anthonyf.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>x8MfJbzm</t>
+    <t>U9kVRxBk</t>
   </si>
   <si>
     <t>CHANG ZAMBRANO MARTHA YAMILETH</t>
@@ -5186,7 +5186,7 @@
     <t>martha.chang@espam.edu.ec</t>
   </si>
   <si>
-    <t>vAji5gj?</t>
+    <t>DM0tsC4X</t>
   </si>
   <si>
     <t>CHIRIBOGA FARIAS LUIS FERNANDO</t>
@@ -5195,7 +5195,7 @@
     <t>luis.chiriboga@espam.edu.ec</t>
   </si>
   <si>
-    <t>qFg1rNc4</t>
+    <t>fDoQSj&amp;N</t>
   </si>
   <si>
     <t>ESPINOZA PILAY JERSON JOSE</t>
@@ -5204,7 +5204,7 @@
     <t>jerson.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>0S9nL3E7</t>
+    <t>xICtvdG0</t>
   </si>
   <si>
     <t>FARIAS MERA MAURICIO ANDRES</t>
@@ -5213,7 +5213,7 @@
     <t>mauricio.farias@espam.edu.ec</t>
   </si>
   <si>
-    <t>7a0noiWs</t>
+    <t>MQ36XALx</t>
   </si>
   <si>
     <t>HERNANDEZ GONZALEZ JAMILEX KAREY</t>
@@ -5225,7 +5225,7 @@
     <t>jamilex.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>1jTAg7k!</t>
+    <t>TT0ZckSk</t>
   </si>
   <si>
     <t>LEONES FALCONES ABAD JHOAN</t>
@@ -5234,7 +5234,7 @@
     <t>abad.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>oikD/5o2</t>
+    <t>AEkKgDUX</t>
   </si>
   <si>
     <t>LOOR CEVALLOS ANA MARIA</t>
@@ -5243,7 +5243,7 @@
     <t>anama.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZRI/GFyq</t>
+    <t>5IpAKqI#</t>
   </si>
   <si>
     <t>LOOR LOOR RONALD POLIVIO</t>
@@ -5252,7 +5252,7 @@
     <t>ronald.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>eWIfBPCf</t>
+    <t>pBV3TeJh</t>
   </si>
   <si>
     <t>LOOR REYES GENESIS JAMILETH</t>
@@ -5261,7 +5261,7 @@
     <t>genesis.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>TxoTdysr</t>
+    <t>Hu!jjMON</t>
   </si>
   <si>
     <t>MACIAS BRAVO RICARDO FRANCISCO</t>
@@ -5270,7 +5270,7 @@
     <t>ricardo.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>QV/o#4ib</t>
+    <t>zltP9YQD</t>
   </si>
   <si>
     <t>MACIAS MACIAS LISSETH LILIBETH</t>
@@ -5279,7 +5279,7 @@
     <t>lisseth.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>K&amp;fYgfku</t>
+    <t>0Qkm3BDH</t>
   </si>
   <si>
     <t>MANZABA CEDEÑO KEVIN ALBERTO</t>
@@ -5288,7 +5288,7 @@
     <t>kevin.manzaba@espam.edu.ec</t>
   </si>
   <si>
-    <t>93QJgV8u</t>
+    <t>vA2lFsm!</t>
   </si>
   <si>
     <t>MARQUEZ LEMA NAYELI SABRINA</t>
@@ -5297,7 +5297,7 @@
     <t>nayeli.marquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>84rgV0wz</t>
+    <t>folAPdA3</t>
   </si>
   <si>
     <t>MENDOZA BRIONES MARIUXI KATHERINE</t>
@@ -5309,7 +5309,7 @@
     <t>mariuxi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>kNHv&amp;i8P</t>
+    <t>NzmMGbuj</t>
   </si>
   <si>
     <t>MOLINA CEDEÑO JUAN DE DIOS</t>
@@ -5318,7 +5318,7 @@
     <t>juan.molina@espam.edu.ec</t>
   </si>
   <si>
-    <t>uEsUndpw</t>
+    <t>BR5SsN7E</t>
   </si>
   <si>
     <t>MONTESDEOCA GARCIA YUDID ALEXANDRA</t>
@@ -5327,7 +5327,7 @@
     <t>yudid.montesdeoca@espam.edu.ec</t>
   </si>
   <si>
-    <t>osgfobTq</t>
+    <t>U0GqK5VU</t>
   </si>
   <si>
     <t>MUÑOZ MERA JUAN PABLO</t>
@@ -5336,7 +5336,7 @@
     <t>juan.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>17HlwF/L</t>
+    <t>jFIJd9&amp;1</t>
   </si>
   <si>
     <t>NAVARRETE ORMAZA ERICK ALEXANDER</t>
@@ -5345,7 +5345,7 @@
     <t>erick.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>n1miT1Zq</t>
+    <t>/vajr!Y7</t>
   </si>
   <si>
     <t>OCAMPO BARRE ANTHONY VICENTE</t>
@@ -5354,7 +5354,7 @@
     <t>anthony.ocampo@espam.edu.ec</t>
   </si>
   <si>
-    <t>DCWYPmtG</t>
+    <t>TtiOx3GT</t>
   </si>
   <si>
     <t>PARRALES FALCONES ANTHONY LEONARDO</t>
@@ -5363,7 +5363,7 @@
     <t>anthony.parrales@espam.edu.ec</t>
   </si>
   <si>
-    <t>5SHWGzvU</t>
+    <t>p8lscaI7</t>
   </si>
   <si>
     <t>RAMOS SALTOS NICOLE PAOLA</t>
@@ -5372,7 +5372,7 @@
     <t>nicole.ramos@espam.edu.ec</t>
   </si>
   <si>
-    <t>jZpBzlJV</t>
+    <t>vxmcHyR4</t>
   </si>
   <si>
     <t>ROBLES MOLINA JENIFFER STEFANIA</t>
@@ -5381,7 +5381,7 @@
     <t>jeniffer.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>5LkUl&amp;vT</t>
+    <t>yLAUnkbx</t>
   </si>
   <si>
     <t>RODRIGUEZ CAMPOS JEAN KATHERINE</t>
@@ -5390,7 +5390,7 @@
     <t>jean.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>oBX?eYjF</t>
+    <t>/yk7v#wY</t>
   </si>
   <si>
     <t>SANCHEZ MEDINA GISSEL STEPHANIE</t>
@@ -5399,7 +5399,7 @@
     <t>gissel.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>jCVB!PKD</t>
+    <t>&amp;y/!n7r8</t>
   </si>
   <si>
     <t>VASQUEZ VERA ARGENIS JAVIER</t>
@@ -5408,7 +5408,7 @@
     <t>argenis.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>wREmVM#T</t>
+    <t>430GXQac</t>
   </si>
   <si>
     <t>VASQUEZ VERA MARIA MERCEDES</t>
@@ -5417,7 +5417,7 @@
     <t>maria.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>MD6pXzR&amp;</t>
+    <t>j2vLKDkn</t>
   </si>
   <si>
     <t>VELEZ MERA JOSSELYN JOSSENKA</t>
@@ -5426,7 +5426,7 @@
     <t>josselynjo.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>nW3Vk1A3</t>
+    <t>Rhejz6l2</t>
   </si>
   <si>
     <t>VELEZ PALACIOS STEVEN RAMON</t>
@@ -5435,7 +5435,7 @@
     <t>steven.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>S9dv#Ywq</t>
+    <t>MpR2N1yt</t>
   </si>
   <si>
     <t>VERA BRAVO MARY LAURA</t>
@@ -5444,7 +5444,7 @@
     <t>mary.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>tt5DivNG</t>
+    <t>lkWTh2uB</t>
   </si>
   <si>
     <t>VILLAMIL VALENCIA ISABEL ANDREA</t>
@@ -5453,7 +5453,7 @@
     <t>isabel.villamil@espam.edu.ec</t>
   </si>
   <si>
-    <t>Dk!blnLR</t>
+    <t>/L&amp;44pzq</t>
   </si>
   <si>
     <t>ZAMBRANO COBEÑA PABLO ALBERTO</t>
@@ -5462,7 +5462,7 @@
     <t>pablo.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;BUCe#uP</t>
+    <t>B&amp;C9p1BH</t>
   </si>
   <si>
     <t>ALVAREZ INTRIAGO MAILIN KATHERINE</t>
@@ -5471,7 +5471,7 @@
     <t>mailin.alvarez@espam.edu.ec</t>
   </si>
   <si>
-    <t>fGajkvGh</t>
+    <t>V1IPCIRV</t>
   </si>
   <si>
     <t>BRAVO ARTEAGA RICARDO JAVIER</t>
@@ -5480,7 +5480,7 @@
     <t>ricardo.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>u5GO6mFY</t>
+    <t>#TUiR2nL</t>
   </si>
   <si>
     <t>BRAVO VERGARA GEMA CAROLINA</t>
@@ -5489,7 +5489,7 @@
     <t>gemac.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>QT5p#LTI</t>
+    <t>h#8UK9CJ</t>
   </si>
   <si>
     <t>CEDEÑO VELASQUEZ GEMA GUADALUPE</t>
@@ -5498,7 +5498,7 @@
     <t>gemag.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>evbI?tPN</t>
+    <t>FqDv8k4l</t>
   </si>
   <si>
     <t>CHAVEZ VELIZ DENIS ALEXANDER</t>
@@ -5507,7 +5507,7 @@
     <t>denis.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>SEOPT#r5</t>
+    <t>126GxXPp</t>
   </si>
   <si>
     <t>DEMERA ZAMBRANO JACKSON ANDRES</t>
@@ -5516,7 +5516,7 @@
     <t>jackson.demera@espam.edu.ec</t>
   </si>
   <si>
-    <t>OcwjsEjO</t>
+    <t>u2dUndGb</t>
   </si>
   <si>
     <t>GANCHOZO LECTONG GRESSILLE GUISSELLA</t>
@@ -5525,7 +5525,7 @@
     <t>gressille.ganchozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>dYXTqe5U</t>
+    <t>Jf36hrZG</t>
   </si>
   <si>
     <t>INDIO ZAMBRANO ODALIS MICHELLE</t>
@@ -5537,7 +5537,7 @@
     <t>odalis.indio@espam.edu.ec</t>
   </si>
   <si>
-    <t>W!H4OYwN</t>
+    <t>3cAmcAj1</t>
   </si>
   <si>
     <t>INTRIAGO TERAN BRYAN ASDRUBAL</t>
@@ -5546,7 +5546,7 @@
     <t>bryan.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>?DV?3/JQ</t>
+    <t>HZxoEVeT</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO GISSELA KAROLINA</t>
@@ -5555,7 +5555,7 @@
     <t>gissela.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>azYUTt6U</t>
+    <t>fvROtsvm</t>
   </si>
   <si>
     <t>LEONES SOLORZANO YARITZA DANIELA</t>
@@ -5564,7 +5564,7 @@
     <t>yaritza.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>WqS1vAa&amp;</t>
+    <t>g&amp;xyn015</t>
   </si>
   <si>
     <t>LOPEZ MORA JOSSELYN AMARILYS</t>
@@ -5573,7 +5573,7 @@
     <t>josselyn.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>?pzB/C8N</t>
+    <t>kQE26lMC</t>
   </si>
   <si>
     <t>MERA LOOR ANTONY ELIAN</t>
@@ -5582,7 +5582,7 @@
     <t>antony.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>9lLdbd7h</t>
+    <t>IN!Vmjo6</t>
   </si>
   <si>
     <t>MERA SABANDO GEMA YAMILETH</t>
@@ -5591,7 +5591,7 @@
     <t>gema.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>f!ju91bG</t>
+    <t>8uaZ23/n</t>
   </si>
   <si>
     <t>MIRANDA IBARRA ALFONSO SEBASTIAN</t>
@@ -5600,7 +5600,7 @@
     <t>alfonso.miranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>yNQNrZYx</t>
+    <t>6RnegTio</t>
   </si>
   <si>
     <t>MONGE ERAZO JECSY PIERINA</t>
@@ -5609,7 +5609,7 @@
     <t>jecsy.monge@espam.edu.ec</t>
   </si>
   <si>
-    <t>d2WYlve7</t>
+    <t>yYOOwmuC</t>
   </si>
   <si>
     <t>ROMERO ORTEGA ANGEL ANDRES</t>
@@ -5618,7 +5618,7 @@
     <t>angel.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>faiunFgJ</t>
+    <t>2HQTce9K</t>
   </si>
   <si>
     <t>SOLORZANO INTRIAGO OSCAR FABIAN</t>
@@ -5630,7 +5630,7 @@
     <t>oscar.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>dHW01F1i</t>
+    <t>AfT6Y0Vy</t>
   </si>
   <si>
     <t>VALVERDE ZAPATA KATHIUSCA CARLOTA</t>
@@ -5642,7 +5642,7 @@
     <t>kathiusca.valverde@espam.edu.ec</t>
   </si>
   <si>
-    <t>XLUcU1dF</t>
+    <t>zP/vHA9d</t>
   </si>
   <si>
     <t>VERA AYALA GENESIS LISBETH</t>
@@ -5651,7 +5651,7 @@
     <t>genesis.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>qtshGR9/</t>
+    <t>7R0gx&amp;Cs</t>
   </si>
   <si>
     <t>VERA PULIDO MARIA IVANNA</t>
@@ -5660,7 +5660,7 @@
     <t>mariai.verap@espam.edu.ec</t>
   </si>
   <si>
-    <t>YM/DsdzU</t>
+    <t>5pwUghv0</t>
   </si>
   <si>
     <t>VERA ZAMBRANO JAZMIN CAROLINA</t>
@@ -5669,7 +5669,7 @@
     <t>jazmin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>aFcBsdpi</t>
+    <t>k9JLnkaL</t>
   </si>
   <si>
     <t>VERGARA ARBOLEDA WENDY DEL ROCIO</t>
@@ -5681,7 +5681,7 @@
     <t>wendy.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>c5PbNFj/</t>
+    <t>1VpPq#fJ</t>
   </si>
   <si>
     <t>VILLAMAR GONZALEZ ELENA SAMANTA</t>
@@ -5690,7 +5690,7 @@
     <t>elena.villamar@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Bnq04WX</t>
+    <t>K/xWc1HP</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR GENESIS VALENTINA</t>
@@ -5699,7 +5699,7 @@
     <t>genesis.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>l0dEDVRT</t>
+    <t>0gzPSg&amp;J</t>
   </si>
   <si>
     <t>ZAMBRANO CHAVEZ ANDREA MONSERRATE</t>
@@ -5708,7 +5708,7 @@
     <t>andream.zambranoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>My4jnfRX</t>
+    <t>emq3&amp;gMJ</t>
   </si>
   <si>
     <t>ZAMBRANO GRACIA DANIELA ANGELINA</t>
@@ -5717,7 +5717,7 @@
     <t>daniela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>dcX7BHM8</t>
+    <t>5&amp;5rHFku</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ WILLY JHONAY</t>
@@ -5726,7 +5726,7 @@
     <t>willy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>uliqZlbO</t>
+    <t>mE4ya9Sm</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO TATIANA ELIZABETH</t>
@@ -5735,7 +5735,7 @@
     <t>tatianael.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Nk3H&amp;W5</t>
+    <t>HsF4!?LE</t>
   </si>
 </sst>
 </file>

--- a/public/storage/seeds/datosPassword.xlsx
+++ b/public/storage/seeds/datosPassword.xlsx
@@ -44,7 +44,7 @@
     <t>angie.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>nUrcCNb9</t>
+    <t>EuvpW/ux</t>
   </si>
   <si>
     <t>ALCIVAR VERA KARLA MILENA</t>
@@ -53,7 +53,7 @@
     <t>karla.alcivar.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>q8RdTBIf</t>
+    <t>6KCaO&amp;5c</t>
   </si>
   <si>
     <t>ALVIA ROCA HENRY ISAAC</t>
@@ -65,7 +65,7 @@
     <t>henry.alvia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>iEZlvSmx</t>
+    <t>BiH4WUoW</t>
   </si>
   <si>
     <t>ANANGONO GOMEZ ANA MARCELA</t>
@@ -74,7 +74,7 @@
     <t>ana.anangono.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>4WUYvr4o</t>
+    <t>GxV98rk#</t>
   </si>
   <si>
     <t>BRAVO MARCILLO NATHALY SILVANA</t>
@@ -86,7 +86,7 @@
     <t>nathaly.bravo.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>pZIwjql!</t>
+    <t>95He/E62</t>
   </si>
   <si>
     <t>BRIONES SUAREZ DANIA MELISSA</t>
@@ -95,7 +95,7 @@
     <t>dania.briones.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>SP8ssJpm</t>
+    <t>G#U0&amp;Y5I</t>
   </si>
   <si>
     <t>CANCHINGRE LOZA MARIANA DE JESUS</t>
@@ -107,7 +107,7 @@
     <t>mariana.canchingre.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>0h/8i/r?</t>
+    <t>dl!XEuWR</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA EMILY JAHAIRA</t>
@@ -116,7 +116,7 @@
     <t>emily.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>xuV3hwI4</t>
+    <t>XpIw/cU9</t>
   </si>
   <si>
     <t>CEDEÑO VELEZ STEVEN ANTONIO</t>
@@ -125,7 +125,7 @@
     <t>steven.cedeno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>MpK?LRS5</t>
+    <t>nil2aQsA</t>
   </si>
   <si>
     <t>CHICA ORDOÑEZ YAIZA ANAHI</t>
@@ -134,7 +134,7 @@
     <t>yaiza.chica.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>EEO/OEUP</t>
+    <t>Oe6UlgHv</t>
   </si>
   <si>
     <t>CORONEL MERO DAMARY SABRINA</t>
@@ -143,7 +143,7 @@
     <t>damary.coronel.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>zTPHiEDN</t>
+    <t>EuMraRNH</t>
   </si>
   <si>
     <t>DELGADO BENAVIDES MELISSA ANDREINA</t>
@@ -152,7 +152,7 @@
     <t>melissa.delgado.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>jHVD3oik</t>
+    <t>fBMewzsd</t>
   </si>
   <si>
     <t>DELGADO SOLORZANO TONY DAMIAN</t>
@@ -161,7 +161,7 @@
     <t>tony.delgado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>2LRQw0gF</t>
+    <t>j0t4c4Ku</t>
   </si>
   <si>
     <t>ELENO GENDE JOSELYN KATHERINE</t>
@@ -173,7 +173,7 @@
     <t>joselyn.eleno.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>4t8ThygO</t>
+    <t>hBO9Fa43</t>
   </si>
   <si>
     <t>GARCIA RIVERA ANGHELA LISBETH</t>
@@ -185,7 +185,7 @@
     <t>anghela.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>mMhC3b?v</t>
+    <t>xIJFCspp</t>
   </si>
   <si>
     <t>GARCIA ROSS PRISCILA TAHILY</t>
@@ -194,7 +194,7 @@
     <t>priscila.garcia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>?gs5/#qi</t>
+    <t>?S4YNIQp</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO MARILYN MICHEL</t>
@@ -203,7 +203,7 @@
     <t>marilyn.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Rlklw10!</t>
+    <t>J&amp;jH0sid</t>
   </si>
   <si>
     <t>LUCAS MENDOZA MOISES NOE</t>
@@ -212,7 +212,7 @@
     <t>moises.lucas.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>1Je3EcOP</t>
+    <t>GntEJy##</t>
   </si>
   <si>
     <t>MANTUANO LOOR JENIFER DANIELA</t>
@@ -221,7 +221,7 @@
     <t>jenifer.mantuano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ex/vaavl</t>
+    <t>PV4UxZFd</t>
   </si>
   <si>
     <t>MENENDEZ SANTANA JOSMELY ANAHI</t>
@@ -230,7 +230,7 @@
     <t>josmely.menendez.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>XvY5SBEG</t>
+    <t>ga6B70AQ</t>
   </si>
   <si>
     <t>MEZA ESPINOZA MISHEL NICOL</t>
@@ -239,7 +239,7 @@
     <t>mishel.meza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>6hoJl3/0</t>
+    <t>RGUGRejY</t>
   </si>
   <si>
     <t>MORANTE TROYA JAIME ANDRES</t>
@@ -248,7 +248,7 @@
     <t>jaime.morante.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>iexTynq9</t>
+    <t>KOAaEo00</t>
   </si>
   <si>
     <t>PARRAGA MOREIRA CINDY ANDREA</t>
@@ -257,7 +257,7 @@
     <t>cindy.parraga.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>g6HI94B0</t>
+    <t>JOMU6ziu</t>
   </si>
   <si>
     <t>PEÑAFIEL VALENCIA JULEISY LISBETH</t>
@@ -269,7 +269,7 @@
     <t>juleisy.penafiel.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>LqzIFGK/</t>
+    <t>bQ0qsWTF</t>
   </si>
   <si>
     <t>PICO CRIOLLO MILETH KATHERINE</t>
@@ -278,7 +278,7 @@
     <t>mileth.pico.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>prY#MPs6</t>
+    <t>C5R3blwe</t>
   </si>
   <si>
     <t>RENDON GILER JUNIOR ARIEL</t>
@@ -287,7 +287,7 @@
     <t>junior.rendon@espam.edu.ec</t>
   </si>
   <si>
-    <t>!2PhTXil</t>
+    <t>?4CF!Qef</t>
   </si>
   <si>
     <t>SALVATIERRA SANTOS BRYAN ALEJANDRO</t>
@@ -296,7 +296,7 @@
     <t>bryan.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>iWQ/Qd7J</t>
+    <t>Z5CN!2v#</t>
   </si>
   <si>
     <t>SOLORZANO LUCAS ALEXANDER JOEL</t>
@@ -308,7 +308,7 @@
     <t>alexander.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>g9Y1evQC</t>
+    <t>tplbqhlJ</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ DAYANA NICOLLE</t>
@@ -317,7 +317,7 @@
     <t>dayanna.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>/hn8Qpua</t>
+    <t>&amp;BnpW!4G</t>
   </si>
   <si>
     <t>TENORIO QUINTERO ELY GILMAR</t>
@@ -329,7 +329,7 @@
     <t>ely.tenorio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>zxLjid#x</t>
+    <t>kiRIBV7A</t>
   </si>
   <si>
     <t>VELASQUEZ DOMINGUEZ JORDAN RICARDO</t>
@@ -338,7 +338,7 @@
     <t>jordan.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2ge3tX0r</t>
+    <t>oi#rePnX</t>
   </si>
   <si>
     <t>VILLAVICENCIO SALVADOR MELANIE HELLAIM</t>
@@ -350,7 +350,7 @@
     <t>melanie.villavicencio.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>!x9JS71t</t>
+    <t>!I12oUEE</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO ANGELO ALEXANDER</t>
@@ -359,7 +359,7 @@
     <t>angelo.zambrano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ExP6ezea</t>
+    <t>yoiJZR15</t>
   </si>
   <si>
     <t>ZAMBRANO VALENCIA SHIRLEY EDITH</t>
@@ -368,7 +368,7 @@
     <t>shirley.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>sEQP5?IN</t>
+    <t>ncTth923</t>
   </si>
   <si>
     <t>ANGEL GOMEZ GILENY NAHOMY</t>
@@ -380,7 +380,7 @@
     <t>gileny.angel.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>sO51j9S9</t>
+    <t>1dCAsjw5</t>
   </si>
   <si>
     <t>BARRE QUIJANO DARWIN JOSE</t>
@@ -389,7 +389,7 @@
     <t>darwin.barre@espam.edu.ec</t>
   </si>
   <si>
-    <t>#plUJPqD</t>
+    <t>!TF70US3</t>
   </si>
   <si>
     <t>BRAVO ALVAREZ EMILY JESUS</t>
@@ -398,7 +398,7 @@
     <t>emily.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>4jfe9dKS</t>
+    <t>Ji#B/MXY</t>
   </si>
   <si>
     <t>CAGUA YOONG NAHOMY JAMILETH</t>
@@ -407,7 +407,7 @@
     <t>nahomy.cagua.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>2VKSIK8#</t>
+    <t>LRjLNCUF</t>
   </si>
   <si>
     <t>CASTILLO CEDEÑO EMILIA MARICELA</t>
@@ -416,7 +416,7 @@
     <t>emilia.castillo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>jdyjGBvm</t>
+    <t>h/lYRIoU</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO JOSE DANIEL</t>
@@ -425,7 +425,7 @@
     <t>jose.cedenoz.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>0InqPHqS</t>
+    <t>j8RNibvE</t>
   </si>
   <si>
     <t>CIFUENTES VELASQUEZ JOSE JAHIR</t>
@@ -434,7 +434,7 @@
     <t>jose.cifuentes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>i3t?&amp;dWf</t>
+    <t>3#mk78XF</t>
   </si>
   <si>
     <t>CONFORME CIFUENTES ROBERTH JESUS</t>
@@ -443,7 +443,7 @@
     <t>roberth.conforme.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>aipw8PGR</t>
+    <t>bN8B45ym</t>
   </si>
   <si>
     <t>CORDERO GILER SALMA PAOLA</t>
@@ -452,7 +452,7 @@
     <t>salma.cordero.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>bDJ?B6lQ</t>
+    <t>49NJaMbS</t>
   </si>
   <si>
     <t>FARIAS VELIZ RENE OCTAVIO</t>
@@ -461,7 +461,7 @@
     <t>rene.farias.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>6&amp;1oKUQg</t>
+    <t>&amp;7&amp;muwnl</t>
   </si>
   <si>
     <t>GARCIA DUEÑAS JEAN FERNANDO</t>
@@ -470,7 +470,7 @@
     <t>jean.garcia.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ezVeLxga</t>
+    <t>sOcTU!a6</t>
   </si>
   <si>
     <t>HERRERA BASURTO IVIS ANTONELLA</t>
@@ -479,7 +479,7 @@
     <t>ivis.herrera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>4w?VXUvT</t>
+    <t>m6uIV3pr</t>
   </si>
   <si>
     <t>HIDALGO LOOR MARLYN NALLELY</t>
@@ -488,7 +488,7 @@
     <t>marlyn.hidalgo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>ggOtm8g1</t>
+    <t>PTc!nrW5</t>
   </si>
   <si>
     <t>IBARRA CHAVARRIA JUAN DIEGO</t>
@@ -497,7 +497,7 @@
     <t>juan.ibarra.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>ApioZ3CX</t>
+    <t>gJv/natX</t>
   </si>
   <si>
     <t>JAYA ZAPATA VICTOR EDUARDO</t>
@@ -506,7 +506,7 @@
     <t>victor.jaya.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>iLq2wvUa</t>
+    <t>7b30V6XQ</t>
   </si>
   <si>
     <t>LOOR DELGADO JERRY JOEL</t>
@@ -515,7 +515,7 @@
     <t>jerry.loor.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>gcSnG5mT</t>
+    <t>Sl7lvLmF</t>
   </si>
   <si>
     <t>MANTUANO PONCE MELANY MONCERRATE</t>
@@ -524,7 +524,7 @@
     <t>melany.mantuano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>XrLapmY9</t>
+    <t>Rza/USdH</t>
   </si>
   <si>
     <t>MENDOZA VASQUEZ ARIEL ALEXIS</t>
@@ -536,7 +536,7 @@
     <t>ariel.mendoza.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>?tfc9e8T</t>
+    <t>mPt7PWIb</t>
   </si>
   <si>
     <t>MOREIRA GARCIA MACARIO EMANUEL</t>
@@ -545,7 +545,7 @@
     <t>macario.moreira.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z1fetBKl</t>
+    <t>xanOQ!wY</t>
   </si>
   <si>
     <t>MOREIRA GILCES GABRIELA NIKOL</t>
@@ -554,7 +554,7 @@
     <t>gabriela.moreira.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>taJw!Ma5</t>
+    <t>aTI?cML/</t>
   </si>
   <si>
     <t>NOBOA MONTESDEOCA INGRITH MADELEYN</t>
@@ -563,7 +563,7 @@
     <t>ingrith.noboa.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;7/Wy7nX</t>
+    <t>IeKDxm3G</t>
   </si>
   <si>
     <t>ORDOÑEZ ALCIVAR ALEX PAUL</t>
@@ -572,7 +572,7 @@
     <t>alex.ordonez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>AHPz!GQR</t>
+    <t>D/MVrTd?</t>
   </si>
   <si>
     <t>PALMA GARCIA MELYN JARITZA</t>
@@ -581,7 +581,7 @@
     <t>melyn.palma.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>RiiEpJwZ</t>
+    <t>eIoOEfmi</t>
   </si>
   <si>
     <t>PAREDES MERO GHISLAINE ANAHI</t>
@@ -590,7 +590,7 @@
     <t>ghislaine.paredes.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>3LCXFGlz</t>
+    <t>aC149azh</t>
   </si>
   <si>
     <t>QUIJIJE PIANDA XIOMARA MISHELLE</t>
@@ -602,7 +602,7 @@
     <t>xiomara.quijije.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>IR1ylfGo</t>
+    <t>1dR2tzrB</t>
   </si>
   <si>
     <t>SALAVARRIA AVEIGA YULIANA GUADALUPE</t>
@@ -611,7 +611,7 @@
     <t>yuliana.salavarria.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>TPpNKYqF</t>
+    <t>sse16Ifn</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR JAIR SEBASTIAN</t>
@@ -620,7 +620,7 @@
     <t>jair.santos.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>uAkbrSYO</t>
+    <t>YLPjeAhs</t>
   </si>
   <si>
     <t>SOLORZANO CANDELA JARITZA NOHEMY</t>
@@ -629,7 +629,7 @@
     <t>jaritza.solorzano.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;&amp;e58K71</t>
+    <t>dquo1Lwg</t>
   </si>
   <si>
     <t>VERA CEBALLOS MARIA CONCEPCION</t>
@@ -638,7 +638,7 @@
     <t>maria.vera.0222@espam.edu.ec</t>
   </si>
   <si>
-    <t>F9#JrR6l</t>
+    <t>B2yLW3g1</t>
   </si>
   <si>
     <t>ALAVA MUÑOZ BILL JARVI</t>
@@ -647,7 +647,7 @@
     <t>bill.alava.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>/vNvEfoZ</t>
+    <t>UYjLZS35</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO ESTHER JOMARA</t>
@@ -656,7 +656,7 @@
     <t>esther.alcivar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>FsrI1YrF</t>
+    <t>Sve49Xk1</t>
   </si>
   <si>
     <t>ALMEIDA LOOR MARIA VICTORIA</t>
@@ -665,7 +665,7 @@
     <t>maria.almeida.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>uRrTG31Q</t>
+    <t>krXa0PEB</t>
   </si>
   <si>
     <t>ANDRADE VILLAVICENCIO PABLO HUGO</t>
@@ -674,7 +674,7 @@
     <t>pablo.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>!Q&amp;4jTO8</t>
+    <t>2veK!F4k</t>
   </si>
   <si>
     <t>AVENDAÑO YZQUIERDO ADRIANA ISABEL</t>
@@ -686,7 +686,7 @@
     <t>adriana.avendano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>nVrirrEr</t>
+    <t>JEqzOrMy</t>
   </si>
   <si>
     <t>BALUARTE PARRAGA MAYERLY NARCISA</t>
@@ -698,7 +698,7 @@
     <t>mayerly.baluarte.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>IZ7hG8YD</t>
+    <t>iqVbhtwJ</t>
   </si>
   <si>
     <t>BARRE CASTAÑEDA MAYERLI SOLANGE</t>
@@ -710,7 +710,7 @@
     <t>mayerli.barre.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>X?TAKyWM</t>
+    <t>tJ!8iyA5</t>
   </si>
   <si>
     <t>BERMEO MENDOZA LESLY JULIETT</t>
@@ -719,7 +719,7 @@
     <t>lesly.bermeo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>1jmElz2o</t>
+    <t>Pr1WMGHK</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO DANA KATIUSKA</t>
@@ -728,7 +728,7 @@
     <t>dana.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>clVKre6v</t>
+    <t>BF71bBeO</t>
   </si>
   <si>
     <t>CEDEÑO ALVARADO JORGE LUIS</t>
@@ -737,7 +737,7 @@
     <t>jorge.cedeno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>!EnYv?Ao</t>
+    <t>FRz7mQ6n</t>
   </si>
   <si>
     <t>DOMINGUEZ ANGEL ANAIS ZULEYMA</t>
@@ -749,7 +749,7 @@
     <t>anais.dominguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>wNrTvjdK</t>
+    <t>reb6o?GT</t>
   </si>
   <si>
     <t>ESPARZA TELLO ERICKA MARIA</t>
@@ -761,7 +761,7 @@
     <t>ericka.esparza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z78#dqS/</t>
+    <t>kMovHnf6</t>
   </si>
   <si>
     <t>GRAIN MARCILLO MICHAEL JOSUE</t>
@@ -770,7 +770,7 @@
     <t>michael.grain.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>UfxD8pkZ</t>
+    <t>lyUt?o?4</t>
   </si>
   <si>
     <t>JAMA ZAMBRANO ROBERTH XAVIER</t>
@@ -779,7 +779,7 @@
     <t>roberth.jama@espam.edu.ec</t>
   </si>
   <si>
-    <t>I0BmgqZY</t>
+    <t>u0XwPPPa</t>
   </si>
   <si>
     <t>LARA BONE ANGIE NICOLE</t>
@@ -791,7 +791,7 @@
     <t>angie.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>q!CC7arJ</t>
+    <t>Jd3Bacqa</t>
   </si>
   <si>
     <t>LOPEZ DELGADO DAYANA NICOLLE</t>
@@ -800,7 +800,7 @@
     <t>dayana.lopez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>tdp5wprS</t>
+    <t>n/MLjCja</t>
   </si>
   <si>
     <t>MELO CENTENO HELEN SOFIA</t>
@@ -809,7 +809,7 @@
     <t>helen.melo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>G67eE/uv</t>
+    <t>ORhjT0EF</t>
   </si>
   <si>
     <t>MENDOZA ORTEGA ANGELO DANIEL</t>
@@ -818,7 +818,7 @@
     <t>angelo.mendoza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>SP7vmaij</t>
+    <t>cSOR4UOA</t>
   </si>
   <si>
     <t>MERO CARRILLO EMELY MILENA</t>
@@ -827,7 +827,7 @@
     <t>emely.mero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>hczOz/?a</t>
+    <t>e?Ho!?OB</t>
   </si>
   <si>
     <t>MITE MENENDEZ GEORGE ISAAC</t>
@@ -836,7 +836,7 @@
     <t>george.mite.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>hv!XE0o9</t>
+    <t>?g!4q!A/</t>
   </si>
   <si>
     <t>MONCAYO CAGUA LADY NOHELIA</t>
@@ -845,7 +845,7 @@
     <t>lady.moncayo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>sWmsZiN8</t>
+    <t>KRENSjqO</t>
   </si>
   <si>
     <t>ORMAZA ALCIVAR NOHELIA MILENA</t>
@@ -854,7 +854,7 @@
     <t>nohelia.ormaza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>t2aFF893</t>
+    <t>tW2AHYPR</t>
   </si>
   <si>
     <t>PANTA CANDELA YONNY ALEXANDER</t>
@@ -863,7 +863,7 @@
     <t>jonny.panta.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>bpANiJRA</t>
+    <t>S&amp;wIRPyN</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA YAJAIRA NICOLE</t>
@@ -872,7 +872,7 @@
     <t>yajaira.quinatoa.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>pV4TSzoC</t>
+    <t>N8BOEqp4</t>
   </si>
   <si>
     <t>REYNA RAMIREZ SINDY MAHOLY</t>
@@ -881,7 +881,7 @@
     <t>sindy.reyna.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>G1KzXYOT</t>
+    <t>!jq6D/K?</t>
   </si>
   <si>
     <t>RODRIGUEZ ANCHUNDIA LUIS FERNANDO</t>
@@ -890,7 +890,7 @@
     <t>luis.rodriguez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>L8fQwQIR</t>
+    <t>RuygufAC</t>
   </si>
   <si>
     <t>SABANDO TUAREZ MILENA BLANCA</t>
@@ -899,7 +899,7 @@
     <t>milena.sabando.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Fy1pgmd3</t>
+    <t>YZMCV4ct</t>
   </si>
   <si>
     <t>SALAZAR RAMIREZ YARITZA GABRIELA</t>
@@ -908,7 +908,7 @@
     <t>yaritza.salazar.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zt&amp;ctIjo</t>
+    <t>ydGRta8T</t>
   </si>
   <si>
     <t>SHIGUANGO AGUINDA KATTY MIRELLA</t>
@@ -917,7 +917,7 @@
     <t>katty.shiguango.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>9QaMDL2r</t>
+    <t>!s4L2oQF</t>
   </si>
   <si>
     <t>VACA MORALES JOSE EDUARDO</t>
@@ -926,7 +926,7 @@
     <t>jose.vaca.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>rngCo0nS</t>
+    <t>79#p2r5T</t>
   </si>
   <si>
     <t>VELASQUEZ MEJIA ARIANNA ELIZABETH</t>
@@ -935,7 +935,7 @@
     <t>arianna.velasquez.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>pVDva1Qb</t>
+    <t>ePzbFlig</t>
   </si>
   <si>
     <t>VELEZ CEDEÑO YANDRY ALAIN</t>
@@ -944,7 +944,7 @@
     <t>yandry.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>acK9T&amp;Uc</t>
+    <t>P1RFX2Na</t>
   </si>
   <si>
     <t>VERA ZAMORA DIXON YAIR</t>
@@ -953,7 +953,7 @@
     <t>dixon.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>jAtfmWIg</t>
+    <t>5C4Fe9bb</t>
   </si>
   <si>
     <t>ZAMBRANO FORTIS RICARDO MIGUEL</t>
@@ -962,7 +962,7 @@
     <t>ricardo.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>5DifwVrS</t>
+    <t>H&amp;61f#mF</t>
   </si>
   <si>
     <t>ALVARADO DUEÑAS KARELYS VANESSA</t>
@@ -971,7 +971,7 @@
     <t>karelys.alvarado.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>IemCoGzQ</t>
+    <t>dB4tFHJK</t>
   </si>
   <si>
     <t>ANDRADE ILES ALVIERY JAHIR</t>
@@ -983,7 +983,7 @@
     <t>alviery.andrade.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>cC7PWJk3</t>
+    <t>9d3P6xgI</t>
   </si>
   <si>
     <t>ARTEAGA RAMOS DIEGO ALEJANDRO</t>
@@ -992,7 +992,7 @@
     <t>diego.arteaga.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>NpwYvLUd</t>
+    <t>i&amp;sBge0s</t>
   </si>
   <si>
     <t>BARREIRO INTRIAGO STEFANY PIERINA</t>
@@ -1001,7 +1001,7 @@
     <t>stefany.barreiro.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>bXFloR0l</t>
+    <t>/CaKDujl</t>
   </si>
   <si>
     <t>BRAVO QUINTERO SARA NICOLE</t>
@@ -1013,7 +1013,7 @@
     <t>sara.bravo.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>NarcLCcq</t>
+    <t>hISH&amp;bx?</t>
   </si>
   <si>
     <t>CABALLERO MUÑOZ STEVEN FABRICIO</t>
@@ -1022,7 +1022,7 @@
     <t>steven.caballero.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>pWzMNid0</t>
+    <t>q4JomFvB</t>
   </si>
   <si>
     <t>CARRASCO VERA LUCAS JOSUE</t>
@@ -1031,7 +1031,7 @@
     <t>lucas.carrasco.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>cwO#WL6U</t>
+    <t>iQ5qB/D#</t>
   </si>
   <si>
     <t>CEDEÑO MURILLO KENNER STEVEN</t>
@@ -1040,7 +1040,7 @@
     <t>kenner.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>9MO9?908</t>
+    <t>NEK91xMR</t>
   </si>
   <si>
     <t>CUERO PAZMIÑO EMMANUEL JOSUE</t>
@@ -1049,7 +1049,7 @@
     <t>emmanuel.cuero.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>AqXpus3C</t>
+    <t>xydrrysF</t>
   </si>
   <si>
     <t>LADINES CASTRO MIRKA DARLISHA</t>
@@ -1061,7 +1061,7 @@
     <t>mirka.ladines.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>#fl!eUw&amp;</t>
+    <t>U9P8DKJb</t>
   </si>
   <si>
     <t>LARA FRANCO MICHAEL ARGEL</t>
@@ -1073,7 +1073,7 @@
     <t>michael.lara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>t9?Eck19</t>
+    <t>5a&amp;M?&amp;i4</t>
   </si>
   <si>
     <t>LEYTHON QUIÑONEZ JEIMY SILVANA</t>
@@ -1085,7 +1085,7 @@
     <t>jeimy.leython.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>TXtBS5uz</t>
+    <t>3bcMcLNQ</t>
   </si>
   <si>
     <t>LOOR LOOR GENESIS DANIELA</t>
@@ -1094,7 +1094,7 @@
     <t>genesis.loor.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>9JFgD?Vr</t>
+    <t>AQgF7Vo1</t>
   </si>
   <si>
     <t>MATAMBA GUANGA THALIA VALERIA</t>
@@ -1106,7 +1106,7 @@
     <t>thalia.matamba.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>PNf57uqQ</t>
+    <t>7#HoZ1Ab</t>
   </si>
   <si>
     <t>MENDOZA DE LA CRUZ MARTHA DANIELA</t>
@@ -1115,7 +1115,7 @@
     <t>martha.mendoza.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>At9qiiFr</t>
+    <t>/&amp;M?soRN</t>
   </si>
   <si>
     <t>MINOTA BORJA ALEXANDER JAHIR</t>
@@ -1127,7 +1127,7 @@
     <t>alexander.minota.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y9rZ4yVe</t>
+    <t>QUygND&amp;c</t>
   </si>
   <si>
     <t>NAVIA LOOR JOSE EFRAIN</t>
@@ -1136,7 +1136,7 @@
     <t>jose.navia.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>Pdj224?k</t>
+    <t>TXuytKjw</t>
   </si>
   <si>
     <t>PILATAXI UTRERAS KATHERIN JULIETH</t>
@@ -1145,7 +1145,7 @@
     <t>katherin.pilataxi.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>mixo&amp;/?y</t>
+    <t>e94hUhjh</t>
   </si>
   <si>
     <t>PINARGOTE CARREÑO FELIX JOEL</t>
@@ -1154,7 +1154,7 @@
     <t>felix.pinargote.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#?EH4Qo3</t>
+    <t>PYfFxRFB</t>
   </si>
   <si>
     <t>PONCE ZAMBRANO ARIANA JESSENIA</t>
@@ -1163,7 +1163,7 @@
     <t>ariana.ponce.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>2Medbw4H</t>
+    <t>3i6Bqtuu</t>
   </si>
   <si>
     <t>QUINATOA SIMALIZA KELLY MARIUXI</t>
@@ -1172,7 +1172,7 @@
     <t>kelly.quinatoa.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>gAhtGziX</t>
+    <t>TejRINRe</t>
   </si>
   <si>
     <t>ROSADO ROSADO JOEL JESUS</t>
@@ -1181,7 +1181,7 @@
     <t>joel.rosado.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>gln/BDXB</t>
+    <t>7VMcRtay</t>
   </si>
   <si>
     <t>SANMARTIN TAPIA CARMEN EDITH</t>
@@ -1190,7 +1190,7 @@
     <t>carmen.sanmartin.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>i6R2ADnW</t>
+    <t>0BoMD1bW</t>
   </si>
   <si>
     <t>SAYAY DAGUA JOSELYN NICOL</t>
@@ -1202,7 +1202,7 @@
     <t>joselyn.sayay.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>vW6IIP/1</t>
+    <t>?6RKgk5r</t>
   </si>
   <si>
     <t>SOLORZANO PAZMIÑO DECCY DANIELA</t>
@@ -1211,7 +1211,7 @@
     <t>deccy.solorzano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>eJxcRPvA</t>
+    <t>#u5G9rtJ</t>
   </si>
   <si>
     <t>VERGARA ZAMBRANO MATIAS ALEXANDER</t>
@@ -1220,7 +1220,7 @@
     <t>matias.vergara.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>rBT4OOt5</t>
+    <t>2D8AMIXn</t>
   </si>
   <si>
     <t>ZAMBRANO INTRIAGO FRAYDA JESSENIA</t>
@@ -1229,7 +1229,7 @@
     <t>frayda.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>PvzEeREd</t>
+    <t>HVGjIFRj</t>
   </si>
   <si>
     <t>ZAMBRANO VALAREZO ANDREA LISBETH</t>
@@ -1238,7 +1238,7 @@
     <t>andrea.zambrano.0122@espam.edu.ec</t>
   </si>
   <si>
-    <t>aDy/43#J</t>
+    <t>GTdegBdT</t>
   </si>
   <si>
     <t>AGUAS MARTINEZ KEVIN SNAIDER</t>
@@ -1247,7 +1247,7 @@
     <t>kevin.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>tOF12jSK</t>
+    <t>AT0Pn/Kk</t>
   </si>
   <si>
     <t>ANDRADE GARCIA LUZ CRUCELINA</t>
@@ -1256,7 +1256,7 @@
     <t>luz.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>7?C1SFEq</t>
+    <t>V#M5yQ15</t>
   </si>
   <si>
     <t>BARBERAN MERO HELEN ADRIANA</t>
@@ -1265,7 +1265,7 @@
     <t>helen.barberan.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>w!hPvc1j</t>
+    <t>kBtOBZhn</t>
   </si>
   <si>
     <t>BARROS ZAMBRANO DANIEL ANGEL</t>
@@ -1274,7 +1274,7 @@
     <t>daniel.barros.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>d1XYGu/&amp;</t>
+    <t>pr71W6/y</t>
   </si>
   <si>
     <t>BASURTO ZAMBRANO CARLOS RAUL</t>
@@ -1283,7 +1283,7 @@
     <t>carlos.basurto.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>/aDu6LmL</t>
+    <t>jBKa/lvi</t>
   </si>
   <si>
     <t>BRAVO BRAVO ANTHONY ADEMIR</t>
@@ -1292,7 +1292,7 @@
     <t>anthony.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>9VwKq048</t>
+    <t>1fdmuRVJ</t>
   </si>
   <si>
     <t>CANTOS VERA ANGELA AUXILIADORA</t>
@@ -1301,7 +1301,7 @@
     <t>angela.cantos.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>8nGqeiCV</t>
+    <t>8C6DImdc</t>
   </si>
   <si>
     <t>CASTRO BOLAÑO FANNY TATIANA</t>
@@ -1310,7 +1310,7 @@
     <t>fanny.castro.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Q/3YsLv</t>
+    <t>UK#H8Uqx</t>
   </si>
   <si>
     <t>CASTRO SALTOS MATTEWS FARID</t>
@@ -1319,7 +1319,7 @@
     <t>mattews.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>U1lKXz0l</t>
+    <t>Q5acNaBk</t>
   </si>
   <si>
     <t>CHANCAY RADE ANTONY GABRIEL</t>
@@ -1328,7 +1328,7 @@
     <t>antony.chancay@espam.edu.ec</t>
   </si>
   <si>
-    <t>HkHZLEey</t>
+    <t>QuA1P&amp;9o</t>
   </si>
   <si>
     <t>COBEÑA GARCIA YOMAYRA ALEXANDRA</t>
@@ -1337,7 +1337,7 @@
     <t>yomayra.cobena.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>s1!ed6Gj</t>
+    <t>RoCtEwW&amp;</t>
   </si>
   <si>
     <t>CRUZ ERAZO JOSE MIGUEL</t>
@@ -1346,7 +1346,7 @@
     <t>jose.cruz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>lvOiRRKN</t>
+    <t>t&amp;UQzfim</t>
   </si>
   <si>
     <t>GARCIA ANDRADE MARIA ROSA</t>
@@ -1355,7 +1355,7 @@
     <t>maria.garcia.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>QsEMXy2d</t>
+    <t>XLQNJ!t9</t>
   </si>
   <si>
     <t>HERNANDEZ LOPEZ LUIS DAVID</t>
@@ -1364,7 +1364,7 @@
     <t>luis.hernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>R2ucEWnL</t>
+    <t>kPN5tr5V</t>
   </si>
   <si>
     <t>LEON FUENTES JONATHAN ALBINO</t>
@@ -1376,7 +1376,7 @@
     <t>jonathan.leon.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>z/d#WW9p</t>
+    <t>0WSDg6yg</t>
   </si>
   <si>
     <t>MACIAS ANCHUNDIA ROBERTO CARLOS</t>
@@ -1385,7 +1385,7 @@
     <t>roberto.macias.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>iXssLqKd</t>
+    <t>J/huIVlp</t>
   </si>
   <si>
     <t>MAZA AGREDA KAREN IBETH</t>
@@ -1394,7 +1394,7 @@
     <t>karen.maza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xfsvg&amp;4V</t>
+    <t>WyP2oQiJ</t>
   </si>
   <si>
     <t>MUÑOZ MERA LITZY ALEJANDRA</t>
@@ -1403,7 +1403,7 @@
     <t>litzy.munoz.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>vBydWsdL</t>
+    <t>FRE6m0F5</t>
   </si>
   <si>
     <t>MUÑOZ MOLINA ANDRY FABIAN</t>
@@ -1412,7 +1412,7 @@
     <t>andry.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9ViMNxKa</t>
+    <t>tCudd?Nj</t>
   </si>
   <si>
     <t>ORMAZA VALENCIA KEVIN JAVIER</t>
@@ -1424,7 +1424,7 @@
     <t>kevin.ormaza.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>jN1vGoXx</t>
+    <t>O9zfuMXZ</t>
   </si>
   <si>
     <t>PAZMIÑO PINCAY NAYELLY AGUSTINA</t>
@@ -1433,7 +1433,7 @@
     <t>nayelly.pazmino.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>?lJ9BC3y</t>
+    <t>9DH/cdVz</t>
   </si>
   <si>
     <t>POZO PONCE DANNY IVAN</t>
@@ -1442,7 +1442,7 @@
     <t>danny.pozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>75mBJmB6</t>
+    <t>B0lHZymo</t>
   </si>
   <si>
     <t>QUIJANO MEZA MARIANA LISETH</t>
@@ -1451,7 +1451,7 @@
     <t>mariana.quijano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>PN#HKSI1</t>
+    <t>lZPkTZfe</t>
   </si>
   <si>
     <t>QUIÑONEZ AÑAPA RODRIGO MANUEL</t>
@@ -1463,7 +1463,7 @@
     <t>rodrigo.quinonez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>iF/VuoUu</t>
+    <t>&amp;pO#YX7K</t>
   </si>
   <si>
     <t>SANTOS ALCIVAR KELVIN YOEL</t>
@@ -1472,7 +1472,7 @@
     <t>kelvin.santos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>L7XB6Q!3</t>
+    <t>?5jeQTI6</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ SANDY</t>
@@ -1481,7 +1481,7 @@
     <t>sandy.solorzano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>kcmcAj#P</t>
+    <t>FlfZsxh/</t>
   </si>
   <si>
     <t>TOALA PIN ARIEL ALEJANDRO</t>
@@ -1493,7 +1493,7 @@
     <t>ariel.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>m?!lC&amp;Yl</t>
+    <t>B0TwcGd2</t>
   </si>
   <si>
     <t>VEGA INTRIAGO MIGUEL ANGEL</t>
@@ -1502,7 +1502,7 @@
     <t>miguel.vega.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZxtXgpBO</t>
+    <t>IzpnWFK7</t>
   </si>
   <si>
     <t>VELASQUEZ RODRIGUEZ GEMA BELEN</t>
@@ -1511,7 +1511,7 @@
     <t>gema.velasquez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>owx5xd/d</t>
+    <t>KgjK6f/H</t>
   </si>
   <si>
     <t>VERA MENDOZA MARIA VICTORIA</t>
@@ -1520,7 +1520,7 @@
     <t>maria.veram.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;!gVIkga</t>
+    <t>Ea3WYs/s</t>
   </si>
   <si>
     <t>VERA PALACIOS JORDANO SAUL</t>
@@ -1529,7 +1529,7 @@
     <t>jordano.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>j0zMGZmy</t>
+    <t>23K3IoUd</t>
   </si>
   <si>
     <t>ZAMBRANO MERA VALENTINA MONSERRATE</t>
@@ -1538,7 +1538,7 @@
     <t>valentina.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>?vVmIc0g</t>
+    <t>HT8iu&amp;Nh</t>
   </si>
   <si>
     <t>ZAMBRANO QUIMI JUAN GEORGE</t>
@@ -1550,7 +1550,7 @@
     <t>juan.zambrano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>xkr3OJN7</t>
+    <t>2DTkVBSm</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO GEOMAYRA KATHERINE</t>
@@ -1562,7 +1562,7 @@
     <t>geomayra.alcivar.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>HtbqmFQr</t>
+    <t>4aodtLuK</t>
   </si>
   <si>
     <t>ANDRADE CASTILLO CLAUDIA VICTORIA</t>
@@ -1571,7 +1571,7 @@
     <t>claudia.andrade.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>WKpDaFjQ</t>
+    <t>YQNndLRs</t>
   </si>
   <si>
     <t>ANGUISACA CUENCA ALEXANDRA CECIBEL</t>
@@ -1580,7 +1580,7 @@
     <t>alexandra.anguisaca.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>fNJBGaRJ</t>
+    <t>JJP#Bg8Y</t>
   </si>
   <si>
     <t>BARIAS GUARACA LESLY NAYHELY</t>
@@ -1589,7 +1589,7 @@
     <t>lesly.barias.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>ipb8!Qk3</t>
+    <t>tk4?Jpn#</t>
   </si>
   <si>
     <t>BARROS VERA ANGEL DAVID</t>
@@ -1598,7 +1598,7 @@
     <t>angel.barros.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>do9ePTaI</t>
+    <t>eEfOtV?F</t>
   </si>
   <si>
     <t>BAZURTO SANTOS KENNIA KATHERINE</t>
@@ -1607,7 +1607,7 @@
     <t>kennia.bazurto.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>L97h8upH</t>
+    <t>!V1y7UkG</t>
   </si>
   <si>
     <t>BRAVO BAZURTO GISSELA MARIA</t>
@@ -1616,7 +1616,7 @@
     <t>gissela.bravo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>KN7q!/sJ</t>
+    <t>YrtSNvcN</t>
   </si>
   <si>
     <t>BUSTAMANTE YANEZ ANTHONY MICHEL</t>
@@ -1625,7 +1625,7 @@
     <t>anthony.bustamante.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>BOSV#tEt</t>
+    <t>GkVh?P0u</t>
   </si>
   <si>
     <t>CASTRO SOLORZANO NIURKA JULIANA</t>
@@ -1634,7 +1634,7 @@
     <t>niurka.castro.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nj5D4XSQ</t>
+    <t>Dpih8Glc</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO YOHANA VANESA</t>
@@ -1643,7 +1643,7 @@
     <t>yohana.cedeno.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>6u7SkgB7</t>
+    <t>tDQHX8mC</t>
   </si>
   <si>
     <t>CEDEÑO INTRIAGO JEAN PIERRE</t>
@@ -1652,7 +1652,7 @@
     <t>jean.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>OHp1XU0H</t>
+    <t>xLED5V#J</t>
   </si>
   <si>
     <t>DELGADO CEVALLOS MARIA JOSE</t>
@@ -1661,7 +1661,7 @@
     <t>maria.delgado.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>l2yUqy4p</t>
+    <t>7aFWlhvD</t>
   </si>
   <si>
     <t>ERAZO MORALES GABRIELA ALEJANDRA</t>
@@ -1670,7 +1670,7 @@
     <t>gabriela.erazo.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>5TkqFXWa</t>
+    <t>JWR4Y#Lw</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO LUIS JOSE</t>
@@ -1679,7 +1679,7 @@
     <t>luis.intriagoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>EFNQh5Dm</t>
+    <t>vkPcn08V</t>
   </si>
   <si>
     <t>LOOR ORTIZ YORDY DAVID</t>
@@ -1688,7 +1688,7 @@
     <t>yordy.loor.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>pCbWtBQ5</t>
+    <t>ICL5Z?wN</t>
   </si>
   <si>
     <t>LOZANO GAMEZ THALIA VANESSA</t>
@@ -1700,7 +1700,7 @@
     <t>thalia.lozano.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>g&amp;ZUB#cv</t>
+    <t>VsPjOhL!</t>
   </si>
   <si>
     <t>MONTES RODRIGUEZ ROLANDO ANTONIO</t>
@@ -1709,7 +1709,7 @@
     <t>rolando.montes.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Lun2sJy9</t>
+    <t>LlDx8jfb</t>
   </si>
   <si>
     <t>PALMA RENDON ARGENIS ARTURO</t>
@@ -1718,7 +1718,7 @@
     <t>argenis.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>l2skmBKU</t>
+    <t>nC4wPKdg</t>
   </si>
   <si>
     <t>PAREDES YUMBILLO KATTY MARGOTH</t>
@@ -1730,7 +1730,7 @@
     <t>katty.paredes.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>aS4d/vOj</t>
+    <t>nIM1EQ9H</t>
   </si>
   <si>
     <t>PARRALES DELGADO ALAN SEBASTIAN</t>
@@ -1739,7 +1739,7 @@
     <t>alan.parrales.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>NVHEU#v7</t>
+    <t>CQuE0F1o</t>
   </si>
   <si>
     <t>PATA CEDEÑO ROSA JUANA</t>
@@ -1751,7 +1751,7 @@
     <t>rosa.pata.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zb&amp;LFMN3</t>
+    <t>d62dcV33</t>
   </si>
   <si>
     <t>RETETE BASARAN KEVIN ALEXANDER</t>
@@ -1760,7 +1760,7 @@
     <t>kevin.retete.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>F9V62Qf8</t>
+    <t>VAUXBw1Y</t>
   </si>
   <si>
     <t>ROMAN MACIAS ESTEFANIA ISABEL</t>
@@ -1769,7 +1769,7 @@
     <t>estefania.roman.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/&amp;Q?Zivu</t>
+    <t>q#7Od1b0</t>
   </si>
   <si>
     <t>SANDOVAL UREÑA FERNANDA DAYANARA</t>
@@ -1781,7 +1781,7 @@
     <t>fernanda.sandoval.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>rM9LLLht</t>
+    <t>G1Vx89dB</t>
   </si>
   <si>
     <t>SUBIAGA RAMOS LUIS ALEJANDRO</t>
@@ -1790,7 +1790,7 @@
     <t>luis.subiaga.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>zoZINYLC</t>
+    <t>dgeKhQMq</t>
   </si>
   <si>
     <t>VELASQUEZ AVEIGA MARIA JESUS</t>
@@ -1799,7 +1799,7 @@
     <t>maria.velasquez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>!g7hv4xn</t>
+    <t>HsQkZTlY</t>
   </si>
   <si>
     <t>VELEZ CHEME JORDAN ESTEBAN</t>
@@ -1811,7 +1811,7 @@
     <t>jordan.velez.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>opR4Z!98</t>
+    <t>KGaaaq5T</t>
   </si>
   <si>
     <t>VELEZ MENDOZA DARWIN ALEXIS</t>
@@ -1820,7 +1820,7 @@
     <t>darwin.velez.4623@espam.edu.ec</t>
   </si>
   <si>
-    <t>MdgZneN9</t>
+    <t>0LpUrEta</t>
   </si>
   <si>
     <t>VERA BARRE RONNY ARISTIDES</t>
@@ -1829,7 +1829,7 @@
     <t>ronny.vera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>xOKCKmxb</t>
+    <t>QNRIVEew</t>
   </si>
   <si>
     <t>ZAMBRANO MACIAS DIEGO ANDRES</t>
@@ -1838,7 +1838,7 @@
     <t>diego.zambrano.0221@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zd&amp;cH#C#</t>
+    <t>CGgn?Auf</t>
   </si>
   <si>
     <t>ZAMBRANO REYNA YERSY ENRIQUE</t>
@@ -1847,7 +1847,7 @@
     <t>yersy.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>ut4OSe?4</t>
+    <t>1BxegG?q</t>
   </si>
   <si>
     <t>CARDENAS MIELES CRISTHYAN ALBERTO</t>
@@ -1856,7 +1856,7 @@
     <t>cristhyan.cardenas.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>!F?&amp;pXPm</t>
+    <t>e&amp;8Lr0Uq</t>
   </si>
   <si>
     <t>CASTRO CARRERA JUAN CARLOS</t>
@@ -1865,7 +1865,7 @@
     <t>juan.castro.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>qKg0mTih</t>
+    <t>kRgrToWJ</t>
   </si>
   <si>
     <t>CHAVEZ MIRANDA ANTHONY MIGUEL</t>
@@ -1874,7 +1874,7 @@
     <t>anthony.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>BXUGtTwO</t>
+    <t>IItza2L/</t>
   </si>
   <si>
     <t>CUSME ZAMBRANO MICHAEL RICHARD</t>
@@ -1883,7 +1883,7 @@
     <t>michael.cusme.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>zNe3yQ0h</t>
+    <t>fxyO2itv</t>
   </si>
   <si>
     <t>GILER SALAZAR CARLOS IGNACIO</t>
@@ -1892,7 +1892,7 @@
     <t>carlos.giler@espam.edu.ec</t>
   </si>
   <si>
-    <t>4UOi4Vid</t>
+    <t>P6R//JJd</t>
   </si>
   <si>
     <t>HERNANDEZ DIAZ MARIA JOSE</t>
@@ -1904,7 +1904,7 @@
     <t>maria.hernandez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>9QCT79ro</t>
+    <t>orxr/Soa</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA ESTELA NATHALY</t>
@@ -1913,7 +1913,7 @@
     <t>estela.hidalgo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ksGLJQip</t>
+    <t>/k9yktuH</t>
   </si>
   <si>
     <t>HIDALGO MOREIRA PIERINA NATHALY</t>
@@ -1922,7 +1922,7 @@
     <t>pierina.hidalgo.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>JEWZrFWZ</t>
+    <t>DQEy2vRi</t>
   </si>
   <si>
     <t>LARA QUIJIJE PAMELA JULISSA</t>
@@ -1931,7 +1931,7 @@
     <t>pamela.lara.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>bxnhniGK</t>
+    <t>794SHudv</t>
   </si>
   <si>
     <t>LOOR PITIZACA FRANK ALLAN</t>
@@ -1940,7 +1940,7 @@
     <t>frank.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>#UgsINej</t>
+    <t>Dsnq9&amp;jd</t>
   </si>
   <si>
     <t>LOOR ZAMBRANO GEMA STEFANIA</t>
@@ -1949,7 +1949,7 @@
     <t>gema.loor.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>ej29T05#</t>
+    <t>IwhGqF0u</t>
   </si>
   <si>
     <t>PALACIOS TAPIA CESAR XAVIER</t>
@@ -1958,7 +1958,7 @@
     <t>cesar.palacios.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>6suz2wi0</t>
+    <t>xmJViXMu</t>
   </si>
   <si>
     <t>PEÑARRETA LANCHE PILAR MICAELA</t>
@@ -1967,7 +1967,7 @@
     <t>pilar.penarreta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>j3laRO&amp;v</t>
+    <t>4QF&amp;RRvJ</t>
   </si>
   <si>
     <t>PILLASAGUA PINARGOTE INGRID MAYERLI</t>
@@ -1979,7 +1979,7 @@
     <t>ingrid.pillasagua.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>j5UlTYdf</t>
+    <t>NduT&amp;&amp;wN</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO GEMA LISBETH</t>
@@ -1988,7 +1988,7 @@
     <t>gema.quijije.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>qpXDdNaA</t>
+    <t>bZMkE#Yo</t>
   </si>
   <si>
     <t>RUIZ ZAMBRANO VICTOR ANDRES</t>
@@ -1997,7 +1997,7 @@
     <t>victor.ruiz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>IC3Qe4/9</t>
+    <t>1TDWpILS</t>
   </si>
   <si>
     <t>SALTOS SALAZAR MAYERLY VERONICA</t>
@@ -2009,7 +2009,7 @@
     <t>mayerly.saltos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>fF0tyvU!</t>
+    <t>ZvmvTMMx</t>
   </si>
   <si>
     <t>SANTANA PALOMINO FRANKLIN JOHAO</t>
@@ -2018,7 +2018,7 @@
     <t>franklin.santana.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>jfnF8#4G</t>
+    <t>lPgsrLM2</t>
   </si>
   <si>
     <t>TAFFUR TOASA OLGA MARIA</t>
@@ -2027,7 +2027,7 @@
     <t>olga.taffur@espam.edu.ec</t>
   </si>
   <si>
-    <t>vhiw1eCb</t>
+    <t>QNPo?MOe</t>
   </si>
   <si>
     <t>TOALA MACAY JOSSELYN VALERIA</t>
@@ -2036,7 +2036,7 @@
     <t>josselyn.toala.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>flKG/SBk</t>
+    <t>Y&amp;qBKQyA</t>
   </si>
   <si>
     <t>VALLADARES ALCIVAR LUIS EDUARDO</t>
@@ -2045,7 +2045,7 @@
     <t>luis.valladares@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y39svHsM</t>
+    <t>7WcBb/IY</t>
   </si>
   <si>
     <t>VERA ZAMBRANO HILTER JOSSBEL</t>
@@ -2054,7 +2054,7 @@
     <t>hilter.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>4Hxohtgt</t>
+    <t>PtXf&amp;kPK</t>
   </si>
   <si>
     <t>VERGARA TABOADA ROMEL ALEXANDER</t>
@@ -2063,7 +2063,7 @@
     <t>romel.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>7?evfeVZ</t>
+    <t>/kXVx0yf</t>
   </si>
   <si>
     <t>ZAMBRANO RIVAS NALLELY LISBETH</t>
@@ -2072,7 +2072,7 @@
     <t>nallely.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>N6955FU&amp;</t>
+    <t>Z4DO8UDt</t>
   </si>
   <si>
     <t>ABAD MIRANDA KENYA ESTEFANIA</t>
@@ -2084,7 +2084,7 @@
     <t>kenya.abad.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>EAsd39H/</t>
+    <t>FoIizdhs</t>
   </si>
   <si>
     <t>ALAVA MORENO MILTON ANTERO</t>
@@ -2093,7 +2093,7 @@
     <t>milton.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>m4Kr#XlH</t>
+    <t>WrTIVwDp</t>
   </si>
   <si>
     <t>ALMEIDA CEDEÑO CINDY BELEN</t>
@@ -2102,7 +2102,7 @@
     <t>cindy.almeida.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>LqXXOuiV</t>
+    <t>&amp;!M&amp;N6ag</t>
   </si>
   <si>
     <t>ANCHUNDIA VERA JUSTIN JOSE</t>
@@ -2111,7 +2111,7 @@
     <t>justin.anchundia.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>mnDkIuiw</t>
+    <t>ppZr2C06</t>
   </si>
   <si>
     <t>AYONG PALADINES MARIA FERNANDA</t>
@@ -2120,7 +2120,7 @@
     <t>maria.ayong.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>fFWlPAlQ</t>
+    <t>EplLQ/ue</t>
   </si>
   <si>
     <t>BRAVO CEVALLOS MELANY PIERINA</t>
@@ -2129,7 +2129,7 @@
     <t>melany.bravo.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>gjy&amp;Sh?L</t>
+    <t>#K3HY2C0</t>
   </si>
   <si>
     <t>CASANOVA SALAZAR ROSEMBERG STEVEN</t>
@@ -2138,7 +2138,7 @@
     <t>rosemberg.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>Fbn3mQSW</t>
+    <t>DpSU?LQm</t>
   </si>
   <si>
     <t>FERNANDEZ TORRES JALENI SCARLETH</t>
@@ -2150,7 +2150,7 @@
     <t>jaleni.fernandez.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>k3dI4n?U</t>
+    <t>bfvTIWHW</t>
   </si>
   <si>
     <t>HERRERA SABANDO WILLIAMS ANDRES</t>
@@ -2159,7 +2159,7 @@
     <t>williams.herrera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>VpZpwhW!</t>
+    <t>!8f0Rctl</t>
   </si>
   <si>
     <t>LOPEZ PALADINES EDGAR JOSE</t>
@@ -2168,7 +2168,7 @@
     <t>edgar.lopez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>MbqImmK7</t>
+    <t>hCiaBRtg</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES LINCI YERLEY</t>
@@ -2177,7 +2177,7 @@
     <t>linci.medranda.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>55ZZbHGZ</t>
+    <t>1awZxr5M</t>
   </si>
   <si>
     <t>MENDIETA GILER JORDY EDUARDO</t>
@@ -2186,7 +2186,7 @@
     <t>jordy.mendieta.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>E#0NNA7M</t>
+    <t>14wTPZmc</t>
   </si>
   <si>
     <t>MORENO VELIZ ALDRIN DAIRY</t>
@@ -2195,7 +2195,7 @@
     <t>aldrin.moreno.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>a5XSHBD1</t>
+    <t>CuJvu#ZA</t>
   </si>
   <si>
     <t>MUÑOZ VERA GENESIS LOURDES</t>
@@ -2204,7 +2204,7 @@
     <t>genesis.munoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>0nOAX#Xd</t>
+    <t>OKXgT9Y8</t>
   </si>
   <si>
     <t>PLAZA CHOEZ RODOLFO JEAMPIERRE</t>
@@ -2213,7 +2213,7 @@
     <t>rodolfo.plaza.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>4kIu0JcE</t>
+    <t>rDe6XDju</t>
   </si>
   <si>
     <t>PRECIADO MOREIRA PABLO ANTHONY</t>
@@ -2225,7 +2225,7 @@
     <t>pablo.preciado@espam.edu.ec</t>
   </si>
   <si>
-    <t>gcaQ9WI9</t>
+    <t>k7H0xAIn</t>
   </si>
   <si>
     <t>SABANDO SALCEDO GENESIS BETZABETH</t>
@@ -2237,7 +2237,7 @@
     <t>genesis.sabando.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>YU7#PjTF</t>
+    <t>vQ&amp;IBJjq</t>
   </si>
   <si>
     <t>SOLEDISPA ZAMBRANO CRISTHINA ISABELA</t>
@@ -2246,7 +2246,7 @@
     <t>cristhina.soledispa.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>qRTQOrNg</t>
+    <t>x#w47n/o</t>
   </si>
   <si>
     <t>SOLORZANO RODRIGUEZ EVELYN AGUSTINA</t>
@@ -2255,7 +2255,7 @@
     <t>evelyn.solorzanor@espam.edu.ec</t>
   </si>
   <si>
-    <t>YFqDYd5A</t>
+    <t>1sexQCFk</t>
   </si>
   <si>
     <t>VERA AGUAS KELVIN JEAN PIERRE</t>
@@ -2264,7 +2264,7 @@
     <t>kelvin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>/0VfnBUV</t>
+    <t>9L46wlau</t>
   </si>
   <si>
     <t>VERA LOOR DENYS ESTEFANIA</t>
@@ -2273,7 +2273,7 @@
     <t>denys.vera.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>!BlIN4XV</t>
+    <t>8uH4VjsB</t>
   </si>
   <si>
     <t>VINCES PIN MARIA FERNANDA</t>
@@ -2282,7 +2282,7 @@
     <t>maria.vinces.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>Mw6UK6Cx</t>
+    <t>PKJMsuJ1</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO MARIA BELEN</t>
@@ -2291,7 +2291,7 @@
     <t>mariab.zambranoz.0121@espam.edu.ec</t>
   </si>
   <si>
-    <t>X/uU2Mqm</t>
+    <t>&amp;aem0f3d</t>
   </si>
   <si>
     <t>ALCIVAR ZAMBRANO DIANA ESTHER</t>
@@ -2300,7 +2300,7 @@
     <t>diana.alcivar.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>8/?n?UKj</t>
+    <t>70SNAfPU</t>
   </si>
   <si>
     <t>ALVAREZ BORJA ANGHELO JOSUE</t>
@@ -2309,7 +2309,7 @@
     <t>anghelo.alvarez.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>b99JoN5e</t>
+    <t>QwSD6yR&amp;</t>
   </si>
   <si>
     <t>BRAVO MENDOZA ALBERDY JAVIER</t>
@@ -2318,7 +2318,7 @@
     <t>alberdy.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>vfsaCdtN</t>
+    <t>5b?6PkP2</t>
   </si>
   <si>
     <t>GARCIA PARRAGA FATIMA MARIA</t>
@@ -2327,7 +2327,7 @@
     <t>fatima.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>VRNtXXaS</t>
+    <t>oI5vT!ge</t>
   </si>
   <si>
     <t>GRACIA PRATT WILINTON JOSUE</t>
@@ -2339,7 +2339,7 @@
     <t>wilinton.gracia.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>McZSh/jN</t>
+    <t>vKETMozm</t>
   </si>
   <si>
     <t>MARRETT BEDOYA MISHELLE MARCELA</t>
@@ -2351,7 +2351,7 @@
     <t>mishelle.marrett.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>LzhvRoB4</t>
+    <t>z0CKZQ?4</t>
   </si>
   <si>
     <t>MERA CASTILLO NATHALY VIRGINIA</t>
@@ -2360,7 +2360,7 @@
     <t>nathaly.mera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>oPygF80P</t>
+    <t>vVoh!59r</t>
   </si>
   <si>
     <t>ROSERO VERA LUIS ANDRES</t>
@@ -2369,7 +2369,7 @@
     <t>luis.rosero@espam.edu.ec</t>
   </si>
   <si>
-    <t>d4NxIdj#</t>
+    <t>i2Fl6zcw</t>
   </si>
   <si>
     <t>SANTISTEBAN BENAVIDES JOSUE ROMARIO</t>
@@ -2378,7 +2378,7 @@
     <t>josue.santisteban.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>4A#RwEOD</t>
+    <t>xVbvDLTU</t>
   </si>
   <si>
     <t>SOLORZANO CUSME GEMA JULIANA</t>
@@ -2387,7 +2387,7 @@
     <t>gemaju.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>gWbE9#XM</t>
+    <t>BiQBWekA</t>
   </si>
   <si>
     <t>TORRES PINARGOTE MAHOLY</t>
@@ -2396,7 +2396,7 @@
     <t>maholy.torres.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;7KeHi06</t>
+    <t>h1bPM6jU</t>
   </si>
   <si>
     <t>ZAMBRANO BRAVO LEANDRO ISMAEL</t>
@@ -2405,7 +2405,7 @@
     <t>leandro.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>RQs!y!ED</t>
+    <t>WRq#o02v</t>
   </si>
   <si>
     <t>ZAMBRANO GARCIA HENRY ARTURO</t>
@@ -2414,7 +2414,7 @@
     <t>henry.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>CxUF!ylO</t>
+    <t>xJyOywEp</t>
   </si>
   <si>
     <t>BARRE PARRAGA BETSY BEATRIZ</t>
@@ -2423,7 +2423,7 @@
     <t>betsy.barre.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>i0m/s!tC</t>
+    <t>FhTAED&amp;B</t>
   </si>
   <si>
     <t>CEDEÑO CEDEÑO CAMILA PATRICIA</t>
@@ -2435,7 +2435,7 @@
     <t>camila.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#AsoqI?Z</t>
+    <t>mATLmLn0</t>
   </si>
   <si>
     <t>CEDEÑO SOLORZANO ANTHONY STEVEN</t>
@@ -2444,7 +2444,7 @@
     <t>anthony.cedenos.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>2PwhQXr9</t>
+    <t>UMbnK27t</t>
   </si>
   <si>
     <t>CEDEÑO TUAREZ ANGIE LISSETTE</t>
@@ -2453,7 +2453,7 @@
     <t>angie.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>nrH3m2hA</t>
+    <t>hT1iX&amp;nM</t>
   </si>
   <si>
     <t>CHAVEZ LANDAZURI JACKSON JAIR</t>
@@ -2465,7 +2465,7 @@
     <t>jackson.chavez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>H3laLzwc</t>
+    <t>6nK2INvm</t>
   </si>
   <si>
     <t>CHICA MOREIRA MARIA FERNANDA</t>
@@ -2474,7 +2474,7 @@
     <t>maria.chica.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>cvQlRVfk</t>
+    <t>kS15ebGO</t>
   </si>
   <si>
     <t>GARCIA ZAMBRANO WENDY YAMILETH</t>
@@ -2483,7 +2483,7 @@
     <t>wendy.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>P7kuVBE0</t>
+    <t>4aItaM72</t>
   </si>
   <si>
     <t>GARZON CEDEÑO FRANCESCO RUBEN</t>
@@ -2492,7 +2492,7 @@
     <t>francesco.garzon.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>hZAcLtpW</t>
+    <t>NjKxUAr2</t>
   </si>
   <si>
     <t>GUERRERO CEDEÑO MICHAEL JORDY</t>
@@ -2501,7 +2501,7 @@
     <t>michael.guerrero.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>dugrqLyl</t>
+    <t>G9v9keqZ</t>
   </si>
   <si>
     <t>MEDRANDA GONZALES CRISTHIAN JOSE</t>
@@ -2510,7 +2510,7 @@
     <t>cristhian.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>7WqEHaiO</t>
+    <t>GWez5w1C</t>
   </si>
   <si>
     <t>ORELLANA ANCHUNDIA JESUS MIGUEL</t>
@@ -2519,7 +2519,7 @@
     <t>jesus.orellana@espam.edu.ec</t>
   </si>
   <si>
-    <t>HBmOX2A!</t>
+    <t>p3MH#o#c</t>
   </si>
   <si>
     <t>ORTIZ GOMEZ EDUARDO ANDRES</t>
@@ -2528,7 +2528,7 @@
     <t>eduardo.ortiz@espam.edu.ec</t>
   </si>
   <si>
-    <t>r#72f6X9</t>
+    <t>4S!8l/2p</t>
   </si>
   <si>
     <t>PAZMIÑO MERA SHANDE ALEXANDER</t>
@@ -2537,7 +2537,7 @@
     <t>shande.pazmino.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>K1oHIynL</t>
+    <t>SUcF6Veh</t>
   </si>
   <si>
     <t>PEÑARRIETA BAZURTO ERICK ANDRES</t>
@@ -2546,7 +2546,7 @@
     <t>erick.penarrieta@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;nsUJIzz</t>
+    <t>xEJiqWUU</t>
   </si>
   <si>
     <t>RIERA GAVILANES IZHURY MILLENYTH</t>
@@ -2558,7 +2558,7 @@
     <t>izhury.riera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>MS8InhM?</t>
+    <t>a#P0DKTO</t>
   </si>
   <si>
     <t>RIVERA CEDEÑO RIVALDO JOSE</t>
@@ -2570,7 +2570,7 @@
     <t>rivaldo.rivera.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>pyRY/AUr</t>
+    <t>bXvZ0Ygk</t>
   </si>
   <si>
     <t>SALDARRIAGA ARTEAGA OMAIRA MARIBI</t>
@@ -2579,7 +2579,7 @@
     <t>omaira.saldarriaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>!8#E2uAk</t>
+    <t>VUjJ5KQY</t>
   </si>
   <si>
     <t>SANDOVAL MERA NALLELY STEFANIA</t>
@@ -2588,7 +2588,7 @@
     <t>nallely.sandoval.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>WiUxQyho</t>
+    <t>226hGAji</t>
   </si>
   <si>
     <t>SUQUI CANGO BRYAN EDUARDO</t>
@@ -2600,7 +2600,7 @@
     <t>bryan.suqui.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>MoOEc?9Q</t>
+    <t>GqQdXTKY</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO CARLOS ANDRES</t>
@@ -2609,7 +2609,7 @@
     <t>carlos.verduga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1CiX2A4b</t>
+    <t>943cUlKV</t>
   </si>
   <si>
     <t>ZAMBRANO LARA MARVIN RENE</t>
@@ -2618,7 +2618,7 @@
     <t>marvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>Qo8Wx2!J</t>
+    <t>7H88KUjQ</t>
   </si>
   <si>
     <t>ZAMBRANO OBANDO KELVIN JOSUE</t>
@@ -2630,7 +2630,7 @@
     <t>kelvin.zambrano.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>m?y4C5f2</t>
+    <t>n#YI4pmw</t>
   </si>
   <si>
     <t>ZAPATA QUINCHE ANDREA CAROLINA</t>
@@ -2639,7 +2639,7 @@
     <t>andrea.zapata.0220@espam.edu.ec</t>
   </si>
   <si>
-    <t>4dI4b2pb</t>
+    <t>6QSZrv6a</t>
   </si>
   <si>
     <t>ALMEIDA PEREZ ANGEL FERNANDO</t>
@@ -2648,7 +2648,7 @@
     <t>angel.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>l/dsm9LQ</t>
+    <t>8RIEoYyY</t>
   </si>
   <si>
     <t>CEDEÑO PARRAGA MELANY NALLELY</t>
@@ -2657,7 +2657,7 @@
     <t>melany.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>CxxWlkA&amp;</t>
+    <t>k7Z#6sQy</t>
   </si>
   <si>
     <t>CEDEÑO SALVATIERRA JENIFFER ALEJANDRA</t>
@@ -2666,7 +2666,7 @@
     <t>jeniffer.cedenosal@espam.edu.ec</t>
   </si>
   <si>
-    <t>IniPnXSw</t>
+    <t>fkv/9p1&amp;</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA SCHEZNARDA EDITH</t>
@@ -2675,7 +2675,7 @@
     <t>scheznarda.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Cv2MIWh6</t>
+    <t>iiRF0AFJ</t>
   </si>
   <si>
     <t>GANCHOZO VELEZ EMILY JULEXY</t>
@@ -2684,7 +2684,7 @@
     <t>emily.ganchozo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ANWXt6p&amp;</t>
+    <t>dUoBkP6J</t>
   </si>
   <si>
     <t>LEON VIZÑAY ROQUE JAVIER</t>
@@ -2696,7 +2696,7 @@
     <t>roque.leon@espam.edu.ec</t>
   </si>
   <si>
-    <t>PVvhtbfz</t>
+    <t>R6vxx49h</t>
   </si>
   <si>
     <t>LOOR LOOR EVELYN YAMILETH</t>
@@ -2705,7 +2705,7 @@
     <t>evelynya.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>58jwHqa2</t>
+    <t>PS0PQtJt</t>
   </si>
   <si>
     <t>LOOR MOREIRA MELANIE NOEMI</t>
@@ -2714,7 +2714,7 @@
     <t>melanie.loorm.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>zgIKGXvk</t>
+    <t>sPxv7wf/</t>
   </si>
   <si>
     <t>LOPEZ ESTACIO ROSA ANGELICA</t>
@@ -2723,7 +2723,7 @@
     <t>rosa.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>FfhVvzkE</t>
+    <t>Kmo&amp;GI6#</t>
   </si>
   <si>
     <t>MENDOZA MUÑOZ FLOR ANTONELA</t>
@@ -2732,7 +2732,7 @@
     <t>flor.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>KXfPgIdK</t>
+    <t>HBE0FGPb</t>
   </si>
   <si>
     <t>MERELO SOLORZANO NAIDELYN MISHELLE</t>
@@ -2741,7 +2741,7 @@
     <t>naidelyn.merelo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>XIf#ohsi</t>
+    <t>M08lQW1e</t>
   </si>
   <si>
     <t>MOREIRA LOOR FABIAN ALEXANDER</t>
@@ -2750,7 +2750,7 @@
     <t>fabian.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>7guxej&amp;R</t>
+    <t>gjB7KH8S</t>
   </si>
   <si>
     <t>PAZMIÑO FALCONES JOSE MIGUEL</t>
@@ -2759,7 +2759,7 @@
     <t>jose.pazmino@espam.edu.ec</t>
   </si>
   <si>
-    <t>6zZwCSuC</t>
+    <t>kUDxK9eT</t>
   </si>
   <si>
     <t>PEÑAFIEL PITA BRITHANNY MICAELA</t>
@@ -2771,7 +2771,7 @@
     <t>brithanny.penafiel.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>C8Ss6U/S</t>
+    <t>VFy0ZMR!</t>
   </si>
   <si>
     <t>PINTO PALACIOS JOSE ANTONIO</t>
@@ -2780,7 +2780,7 @@
     <t>jose.pinto@espam.edu.ec</t>
   </si>
   <si>
-    <t>3/Zhyfq!</t>
+    <t>0e2lX22?</t>
   </si>
   <si>
     <t>RENTERIA VALENCIA NEURYS GYSSELA</t>
@@ -2792,7 +2792,7 @@
     <t>neurys.renteria@espam.edu.ec</t>
   </si>
   <si>
-    <t>58nKYs9m</t>
+    <t>jvokAGDL</t>
   </si>
   <si>
     <t>RIVAS ZAMBRANO ALISSON KATIUSKA</t>
@@ -2801,7 +2801,7 @@
     <t>alisson.rivas.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>6aohZx&amp;N</t>
+    <t>&amp;8uFyRMU</t>
   </si>
   <si>
     <t>TORRES VARGAS KARELIS ANDREINA</t>
@@ -2813,7 +2813,7 @@
     <t>karelis.torres@espam.edu.ec</t>
   </si>
   <si>
-    <t>aOr2#ddg</t>
+    <t>xZ706a7w</t>
   </si>
   <si>
     <t>VALDIVIESO CHUNG DANIEL JAFET</t>
@@ -2822,7 +2822,7 @@
     <t>daniel.valdivieso.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nTXYICsg</t>
+    <t>S!5t!HOF</t>
   </si>
   <si>
     <t>VASCONEZ GONZALEZ FRANCISCO ALESSIO</t>
@@ -2831,7 +2831,7 @@
     <t>francisco.vasconez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>!zXn5PFi</t>
+    <t>1VJBYW1c</t>
   </si>
   <si>
     <t>VELEZ ORTEGA BORIS ANDRES</t>
@@ -2840,7 +2840,7 @@
     <t>boris.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9aoWt?Bh</t>
+    <t>EYQGgy91</t>
   </si>
   <si>
     <t>VERA ESTUPIÑAN BRYAN FRANCISCO</t>
@@ -2849,7 +2849,7 @@
     <t>bryan.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>o#lTtp8C</t>
+    <t>uTcRY2&amp;D</t>
   </si>
   <si>
     <t>VERA LOOR ARIANA PAOLA</t>
@@ -2858,7 +2858,7 @@
     <t>ariana.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q79xwPaZ</t>
+    <t>zUk3Hrak</t>
   </si>
   <si>
     <t>ZAMBRANO VEGA AURA ARACELY</t>
@@ -2867,7 +2867,7 @@
     <t>aura.zambranov@espam.edu.ec</t>
   </si>
   <si>
-    <t>OcZJCBvc</t>
+    <t>ALyE2QqO</t>
   </si>
   <si>
     <t>ALMEIDA ZAMBRANO HALINTONG VICENTE</t>
@@ -2876,7 +2876,7 @@
     <t>halintong.almeida@espam.edu.ec</t>
   </si>
   <si>
-    <t>q#okf6Xs</t>
+    <t>j!0cOugS</t>
   </si>
   <si>
     <t>AYALA VILLAFUERTE NAHOMY NAYELY</t>
@@ -2885,7 +2885,7 @@
     <t>nahomy.ayala@espam.edu.ec</t>
   </si>
   <si>
-    <t>o26lvk10</t>
+    <t>mHBIANW&amp;</t>
   </si>
   <si>
     <t>BASURTO CEDEÑO ITALO JORDANO</t>
@@ -2894,7 +2894,7 @@
     <t>italo.basurto.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Z1w?qNpi</t>
+    <t>BvfiWhsZ</t>
   </si>
   <si>
     <t>CASTRO TAIPE YERIK LEXANDER</t>
@@ -2903,7 +2903,7 @@
     <t>yerik.castro.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>nyMQ7oWo</t>
+    <t>AtmOWkQe</t>
   </si>
   <si>
     <t>CEDEÑO GARCIA CARLOS PAUL</t>
@@ -2912,7 +2912,7 @@
     <t>carlos.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>vEiC?Jnw</t>
+    <t>ayT5&amp;bcU</t>
   </si>
   <si>
     <t>COBEÑA ZAMBRANO EDIS ARIEL</t>
@@ -2921,7 +2921,7 @@
     <t>edis.cobena@espam.edu.ec</t>
   </si>
   <si>
-    <t>UjZWxbd8</t>
+    <t>7jp9RBeP</t>
   </si>
   <si>
     <t>CORDOVA MUGUERZA ADRIANA NICOLLE</t>
@@ -2930,7 +2930,7 @@
     <t>adriana.muguersa.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wd9L55!H</t>
+    <t>whBcovyZ</t>
   </si>
   <si>
     <t>COTERA PIN MAYERLY DAYANARA</t>
@@ -2939,7 +2939,7 @@
     <t>mayerly.cotera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>0ieyOLBi</t>
+    <t>D4TxTajv</t>
   </si>
   <si>
     <t>CUENCA CUSME CECILIA ALEXANDRA</t>
@@ -2948,7 +2948,7 @@
     <t>cecilia.cuenca@espam.edu.ec</t>
   </si>
   <si>
-    <t>rRICnd1z</t>
+    <t>?Sj7GwNL</t>
   </si>
   <si>
     <t>FERNANDEZ ARTEAGA ANGIE MISHELLE</t>
@@ -2957,7 +2957,7 @@
     <t>angie.fernandez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>tf8zvOD6</t>
+    <t>08CYQWHV</t>
   </si>
   <si>
     <t>LATA QUINCHI SANDRA LOURDES</t>
@@ -2966,7 +2966,7 @@
     <t>sandra.lata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>QQPAAvDd</t>
+    <t>jElpwUWm</t>
   </si>
   <si>
     <t>MEJICANGO CALLE JAZMIN LISBETH</t>
@@ -2978,7 +2978,7 @@
     <t>jazmin.mejicango.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>BIqBI?L9</t>
+    <t>QXJsBiEB</t>
   </si>
   <si>
     <t>MENDOZA GANCHOZO DOMENICA NICOLE</t>
@@ -2987,7 +2987,7 @@
     <t>domenica.mendoza.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>JUxo9&amp;zU</t>
+    <t>7y?H5/GN</t>
   </si>
   <si>
     <t>MOREIRA CEVALLOS NAYELY VANESSA</t>
@@ -2996,7 +2996,7 @@
     <t>nayely.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>z/RD#V7V</t>
+    <t>ZiefPp5t</t>
   </si>
   <si>
     <t>MUÑOZ VERA MICHELLE VALENTINA</t>
@@ -3005,7 +3005,7 @@
     <t>michelle.munoz.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>JX2r!ngj</t>
+    <t>gfbz&amp;rsJ</t>
   </si>
   <si>
     <t>OLMOS RIVERA CLEOPATRA STEFANIA</t>
@@ -3014,7 +3014,7 @@
     <t>cleopatra.olmos.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>1USyas?Y</t>
+    <t>ivm&amp;1PMg</t>
   </si>
   <si>
     <t>PAREDES RODRIGUEZ GIBELY JARLETH</t>
@@ -3026,7 +3026,7 @@
     <t>gibely.paredes.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>9?Aw/rq0</t>
+    <t>5GJRjfq/</t>
   </si>
   <si>
     <t>PERUGACHI MECIAS GEOVANNY ALEJANDRO</t>
@@ -3035,7 +3035,7 @@
     <t>geovanny.perugachi.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Vvnm/wzN</t>
+    <t>r5g?y43q</t>
   </si>
   <si>
     <t>PITA MACIAS RUBEN DARIO</t>
@@ -3044,7 +3044,7 @@
     <t>ruben.pita@espam.edu.ec</t>
   </si>
   <si>
-    <t>bDvS6cMA</t>
+    <t>6?AmX#O5</t>
   </si>
   <si>
     <t>ROSADO QUIROZ JANDRY FABRICIO</t>
@@ -3053,7 +3053,7 @@
     <t>jandry.rosado.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xcv5p&amp;!t</t>
+    <t>jrbTOJ4B</t>
   </si>
   <si>
     <t>SANCHEZ CHOEZ BERTHA DOLORES</t>
@@ -3062,7 +3062,7 @@
     <t>bertha.choez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>lpM!!/J/</t>
+    <t>A?Vukb71</t>
   </si>
   <si>
     <t>VALENCIA MARCILLO JENIFFER KAROLINA</t>
@@ -3071,7 +3071,7 @@
     <t>jenifferk.valenciam@espam.edu.ec</t>
   </si>
   <si>
-    <t>sHjJ2o9H</t>
+    <t>DVOdCxUH</t>
   </si>
   <si>
     <t>VELASQUEZ GUADAMUD MARIO DAMIAN</t>
@@ -3080,7 +3080,7 @@
     <t>mario.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>R9hyj1PX</t>
+    <t>BBwHfqla</t>
   </si>
   <si>
     <t>VELEZ RIVAS JOFFRE GEOVANNY</t>
@@ -3089,7 +3089,7 @@
     <t>joffre.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>vMP9!9OW</t>
+    <t>jY55w1Cn</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO GEMA BRIGITH</t>
@@ -3098,7 +3098,7 @@
     <t>gema.velez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>Cbl5WQCT</t>
+    <t>yTPRhb8Y</t>
   </si>
   <si>
     <t>VERA CEVALLOS CARMEN GISSELLA</t>
@@ -3107,7 +3107,7 @@
     <t>carmen.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>zUl34rWS</t>
+    <t>yROLd#Ih</t>
   </si>
   <si>
     <t>VERA SOLORZANO CARLOS NEPTALI</t>
@@ -3116,7 +3116,7 @@
     <t>carlos.veras@espam.edu.ec</t>
   </si>
   <si>
-    <t>nyxZZhlE</t>
+    <t>Kb&amp;wJfjV</t>
   </si>
   <si>
     <t>VERA VERA YUSTHYN YARLETH</t>
@@ -3125,7 +3125,7 @@
     <t>yusthyn.vera.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>o3pc6E!E</t>
+    <t>Ya53ZLEa</t>
   </si>
   <si>
     <t>VIDAL SABANDO MARIA KATHERINE</t>
@@ -3134,7 +3134,7 @@
     <t>maria.vidal.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wxNONIeb</t>
+    <t>JZ0QNm0M</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR EMILIO JOSE</t>
@@ -3143,7 +3143,7 @@
     <t>emilio.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>xv!iN#/6</t>
+    <t>#V0vA!7H</t>
   </si>
   <si>
     <t>ZAMBRANO AVEIGA MAYRA ALEXANDRA</t>
@@ -3152,7 +3152,7 @@
     <t>mayra.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>FQV8Nwfz</t>
+    <t>pVeXVvWT</t>
   </si>
   <si>
     <t>ZAMBRANO VERA MARIA BEATRIZ</t>
@@ -3161,7 +3161,7 @@
     <t>maria.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>#a5UFsvE</t>
+    <t>Rhyfaecv</t>
   </si>
   <si>
     <t>ALCIVAR RODRIGUEZ STEFANY LISETH</t>
@@ -3170,7 +3170,7 @@
     <t>stefany.alcivar.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>lzMYfU1Q</t>
+    <t>?WBpiKq!</t>
   </si>
   <si>
     <t>ANGULO GLENN YURANI MAGERLI</t>
@@ -3182,7 +3182,7 @@
     <t>yurani.angulo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>p3cA31ge</t>
+    <t>6ANf3kTH</t>
   </si>
   <si>
     <t>ARTEAGA TRIVIÑO CAMILA</t>
@@ -3191,7 +3191,7 @@
     <t>camila.arteaga.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>G!owKoCD</t>
+    <t>1VJJEwYX</t>
   </si>
   <si>
     <t>BALDERRAMO CABRERA JOSE GERMAN</t>
@@ -3200,7 +3200,7 @@
     <t>jose.balderramo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>EQ5H3/Ni</t>
+    <t>xSGv2j9T</t>
   </si>
   <si>
     <t>BRAVO MUÑOZ JEAN MYCKEL</t>
@@ -3209,7 +3209,7 @@
     <t>jean.bravomu@espam.edu.ec</t>
   </si>
   <si>
-    <t>eLJfHYqQ</t>
+    <t>Udhd6zq/</t>
   </si>
   <si>
     <t>BRAVO SANTANA JUNIOR XAVIER</t>
@@ -3218,7 +3218,7 @@
     <t>juniorx.bravos@espam.edu.ec</t>
   </si>
   <si>
-    <t>J9OquAP7</t>
+    <t>G0tmGNYi</t>
   </si>
   <si>
     <t>CAGUA RODRIGUEZ NAYELY ANAHI</t>
@@ -3227,7 +3227,7 @@
     <t>nayely.cagua.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>m!h!nET4</t>
+    <t>cOAkcBQr</t>
   </si>
   <si>
     <t>CALDERON RODRIGUEZ FATIMA DANIELA</t>
@@ -3236,7 +3236,7 @@
     <t>fatima.calderon.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>D##GQJkd</t>
+    <t>D8rTR29b</t>
   </si>
   <si>
     <t>CASTILLO MEJIA MARIA CARLOTA</t>
@@ -3245,7 +3245,7 @@
     <t>maria.castillo.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>uT8INDaR</t>
+    <t>DmplDrHx</t>
   </si>
   <si>
     <t>CEDEÑO CUSME DAYANARA NARCISA</t>
@@ -3254,7 +3254,7 @@
     <t>dayanara.cedeno.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>804?Ge0i</t>
+    <t>rOQFTsCP</t>
   </si>
   <si>
     <t>CELORIO VERA PETER PABLO</t>
@@ -3263,7 +3263,7 @@
     <t>peter.celorio.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wUPcsR#B</t>
+    <t>Zb/Wu&amp;fY</t>
   </si>
   <si>
     <t>COOL MORENO DIANA ESTHEFANIA</t>
@@ -3272,7 +3272,7 @@
     <t>diana.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>oWWwC/f!</t>
+    <t>WF8owBPx</t>
   </si>
   <si>
     <t>DELGADO GARZON PAOLA FERNANDA</t>
@@ -3281,7 +3281,7 @@
     <t>paola.delgadog.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>/JTa?cpm</t>
+    <t>liRnMh&amp;a</t>
   </si>
   <si>
     <t>DOMINGUEZ DOMINGUEZ ROMINA MELISSA</t>
@@ -3290,7 +3290,7 @@
     <t>romina.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>hGpYw1QQ</t>
+    <t>!RgPn6&amp;?</t>
   </si>
   <si>
     <t>GARCIA MUÑOZ EDDY SANTIAGO</t>
@@ -3299,7 +3299,7 @@
     <t>eddy.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>4mlu7vIz</t>
+    <t>KXU9TWN3</t>
   </si>
   <si>
     <t>GARCIA PONCE LEONELA ANTONELLA</t>
@@ -3308,7 +3308,7 @@
     <t>leonela.garcia.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>ojbiLUxZ</t>
+    <t>5TZ2HbHr</t>
   </si>
   <si>
     <t>LOPEZ SOLORZANO YIMMY</t>
@@ -3317,7 +3317,7 @@
     <t>yimmy.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>AZkfqRI7</t>
+    <t>/DRH!YT4</t>
   </si>
   <si>
     <t>LOPEZ ZAMBRANO JORGE ISAAC</t>
@@ -3326,7 +3326,7 @@
     <t>jorge.lopez.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>CVdA49N8</t>
+    <t>y5O2XI0/</t>
   </si>
   <si>
     <t>MACIAS GUAGUA MAGERLY THAIS</t>
@@ -3338,7 +3338,7 @@
     <t>magerly.macias.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>uI&amp;YIGJ/</t>
+    <t>CZR?Vads</t>
   </si>
   <si>
     <t>MARTINEZ SABANDO MARCELO EFRAIN</t>
@@ -3347,7 +3347,7 @@
     <t>marcelo.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>PMPcbKlI</t>
+    <t>RjrOcdAE</t>
   </si>
   <si>
     <t>MEDRANDA CEDEÑO IVAN ARTURO</t>
@@ -3356,7 +3356,7 @@
     <t>ivan.medranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>vxtKsI6F</t>
+    <t>xuuymAjU</t>
   </si>
   <si>
     <t>MENDOZA INTRIAGO KEYLA YAMIRA</t>
@@ -3365,7 +3365,7 @@
     <t>keyla.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>n62GgFrG</t>
+    <t>nY0UtZ2?</t>
   </si>
   <si>
     <t>MENDOZA LOOR MARIAGRACIA</t>
@@ -3374,7 +3374,7 @@
     <t>mariagracia.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>pHcY4MrG</t>
+    <t>QR!jQjL2</t>
   </si>
   <si>
     <t>MOREIRA VELEZ ANGELICA LISBETH</t>
@@ -3383,7 +3383,7 @@
     <t>angelica.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>zJTE4SmE</t>
+    <t>bUczB?dP</t>
   </si>
   <si>
     <t>PATA HERRERA ESTRELLA TATIANA</t>
@@ -3392,7 +3392,7 @@
     <t>estrella.pata.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>wn4g6ngH</t>
+    <t>zZkJ&amp;eN8</t>
   </si>
   <si>
     <t>PONCE MIRANDA YOEL ISAIAS</t>
@@ -3401,7 +3401,7 @@
     <t>yoel.ponce@espam.edu.ec</t>
   </si>
   <si>
-    <t>4XakscD8</t>
+    <t>CH5OvZtN</t>
   </si>
   <si>
     <t>RIVAS ALARCON ALISSON MAYERLI</t>
@@ -3413,7 +3413,7 @@
     <t>alisson.rivas@espam.edu.ec</t>
   </si>
   <si>
-    <t>lmUMrNqe</t>
+    <t>gXHMSBpt</t>
   </si>
   <si>
     <t>SABANDO VERA EMELY NOEMI</t>
@@ -3425,7 +3425,7 @@
     <t>emely.sabando.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>PpXpIeO!</t>
+    <t>qVLTzCdR</t>
   </si>
   <si>
     <t>VELASQUEZ ZAMBRANO JUAN DIEGO</t>
@@ -3434,7 +3434,7 @@
     <t>juan.velasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>eK?Qn93i</t>
+    <t>BXKinuZY</t>
   </si>
   <si>
     <t>ZAMBRANO MENDOZA JOSE LUIS</t>
@@ -3443,7 +3443,7 @@
     <t>jose.zambrano.41@espam.edu.ec</t>
   </si>
   <si>
-    <t>jGgnkgF!</t>
+    <t>9nywh/S/</t>
   </si>
   <si>
     <t>ZAMBRANO PEREZ CARLOS JULIO</t>
@@ -3452,7 +3452,7 @@
     <t>carlos.zambranop@espam.edu.ec</t>
   </si>
   <si>
-    <t>ll9NambR</t>
+    <t>CEvb02uk</t>
   </si>
   <si>
     <t>ACHIG GUALACATA EVELIN LISETTE</t>
@@ -3461,7 +3461,7 @@
     <t>evelin.achig@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xq#MjXE#</t>
+    <t>Re2lr0DV</t>
   </si>
   <si>
     <t>AGUAS VERA JEICOL MIKE</t>
@@ -3470,7 +3470,7 @@
     <t>jeicol.aguas@espam.edu.ec</t>
   </si>
   <si>
-    <t>XCQEsV4f</t>
+    <t>uOB6YXQ0</t>
   </si>
   <si>
     <t>BRAVO BASURTO JUAN CARLOS</t>
@@ -3479,7 +3479,7 @@
     <t>juan.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>cLFu!BjF</t>
+    <t>bssR&amp;GHU</t>
   </si>
   <si>
     <t>CANTOS ZAMBRANO MARIA FERNANDA</t>
@@ -3488,7 +3488,7 @@
     <t>mariaf.cantos@espam.edu.ec</t>
   </si>
   <si>
-    <t>Xd5FHv&amp;x</t>
+    <t>QXtZ?Gbc</t>
   </si>
   <si>
     <t>CASTILLO DELGADO LERENY JAMILEX</t>
@@ -3497,7 +3497,7 @@
     <t>lereny.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>od/WpG!3</t>
+    <t>KC?LBSNC</t>
   </si>
   <si>
     <t>CASTILLO JACOME JHON JAIRO</t>
@@ -3506,7 +3506,7 @@
     <t>jhon.castillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>7p7MjgMb</t>
+    <t>bUn8FpVk</t>
   </si>
   <si>
     <t>CELORIO MENDOZA MIRIAN ALEJANDRA</t>
@@ -3515,7 +3515,7 @@
     <t>mirian.celorio@espam.edu.ec</t>
   </si>
   <si>
-    <t>fR&amp;#cJ8Z</t>
+    <t>I7agouN6</t>
   </si>
   <si>
     <t>CHUMO CHAVEZ JANINA BELEN</t>
@@ -3524,7 +3524,7 @@
     <t>janina.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Oee13l?p</t>
+    <t>QbXkcb#8</t>
   </si>
   <si>
     <t>DELGADO LOPEZ MERCEDES ELIZABETH</t>
@@ -3533,7 +3533,7 @@
     <t>mercedes.delgado@espam.edu.ec</t>
   </si>
   <si>
-    <t>fW41ng6V</t>
+    <t>RVQagvaQ</t>
   </si>
   <si>
     <t>ESTEVES OLVERA DIANA MILENA</t>
@@ -3542,7 +3542,7 @@
     <t>diana.esteves@espam.edu.ec</t>
   </si>
   <si>
-    <t>EptqV7yZ</t>
+    <t>zXDU&amp;pPu</t>
   </si>
   <si>
     <t>FALLAIN ZAMBRANO MARIA ANGELICA</t>
@@ -3551,7 +3551,7 @@
     <t>maria.fallain@espam.edu.ec</t>
   </si>
   <si>
-    <t>/7Gz2jKC</t>
+    <t>b2h1KiTo</t>
   </si>
   <si>
     <t>FERNANDEZ CEVALLOS FRANCISCO ESTUARDO</t>
@@ -3560,7 +3560,7 @@
     <t>francisco.fernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>u?0NQfgO</t>
+    <t>DWp7yYw?</t>
   </si>
   <si>
     <t>HERNANDEZ HERNANDEZ MARIA ZULEMA</t>
@@ -3572,7 +3572,7 @@
     <t>maria.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>REG1k0!s</t>
+    <t>u44WngAR</t>
   </si>
   <si>
     <t>INTRIAGO SOLORZANO LEYDI GABRIELA</t>
@@ -3581,7 +3581,7 @@
     <t>leydi.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>Nl2Jv4oY</t>
+    <t>gtGwwQ4T</t>
   </si>
   <si>
     <t>MACIAS LOOR ELIAN RENE</t>
@@ -3590,7 +3590,7 @@
     <t>elian.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>Uh!wgope</t>
+    <t>8ugwD&amp;?&amp;</t>
   </si>
   <si>
     <t>MACIAS PISCO NACHY MONSERRAT</t>
@@ -3599,7 +3599,7 @@
     <t>nachy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>ZI!tat&amp;J</t>
+    <t>OyXZkANg</t>
   </si>
   <si>
     <t>MERA LOOR JONAYKER REYNALDO</t>
@@ -3608,7 +3608,7 @@
     <t>jonayker.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>RrRJ!ppo</t>
+    <t>JCV/lamB</t>
   </si>
   <si>
     <t>MOREIRA BASURTO YORDY JOEL</t>
@@ -3617,7 +3617,7 @@
     <t>yordy.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>MvUtxP&amp;V</t>
+    <t>0bdoX?nS</t>
   </si>
   <si>
     <t>MOREIRA MENDOZA MAGDALENA JAMILETH</t>
@@ -3626,7 +3626,7 @@
     <t>magdalena.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>?0N5WeQ3</t>
+    <t>3MG/Mu&amp;8</t>
   </si>
   <si>
     <t>PANTUSIN MUGUERZA ANDREA LISSETH</t>
@@ -3635,7 +3635,7 @@
     <t>andrea.pantusin@espam.edu.ec</t>
   </si>
   <si>
-    <t>01HX3ROV</t>
+    <t>JmJkSOFa</t>
   </si>
   <si>
     <t>PATIÑO MEJIA MILENA ANAHI</t>
@@ -3644,7 +3644,7 @@
     <t>milena.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>tNSLl9Z&amp;</t>
+    <t>3OZXtNHQ</t>
   </si>
   <si>
     <t>PICO GARCIA ALLISON JANELY</t>
@@ -3653,7 +3653,7 @@
     <t>allison.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>S&amp;!n6I8n</t>
+    <t>?w7ePOOZ</t>
   </si>
   <si>
     <t>POVEDA SANTANA ENZO JAVIER</t>
@@ -3665,7 +3665,7 @@
     <t>enzo.poveda@espam.edu.ec</t>
   </si>
   <si>
-    <t>/6?UdC3o</t>
+    <t>HHMn5nx0</t>
   </si>
   <si>
     <t>QUIJIJE CEDEÑO NATALY SILVANA</t>
@@ -3674,7 +3674,7 @@
     <t>nataly.quijije@espam.edu.ec</t>
   </si>
   <si>
-    <t>K4ybcAq/</t>
+    <t>o3pWcUHh</t>
   </si>
   <si>
     <t>ROBALINO DELGADO JORGE DAVID</t>
@@ -3683,7 +3683,7 @@
     <t>jorge.robalino@espam.edu.ec</t>
   </si>
   <si>
-    <t>ndiGVf5M</t>
+    <t>vjHskawC</t>
   </si>
   <si>
     <t>SANCHEZ CASTILLO ADRIANA MICAELA</t>
@@ -3692,7 +3692,7 @@
     <t>adriana.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>S8UxZ2yB</t>
+    <t>NxVKHLy8</t>
   </si>
   <si>
     <t>SOLORZANO ALAVA TAIRUN FRANCISCO</t>
@@ -3701,7 +3701,7 @@
     <t>tairun.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>ohAC3yl6</t>
+    <t>stiIesy4</t>
   </si>
   <si>
     <t>SOLORZANO BAILON MARIA GABRIELA</t>
@@ -3710,7 +3710,7 @@
     <t>mariaga.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>njGtOtSL</t>
+    <t>jo01PRAF</t>
   </si>
   <si>
     <t>TRUJILLO AGUAS MAYERLI DAYANA</t>
@@ -3719,7 +3719,7 @@
     <t>mayerli.trujillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>W3VZ?m6y</t>
+    <t>!oV7uuAe</t>
   </si>
   <si>
     <t>VERA VERA CINTHIA MARIA</t>
@@ -3728,7 +3728,7 @@
     <t>cinthia.verav@espam.edu.ec</t>
   </si>
   <si>
-    <t>MOUo1CCz</t>
+    <t>Ui0iZxxb</t>
   </si>
   <si>
     <t>VIDAL INTRIAGO ANDY YOEL</t>
@@ -3737,7 +3737,7 @@
     <t>andy.vidal@espam.edu.ec</t>
   </si>
   <si>
-    <t>OK&amp;z!s!J</t>
+    <t>DLI03t&amp;Z</t>
   </si>
   <si>
     <t>VINTIMILLA PROAÑO MARIA DE LOURDES</t>
@@ -3746,7 +3746,7 @@
     <t>maria.vintimilla@espam.edu.ec</t>
   </si>
   <si>
-    <t>0L/xHN&amp;f</t>
+    <t>3xHSB/uJ</t>
   </si>
   <si>
     <t>VITERI SANTOS VINICIO ORLEY</t>
@@ -3755,7 +3755,7 @@
     <t>vinicio.viteri@espam.edu.ec</t>
   </si>
   <si>
-    <t>iDjVugBd</t>
+    <t>GJ#LPzz5</t>
   </si>
   <si>
     <t>ZAMBRANO CANO FRANCISCO JAVIER</t>
@@ -3764,7 +3764,7 @@
     <t>francisco.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>hp7mXu#j</t>
+    <t>UVvf11jP</t>
   </si>
   <si>
     <t>ZAMBRANO NAVARRETE ELBA MARIA</t>
@@ -3773,7 +3773,7 @@
     <t>elba.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>rIDRE7x5</t>
+    <t>TXh!#!6u</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO WENDY GISSELLA</t>
@@ -3782,7 +3782,7 @@
     <t>wendy.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>EayGfYRP</t>
+    <t>cjKWXMO1</t>
   </si>
   <si>
     <t>ARANA RUEDA ANGY LISSETH</t>
@@ -3794,7 +3794,7 @@
     <t>angy.arana@espam.edu.ec</t>
   </si>
   <si>
-    <t>fW290ZjH</t>
+    <t>tvpKJI70</t>
   </si>
   <si>
     <t>ARTEAGA VARGAS ANDREA VALERIA</t>
@@ -3803,7 +3803,7 @@
     <t>andrea.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>mR0cWZTO</t>
+    <t>W9MOWiv3</t>
   </si>
   <si>
     <t>BARBERAN SANCHEZ KARLA MICHELLE</t>
@@ -3812,7 +3812,7 @@
     <t>karla.barberan@espam.edu.ec</t>
   </si>
   <si>
-    <t>u5YyNSVS</t>
+    <t>K/sq0xDQ</t>
   </si>
   <si>
     <t>BAZURTO MANZABA SORAYA STEFANIA</t>
@@ -3821,7 +3821,7 @@
     <t>soraya.bazurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>E1X7ZB1J</t>
+    <t>bdU4TPJP</t>
   </si>
   <si>
     <t>CAGUA GARCIA ANDRES VIRGILIO</t>
@@ -3830,7 +3830,7 @@
     <t>andres.cagua@espam.edu.ec</t>
   </si>
   <si>
-    <t>Fsv?PCmB</t>
+    <t>BDbYzIbN</t>
   </si>
   <si>
     <t>DOMINGUEZ CALDERON JEAN PIERRE</t>
@@ -3839,7 +3839,7 @@
     <t>jean.dominguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>7Njj2pHt</t>
+    <t>mztclwES</t>
   </si>
   <si>
     <t>ESPINOZA ALCIVAR EVELYN ALEXANDRA</t>
@@ -3848,7 +3848,7 @@
     <t>evelyn.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>0T9sJ9S9</t>
+    <t>Gx2oK&amp;!w</t>
   </si>
   <si>
     <t>LOOR MORENO DANIEL AGUSTIN</t>
@@ -3857,7 +3857,7 @@
     <t>daniel.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>XHA3&amp;DTh</t>
+    <t>h5VU35Z7</t>
   </si>
   <si>
     <t>MACIAS PARRALES MEREDITH MARIBEL</t>
@@ -3866,7 +3866,7 @@
     <t>meredith.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>bCz2yts!</t>
+    <t>!59FqV0X</t>
   </si>
   <si>
     <t>MENDOZA CANCHINGRE BRIGITH MIKAELA</t>
@@ -3875,7 +3875,7 @@
     <t>brigith.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>DRCrnlCU</t>
+    <t>brpx82Ya</t>
   </si>
   <si>
     <t>MENDOZA VELEZ JOSE MIGUEL</t>
@@ -3884,7 +3884,7 @@
     <t>josemi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>s/X?z2&amp;#</t>
+    <t>04/nxF&amp;J</t>
   </si>
   <si>
     <t>MEZA BRIONES ANTHONY NARCILO</t>
@@ -3893,7 +3893,7 @@
     <t>anthony.meza@espam.edu.ec</t>
   </si>
   <si>
-    <t>8q0PB5BZ</t>
+    <t>xI5O#nbF</t>
   </si>
   <si>
     <t>MORA ZAMBRANO MARIA LAURA</t>
@@ -3902,7 +3902,7 @@
     <t>maria.mora@espam.edu.ec</t>
   </si>
   <si>
-    <t>LhcoJNE8</t>
+    <t>pEMpkY3f</t>
   </si>
   <si>
     <t>NAVARRETE ZAMBRANO ROBIN LUGERIO</t>
@@ -3911,7 +3911,7 @@
     <t>robin.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>yIdX2&amp;0J</t>
+    <t>ujCr!9!/</t>
   </si>
   <si>
     <t>OSTAIZA LOPEZ JOSEPH MANUEL</t>
@@ -3920,7 +3920,7 @@
     <t>josepth.ostaiza@espam.edu.ec</t>
   </si>
   <si>
-    <t>?1z3e8h2</t>
+    <t>IqMdxJTO</t>
   </si>
   <si>
     <t>PARRAGA PARRAGA CARLA ESTEFANIA</t>
@@ -3929,7 +3929,7 @@
     <t>carla.parraga@espam.edu.ec</t>
   </si>
   <si>
-    <t>QfUoOhOF</t>
+    <t>fXWTALVr</t>
   </si>
   <si>
     <t>PLAZA CABRERA MAYERLY MARIA</t>
@@ -3941,7 +3941,7 @@
     <t>mayerly.plaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>oTLUQWUh</t>
+    <t>K#9BAoR9</t>
   </si>
   <si>
     <t>RODRIGUEZ VELIZ LEANDRO MOISES</t>
@@ -3950,7 +3950,7 @@
     <t>leandro.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>2H!5gF58</t>
+    <t>qYk#SDtW</t>
   </si>
   <si>
     <t>SANTANA GUERRERO MARIA RAQUEL</t>
@@ -3959,7 +3959,7 @@
     <t>mariar.santanag@espam.edu.ec</t>
   </si>
   <si>
-    <t>3MdMbcEM</t>
+    <t>ioRhb5Rh</t>
   </si>
   <si>
     <t>SANTOS SALAZAR JANDRY DAVID</t>
@@ -3968,7 +3968,7 @@
     <t>jandry.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>uB2!8f9f</t>
+    <t>sULlIz67</t>
   </si>
   <si>
     <t>SOLORZANO LOOR KEYLA GEOVANNA</t>
@@ -3977,7 +3977,7 @@
     <t>keyla.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>r&amp;qg5eS6</t>
+    <t>PqAWhC3&amp;</t>
   </si>
   <si>
     <t>VALENCIA ZAMBRANO VALERIA MERCEDES</t>
@@ -3986,7 +3986,7 @@
     <t>valeria.valencia@espam.edu.ec</t>
   </si>
   <si>
-    <t>yQCbg7GO</t>
+    <t>gjsOzCuU</t>
   </si>
   <si>
     <t>VARGAS CHOEZ ALEXIS ELIAN</t>
@@ -3995,7 +3995,7 @@
     <t>alexis.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>I?HtXZyv</t>
+    <t>0z2ojs/a</t>
   </si>
   <si>
     <t>VELEZ ALMEIDA CARMEN REBECA</t>
@@ -4004,7 +4004,7 @@
     <t>carmen.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>DS4Nnhzd</t>
+    <t>c1M2BKgp</t>
   </si>
   <si>
     <t>VELEZ LEGTON GENESIS YAMILET</t>
@@ -4013,7 +4013,7 @@
     <t>genesisya.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>?hNvW7K#</t>
+    <t>vXOAskcL</t>
   </si>
   <si>
     <t>VERA BALAREZO MARYAM JANELLA</t>
@@ -4022,7 +4022,7 @@
     <t>maryam.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>RyFWTsE6</t>
+    <t>kUb79Hfi</t>
   </si>
   <si>
     <t>VERA SERRANO CARLOS STEFANO</t>
@@ -4031,7 +4031,7 @@
     <t>carlos.verase@espam.edu.ec</t>
   </si>
   <si>
-    <t>DDZ3Haxq</t>
+    <t>?KxtAwQ9</t>
   </si>
   <si>
     <t>VIERA BAZURTO JOSE ALEXANDER</t>
@@ -4040,7 +4040,7 @@
     <t>jose.viera@espam.edu.ec</t>
   </si>
   <si>
-    <t>BZmD3Zn/</t>
+    <t>qoC2DPrU</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR DIEGO JAHIR</t>
@@ -4049,7 +4049,7 @@
     <t>diego.zambranoa@espam.edu.ec</t>
   </si>
   <si>
-    <t>2ysLuDX1</t>
+    <t>KrCkaSk/</t>
   </si>
   <si>
     <t>ZAMBRANO MANZABA MARIA FERNANDA</t>
@@ -4058,7 +4058,7 @@
     <t>mariafer.zambranom@espam.edu.ec</t>
   </si>
   <si>
-    <t>R8Mn/9l1</t>
+    <t>RqSNa2kL</t>
   </si>
   <si>
     <t>ALCIVAR GILER MELANY JULISA</t>
@@ -4067,7 +4067,7 @@
     <t>melany.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>Il?MgiR2</t>
+    <t>WBY4lHZC</t>
   </si>
   <si>
     <t>ANDRADE ZAMBRANO NATHALY NICOLLE</t>
@@ -4076,7 +4076,7 @@
     <t>nathaly.andrade@espam.edu.ec</t>
   </si>
   <si>
-    <t>FfmsF5N4</t>
+    <t>l4hKqr&amp;v</t>
   </si>
   <si>
     <t>BASURTO MORAN LUIS ALEXANDER</t>
@@ -4085,7 +4085,7 @@
     <t>luis.basurtom@espam.edu.ec</t>
   </si>
   <si>
-    <t>u8U0RPYQ</t>
+    <t>!ZOd9XmG</t>
   </si>
   <si>
     <t>BERMELLO VELEZ ANGELA DANIELA</t>
@@ -4094,7 +4094,7 @@
     <t>angela.bermello@espam.edu.ec</t>
   </si>
   <si>
-    <t>XygPNL?n</t>
+    <t>/gwY7hd2</t>
   </si>
   <si>
     <t>BRAVO VERA GEMA VIVIANA</t>
@@ -4103,7 +4103,7 @@
     <t>gema.bravov@espam.edu.ec</t>
   </si>
   <si>
-    <t>/5fmnXo4</t>
+    <t>vTWE5r9#</t>
   </si>
   <si>
     <t>BRIONES INTRIAGO LORENA LUCIA</t>
@@ -4112,7 +4112,7 @@
     <t>lorena.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>zI7I5WTw</t>
+    <t>&amp;kF7VuV2</t>
   </si>
   <si>
     <t>BURGOS BRAVO KATHERIN DANIELA</t>
@@ -4121,7 +4121,7 @@
     <t>katherin.burgos@espam.edu.ec</t>
   </si>
   <si>
-    <t>yySEqM#P</t>
+    <t>0!xXJ&amp;/N</t>
   </si>
   <si>
     <t>LOOR PARRAGA ROY RUBEN</t>
@@ -4130,7 +4130,7 @@
     <t>roy.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>NQ16O1/o</t>
+    <t>FH&amp;UoJWn</t>
   </si>
   <si>
     <t>LOPEZ GANCHOZO LEANDRO ANTONIO</t>
@@ -4139,7 +4139,7 @@
     <t>leandro.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>NVPpQqWx</t>
+    <t>wE8m!oNj</t>
   </si>
   <si>
     <t>MACIAS MACIAS JOY ROBERTO</t>
@@ -4148,7 +4148,7 @@
     <t>joy.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>f0EczYzu</t>
+    <t>FoCJsnKB</t>
   </si>
   <si>
     <t>MACIAS SILVA CINTHYA MARIANA</t>
@@ -4157,7 +4157,7 @@
     <t>cinthya.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>nIS4j3fD</t>
+    <t>wNR4J5KW</t>
   </si>
   <si>
     <t>MENDOZA PONCE MARIA ANGELICA</t>
@@ -4166,7 +4166,7 @@
     <t>maria.mendozap@espam.edu.ec</t>
   </si>
   <si>
-    <t>xSKZzcWz</t>
+    <t>NYXfl8xO</t>
   </si>
   <si>
     <t>MONCAYO LAINEZ KERLY ARIANNA</t>
@@ -4175,7 +4175,7 @@
     <t>kerly.moncayo@espam.edu.ec</t>
   </si>
   <si>
-    <t>4p1dkJD4</t>
+    <t>z&amp;2kVeeD</t>
   </si>
   <si>
     <t>MONTES POZO JEAN POLL</t>
@@ -4184,7 +4184,7 @@
     <t>jean.montes@espam.edu.ec</t>
   </si>
   <si>
-    <t>6XSYS3lU</t>
+    <t>a7tEnL1j</t>
   </si>
   <si>
     <t>MORENO OBANDO ANA BELLA</t>
@@ -4193,7 +4193,7 @@
     <t>ana.moreno@espam.edu.ec</t>
   </si>
   <si>
-    <t>RL&amp;Wotg4</t>
+    <t>szOJkLwe</t>
   </si>
   <si>
     <t>NAVARRETE PARODI ERIKA KARINA</t>
@@ -4202,7 +4202,7 @@
     <t>erika.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>K4LRsuei</t>
+    <t>yN/Cr7hu</t>
   </si>
   <si>
     <t>ORMAZA ESPINOZA JESUS EMILIO</t>
@@ -4211,7 +4211,7 @@
     <t>jesus.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>hqBlU10r</t>
+    <t>dyXrJZWa</t>
   </si>
   <si>
     <t>ORMAZA FALCONES MARIA ALEJANDRA</t>
@@ -4220,7 +4220,7 @@
     <t>maria.ormaza@espam.edu.ec</t>
   </si>
   <si>
-    <t>pVPncUP?</t>
+    <t>TNlQ78IX</t>
   </si>
   <si>
     <t>PARRAGA QUIJIJE GEMA KAROLINA</t>
@@ -4229,7 +4229,7 @@
     <t>gemak.parragaq@espam.edu.ec</t>
   </si>
   <si>
-    <t>mNK1kHFh</t>
+    <t>hHLyTaxF</t>
   </si>
   <si>
     <t>PICO TOLA MARCO ANDRES</t>
@@ -4238,7 +4238,7 @@
     <t>marco.pico@espam.edu.ec</t>
   </si>
   <si>
-    <t>WjdR!Tcr</t>
+    <t>?GHGr#gU</t>
   </si>
   <si>
     <t>PIN NAPA IVANA MAYERLI</t>
@@ -4247,7 +4247,7 @@
     <t>ivana.pin@espam.edu.ec</t>
   </si>
   <si>
-    <t>iW842XzN</t>
+    <t>kUSZOiwv</t>
   </si>
   <si>
     <t>ROMERO BRAVO JOSE AGUSTIN</t>
@@ -4256,7 +4256,7 @@
     <t>jose.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>0k/vEgeM</t>
+    <t>1PYnOWEl</t>
   </si>
   <si>
     <t>SALTOS INTRIAGO NATHALIA MELISSA</t>
@@ -4265,7 +4265,7 @@
     <t>nathalia.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>Ajs/KoAX</t>
+    <t>hxH7riRR</t>
   </si>
   <si>
     <t>SALTOS SALTOS MADELYNE PIERINA</t>
@@ -4274,7 +4274,7 @@
     <t>madelyne.saltos@espam.edu.ec</t>
   </si>
   <si>
-    <t>6ocaj7tG</t>
+    <t>xTo#Cnm2</t>
   </si>
   <si>
     <t>SOLIS ORTIZ SANTIAGO</t>
@@ -4283,7 +4283,7 @@
     <t>santiago.solis@espam.edu.ec</t>
   </si>
   <si>
-    <t>ikmyS7JV</t>
+    <t>erM2ok5n</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO GEMA NARCISA</t>
@@ -4292,7 +4292,7 @@
     <t>gema.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>tIWgbb/Z</t>
+    <t>r0EeNyUi</t>
   </si>
   <si>
     <t>VARGAS SOLORZANO ANDREA DIVINA</t>
@@ -4301,7 +4301,7 @@
     <t>andrea.vargas@espam.edu.ec</t>
   </si>
   <si>
-    <t>XLaL#lYq</t>
+    <t>70az&amp;CVI</t>
   </si>
   <si>
     <t>VELEZ VERA MANUEL ALEXANDER</t>
@@ -4310,7 +4310,7 @@
     <t>manuel.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Td8XPjsa</t>
+    <t>/YB1A4zw</t>
   </si>
   <si>
     <t>VELEZ ZAMBRANO ADRIAN DAVID</t>
@@ -4319,7 +4319,7 @@
     <t>adrian.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>d4WCZA6R</t>
+    <t>Tua/au9I</t>
   </si>
   <si>
     <t>YLLESCA CEDEÑO JESUS JONATHAN</t>
@@ -4328,7 +4328,7 @@
     <t>jesus.yllesca@espam.edu.ec</t>
   </si>
   <si>
-    <t>98kSR27p</t>
+    <t>NJ9VW5/P</t>
   </si>
   <si>
     <t>ZAMBRANO CATOTA DERLYN MILENA</t>
@@ -4337,7 +4337,7 @@
     <t>derlyn.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>q!lsD/0#</t>
+    <t>7Xgf1Wx1</t>
   </si>
   <si>
     <t>ZAMBRANO CEDEÑO CHRISTIAN EDUARDO</t>
@@ -4346,7 +4346,7 @@
     <t>christian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>CNkcyuPZ</t>
+    <t>7lPte2Kc</t>
   </si>
   <si>
     <t>ZAMBRANO ROBLES GLENDY MERCEDES</t>
@@ -4355,7 +4355,7 @@
     <t>glendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>xm9KV!JO</t>
+    <t>G7hBqS&amp;E</t>
   </si>
   <si>
     <t>ZAMBRANO ROSADO JORGE ALESSANDRO</t>
@@ -4364,7 +4364,7 @@
     <t>jorge.zambranor@espam.edu.ec</t>
   </si>
   <si>
-    <t>lfbJ1VjL</t>
+    <t>!5Ok7KPF</t>
   </si>
   <si>
     <t>ZAMBRANO VERA WENDY ANAHI</t>
@@ -4373,7 +4373,7 @@
     <t>wendy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>I9f!4Y!I</t>
+    <t>LKzcCSdn</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO JONATHAN JAVIER</t>
@@ -4382,7 +4382,7 @@
     <t>jonathan.zambranoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>#jVxLWUd</t>
+    <t>jw7Sn&amp;jN</t>
   </si>
   <si>
     <t>ZAMORA SOLORZANO MAGALY DOLORES</t>
@@ -4391,7 +4391,7 @@
     <t>magaly.zamora@espam.edu.ec</t>
   </si>
   <si>
-    <t>prrSKEAf</t>
+    <t>5lmvnOWp</t>
   </si>
   <si>
     <t>BRAVO ZAMBRANO MARIA EMILIA</t>
@@ -4400,7 +4400,7 @@
     <t>maria.bravoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>MxKNXYDK</t>
+    <t>LK7Yxamv</t>
   </si>
   <si>
     <t>CEVALLOS ALVAREZ ARMANDO ENRIQUE</t>
@@ -4409,7 +4409,7 @@
     <t>armando.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>TWieg9IQ</t>
+    <t>VZvCbUdB</t>
   </si>
   <si>
     <t>CEVALLOS VERA ARELIS STEFANIA</t>
@@ -4418,7 +4418,7 @@
     <t>arelis.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>r5&amp;1?pa?</t>
+    <t>PHzy2Xei</t>
   </si>
   <si>
     <t>COOL MERO PATRICIO JAVIER</t>
@@ -4427,7 +4427,7 @@
     <t>patricio.cool@espam.edu.ec</t>
   </si>
   <si>
-    <t>B0FBpUCP</t>
+    <t>/uaEvOm!</t>
   </si>
   <si>
     <t>FRANCO ORELLANA GUADALUPE MONSERRATE</t>
@@ -4436,7 +4436,7 @@
     <t>guadalupe.franco@espam.edu.ec</t>
   </si>
   <si>
-    <t>Zj?aqNCl</t>
+    <t>4jGdMkVP</t>
   </si>
   <si>
     <t>HUERTA BALDIVIEZO JEAN CRISTHIAN</t>
@@ -4445,7 +4445,7 @@
     <t>jean.huerta@espam.edu.ec</t>
   </si>
   <si>
-    <t>g1&amp;ZNJY&amp;</t>
+    <t>eOMFaxZ?</t>
   </si>
   <si>
     <t>INTRIAGO CANTOS MARIA JOSE</t>
@@ -4454,7 +4454,7 @@
     <t>maria.intriagoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>mCF!jTv4</t>
+    <t>/!jC3C?E</t>
   </si>
   <si>
     <t>LOOR CANTOS DIANA ISABEL</t>
@@ -4463,7 +4463,7 @@
     <t>diana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>jEn0YdIR</t>
+    <t>vnOQSmmv</t>
   </si>
   <si>
     <t>LOOR SEGOVIA EVELYN ADRIANA</t>
@@ -4472,7 +4472,7 @@
     <t>evelyn.loors@espam.edu.ec</t>
   </si>
   <si>
-    <t>B!LwMKAG</t>
+    <t>HUG0qke9</t>
   </si>
   <si>
     <t>MEDINA CEDEÑO JULIO CESAR</t>
@@ -4481,7 +4481,7 @@
     <t>julio.medina@espam.edu.ec</t>
   </si>
   <si>
-    <t>Y#Hd9xDj</t>
+    <t>6wAkNrjG</t>
   </si>
   <si>
     <t>MERA VELEZ ALONDRA GARDENIA</t>
@@ -4490,7 +4490,7 @@
     <t>alondra.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Np#YieK</t>
+    <t>uGZxoiJ0</t>
   </si>
   <si>
     <t>MUÑOZ ZAMBRANO CARLOS JOSUE</t>
@@ -4499,7 +4499,7 @@
     <t>carlos.munozz@espam.edu.ec</t>
   </si>
   <si>
-    <t>ctd7yGPI</t>
+    <t>A3dflqZy</t>
   </si>
   <si>
     <t>NAPA RODRIGUEZ JOSE AGUSTIN</t>
@@ -4508,7 +4508,7 @@
     <t>jose.napa@espam.edu.ec</t>
   </si>
   <si>
-    <t>xQ7xXO!S</t>
+    <t>DHkNI2nx</t>
   </si>
   <si>
     <t>PALMA CEVALLOS MARIA JOSE</t>
@@ -4517,7 +4517,7 @@
     <t>maria.palma@espam.edu.ec</t>
   </si>
   <si>
-    <t>cA7VTt7Z</t>
+    <t>MShX7Muv</t>
   </si>
   <si>
     <t>PATIÑO MESIAS MARIA GABRIELA</t>
@@ -4526,7 +4526,7 @@
     <t>maria.patino@espam.edu.ec</t>
   </si>
   <si>
-    <t>tb8#IAO9</t>
+    <t>DPomdUWW</t>
   </si>
   <si>
     <t>QUINTANA CAGUA YENIFER YULI</t>
@@ -4535,7 +4535,7 @@
     <t>yenifer.quintana@espam.edu.ec</t>
   </si>
   <si>
-    <t>8RNYroM9</t>
+    <t>3U1!JoH!</t>
   </si>
   <si>
     <t>RIVERA CANTOS MARIA DANIELA</t>
@@ -4544,7 +4544,7 @@
     <t>maria.riverac@espam.edu.ec</t>
   </si>
   <si>
-    <t>P3OgaZz#</t>
+    <t>MBDNLL33</t>
   </si>
   <si>
     <t>RODRIGUEZ PINCAY CARLOS BRYAN</t>
@@ -4553,7 +4553,7 @@
     <t>carlos.rodriguezp@espam.edu.ec</t>
   </si>
   <si>
-    <t>taYh!w6S</t>
+    <t>Yzd/xC8o</t>
   </si>
   <si>
     <t>SABANDO VELEZ CRISTHIAN ANTHONY</t>
@@ -4562,7 +4562,7 @@
     <t>cristhian.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>sc/sD/6O</t>
+    <t>bn7ARbAY</t>
   </si>
   <si>
     <t>SANTANA VERA ANTHONY JAHIR</t>
@@ -4571,7 +4571,7 @@
     <t>anthony.santana@espam.edu.ec</t>
   </si>
   <si>
-    <t>wWss1nDx</t>
+    <t>oD2Dtp9M</t>
   </si>
   <si>
     <t>VELEZ ESPINOZA JUNIOR JESUS</t>
@@ -4580,7 +4580,7 @@
     <t>junior.veleze@espam.edu.ec</t>
   </si>
   <si>
-    <t>9dD&amp;L?T8</t>
+    <t>UmE5SGQg</t>
   </si>
   <si>
     <t>VERDUGA ZAMBRANO DIEGO ALEJANDRO</t>
@@ -4589,7 +4589,7 @@
     <t>diego.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>v16?mBoO</t>
+    <t>7zjzDV47</t>
   </si>
   <si>
     <t>ZAMBRANO VELEZ NAYELHY LILIBETH</t>
@@ -4598,7 +4598,7 @@
     <t>nayelhy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>uG6f7fh0</t>
+    <t>lxebIIY0</t>
   </si>
   <si>
     <t>ZAMBRANO WITONG KENIA THAIS</t>
@@ -4607,7 +4607,7 @@
     <t>keniath.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>GjB/S6uR</t>
+    <t>jM2gNd&amp;#</t>
   </si>
   <si>
     <t>ANCHUNDIA ANCHUNDIA GEMA LILIBETH</t>
@@ -4616,7 +4616,7 @@
     <t>gema.anchundia@espam.edu.ec</t>
   </si>
   <si>
-    <t>HUYu0TYT</t>
+    <t>9UuRlPAX</t>
   </si>
   <si>
     <t>ARTEAGA DELGADO JEAN CARLOS</t>
@@ -4625,7 +4625,7 @@
     <t>jean.arteaga@espam.edu.ec</t>
   </si>
   <si>
-    <t>2a3yl#nS</t>
+    <t>66h2&amp;kVW</t>
   </si>
   <si>
     <t>BARREIRO ZAMBRANO JOSE VICENTE</t>
@@ -4634,7 +4634,7 @@
     <t>jose.barreiro@espam.edu.ec</t>
   </si>
   <si>
-    <t>hRGy49fW</t>
+    <t>R?#/uEFC</t>
   </si>
   <si>
     <t>BASURTO ALCIVAR DARWIN JESUS</t>
@@ -4643,7 +4643,7 @@
     <t>darwin.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>2woUPqQQ</t>
+    <t>wbopfLe&amp;</t>
   </si>
   <si>
     <t>BRAVO CEDEÑO JOSE RODOLFO</t>
@@ -4652,7 +4652,7 @@
     <t>jose.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>vrchcDzA</t>
+    <t>8RxSUJrV</t>
   </si>
   <si>
     <t>BRIONES BERMEO ANTONY JAVIER</t>
@@ -4661,7 +4661,7 @@
     <t>antony.briones@espam.edu.ec</t>
   </si>
   <si>
-    <t>yQTVTRvp</t>
+    <t>AfYAPPId</t>
   </si>
   <si>
     <t>CEDEÑO ANCHUNDIA YANDRY ANTONIO</t>
@@ -4673,7 +4673,7 @@
     <t>yandry.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>OEGTGToM</t>
+    <t>6yvZeaTE</t>
   </si>
   <si>
     <t>CEDEÑO PEÑARRIETA DAYANA SOPHIA</t>
@@ -4682,7 +4682,7 @@
     <t>dayanaso.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>ddH4Fnhg</t>
+    <t>&amp;kWnU50/</t>
   </si>
   <si>
     <t>CHAVARRIA PEÑARRIETA MARCOS ALEJANDRO</t>
@@ -4691,7 +4691,7 @@
     <t>marcos.chavarria@espam.edu.ec</t>
   </si>
   <si>
-    <t>F?!dcRlT</t>
+    <t>qHKBU3Y8</t>
   </si>
   <si>
     <t>DEL VALLE BASURTO CARMEN MELINA</t>
@@ -4700,7 +4700,7 @@
     <t>carmen.del@espam.edu.ec</t>
   </si>
   <si>
-    <t>3QW7FaVJ</t>
+    <t>8j!mQP0K</t>
   </si>
   <si>
     <t>GUERRERO BRAVO ANA BELEN</t>
@@ -4709,7 +4709,7 @@
     <t>ana.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>Fwt8W/zf</t>
+    <t>#di79P1e</t>
   </si>
   <si>
     <t>GUERRERO GUERRERO JOSSELYN MELISSA</t>
@@ -4718,7 +4718,7 @@
     <t>josselyn.guerrero@espam.edu.ec</t>
   </si>
   <si>
-    <t>KinG52Qm</t>
+    <t>tERuh?6S</t>
   </si>
   <si>
     <t>INTRIAGO BARBERAN LAURO ANTONIO</t>
@@ -4727,7 +4727,7 @@
     <t>lauro.intriago1@espam.edu.ec</t>
   </si>
   <si>
-    <t>Hz9RQupI</t>
+    <t>uP68AWVU</t>
   </si>
   <si>
     <t>INTRIAGO MORA LENIN ARCENIO</t>
@@ -4736,7 +4736,7 @@
     <t>lenin.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>Tfamsa6Y</t>
+    <t>X?K#KQdq</t>
   </si>
   <si>
     <t>MACIAS CALDERON JOSE ARIEL</t>
@@ -4745,7 +4745,7 @@
     <t>jose.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>ouqmKC1?</t>
+    <t>NbLeEk5D</t>
   </si>
   <si>
     <t>MARCILLO VELEZ ANA PATRICIA</t>
@@ -4754,7 +4754,7 @@
     <t>ana.marcillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>OVB6NKg3</t>
+    <t>w4oz666K</t>
   </si>
   <si>
     <t>MERA FIGUEROA RAYMOND ALEJANDRO</t>
@@ -4763,7 +4763,7 @@
     <t>raymond.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>FDfeZcmz</t>
+    <t>!W2NQWr5</t>
   </si>
   <si>
     <t>MOREIRA ZAMBRANO JOSSENKA MERCEDES</t>
@@ -4772,7 +4772,7 @@
     <t>jossenka.moreira@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;?d3OEXS</t>
+    <t>HnQR/T!O</t>
   </si>
   <si>
     <t>MUÑOZ ALCIVAR CRISTHIAN MARTIN</t>
@@ -4781,7 +4781,7 @@
     <t>cristhian.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>5?A&amp;SgAU</t>
+    <t>cnhna1sR</t>
   </si>
   <si>
     <t>MUÑOZ MACIAS MARIA MAGDALENA</t>
@@ -4790,7 +4790,7 @@
     <t>mariama.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>HLuY2cNw</t>
+    <t>E#L23PK?</t>
   </si>
   <si>
     <t>POLO GANCHOZO ARON ESNEYDER</t>
@@ -4799,7 +4799,7 @@
     <t>aron.polo@espam.edu.ec</t>
   </si>
   <si>
-    <t>/BaK?G2v</t>
+    <t>TX/0pJ3T</t>
   </si>
   <si>
     <t>RIOS BERMELLO JENIFFER LIZETH</t>
@@ -4808,7 +4808,7 @@
     <t>jeniffer.rios@espam.edu.ec</t>
   </si>
   <si>
-    <t>TVD#fwIM</t>
+    <t>KlVNLPTz</t>
   </si>
   <si>
     <t>SALVATIERRA VALDEZ VICKY NICOLLE</t>
@@ -4817,7 +4817,7 @@
     <t>vicky.salvatierra@espam.edu.ec</t>
   </si>
   <si>
-    <t>4cAKpCR6</t>
+    <t>BGZlDZGh</t>
   </si>
   <si>
     <t>SANTOS VELEZ MONICA GERMANIA</t>
@@ -4826,7 +4826,7 @@
     <t>monica.santos@espam.edu.ec</t>
   </si>
   <si>
-    <t>WC&amp;ToQm/</t>
+    <t>c?3mVzC0</t>
   </si>
   <si>
     <t>SOLORZANO ZAMBRANO MILENA DENISSE</t>
@@ -4835,7 +4835,7 @@
     <t>milena.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>NgVJ!P9H</t>
+    <t>Cf1qVgwL</t>
   </si>
   <si>
     <t>TUQUERES TACURI JESSICA MARIBELL</t>
@@ -4844,7 +4844,7 @@
     <t>jessica.tuqueres@espam.edu.ec</t>
   </si>
   <si>
-    <t>Q#O2Trgv</t>
+    <t>SPYeLZ9S</t>
   </si>
   <si>
     <t>VERDUGA ERAZO JOSUE SALVADOR</t>
@@ -4853,7 +4853,7 @@
     <t>josue.verduga@espam.edu.ec</t>
   </si>
   <si>
-    <t>41Gr1YZo</t>
+    <t>jME6/ug3</t>
   </si>
   <si>
     <t>YEPEZ VELIZ GENESIS THALIA</t>
@@ -4862,7 +4862,7 @@
     <t>genesis.yepez@espam.edu.ec</t>
   </si>
   <si>
-    <t>5Cg5nH4F</t>
+    <t>/bUXtaJL</t>
   </si>
   <si>
     <t>ZAMBRANO BASURTO ERICK RAFAEL</t>
@@ -4871,7 +4871,7 @@
     <t>erick.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>PCY0!qKk</t>
+    <t>CLpT0Vge</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ JANDRY DEIVY</t>
@@ -4880,7 +4880,7 @@
     <t>jandry.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>?!Xb5zyw</t>
+    <t>QLYDuN3e</t>
   </si>
   <si>
     <t>AYONG VERA JUAN DAVID</t>
@@ -4889,7 +4889,7 @@
     <t>juan.ayong@espam.edu.ec</t>
   </si>
   <si>
-    <t>j4QUz0K!</t>
+    <t>WxVIOYEM</t>
   </si>
   <si>
     <t>BASURTO SALAZAR ANGELA MARGARITA</t>
@@ -4898,7 +4898,7 @@
     <t>angela.basurto@espam.edu.ec</t>
   </si>
   <si>
-    <t>Gs9S3ttd</t>
+    <t>dbcP89lY</t>
   </si>
   <si>
     <t>CASANOVA INTRIAGO ANDREA BELEN</t>
@@ -4910,7 +4910,7 @@
     <t>andrea.casanova@espam.edu.ec</t>
   </si>
   <si>
-    <t>zm9&amp;ngR4</t>
+    <t>JOzvYmX1</t>
   </si>
   <si>
     <t>CHUMO ZAMBRANO ANTONIO BENITO</t>
@@ -4919,7 +4919,7 @@
     <t>antonio.chumo@espam.edu.ec</t>
   </si>
   <si>
-    <t>STaB&amp;0ZD</t>
+    <t>h2qH3K1L</t>
   </si>
   <si>
     <t>GARCIA CORTEZ ERIKA STEFANIA</t>
@@ -4928,7 +4928,7 @@
     <t>erika.garcia@espam.edu.ec</t>
   </si>
   <si>
-    <t>#1&amp;xqF?u</t>
+    <t>z14HqzBw</t>
   </si>
   <si>
     <t>GOMEZ BARRERA JUNIOR LENIN</t>
@@ -4937,7 +4937,7 @@
     <t>junior.gomez@espam.edu.ec</t>
   </si>
   <si>
-    <t>n&amp;KuCuOq</t>
+    <t>J1Ttv!Wf</t>
   </si>
   <si>
     <t>LOOR CEDEÑO RICARDO EMANUEL</t>
@@ -4946,7 +4946,7 @@
     <t>ricardo.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>tDNvWyOW</t>
+    <t>Xn5v5Gr4</t>
   </si>
   <si>
     <t>LOOR LUCAS EVELYN GUADALUPE</t>
@@ -4958,7 +4958,7 @@
     <t>evelyn.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>li!l2uxg</t>
+    <t>cIsW2Rd4</t>
   </si>
   <si>
     <t>LOOR VELASCO FABIANA BELEN</t>
@@ -4970,7 +4970,7 @@
     <t>fabiana.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>ATpTO5RO</t>
+    <t>JX/iLS6Z</t>
   </si>
   <si>
     <t>MARTINEZ CEDEÑO JENIFFER ESTEFANIA</t>
@@ -4979,7 +4979,7 @@
     <t>jeniffer.martinez@espam.edu.ec</t>
   </si>
   <si>
-    <t>8DMW11JB</t>
+    <t>MzM/j8YP</t>
   </si>
   <si>
     <t>MENDOZA BARRE EDDY ENMANUEL</t>
@@ -4988,7 +4988,7 @@
     <t>eddy.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>THnV/Ng2</t>
+    <t>qy3ysV/9</t>
   </si>
   <si>
     <t>MURILLO PALACIOS ULICES JAIR</t>
@@ -4997,7 +4997,7 @@
     <t>ulices.murillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>u07iR/Ns</t>
+    <t>rI9?/oTw</t>
   </si>
   <si>
     <t>QUIJANO ZAMBRANO JONATHAN ERNESTO</t>
@@ -5006,7 +5006,7 @@
     <t>jonathan.quijano@espam.edu.ec</t>
   </si>
   <si>
-    <t>LCdMnfcf</t>
+    <t>gEPkS#xE</t>
   </si>
   <si>
     <t>ROBLES YORI EFRAIN DAVID</t>
@@ -5015,7 +5015,7 @@
     <t>efrain.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>AlhGqEHL</t>
+    <t>#gbhrJaA</t>
   </si>
   <si>
     <t>SABANDO ZAMBRANO FREDDY ANTONIO</t>
@@ -5024,7 +5024,7 @@
     <t>freddy.sabando@espam.edu.ec</t>
   </si>
   <si>
-    <t>6ec06Qnm</t>
+    <t>f/778R75</t>
   </si>
   <si>
     <t>SOLORZANO GUERRERO RONALDO WANDERLEY</t>
@@ -5033,7 +5033,7 @@
     <t>ronaldo.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>y6Wa!74G</t>
+    <t>MXfn3h3Q</t>
   </si>
   <si>
     <t>VELEZ CALDERON GENESIS MARIANA</t>
@@ -5045,7 +5045,7 @@
     <t>genesis.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;U3cI//4</t>
+    <t>aSk9nEgb</t>
   </si>
   <si>
     <t>ZAMBRANO BALDA JOSE RAMIRO</t>
@@ -5054,7 +5054,7 @@
     <t>josera.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>Bc#nMRhA</t>
+    <t>iULcpvCg</t>
   </si>
   <si>
     <t>ZAMBRANO CANTOS YENNY ANNABEL</t>
@@ -5063,7 +5063,7 @@
     <t>yenny.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>BNlP?PfD</t>
+    <t>8t0x7DAf</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR CRISTHIAN LEONARDO</t>
@@ -5072,7 +5072,7 @@
     <t>cristhian.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>yNzXa8!M</t>
+    <t>vznCXKiU</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR DIANA STEFANIA</t>
@@ -5081,7 +5081,7 @@
     <t>dianas.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>M4sxv&amp;EF</t>
+    <t>p3dNi50o</t>
   </si>
   <si>
     <t>ZAMBRANO LOOR MARIA EMILIA</t>
@@ -5090,7 +5090,7 @@
     <t>maria.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>9Kre0Tl#</t>
+    <t>!FQkqxkv</t>
   </si>
   <si>
     <t>ZAMBRANO MOREIRA LEONELA ALEJANDRA</t>
@@ -5099,7 +5099,7 @@
     <t>leonela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>!Xp#D4Y#</t>
+    <t>kIkYu1x6</t>
   </si>
   <si>
     <t>ALAVA ORTIZ EDWIN ALEXANDER</t>
@@ -5108,7 +5108,7 @@
     <t>edwin.alava@espam.edu.ec</t>
   </si>
   <si>
-    <t>!2lQl2NH</t>
+    <t>LVdheptw</t>
   </si>
   <si>
     <t>ALCIVAR LOOR GEMA LISBETH</t>
@@ -5117,7 +5117,7 @@
     <t>gemal.alcivar@espam.edu.ec</t>
   </si>
   <si>
-    <t>!ETVcCEJ</t>
+    <t>6IG&amp;CcZB</t>
   </si>
   <si>
     <t>AVELLAN SANTANA GENESIS NICOLLE</t>
@@ -5126,7 +5126,7 @@
     <t>genesis.avellan@espam.edu.ec</t>
   </si>
   <si>
-    <t>CTv&amp;ENin</t>
+    <t>mmICvKge</t>
   </si>
   <si>
     <t>CALDERON SANCHEZ SANDY KATHERINE</t>
@@ -5138,7 +5138,7 @@
     <t>sandy.calderon@espam.edu.ec</t>
   </si>
   <si>
-    <t>OrOjsoSP</t>
+    <t>fyhTqh&amp;C</t>
   </si>
   <si>
     <t>CARDENAS ASTUDILLO ANGELA JULIANA</t>
@@ -5150,7 +5150,7 @@
     <t>angela.cardenas@espam.edu.ec</t>
   </si>
   <si>
-    <t>UAqNc3f#</t>
+    <t>o/tzfQ1c</t>
   </si>
   <si>
     <t>CARRILLO PACHAY MARCO STEVE</t>
@@ -5159,7 +5159,7 @@
     <t>marco.carrillo@espam.edu.ec</t>
   </si>
   <si>
-    <t>ns9JmbSp</t>
+    <t>oHtlzIyy</t>
   </si>
   <si>
     <t>CEDEÑO ZAMBRANO BRYAN ISIDRO</t>
@@ -5168,7 +5168,7 @@
     <t>bryan.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>dwlXizLb</t>
+    <t>TtSIXRUB</t>
   </si>
   <si>
     <t>CEVALLOS SALTOS ANTHONY FERNANDO</t>
@@ -5177,7 +5177,7 @@
     <t>anthonyf.cevallos@espam.edu.ec</t>
   </si>
   <si>
-    <t>U9kVRxBk</t>
+    <t>Je/4zNHJ</t>
   </si>
   <si>
     <t>CHANG ZAMBRANO MARTHA YAMILETH</t>
@@ -5186,7 +5186,7 @@
     <t>martha.chang@espam.edu.ec</t>
   </si>
   <si>
-    <t>DM0tsC4X</t>
+    <t>5#OFWJoL</t>
   </si>
   <si>
     <t>CHIRIBOGA FARIAS LUIS FERNANDO</t>
@@ -5195,7 +5195,7 @@
     <t>luis.chiriboga@espam.edu.ec</t>
   </si>
   <si>
-    <t>fDoQSj&amp;N</t>
+    <t>Ci6pdkqD</t>
   </si>
   <si>
     <t>ESPINOZA PILAY JERSON JOSE</t>
@@ -5204,7 +5204,7 @@
     <t>jerson.espinoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>xICtvdG0</t>
+    <t>vGn?89xZ</t>
   </si>
   <si>
     <t>FARIAS MERA MAURICIO ANDRES</t>
@@ -5213,7 +5213,7 @@
     <t>mauricio.farias@espam.edu.ec</t>
   </si>
   <si>
-    <t>MQ36XALx</t>
+    <t>wxI#dn8#</t>
   </si>
   <si>
     <t>HERNANDEZ GONZALEZ JAMILEX KAREY</t>
@@ -5225,7 +5225,7 @@
     <t>jamilex.hernandez@espam.edu.ec</t>
   </si>
   <si>
-    <t>TT0ZckSk</t>
+    <t>8aXbpMmN</t>
   </si>
   <si>
     <t>LEONES FALCONES ABAD JHOAN</t>
@@ -5234,7 +5234,7 @@
     <t>abad.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>AEkKgDUX</t>
+    <t>0#qd1CCP</t>
   </si>
   <si>
     <t>LOOR CEVALLOS ANA MARIA</t>
@@ -5243,7 +5243,7 @@
     <t>anama.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>5IpAKqI#</t>
+    <t>!WbWOLAJ</t>
   </si>
   <si>
     <t>LOOR LOOR RONALD POLIVIO</t>
@@ -5252,7 +5252,7 @@
     <t>ronald.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>pBV3TeJh</t>
+    <t>yXqD?JBN</t>
   </si>
   <si>
     <t>LOOR REYES GENESIS JAMILETH</t>
@@ -5261,7 +5261,7 @@
     <t>genesis.loor@espam.edu.ec</t>
   </si>
   <si>
-    <t>Hu!jjMON</t>
+    <t>oFSMJnPi</t>
   </si>
   <si>
     <t>MACIAS BRAVO RICARDO FRANCISCO</t>
@@ -5270,7 +5270,7 @@
     <t>ricardo.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>zltP9YQD</t>
+    <t>0cbyB2rl</t>
   </si>
   <si>
     <t>MACIAS MACIAS LISSETH LILIBETH</t>
@@ -5279,7 +5279,7 @@
     <t>lisseth.macias@espam.edu.ec</t>
   </si>
   <si>
-    <t>0Qkm3BDH</t>
+    <t>wL1YNPSG</t>
   </si>
   <si>
     <t>MANZABA CEDEÑO KEVIN ALBERTO</t>
@@ -5288,7 +5288,7 @@
     <t>kevin.manzaba@espam.edu.ec</t>
   </si>
   <si>
-    <t>vA2lFsm!</t>
+    <t>2bNFqIft</t>
   </si>
   <si>
     <t>MARQUEZ LEMA NAYELI SABRINA</t>
@@ -5297,7 +5297,7 @@
     <t>nayeli.marquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>folAPdA3</t>
+    <t>9rK?Z2eU</t>
   </si>
   <si>
     <t>MENDOZA BRIONES MARIUXI KATHERINE</t>
@@ -5309,7 +5309,7 @@
     <t>mariuxi.mendoza@espam.edu.ec</t>
   </si>
   <si>
-    <t>NzmMGbuj</t>
+    <t>Wo8yNjbZ</t>
   </si>
   <si>
     <t>MOLINA CEDEÑO JUAN DE DIOS</t>
@@ -5318,7 +5318,7 @@
     <t>juan.molina@espam.edu.ec</t>
   </si>
   <si>
-    <t>BR5SsN7E</t>
+    <t>CryRa66N</t>
   </si>
   <si>
     <t>MONTESDEOCA GARCIA YUDID ALEXANDRA</t>
@@ -5327,7 +5327,7 @@
     <t>yudid.montesdeoca@espam.edu.ec</t>
   </si>
   <si>
-    <t>U0GqK5VU</t>
+    <t>7e02/T9?</t>
   </si>
   <si>
     <t>MUÑOZ MERA JUAN PABLO</t>
@@ -5336,7 +5336,7 @@
     <t>juan.munoz@espam.edu.ec</t>
   </si>
   <si>
-    <t>jFIJd9&amp;1</t>
+    <t>cuGQbic#</t>
   </si>
   <si>
     <t>NAVARRETE ORMAZA ERICK ALEXANDER</t>
@@ -5345,7 +5345,7 @@
     <t>erick.navarrete@espam.edu.ec</t>
   </si>
   <si>
-    <t>/vajr!Y7</t>
+    <t>Dsi6rb4P</t>
   </si>
   <si>
     <t>OCAMPO BARRE ANTHONY VICENTE</t>
@@ -5354,7 +5354,7 @@
     <t>anthony.ocampo@espam.edu.ec</t>
   </si>
   <si>
-    <t>TtiOx3GT</t>
+    <t>OvtWD7o6</t>
   </si>
   <si>
     <t>PARRALES FALCONES ANTHONY LEONARDO</t>
@@ -5363,7 +5363,7 @@
     <t>anthony.parrales@espam.edu.ec</t>
   </si>
   <si>
-    <t>p8lscaI7</t>
+    <t>IauvLcb7</t>
   </si>
   <si>
     <t>RAMOS SALTOS NICOLE PAOLA</t>
@@ -5372,7 +5372,7 @@
     <t>nicole.ramos@espam.edu.ec</t>
   </si>
   <si>
-    <t>vxmcHyR4</t>
+    <t>ng8BNWlL</t>
   </si>
   <si>
     <t>ROBLES MOLINA JENIFFER STEFANIA</t>
@@ -5381,7 +5381,7 @@
     <t>jeniffer.robles@espam.edu.ec</t>
   </si>
   <si>
-    <t>yLAUnkbx</t>
+    <t>l#uGaOao</t>
   </si>
   <si>
     <t>RODRIGUEZ CAMPOS JEAN KATHERINE</t>
@@ -5390,7 +5390,7 @@
     <t>jean.rodriguez@espam.edu.ec</t>
   </si>
   <si>
-    <t>/yk7v#wY</t>
+    <t>m70dzD0#</t>
   </si>
   <si>
     <t>SANCHEZ MEDINA GISSEL STEPHANIE</t>
@@ -5399,7 +5399,7 @@
     <t>gissel.sanchez@espam.edu.ec</t>
   </si>
   <si>
-    <t>&amp;y/!n7r8</t>
+    <t>/FnBC1?a</t>
   </si>
   <si>
     <t>VASQUEZ VERA ARGENIS JAVIER</t>
@@ -5408,7 +5408,7 @@
     <t>argenis.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>430GXQac</t>
+    <t>D5TPGjlv</t>
   </si>
   <si>
     <t>VASQUEZ VERA MARIA MERCEDES</t>
@@ -5417,7 +5417,7 @@
     <t>maria.vasquez@espam.edu.ec</t>
   </si>
   <si>
-    <t>j2vLKDkn</t>
+    <t>eDxyCdH0</t>
   </si>
   <si>
     <t>VELEZ MERA JOSSELYN JOSSENKA</t>
@@ -5426,7 +5426,7 @@
     <t>josselynjo.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>Rhejz6l2</t>
+    <t>9myNCfPT</t>
   </si>
   <si>
     <t>VELEZ PALACIOS STEVEN RAMON</t>
@@ -5435,7 +5435,7 @@
     <t>steven.velez@espam.edu.ec</t>
   </si>
   <si>
-    <t>MpR2N1yt</t>
+    <t>FOLT2V72</t>
   </si>
   <si>
     <t>VERA BRAVO MARY LAURA</t>
@@ -5444,7 +5444,7 @@
     <t>mary.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>lkWTh2uB</t>
+    <t>XWJfEi#U</t>
   </si>
   <si>
     <t>VILLAMIL VALENCIA ISABEL ANDREA</t>
@@ -5453,7 +5453,7 @@
     <t>isabel.villamil@espam.edu.ec</t>
   </si>
   <si>
-    <t>/L&amp;44pzq</t>
+    <t>3&amp;#!/tKR</t>
   </si>
   <si>
     <t>ZAMBRANO COBEÑA PABLO ALBERTO</t>
@@ -5462,7 +5462,7 @@
     <t>pablo.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>B&amp;C9p1BH</t>
+    <t>f?YKe5?l</t>
   </si>
   <si>
     <t>ALVAREZ INTRIAGO MAILIN KATHERINE</t>
@@ -5471,7 +5471,7 @@
     <t>mailin.alvarez@espam.edu.ec</t>
   </si>
   <si>
-    <t>V1IPCIRV</t>
+    <t>jXMVv6dN</t>
   </si>
   <si>
     <t>BRAVO ARTEAGA RICARDO JAVIER</t>
@@ -5480,7 +5480,7 @@
     <t>ricardo.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>#TUiR2nL</t>
+    <t>8go5ItK0</t>
   </si>
   <si>
     <t>BRAVO VERGARA GEMA CAROLINA</t>
@@ -5489,7 +5489,7 @@
     <t>gemac.bravo@espam.edu.ec</t>
   </si>
   <si>
-    <t>h#8UK9CJ</t>
+    <t>/fIjbJO/</t>
   </si>
   <si>
     <t>CEDEÑO VELASQUEZ GEMA GUADALUPE</t>
@@ -5498,7 +5498,7 @@
     <t>gemag.cedeno@espam.edu.ec</t>
   </si>
   <si>
-    <t>FqDv8k4l</t>
+    <t>EkpsjEGC</t>
   </si>
   <si>
     <t>CHAVEZ VELIZ DENIS ALEXANDER</t>
@@ -5507,7 +5507,7 @@
     <t>denis.chavez@espam.edu.ec</t>
   </si>
   <si>
-    <t>126GxXPp</t>
+    <t>o1elXCWq</t>
   </si>
   <si>
     <t>DEMERA ZAMBRANO JACKSON ANDRES</t>
@@ -5516,7 +5516,7 @@
     <t>jackson.demera@espam.edu.ec</t>
   </si>
   <si>
-    <t>u2dUndGb</t>
+    <t>VCyZs6ho</t>
   </si>
   <si>
     <t>GANCHOZO LECTONG GRESSILLE GUISSELLA</t>
@@ -5525,7 +5525,7 @@
     <t>gressille.ganchozo@espam.edu.ec</t>
   </si>
   <si>
-    <t>Jf36hrZG</t>
+    <t>#J1&amp;Uo0q</t>
   </si>
   <si>
     <t>INDIO ZAMBRANO ODALIS MICHELLE</t>
@@ -5537,7 +5537,7 @@
     <t>odalis.indio@espam.edu.ec</t>
   </si>
   <si>
-    <t>3cAmcAj1</t>
+    <t>BzMlB1#s</t>
   </si>
   <si>
     <t>INTRIAGO TERAN BRYAN ASDRUBAL</t>
@@ -5546,7 +5546,7 @@
     <t>bryan.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>HZxoEVeT</t>
+    <t>uyZBvYiS</t>
   </si>
   <si>
     <t>INTRIAGO ZAMBRANO GISSELA KAROLINA</t>
@@ -5555,7 +5555,7 @@
     <t>gissela.intriago@espam.edu.ec</t>
   </si>
   <si>
-    <t>fvROtsvm</t>
+    <t>4PblYUgj</t>
   </si>
   <si>
     <t>LEONES SOLORZANO YARITZA DANIELA</t>
@@ -5564,7 +5564,7 @@
     <t>yaritza.leones@espam.edu.ec</t>
   </si>
   <si>
-    <t>g&amp;xyn015</t>
+    <t>t2WCeIh#</t>
   </si>
   <si>
     <t>LOPEZ MORA JOSSELYN AMARILYS</t>
@@ -5573,7 +5573,7 @@
     <t>josselyn.lopez@espam.edu.ec</t>
   </si>
   <si>
-    <t>kQE26lMC</t>
+    <t>eutt1vPo</t>
   </si>
   <si>
     <t>MERA LOOR ANTONY ELIAN</t>
@@ -5582,7 +5582,7 @@
     <t>antony.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>IN!Vmjo6</t>
+    <t>o3CecWBp</t>
   </si>
   <si>
     <t>MERA SABANDO GEMA YAMILETH</t>
@@ -5591,7 +5591,7 @@
     <t>gema.mera@espam.edu.ec</t>
   </si>
   <si>
-    <t>8uaZ23/n</t>
+    <t>mMEI95ti</t>
   </si>
   <si>
     <t>MIRANDA IBARRA ALFONSO SEBASTIAN</t>
@@ -5600,7 +5600,7 @@
     <t>alfonso.miranda@espam.edu.ec</t>
   </si>
   <si>
-    <t>6RnegTio</t>
+    <t>KCOyHpiS</t>
   </si>
   <si>
     <t>MONGE ERAZO JECSY PIERINA</t>
@@ -5609,7 +5609,7 @@
     <t>jecsy.monge@espam.edu.ec</t>
   </si>
   <si>
-    <t>yYOOwmuC</t>
+    <t>LzKP40wu</t>
   </si>
   <si>
     <t>ROMERO ORTEGA ANGEL ANDRES</t>
@@ -5618,7 +5618,7 @@
     <t>angel.romero@espam.edu.ec</t>
   </si>
   <si>
-    <t>2HQTce9K</t>
+    <t>7A1uuPv5</t>
   </si>
   <si>
     <t>SOLORZANO INTRIAGO OSCAR FABIAN</t>
@@ -5630,7 +5630,7 @@
     <t>oscar.solorzano@espam.edu.ec</t>
   </si>
   <si>
-    <t>AfT6Y0Vy</t>
+    <t>3xBpZ57A</t>
   </si>
   <si>
     <t>VALVERDE ZAPATA KATHIUSCA CARLOTA</t>
@@ -5642,7 +5642,7 @@
     <t>kathiusca.valverde@espam.edu.ec</t>
   </si>
   <si>
-    <t>zP/vHA9d</t>
+    <t>ozxB#qGN</t>
   </si>
   <si>
     <t>VERA AYALA GENESIS LISBETH</t>
@@ -5651,7 +5651,7 @@
     <t>genesis.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>7R0gx&amp;Cs</t>
+    <t>uAxXJ9ZK</t>
   </si>
   <si>
     <t>VERA PULIDO MARIA IVANNA</t>
@@ -5660,7 +5660,7 @@
     <t>mariai.verap@espam.edu.ec</t>
   </si>
   <si>
-    <t>5pwUghv0</t>
+    <t>9JFWxJKp</t>
   </si>
   <si>
     <t>VERA ZAMBRANO JAZMIN CAROLINA</t>
@@ -5669,7 +5669,7 @@
     <t>jazmin.vera@espam.edu.ec</t>
   </si>
   <si>
-    <t>k9JLnkaL</t>
+    <t>&amp;KhIfOQX</t>
   </si>
   <si>
     <t>VERGARA ARBOLEDA WENDY DEL ROCIO</t>
@@ -5681,7 +5681,7 @@
     <t>wendy.vergara@espam.edu.ec</t>
   </si>
   <si>
-    <t>1VpPq#fJ</t>
+    <t>GUNMoDQt</t>
   </si>
   <si>
     <t>VILLAMAR GONZALEZ ELENA SAMANTA</t>
@@ -5690,7 +5690,7 @@
     <t>elena.villamar@espam.edu.ec</t>
   </si>
   <si>
-    <t>K/xWc1HP</t>
+    <t>axzsTxkg</t>
   </si>
   <si>
     <t>ZAMBRANO ALCIVAR GENESIS VALENTINA</t>
@@ -5699,7 +5699,7 @@
     <t>genesis.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>0gzPSg&amp;J</t>
+    <t>!HK#TbHM</t>
   </si>
   <si>
     <t>ZAMBRANO CHAVEZ ANDREA MONSERRATE</t>
@@ -5708,7 +5708,7 @@
     <t>andream.zambranoc@espam.edu.ec</t>
   </si>
   <si>
-    <t>emq3&amp;gMJ</t>
+    <t>zoqNt63T</t>
   </si>
   <si>
     <t>ZAMBRANO GRACIA DANIELA ANGELINA</t>
@@ -5717,7 +5717,7 @@
     <t>daniela.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>5&amp;5rHFku</t>
+    <t>MWzvmi3H</t>
   </si>
   <si>
     <t>ZAMBRANO MUÑOZ WILLY JHONAY</t>
@@ -5726,7 +5726,7 @@
     <t>willy.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>mE4ya9Sm</t>
+    <t>kNnEpfnH</t>
   </si>
   <si>
     <t>ZAMBRANO ZAMBRANO TATIANA ELIZABETH</t>
@@ -5735,7 +5735,7 @@
     <t>tatianael.zambrano@espam.edu.ec</t>
   </si>
   <si>
-    <t>HsF4!?LE</t>
+    <t>o/vGSSE1</t>
   </si>
 </sst>
 </file>
